--- a/plan_my_work.xlsx
+++ b/plan_my_work.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="74">
   <si>
     <t>1) У блока "Новости" сделать эффект выделения при наведении курсором на картинку</t>
   </si>
@@ -234,6 +234,9 @@
   </si>
   <si>
     <t>сделать ссылку на all card photo</t>
+  </si>
+  <si>
+    <t>to make the design my button</t>
   </si>
 </sst>
 </file>
@@ -958,10 +961,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1137,7 +1140,7 @@
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" t="s">
+      <c r="A49" s="3" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1151,8 +1154,13 @@
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
         <v>72</v>
       </c>
     </row>

--- a/plan_my_work.xlsx
+++ b/plan_my_work.xlsx
@@ -11,11 +11,12 @@
     <sheet name="plan" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="79">
   <si>
     <t>1) У блока "Новости" сделать эффект выделения при наведении курсором на картинку</t>
   </si>
@@ -237,6 +238,21 @@
   </si>
   <si>
     <t>to make the design my button</t>
+  </si>
+  <si>
+    <t>31 of January</t>
+  </si>
+  <si>
+    <t>попробовать новую заливку сайта: блок белый, блок светло-серый - после того как будет готов вся страница</t>
+  </si>
+  <si>
+    <t>оформить строку с контактами как http://cfochess.ru/</t>
+  </si>
+  <si>
+    <t>убрать из блоков новости ссылку на весь блок, оставить только на фото и link "читать"</t>
+  </si>
+  <si>
+    <t>в блоке новости поменять a design of the data</t>
   </si>
 </sst>
 </file>
@@ -961,10 +977,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1160,8 +1176,33 @@
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" t="s">
+      <c r="A53" s="1" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/plan_my_work.xlsx
+++ b/plan_my_work.xlsx
@@ -11,12 +11,11 @@
     <sheet name="plan" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="82">
   <si>
     <t>1) У блока "Новости" сделать эффект выделения при наведении курсором на картинку</t>
   </si>
@@ -253,6 +252,15 @@
   </si>
   <si>
     <t>в блоке новости поменять a design of the data</t>
+  </si>
+  <si>
+    <t>01 of Febrary</t>
+  </si>
+  <si>
+    <t>to make the modal window - registration</t>
+  </si>
+  <si>
+    <t>to make the memu what a burger</t>
   </si>
 </sst>
 </file>
@@ -977,10 +985,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1161,7 +1169,7 @@
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" t="s">
+      <c r="A50" s="1" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1203,6 +1211,21 @@
     <row r="59" spans="1:1">
       <c r="A59" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/plan_my_work.xlsx
+++ b/plan_my_work.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3699" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3701" uniqueCount="629">
   <si>
     <t>1) У блока "Новости" сделать эффект выделения при наведении курсором на картинку</t>
   </si>
@@ -1999,6 +1999,12 @@
   </si>
   <si>
     <t>дети 2013 года и младше</t>
+  </si>
+  <si>
+    <t>http://rusfencing.ru/structure.php</t>
+  </si>
+  <si>
+    <t>https://rfs.ru/nationals</t>
   </si>
 </sst>
 </file>
@@ -2620,69 +2626,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2730,6 +2673,69 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -3276,10 +3282,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I63"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3517,6 +3523,16 @@
     <row r="63" spans="1:1">
       <c r="A63" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="2" t="s">
+        <v>628</v>
       </c>
     </row>
   </sheetData>
@@ -3530,9 +3546,11 @@
     <hyperlink ref="C27" r:id="rId7"/>
     <hyperlink ref="C41" r:id="rId8"/>
     <hyperlink ref="I19" r:id="rId9"/>
+    <hyperlink ref="A69" r:id="rId10"/>
+    <hyperlink ref="A70" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
 
@@ -3575,66 +3593,66 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1">
-      <c r="A2" s="91">
+      <c r="A2" s="123">
         <v>1</v>
       </c>
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="121" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="102" t="s">
+      <c r="C2" s="117" t="s">
         <v>220</v>
       </c>
-      <c r="D2" s="94" t="s">
+      <c r="D2" s="127" t="s">
         <v>89</v>
       </c>
       <c r="E2" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="95" t="s">
+      <c r="F2" s="124" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="91"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="94"/>
+      <c r="A3" s="123"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="127"/>
       <c r="E3" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="95"/>
+      <c r="F3" s="124"/>
     </row>
     <row r="4" spans="1:6" ht="30">
-      <c r="A4" s="91"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="94"/>
+      <c r="A4" s="123"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="127"/>
       <c r="E4" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="95"/>
+      <c r="F4" s="124"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="91"/>
-      <c r="B5" s="92"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="94"/>
+      <c r="A5" s="123"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="127"/>
       <c r="E5" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="95"/>
+      <c r="F5" s="124"/>
     </row>
     <row r="6" spans="1:6" ht="30">
-      <c r="A6" s="91">
+      <c r="A6" s="123">
         <v>2</v>
       </c>
-      <c r="B6" s="92" t="s">
+      <c r="B6" s="121" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="121" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="92" t="s">
+      <c r="D6" s="121" t="s">
         <v>97</v>
       </c>
       <c r="E6" s="30" t="s">
@@ -3645,10 +3663,10 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="91"/>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
+      <c r="A7" s="123"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
       <c r="E7" s="32" t="s">
         <v>99</v>
       </c>
@@ -3657,13 +3675,13 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="30">
-      <c r="A8" s="91">
+      <c r="A8" s="123">
         <v>3</v>
       </c>
-      <c r="B8" s="92" t="s">
+      <c r="B8" s="121" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="92" t="s">
+      <c r="C8" s="121" t="s">
         <v>102</v>
       </c>
       <c r="D8" s="30"/>
@@ -3675,9 +3693,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="30">
-      <c r="A9" s="91"/>
-      <c r="B9" s="92"/>
-      <c r="C9" s="92"/>
+      <c r="A9" s="123"/>
+      <c r="B9" s="121"/>
+      <c r="C9" s="121"/>
       <c r="D9" s="30" t="s">
         <v>103</v>
       </c>
@@ -3689,9 +3707,9 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="91"/>
-      <c r="B10" s="92"/>
-      <c r="C10" s="92"/>
+      <c r="A10" s="123"/>
+      <c r="B10" s="121"/>
+      <c r="C10" s="121"/>
       <c r="D10" s="31"/>
       <c r="E10" s="32" t="s">
         <v>106</v>
@@ -3701,26 +3719,26 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="18.75">
-      <c r="A11" s="93" t="s">
+      <c r="A11" s="128" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="93"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="93"/>
+      <c r="B11" s="128"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="128"/>
     </row>
     <row r="12" spans="1:6" ht="30">
-      <c r="A12" s="91">
+      <c r="A12" s="123">
         <v>4</v>
       </c>
-      <c r="B12" s="92" t="s">
+      <c r="B12" s="121" t="s">
         <v>110</v>
       </c>
       <c r="C12" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="D12" s="92" t="s">
+      <c r="D12" s="121" t="s">
         <v>114</v>
       </c>
       <c r="E12" s="30" t="s">
@@ -3731,12 +3749,12 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="91"/>
-      <c r="B13" s="92"/>
+      <c r="A13" s="123"/>
+      <c r="B13" s="121"/>
       <c r="C13" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="D13" s="92"/>
+      <c r="D13" s="121"/>
       <c r="E13" s="32" t="s">
         <v>116</v>
       </c>
@@ -3745,34 +3763,34 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="91"/>
-      <c r="B14" s="92"/>
+      <c r="A14" s="123"/>
+      <c r="B14" s="121"/>
       <c r="C14" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="D14" s="92"/>
+      <c r="D14" s="121"/>
       <c r="E14" s="31"/>
       <c r="F14" s="34"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="91"/>
-      <c r="B15" s="92"/>
+      <c r="A15" s="123"/>
+      <c r="B15" s="121"/>
       <c r="C15" s="30"/>
-      <c r="D15" s="92"/>
+      <c r="D15" s="121"/>
       <c r="E15" s="31"/>
       <c r="F15" s="34"/>
     </row>
     <row r="16" spans="1:6" ht="30">
-      <c r="A16" s="91">
+      <c r="A16" s="123">
         <v>5</v>
       </c>
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="121" t="s">
         <v>119</v>
       </c>
-      <c r="C16" s="92" t="s">
+      <c r="C16" s="121" t="s">
         <v>120</v>
       </c>
-      <c r="D16" s="92" t="s">
+      <c r="D16" s="121" t="s">
         <v>121</v>
       </c>
       <c r="E16" s="30" t="s">
@@ -3783,10 +3801,10 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="91"/>
-      <c r="B17" s="92"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
+      <c r="A17" s="123"/>
+      <c r="B17" s="121"/>
+      <c r="C17" s="121"/>
+      <c r="D17" s="121"/>
       <c r="E17" s="32" t="s">
         <v>123</v>
       </c>
@@ -3795,16 +3813,16 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="30">
-      <c r="A18" s="97">
+      <c r="A18" s="120">
         <v>6</v>
       </c>
-      <c r="B18" s="92" t="s">
+      <c r="B18" s="121" t="s">
         <v>125</v>
       </c>
-      <c r="C18" s="92" t="s">
+      <c r="C18" s="121" t="s">
         <v>126</v>
       </c>
-      <c r="D18" s="92" t="s">
+      <c r="D18" s="121" t="s">
         <v>127</v>
       </c>
       <c r="E18" s="30" t="s">
@@ -3815,10 +3833,10 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="97"/>
-      <c r="B19" s="92"/>
-      <c r="C19" s="92"/>
-      <c r="D19" s="92"/>
+      <c r="A19" s="120"/>
+      <c r="B19" s="121"/>
+      <c r="C19" s="121"/>
+      <c r="D19" s="121"/>
       <c r="E19" s="32" t="s">
         <v>129</v>
       </c>
@@ -3827,24 +3845,24 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="97"/>
-      <c r="B20" s="92"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="92"/>
+      <c r="A20" s="120"/>
+      <c r="B20" s="121"/>
+      <c r="C20" s="121"/>
+      <c r="D20" s="121"/>
       <c r="E20" s="30"/>
       <c r="F20" s="34"/>
     </row>
     <row r="21" spans="1:6" ht="30">
-      <c r="A21" s="97">
+      <c r="A21" s="120">
         <v>7</v>
       </c>
-      <c r="B21" s="92" t="s">
+      <c r="B21" s="121" t="s">
         <v>131</v>
       </c>
-      <c r="C21" s="92" t="s">
+      <c r="C21" s="121" t="s">
         <v>132</v>
       </c>
-      <c r="D21" s="92" t="s">
+      <c r="D21" s="121" t="s">
         <v>133</v>
       </c>
       <c r="E21" s="30" t="s">
@@ -3855,10 +3873,10 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="97"/>
-      <c r="B22" s="92"/>
-      <c r="C22" s="92"/>
-      <c r="D22" s="92"/>
+      <c r="A22" s="120"/>
+      <c r="B22" s="121"/>
+      <c r="C22" s="121"/>
+      <c r="D22" s="121"/>
       <c r="E22" s="32" t="s">
         <v>135</v>
       </c>
@@ -3867,32 +3885,32 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="97"/>
-      <c r="B23" s="92"/>
-      <c r="C23" s="92"/>
-      <c r="D23" s="92"/>
+      <c r="A23" s="120"/>
+      <c r="B23" s="121"/>
+      <c r="C23" s="121"/>
+      <c r="D23" s="121"/>
       <c r="E23" s="30"/>
       <c r="F23" s="33"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="97"/>
-      <c r="B24" s="92"/>
-      <c r="C24" s="92"/>
-      <c r="D24" s="92"/>
+      <c r="A24" s="120"/>
+      <c r="B24" s="121"/>
+      <c r="C24" s="121"/>
+      <c r="D24" s="121"/>
       <c r="E24" s="31"/>
       <c r="F24" s="33"/>
     </row>
     <row r="25" spans="1:6" ht="30">
-      <c r="A25" s="97">
+      <c r="A25" s="120">
         <v>8</v>
       </c>
-      <c r="B25" s="92" t="s">
+      <c r="B25" s="121" t="s">
         <v>138</v>
       </c>
-      <c r="C25" s="98" t="s">
+      <c r="C25" s="125" t="s">
         <v>139</v>
       </c>
-      <c r="D25" s="94" t="s">
+      <c r="D25" s="127" t="s">
         <v>140</v>
       </c>
       <c r="E25" s="30" t="s">
@@ -3903,10 +3921,10 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="28.5">
-      <c r="A26" s="97"/>
-      <c r="B26" s="92"/>
-      <c r="C26" s="98"/>
-      <c r="D26" s="94"/>
+      <c r="A26" s="120"/>
+      <c r="B26" s="121"/>
+      <c r="C26" s="125"/>
+      <c r="D26" s="127"/>
       <c r="E26" s="32" t="s">
         <v>142</v>
       </c>
@@ -3915,15 +3933,15 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="97"/>
-      <c r="B27" s="92"/>
-      <c r="C27" s="98"/>
-      <c r="D27" s="94"/>
+      <c r="A27" s="120"/>
+      <c r="B27" s="121"/>
+      <c r="C27" s="125"/>
+      <c r="D27" s="127"/>
       <c r="E27" s="31"/>
       <c r="F27" s="33"/>
     </row>
     <row r="28" spans="1:6" ht="30">
-      <c r="A28" s="97">
+      <c r="A28" s="120">
         <v>9</v>
       </c>
       <c r="B28" s="30" t="s">
@@ -3932,39 +3950,39 @@
       <c r="C28" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="D28" s="92" t="s">
+      <c r="D28" s="121" t="s">
         <v>149</v>
       </c>
-      <c r="E28" s="92" t="s">
+      <c r="E28" s="121" t="s">
         <v>150</v>
       </c>
-      <c r="F28" s="96" t="s">
+      <c r="F28" s="126" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="30">
-      <c r="A29" s="97"/>
+      <c r="A29" s="120"/>
       <c r="B29" s="30" t="s">
         <v>146</v>
       </c>
       <c r="C29" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="D29" s="92"/>
-      <c r="E29" s="92"/>
-      <c r="F29" s="96"/>
+      <c r="D29" s="121"/>
+      <c r="E29" s="121"/>
+      <c r="F29" s="126"/>
     </row>
     <row r="30" spans="1:6" ht="30">
-      <c r="A30" s="97">
+      <c r="A30" s="120">
         <v>10</v>
       </c>
-      <c r="B30" s="92" t="s">
+      <c r="B30" s="121" t="s">
         <v>152</v>
       </c>
-      <c r="C30" s="92" t="s">
+      <c r="C30" s="121" t="s">
         <v>153</v>
       </c>
-      <c r="D30" s="92" t="s">
+      <c r="D30" s="121" t="s">
         <v>154</v>
       </c>
       <c r="E30" s="30" t="s">
@@ -3975,10 +3993,10 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="97"/>
-      <c r="B31" s="92"/>
-      <c r="C31" s="92"/>
-      <c r="D31" s="92"/>
+      <c r="A31" s="120"/>
+      <c r="B31" s="121"/>
+      <c r="C31" s="121"/>
+      <c r="D31" s="121"/>
       <c r="E31" s="32" t="s">
         <v>156</v>
       </c>
@@ -3987,32 +4005,32 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="97"/>
-      <c r="B32" s="92"/>
-      <c r="C32" s="92"/>
-      <c r="D32" s="92"/>
+      <c r="A32" s="120"/>
+      <c r="B32" s="121"/>
+      <c r="C32" s="121"/>
+      <c r="D32" s="121"/>
       <c r="E32" s="31"/>
       <c r="F32" s="33"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="97"/>
-      <c r="B33" s="92"/>
-      <c r="C33" s="92"/>
-      <c r="D33" s="92"/>
+      <c r="A33" s="120"/>
+      <c r="B33" s="121"/>
+      <c r="C33" s="121"/>
+      <c r="D33" s="121"/>
       <c r="E33" s="31"/>
       <c r="F33" s="33"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="97">
+      <c r="A34" s="120">
         <v>11</v>
       </c>
-      <c r="B34" s="92" t="s">
+      <c r="B34" s="121" t="s">
         <v>159</v>
       </c>
       <c r="C34" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="D34" s="98" t="s">
+      <c r="D34" s="125" t="s">
         <v>162</v>
       </c>
       <c r="E34" s="35" t="s">
@@ -4023,12 +4041,12 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="97"/>
-      <c r="B35" s="92"/>
+      <c r="A35" s="120"/>
+      <c r="B35" s="121"/>
       <c r="C35" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="D35" s="98"/>
+      <c r="D35" s="125"/>
       <c r="E35" s="28" t="s">
         <v>164</v>
       </c>
@@ -4037,24 +4055,24 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="97"/>
-      <c r="B36" s="92"/>
+      <c r="A36" s="120"/>
+      <c r="B36" s="121"/>
       <c r="C36" s="31"/>
-      <c r="D36" s="98"/>
+      <c r="D36" s="125"/>
       <c r="E36" s="31"/>
       <c r="F36" s="36"/>
     </row>
     <row r="37" spans="1:6" ht="30">
-      <c r="A37" s="97">
+      <c r="A37" s="120">
         <v>12</v>
       </c>
-      <c r="B37" s="92" t="s">
+      <c r="B37" s="121" t="s">
         <v>166</v>
       </c>
       <c r="C37" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="D37" s="92" t="s">
+      <c r="D37" s="121" t="s">
         <v>169</v>
       </c>
       <c r="E37" s="30" t="s">
@@ -4065,12 +4083,12 @@
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="97"/>
-      <c r="B38" s="92"/>
+      <c r="A38" s="120"/>
+      <c r="B38" s="121"/>
       <c r="C38" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="D38" s="92"/>
+      <c r="D38" s="121"/>
       <c r="E38" s="32" t="s">
         <v>171</v>
       </c>
@@ -4079,60 +4097,60 @@
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="97"/>
-      <c r="B39" s="92"/>
+      <c r="A39" s="120"/>
+      <c r="B39" s="121"/>
       <c r="C39" s="30"/>
-      <c r="D39" s="92"/>
+      <c r="D39" s="121"/>
       <c r="E39" s="31"/>
       <c r="F39" s="33"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="97"/>
-      <c r="B40" s="92"/>
+      <c r="A40" s="120"/>
+      <c r="B40" s="121"/>
       <c r="C40" s="31"/>
-      <c r="D40" s="92"/>
+      <c r="D40" s="121"/>
       <c r="E40" s="31"/>
       <c r="F40" s="33"/>
     </row>
     <row r="41" spans="1:6" ht="30">
-      <c r="A41" s="97">
+      <c r="A41" s="120">
         <v>13</v>
       </c>
-      <c r="B41" s="92" t="s">
+      <c r="B41" s="121" t="s">
         <v>173</v>
       </c>
       <c r="C41" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="D41" s="109" t="s">
+      <c r="D41" s="122" t="s">
         <v>176</v>
       </c>
       <c r="E41" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="F41" s="95">
+      <c r="F41" s="124">
         <v>89635065816</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="97"/>
-      <c r="B42" s="92"/>
+      <c r="A42" s="120"/>
+      <c r="B42" s="121"/>
       <c r="C42" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="D42" s="109"/>
+      <c r="D42" s="122"/>
       <c r="E42" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="F42" s="95"/>
+      <c r="F42" s="124"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="97"/>
-      <c r="B43" s="92"/>
+      <c r="A43" s="120"/>
+      <c r="B43" s="121"/>
       <c r="C43" s="30"/>
-      <c r="D43" s="109"/>
+      <c r="D43" s="122"/>
       <c r="E43" s="31"/>
-      <c r="F43" s="95"/>
+      <c r="F43" s="124"/>
     </row>
     <row r="44" spans="1:6" ht="18.75">
       <c r="A44" s="37" t="s">
@@ -4145,16 +4163,16 @@
       <c r="F44" s="39"/>
     </row>
     <row r="45" spans="1:6" ht="30">
-      <c r="A45" s="97">
+      <c r="A45" s="120">
         <v>14</v>
       </c>
-      <c r="B45" s="92" t="s">
+      <c r="B45" s="121" t="s">
         <v>180</v>
       </c>
       <c r="C45" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="D45" s="92" t="s">
+      <c r="D45" s="121" t="s">
         <v>183</v>
       </c>
       <c r="E45" s="30" t="s">
@@ -4165,12 +4183,12 @@
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="97"/>
-      <c r="B46" s="92"/>
+      <c r="A46" s="120"/>
+      <c r="B46" s="121"/>
       <c r="C46" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="D46" s="92"/>
+      <c r="D46" s="121"/>
       <c r="E46" s="32" t="s">
         <v>185</v>
       </c>
@@ -4179,18 +4197,18 @@
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="97"/>
-      <c r="B47" s="92"/>
+      <c r="A47" s="120"/>
+      <c r="B47" s="121"/>
       <c r="C47" s="30"/>
-      <c r="D47" s="92"/>
+      <c r="D47" s="121"/>
       <c r="E47" s="31"/>
       <c r="F47" s="34"/>
     </row>
     <row r="48" spans="1:6" ht="30">
-      <c r="A48" s="97">
+      <c r="A48" s="120">
         <v>15</v>
       </c>
-      <c r="B48" s="92" t="s">
+      <c r="B48" s="121" t="s">
         <v>188</v>
       </c>
       <c r="C48" s="30" t="s">
@@ -4207,8 +4225,8 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="28.5">
-      <c r="A49" s="97"/>
-      <c r="B49" s="92"/>
+      <c r="A49" s="120"/>
+      <c r="B49" s="121"/>
       <c r="C49" s="30" t="s">
         <v>190</v>
       </c>
@@ -4223,8 +4241,8 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="97"/>
-      <c r="B50" s="92"/>
+      <c r="A50" s="120"/>
+      <c r="B50" s="121"/>
       <c r="C50" s="30" t="s">
         <v>191</v>
       </c>
@@ -4233,16 +4251,16 @@
       <c r="F50" s="34"/>
     </row>
     <row r="51" spans="1:6" ht="30">
-      <c r="A51" s="97">
+      <c r="A51" s="120">
         <v>16</v>
       </c>
-      <c r="B51" s="92" t="s">
+      <c r="B51" s="121" t="s">
         <v>198</v>
       </c>
       <c r="C51" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="D51" s="92" t="s">
+      <c r="D51" s="121" t="s">
         <v>201</v>
       </c>
       <c r="E51" s="30" t="s">
@@ -4253,12 +4271,12 @@
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="97"/>
-      <c r="B52" s="92"/>
+      <c r="A52" s="120"/>
+      <c r="B52" s="121"/>
       <c r="C52" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="D52" s="92"/>
+      <c r="D52" s="121"/>
       <c r="E52" s="32" t="s">
         <v>203</v>
       </c>
@@ -4277,16 +4295,16 @@
       <c r="F53" s="39"/>
     </row>
     <row r="54" spans="1:6" ht="30">
-      <c r="A54" s="99">
+      <c r="A54" s="114">
         <v>17</v>
       </c>
-      <c r="B54" s="100" t="s">
+      <c r="B54" s="115" t="s">
         <v>207</v>
       </c>
       <c r="C54" s="42" t="s">
         <v>208</v>
       </c>
-      <c r="D54" s="101" t="s">
+      <c r="D54" s="116" t="s">
         <v>210</v>
       </c>
       <c r="E54" s="42" t="s">
@@ -4297,12 +4315,12 @@
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="99"/>
-      <c r="B55" s="100"/>
+      <c r="A55" s="114"/>
+      <c r="B55" s="115"/>
       <c r="C55" s="42" t="s">
         <v>209</v>
       </c>
-      <c r="D55" s="101"/>
+      <c r="D55" s="116"/>
       <c r="E55" s="44" t="s">
         <v>212</v>
       </c>
@@ -4353,10 +4371,10 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="15.75">
-      <c r="A73" s="105" t="s">
+      <c r="A73" s="108" t="s">
         <v>226</v>
       </c>
-      <c r="B73" s="107" t="s">
+      <c r="B73" s="110" t="s">
         <v>38</v>
       </c>
       <c r="C73" s="49" t="s">
@@ -4367,8 +4385,8 @@
       </c>
     </row>
     <row r="74" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A74" s="106"/>
-      <c r="B74" s="108"/>
+      <c r="A74" s="109"/>
+      <c r="B74" s="111"/>
       <c r="C74" s="50" t="s">
         <v>228</v>
       </c>
@@ -4377,8 +4395,8 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="15.75">
-      <c r="A75" s="105"/>
-      <c r="B75" s="107" t="s">
+      <c r="A75" s="108"/>
+      <c r="B75" s="110" t="s">
         <v>231</v>
       </c>
       <c r="C75" s="49" t="s">
@@ -4389,8 +4407,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="15.75">
-      <c r="A76" s="110"/>
-      <c r="B76" s="111"/>
+      <c r="A76" s="112"/>
+      <c r="B76" s="113"/>
       <c r="C76" s="49" t="s">
         <v>233</v>
       </c>
@@ -4399,16 +4417,16 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A77" s="106"/>
-      <c r="B77" s="108"/>
+      <c r="A77" s="109"/>
+      <c r="B77" s="111"/>
       <c r="C77" s="53"/>
       <c r="D77" s="52" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15.75">
-      <c r="A78" s="107"/>
-      <c r="B78" s="107" t="s">
+      <c r="A78" s="110"/>
+      <c r="B78" s="110" t="s">
         <v>237</v>
       </c>
       <c r="C78" s="49" t="s">
@@ -4419,8 +4437,8 @@
       </c>
     </row>
     <row r="79" spans="1:4" ht="15.75">
-      <c r="A79" s="111"/>
-      <c r="B79" s="111"/>
+      <c r="A79" s="113"/>
+      <c r="B79" s="113"/>
       <c r="C79" s="49" t="s">
         <v>239</v>
       </c>
@@ -4429,24 +4447,24 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="15.75">
-      <c r="A80" s="111"/>
-      <c r="B80" s="111"/>
+      <c r="A80" s="113"/>
+      <c r="B80" s="113"/>
       <c r="C80" s="54"/>
       <c r="D80" s="51" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A81" s="108"/>
-      <c r="B81" s="108"/>
+      <c r="A81" s="111"/>
+      <c r="B81" s="111"/>
       <c r="C81" s="53"/>
       <c r="D81" s="52" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15.75">
-      <c r="A82" s="107"/>
-      <c r="B82" s="107" t="s">
+      <c r="A82" s="110"/>
+      <c r="B82" s="110" t="s">
         <v>244</v>
       </c>
       <c r="C82" s="49" t="s">
@@ -4457,8 +4475,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A83" s="108"/>
-      <c r="B83" s="108"/>
+      <c r="A83" s="111"/>
+      <c r="B83" s="111"/>
       <c r="C83" s="50" t="s">
         <v>246</v>
       </c>
@@ -4479,48 +4497,48 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="15.75">
-      <c r="A85" s="107"/>
+      <c r="A85" s="110"/>
       <c r="B85" s="49" t="s">
         <v>252</v>
       </c>
       <c r="C85" s="49" t="s">
         <v>254</v>
       </c>
-      <c r="D85" s="107" t="s">
+      <c r="D85" s="110" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A86" s="108"/>
+      <c r="A86" s="111"/>
       <c r="B86" s="50" t="s">
         <v>253</v>
       </c>
       <c r="C86" s="50" t="s">
         <v>255</v>
       </c>
-      <c r="D86" s="108"/>
+      <c r="D86" s="111"/>
     </row>
     <row r="87" spans="1:4" ht="15.75">
-      <c r="A87" s="107"/>
+      <c r="A87" s="110"/>
       <c r="B87" s="49" t="s">
         <v>257</v>
       </c>
       <c r="C87" s="49" t="s">
         <v>258</v>
       </c>
-      <c r="D87" s="107" t="s">
+      <c r="D87" s="110" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A88" s="108"/>
+      <c r="A88" s="111"/>
       <c r="B88" s="50" t="s">
         <v>253</v>
       </c>
       <c r="C88" s="50" t="s">
         <v>259</v>
       </c>
-      <c r="D88" s="108"/>
+      <c r="D88" s="111"/>
     </row>
     <row r="89" spans="1:4" ht="32.25" thickBot="1">
       <c r="A89" s="50"/>
@@ -4597,32 +4615,32 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="15.75">
-      <c r="A95" s="105" t="s">
+      <c r="A95" s="108" t="s">
         <v>277</v>
       </c>
-      <c r="B95" s="107" t="s">
+      <c r="B95" s="110" t="s">
         <v>278</v>
       </c>
       <c r="C95" s="49" t="s">
         <v>279</v>
       </c>
-      <c r="D95" s="107" t="s">
+      <c r="D95" s="110" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A96" s="106"/>
-      <c r="B96" s="108"/>
+      <c r="A96" s="109"/>
+      <c r="B96" s="111"/>
       <c r="C96" s="56">
         <v>40868</v>
       </c>
-      <c r="D96" s="108"/>
+      <c r="D96" s="111"/>
     </row>
     <row r="97" spans="1:4" ht="15.75">
-      <c r="A97" s="105" t="s">
+      <c r="A97" s="108" t="s">
         <v>281</v>
       </c>
-      <c r="B97" s="107" t="s">
+      <c r="B97" s="110" t="s">
         <v>282</v>
       </c>
       <c r="C97" s="49" t="s">
@@ -4633,8 +4651,8 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A98" s="106"/>
-      <c r="B98" s="108"/>
+      <c r="A98" s="109"/>
+      <c r="B98" s="111"/>
       <c r="C98" s="50" t="s">
         <v>284</v>
       </c>
@@ -4643,24 +4661,24 @@
       </c>
     </row>
     <row r="99" spans="1:4" ht="15.75">
-      <c r="A99" s="107"/>
-      <c r="B99" s="107" t="s">
+      <c r="A99" s="110"/>
+      <c r="B99" s="110" t="s">
         <v>287</v>
       </c>
       <c r="C99" s="49" t="s">
         <v>288</v>
       </c>
-      <c r="D99" s="107" t="s">
+      <c r="D99" s="110" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A100" s="108"/>
-      <c r="B100" s="108"/>
+      <c r="A100" s="111"/>
+      <c r="B100" s="111"/>
       <c r="C100" s="50" t="s">
         <v>289</v>
       </c>
-      <c r="D100" s="108"/>
+      <c r="D100" s="111"/>
     </row>
     <row r="101" spans="1:4" ht="32.25" thickBot="1">
       <c r="A101" s="55" t="s">
@@ -4715,26 +4733,26 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="15.75">
-      <c r="A105" s="105" t="s">
+      <c r="A105" s="108" t="s">
         <v>304</v>
       </c>
-      <c r="B105" s="107" t="s">
+      <c r="B105" s="110" t="s">
         <v>305</v>
       </c>
       <c r="C105" s="49" t="s">
         <v>306</v>
       </c>
-      <c r="D105" s="107" t="s">
+      <c r="D105" s="110" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A106" s="106"/>
-      <c r="B106" s="108"/>
+      <c r="A106" s="109"/>
+      <c r="B106" s="111"/>
       <c r="C106" s="50" t="s">
         <v>307</v>
       </c>
-      <c r="D106" s="108"/>
+      <c r="D106" s="111"/>
     </row>
     <row r="107" spans="1:4" ht="16.5" thickBot="1">
       <c r="A107" s="55" t="s">
@@ -4751,92 +4769,92 @@
       </c>
     </row>
     <row r="108" spans="1:4" ht="15.75">
-      <c r="A108" s="105" t="s">
+      <c r="A108" s="108" t="s">
         <v>313</v>
       </c>
-      <c r="B108" s="107" t="s">
+      <c r="B108" s="110" t="s">
         <v>314</v>
       </c>
       <c r="C108" s="49" t="s">
         <v>315</v>
       </c>
-      <c r="D108" s="107" t="s">
+      <c r="D108" s="110" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A109" s="106"/>
-      <c r="B109" s="108"/>
+      <c r="A109" s="109"/>
+      <c r="B109" s="111"/>
       <c r="C109" s="56">
         <v>13537</v>
       </c>
-      <c r="D109" s="108"/>
+      <c r="D109" s="111"/>
     </row>
     <row r="110" spans="1:4" ht="15.75">
-      <c r="A110" s="105" t="s">
+      <c r="A110" s="108" t="s">
         <v>317</v>
       </c>
-      <c r="B110" s="107" t="s">
+      <c r="B110" s="110" t="s">
         <v>278</v>
       </c>
       <c r="C110" s="49" t="s">
         <v>318</v>
       </c>
-      <c r="D110" s="107" t="s">
+      <c r="D110" s="110" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A111" s="106"/>
-      <c r="B111" s="108"/>
+      <c r="A111" s="109"/>
+      <c r="B111" s="111"/>
       <c r="C111" s="56">
         <v>26045</v>
       </c>
-      <c r="D111" s="108"/>
+      <c r="D111" s="111"/>
     </row>
     <row r="112" spans="1:4" ht="15.75">
-      <c r="A112" s="105" t="s">
+      <c r="A112" s="108" t="s">
         <v>320</v>
       </c>
-      <c r="B112" s="107" t="s">
+      <c r="B112" s="110" t="s">
         <v>278</v>
       </c>
       <c r="C112" s="49" t="s">
         <v>321</v>
       </c>
-      <c r="D112" s="107" t="s">
+      <c r="D112" s="110" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A113" s="106"/>
-      <c r="B113" s="108"/>
+      <c r="A113" s="109"/>
+      <c r="B113" s="111"/>
       <c r="C113" s="50" t="s">
         <v>322</v>
       </c>
-      <c r="D113" s="108"/>
+      <c r="D113" s="111"/>
     </row>
     <row r="114" spans="1:4" ht="15.75">
-      <c r="A114" s="105" t="s">
+      <c r="A114" s="108" t="s">
         <v>324</v>
       </c>
-      <c r="B114" s="107" t="s">
+      <c r="B114" s="110" t="s">
         <v>278</v>
       </c>
       <c r="C114" s="49" t="s">
         <v>325</v>
       </c>
-      <c r="D114" s="107" t="s">
+      <c r="D114" s="110" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A115" s="106"/>
-      <c r="B115" s="108"/>
+      <c r="A115" s="109"/>
+      <c r="B115" s="111"/>
       <c r="C115" s="50" t="s">
         <v>326</v>
       </c>
-      <c r="D115" s="108"/>
+      <c r="D115" s="111"/>
     </row>
     <row r="116" spans="1:4" ht="32.25" thickBot="1">
       <c r="A116" s="55" t="s">
@@ -4867,7 +4885,7 @@
       </c>
     </row>
     <row r="118" spans="1:4" ht="15.75">
-      <c r="A118" s="105" t="s">
+      <c r="A118" s="108" t="s">
         <v>333</v>
       </c>
       <c r="B118" s="49" t="s">
@@ -4876,41 +4894,41 @@
       <c r="C118" s="49" t="s">
         <v>336</v>
       </c>
-      <c r="D118" s="107" t="s">
+      <c r="D118" s="110" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A119" s="106"/>
+      <c r="A119" s="109"/>
       <c r="B119" s="50" t="s">
         <v>335</v>
       </c>
       <c r="C119" s="50" t="s">
         <v>337</v>
       </c>
-      <c r="D119" s="108"/>
+      <c r="D119" s="111"/>
     </row>
     <row r="120" spans="1:4" ht="15.75">
-      <c r="A120" s="105" t="s">
+      <c r="A120" s="108" t="s">
         <v>339</v>
       </c>
-      <c r="B120" s="107" t="s">
+      <c r="B120" s="110" t="s">
         <v>278</v>
       </c>
       <c r="C120" s="49" t="s">
         <v>340</v>
       </c>
-      <c r="D120" s="107" t="s">
+      <c r="D120" s="110" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A121" s="106"/>
-      <c r="B121" s="108"/>
+      <c r="A121" s="109"/>
+      <c r="B121" s="111"/>
       <c r="C121" s="50" t="s">
         <v>341</v>
       </c>
-      <c r="D121" s="108"/>
+      <c r="D121" s="111"/>
     </row>
     <row r="122" spans="1:4" ht="16.5" thickBot="1">
       <c r="A122" s="55" t="s">
@@ -4931,44 +4949,45 @@
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="D37:D40"/>
     <mergeCell ref="A54:A55"/>
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="D54:D55"/>
@@ -4993,45 +5012,44 @@
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="D18:D20"/>
-    <mergeCell ref="F41:F43"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="D37:D40"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="D114:D115"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="mailto:spshkul_3@mail.ru"/>
@@ -5049,8 +5067,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AI140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L99" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:AI139"/>
+    <sheetView topLeftCell="L99" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O144" sqref="O144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5601,7 +5619,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="3" spans="1:35" s="57" customFormat="1" ht="37.5">
+    <row r="3" spans="1:35" s="57" customFormat="1">
       <c r="A3" s="79" t="s">
         <v>597</v>
       </c>
@@ -5718,7 +5736,7 @@
       <c r="H4" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I4" s="112" t="s">
+      <c r="I4" s="91" t="s">
         <v>365</v>
       </c>
       <c r="J4" s="65" t="s">
@@ -5814,7 +5832,7 @@
       <c r="H5" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I5" s="112"/>
+      <c r="I5" s="91"/>
       <c r="J5" s="65" t="s">
         <v>596</v>
       </c>
@@ -6082,7 +6100,7 @@
       <c r="H8" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I8" s="113"/>
+      <c r="I8" s="92"/>
       <c r="J8" s="65" t="s">
         <v>596</v>
       </c>
@@ -6446,7 +6464,7 @@
       <c r="H12" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I12" s="115"/>
+      <c r="I12" s="94"/>
       <c r="J12" s="65" t="s">
         <v>596</v>
       </c>
@@ -6810,7 +6828,7 @@
       <c r="H16" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I16" s="115"/>
+      <c r="I16" s="94"/>
       <c r="J16" s="65" t="s">
         <v>596</v>
       </c>
@@ -6904,7 +6922,7 @@
       <c r="H17" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I17" s="112" t="s">
+      <c r="I17" s="91" t="s">
         <v>398</v>
       </c>
       <c r="J17" s="65" t="s">
@@ -7178,7 +7196,7 @@
       <c r="H20" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I20" s="112" t="s">
+      <c r="I20" s="91" t="s">
         <v>615</v>
       </c>
       <c r="J20" s="65" t="s">
@@ -7277,7 +7295,7 @@
       <c r="H21" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I21" s="116"/>
+      <c r="I21" s="95"/>
       <c r="J21" s="65" t="s">
         <v>596</v>
       </c>
@@ -7374,7 +7392,7 @@
       <c r="H22" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I22" s="116"/>
+      <c r="I22" s="95"/>
       <c r="J22" s="65" t="s">
         <v>596</v>
       </c>
@@ -7471,7 +7489,7 @@
       <c r="H23" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I23" s="116"/>
+      <c r="I23" s="95"/>
       <c r="J23" s="65" t="s">
         <v>596</v>
       </c>
@@ -7568,7 +7586,7 @@
       <c r="H24" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I24" s="114"/>
+      <c r="I24" s="93"/>
       <c r="J24" s="65" t="s">
         <v>596</v>
       </c>
@@ -7657,7 +7675,7 @@
       <c r="H25" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I25" s="116"/>
+      <c r="I25" s="95"/>
       <c r="J25" s="65" t="s">
         <v>596</v>
       </c>
@@ -8023,7 +8041,7 @@
       <c r="H29" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I29" s="112" t="s">
+      <c r="I29" s="91" t="s">
         <v>424</v>
       </c>
       <c r="J29" s="65" t="s">
@@ -8112,7 +8130,7 @@
       <c r="H30" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I30" s="112" t="s">
+      <c r="I30" s="91" t="s">
         <v>426</v>
       </c>
       <c r="J30" s="65" t="s">
@@ -8206,7 +8224,7 @@
       <c r="H31" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I31" s="112" t="s">
+      <c r="I31" s="91" t="s">
         <v>428</v>
       </c>
       <c r="J31" s="65" t="s">
@@ -8302,7 +8320,7 @@
       <c r="H32" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I32" s="114" t="s">
+      <c r="I32" s="93" t="s">
         <v>617</v>
       </c>
       <c r="J32" s="65" t="s">
@@ -8391,7 +8409,7 @@
       <c r="H33" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I33" s="112" t="s">
+      <c r="I33" s="91" t="s">
         <v>432</v>
       </c>
       <c r="J33" s="65" t="s">
@@ -8567,7 +8585,7 @@
       <c r="H35" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I35" s="112" t="s">
+      <c r="I35" s="91" t="s">
         <v>435</v>
       </c>
       <c r="J35" s="65" t="s">
@@ -8656,7 +8674,7 @@
       <c r="H36" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I36" s="115" t="s">
+      <c r="I36" s="94" t="s">
         <v>437</v>
       </c>
       <c r="J36" s="65" t="s">
@@ -8760,7 +8778,7 @@
       <c r="H37" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I37" s="112" t="s">
+      <c r="I37" s="91" t="s">
         <v>426</v>
       </c>
       <c r="J37" s="65" t="s">
@@ -8849,7 +8867,7 @@
       <c r="H38" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I38" s="112" t="s">
+      <c r="I38" s="91" t="s">
         <v>426</v>
       </c>
       <c r="J38" s="65" t="s">
@@ -8938,7 +8956,7 @@
       <c r="H39" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I39" s="115" t="s">
+      <c r="I39" s="94" t="s">
         <v>443</v>
       </c>
       <c r="J39" s="65" t="s">
@@ -9037,7 +9055,7 @@
       <c r="H40" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I40" s="115" t="s">
+      <c r="I40" s="94" t="s">
         <v>443</v>
       </c>
       <c r="J40" s="65" t="s">
@@ -9126,7 +9144,7 @@
       <c r="H41" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I41" s="115" t="s">
+      <c r="I41" s="94" t="s">
         <v>443</v>
       </c>
       <c r="J41" s="65" t="s">
@@ -9215,7 +9233,7 @@
       <c r="H42" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I42" s="115" t="s">
+      <c r="I42" s="94" t="s">
         <v>443</v>
       </c>
       <c r="J42" s="65" t="s">
@@ -9304,7 +9322,7 @@
       <c r="H43" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I43" s="112" t="s">
+      <c r="I43" s="91" t="s">
         <v>626</v>
       </c>
       <c r="J43" s="65" t="s">
@@ -9393,7 +9411,7 @@
       <c r="H44" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I44" s="112" t="s">
+      <c r="I44" s="91" t="s">
         <v>618</v>
       </c>
       <c r="J44" s="65" t="s">
@@ -9571,7 +9589,7 @@
       <c r="H46" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I46" s="112" t="s">
+      <c r="I46" s="91" t="s">
         <v>426</v>
       </c>
       <c r="J46" s="65" t="s">
@@ -9670,7 +9688,7 @@
       <c r="H47" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I47" s="113" t="s">
+      <c r="I47" s="92" t="s">
         <v>456</v>
       </c>
       <c r="J47" s="65" t="s">
@@ -9761,7 +9779,7 @@
       <c r="H48" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I48" s="112" t="s">
+      <c r="I48" s="91" t="s">
         <v>426</v>
       </c>
       <c r="J48" s="65" t="s">
@@ -10032,7 +10050,7 @@
       <c r="H51" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I51" s="115" t="s">
+      <c r="I51" s="94" t="s">
         <v>464</v>
       </c>
       <c r="J51" s="65" t="s">
@@ -10121,7 +10139,7 @@
       <c r="H52" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I52" s="115" t="s">
+      <c r="I52" s="94" t="s">
         <v>464</v>
       </c>
       <c r="J52" s="65" t="s">
@@ -10388,7 +10406,7 @@
       <c r="H55" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I55" s="112" t="s">
+      <c r="I55" s="91" t="s">
         <v>426</v>
       </c>
       <c r="J55" s="65" t="s">
@@ -10566,7 +10584,7 @@
       <c r="H57" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I57" s="112" t="s">
+      <c r="I57" s="91" t="s">
         <v>620</v>
       </c>
       <c r="J57" s="65" t="s">
@@ -10655,7 +10673,7 @@
       <c r="H58" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I58" s="112" t="s">
+      <c r="I58" s="91" t="s">
         <v>472</v>
       </c>
       <c r="J58" s="65" t="s">
@@ -10744,7 +10762,7 @@
       <c r="H59" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I59" s="112" t="s">
+      <c r="I59" s="91" t="s">
         <v>426</v>
       </c>
       <c r="J59" s="65" t="s">
@@ -10844,7 +10862,7 @@
       <c r="H60" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I60" s="112" t="s">
+      <c r="I60" s="91" t="s">
         <v>615</v>
       </c>
       <c r="J60" s="65" t="s">
@@ -11022,7 +11040,7 @@
       <c r="H62" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I62" s="112" t="s">
+      <c r="I62" s="91" t="s">
         <v>478</v>
       </c>
       <c r="J62" s="65" t="s">
@@ -11113,7 +11131,7 @@
       <c r="H63" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I63" s="115"/>
+      <c r="I63" s="94"/>
       <c r="J63" s="65" t="s">
         <v>596</v>
       </c>
@@ -11387,7 +11405,7 @@
       <c r="H66" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I66" s="112" t="s">
+      <c r="I66" s="91" t="s">
         <v>485</v>
       </c>
       <c r="J66" s="65" t="s">
@@ -11476,7 +11494,7 @@
       <c r="H67" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I67" s="116" t="s">
+      <c r="I67" s="95" t="s">
         <v>488</v>
       </c>
       <c r="J67" s="65" t="s">
@@ -11540,7 +11558,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="68" spans="1:35" s="57" customFormat="1" ht="75" hidden="1">
+    <row r="68" spans="1:35" s="57" customFormat="1" ht="56.25" hidden="1">
       <c r="A68" s="79" t="s">
         <v>597</v>
       </c>
@@ -11565,7 +11583,7 @@
       <c r="H68" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I68" s="115"/>
+      <c r="I68" s="94"/>
       <c r="J68" s="65" t="s">
         <v>596</v>
       </c>
@@ -11659,7 +11677,7 @@
       <c r="H69" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I69" s="112" t="s">
+      <c r="I69" s="91" t="s">
         <v>426</v>
       </c>
       <c r="J69" s="65" t="s">
@@ -11941,7 +11959,7 @@
       <c r="H72" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I72" s="115" t="s">
+      <c r="I72" s="94" t="s">
         <v>497</v>
       </c>
       <c r="J72" s="65" t="s">
@@ -12030,7 +12048,7 @@
       <c r="H73" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I73" s="112" t="s">
+      <c r="I73" s="91" t="s">
         <v>426</v>
       </c>
       <c r="J73" s="65" t="s">
@@ -12221,7 +12239,7 @@
       <c r="H75" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I75" s="112" t="s">
+      <c r="I75" s="91" t="s">
         <v>426</v>
       </c>
       <c r="J75" s="65" t="s">
@@ -12582,7 +12600,7 @@
       <c r="H79" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I79" s="112" t="s">
+      <c r="I79" s="91" t="s">
         <v>506</v>
       </c>
       <c r="J79" s="65" t="s">
@@ -12671,7 +12689,7 @@
       <c r="H80" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I80" s="112" t="s">
+      <c r="I80" s="91" t="s">
         <v>508</v>
       </c>
       <c r="J80" s="65" t="s">
@@ -12938,7 +12956,7 @@
       <c r="H83" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I83" s="115" t="s">
+      <c r="I83" s="94" t="s">
         <v>443</v>
       </c>
       <c r="J83" s="65" t="s">
@@ -13027,7 +13045,7 @@
       <c r="H84" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I84" s="114"/>
+      <c r="I84" s="93"/>
       <c r="J84" s="65" t="s">
         <v>596</v>
       </c>
@@ -13114,7 +13132,7 @@
       <c r="H85" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I85" s="112"/>
+      <c r="I85" s="91"/>
       <c r="J85" s="65" t="s">
         <v>596</v>
       </c>
@@ -13208,7 +13226,7 @@
       <c r="H86" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I86" s="112" t="s">
+      <c r="I86" s="91" t="s">
         <v>426</v>
       </c>
       <c r="J86" s="65" t="s">
@@ -13297,7 +13315,7 @@
       <c r="H87" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I87" s="112" t="s">
+      <c r="I87" s="91" t="s">
         <v>506</v>
       </c>
       <c r="J87" s="65" t="s">
@@ -13386,7 +13404,7 @@
       <c r="H88" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I88" s="115"/>
+      <c r="I88" s="94"/>
       <c r="J88" s="65" t="s">
         <v>596</v>
       </c>
@@ -13747,7 +13765,7 @@
       <c r="H92" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I92" s="112" t="s">
+      <c r="I92" s="91" t="s">
         <v>426</v>
       </c>
       <c r="J92" s="65" t="s">
@@ -13923,7 +13941,7 @@
       <c r="H94" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I94" s="115" t="s">
+      <c r="I94" s="94" t="s">
         <v>622</v>
       </c>
       <c r="J94" s="65" t="s">
@@ -14197,7 +14215,7 @@
       <c r="H97" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I97" s="112" t="s">
+      <c r="I97" s="91" t="s">
         <v>533</v>
       </c>
       <c r="J97" s="65" t="s">
@@ -14286,7 +14304,7 @@
       <c r="H98" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I98" s="112"/>
+      <c r="I98" s="91"/>
       <c r="J98" s="65" t="s">
         <v>596</v>
       </c>
@@ -14462,7 +14480,7 @@
       <c r="H100" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I100" s="112" t="s">
+      <c r="I100" s="91" t="s">
         <v>538</v>
       </c>
       <c r="J100" s="65" t="s">
@@ -14729,7 +14747,7 @@
       <c r="H103" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I103" s="115" t="s">
+      <c r="I103" s="94" t="s">
         <v>624</v>
       </c>
       <c r="J103" s="65" t="s">
@@ -14818,7 +14836,7 @@
       <c r="H104" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I104" s="112"/>
+      <c r="I104" s="91"/>
       <c r="J104" s="65" t="s">
         <v>596</v>
       </c>
@@ -14994,7 +15012,7 @@
       <c r="H106" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I106" s="113" t="s">
+      <c r="I106" s="92" t="s">
         <v>545</v>
       </c>
       <c r="J106" s="65" t="s">
@@ -15261,7 +15279,7 @@
       <c r="H109" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I109" s="112"/>
+      <c r="I109" s="91"/>
       <c r="J109" s="65" t="s">
         <v>596</v>
       </c>
@@ -15348,7 +15366,7 @@
       <c r="H110" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I110" s="112"/>
+      <c r="I110" s="91"/>
       <c r="J110" s="65" t="s">
         <v>596</v>
       </c>
@@ -15442,7 +15460,7 @@
       <c r="H111" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I111" s="112"/>
+      <c r="I111" s="91"/>
       <c r="J111" s="65" t="s">
         <v>596</v>
       </c>
@@ -15536,7 +15554,7 @@
       <c r="H112" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I112" s="112"/>
+      <c r="I112" s="91"/>
       <c r="J112" s="65" t="s">
         <v>596</v>
       </c>
@@ -15623,7 +15641,7 @@
       <c r="H113" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I113" s="112" t="s">
+      <c r="I113" s="91" t="s">
         <v>554</v>
       </c>
       <c r="J113" s="65" t="s">
@@ -15712,7 +15730,7 @@
       <c r="H114" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I114" s="112" t="s">
+      <c r="I114" s="91" t="s">
         <v>556</v>
       </c>
       <c r="J114" s="65" t="s">
@@ -15888,7 +15906,7 @@
       <c r="H116" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I116" s="114"/>
+      <c r="I116" s="93"/>
       <c r="J116" s="65" t="s">
         <v>596</v>
       </c>
@@ -15975,7 +15993,7 @@
       <c r="H117" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I117" s="113" t="s">
+      <c r="I117" s="92" t="s">
         <v>545</v>
       </c>
       <c r="J117" s="65" t="s">
@@ -16064,7 +16082,7 @@
       <c r="H118" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I118" s="112"/>
+      <c r="I118" s="91"/>
       <c r="J118" s="65" t="s">
         <v>596</v>
       </c>
@@ -16151,7 +16169,7 @@
       <c r="H119" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I119" s="112"/>
+      <c r="I119" s="91"/>
       <c r="J119" s="65" t="s">
         <v>596</v>
       </c>
@@ -16238,7 +16256,7 @@
       <c r="H120" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I120" s="114"/>
+      <c r="I120" s="93"/>
       <c r="J120" s="65" t="s">
         <v>596</v>
       </c>
@@ -16414,7 +16432,7 @@
       <c r="H122" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I122" s="112" t="s">
+      <c r="I122" s="91" t="s">
         <v>426</v>
       </c>
       <c r="J122" s="65" t="s">
@@ -16681,7 +16699,7 @@
       <c r="H125" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I125" s="114"/>
+      <c r="I125" s="93"/>
       <c r="J125" s="65" t="s">
         <v>596</v>
       </c>
@@ -16946,7 +16964,7 @@
       <c r="H128" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I128" s="113" t="s">
+      <c r="I128" s="92" t="s">
         <v>574</v>
       </c>
       <c r="J128" s="65" t="s">
@@ -17035,7 +17053,7 @@
       <c r="H129" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I129" s="112" t="s">
+      <c r="I129" s="91" t="s">
         <v>576</v>
       </c>
       <c r="J129" s="65" t="s">
@@ -17124,7 +17142,7 @@
       <c r="H130" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I130" s="112" t="s">
+      <c r="I130" s="91" t="s">
         <v>426</v>
       </c>
       <c r="J130" s="65" t="s">
@@ -17213,7 +17231,7 @@
       <c r="H131" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I131" s="112" t="s">
+      <c r="I131" s="91" t="s">
         <v>522</v>
       </c>
       <c r="J131" s="65" t="s">
@@ -17302,7 +17320,7 @@
       <c r="H132" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I132" s="115"/>
+      <c r="I132" s="94"/>
       <c r="J132" s="65" t="s">
         <v>596</v>
       </c>
@@ -17389,7 +17407,7 @@
       <c r="H133" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I133" s="113" t="s">
+      <c r="I133" s="92" t="s">
         <v>574</v>
       </c>
       <c r="J133" s="65" t="s">
@@ -17478,7 +17496,7 @@
       <c r="H134" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I134" s="113" t="s">
+      <c r="I134" s="92" t="s">
         <v>574</v>
       </c>
       <c r="J134" s="65" t="s">
@@ -17567,7 +17585,7 @@
       <c r="H135" s="65" t="s">
         <v>600</v>
       </c>
-      <c r="I135" s="112"/>
+      <c r="I135" s="91"/>
       <c r="J135" s="65" t="s">
         <v>596</v>
       </c>
@@ -18068,7 +18086,7 @@
       <c r="B1" s="79" t="s">
         <v>606</v>
       </c>
-      <c r="C1" s="117" t="s">
+      <c r="C1" s="96" t="s">
         <v>347</v>
       </c>
       <c r="D1" s="79" t="s">
@@ -18077,7 +18095,7 @@
       <c r="E1" s="79" t="s">
         <v>607</v>
       </c>
-      <c r="F1" s="118" t="s">
+      <c r="F1" s="97" t="s">
         <v>348</v>
       </c>
       <c r="G1" s="79" t="s">
@@ -18086,7 +18104,7 @@
       <c r="H1" s="79" t="s">
         <v>608</v>
       </c>
-      <c r="I1" s="119" t="s">
+      <c r="I1" s="98" t="s">
         <v>349</v>
       </c>
       <c r="J1" s="79" t="s">
@@ -18095,7 +18113,7 @@
       <c r="K1" s="79" t="s">
         <v>609</v>
       </c>
-      <c r="L1" s="119" t="s">
+      <c r="L1" s="98" t="s">
         <v>591</v>
       </c>
       <c r="M1" s="79" t="s">
@@ -18104,7 +18122,7 @@
       <c r="N1" s="79" t="s">
         <v>592</v>
       </c>
-      <c r="O1" s="120" t="s">
+      <c r="O1" s="99" t="s">
         <v>605</v>
       </c>
       <c r="P1" s="79" t="s">
@@ -18113,7 +18131,7 @@
       <c r="Q1" s="79" t="s">
         <v>610</v>
       </c>
-      <c r="R1" s="119" t="s">
+      <c r="R1" s="98" t="s">
         <v>350</v>
       </c>
       <c r="S1" s="79" t="s">
@@ -18122,7 +18140,7 @@
       <c r="T1" s="79" t="s">
         <v>611</v>
       </c>
-      <c r="U1" s="121" t="s">
+      <c r="U1" s="100" t="s">
         <v>351</v>
       </c>
       <c r="V1" s="79" t="s">
@@ -18131,7 +18149,7 @@
       <c r="W1" s="79" t="s">
         <v>612</v>
       </c>
-      <c r="X1" s="121" t="s">
+      <c r="X1" s="100" t="s">
         <v>352</v>
       </c>
       <c r="Y1" s="79" t="s">
@@ -18145,79 +18163,79 @@
       <c r="A2" s="79" t="s">
         <v>597</v>
       </c>
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="101" t="s">
         <v>598</v>
       </c>
-      <c r="C2" s="123">
+      <c r="C2" s="102">
         <v>1</v>
       </c>
-      <c r="D2" s="122" t="s">
-        <v>596</v>
-      </c>
-      <c r="E2" s="122" t="s">
+      <c r="D2" s="101" t="s">
+        <v>596</v>
+      </c>
+      <c r="E2" s="101" t="s">
         <v>599</v>
       </c>
-      <c r="F2" s="124" t="s">
+      <c r="F2" s="103" t="s">
         <v>378</v>
       </c>
-      <c r="G2" s="122" t="s">
-        <v>596</v>
-      </c>
-      <c r="H2" s="122" t="s">
+      <c r="G2" s="101" t="s">
+        <v>596</v>
+      </c>
+      <c r="H2" s="101" t="s">
         <v>600</v>
       </c>
-      <c r="I2" s="125" t="s">
+      <c r="I2" s="104" t="s">
         <v>545</v>
       </c>
-      <c r="J2" s="122" t="s">
-        <v>596</v>
-      </c>
-      <c r="K2" s="122" t="s">
-        <v>601</v>
-      </c>
-      <c r="L2" s="126">
+      <c r="J2" s="101" t="s">
+        <v>596</v>
+      </c>
+      <c r="K2" s="101" t="s">
+        <v>601</v>
+      </c>
+      <c r="L2" s="105">
         <v>43848</v>
       </c>
-      <c r="M2" s="122" t="s">
-        <v>596</v>
-      </c>
-      <c r="N2" s="122" t="s">
-        <v>601</v>
-      </c>
-      <c r="O2" s="126">
+      <c r="M2" s="101" t="s">
+        <v>596</v>
+      </c>
+      <c r="N2" s="101" t="s">
+        <v>601</v>
+      </c>
+      <c r="O2" s="105">
         <v>43858</v>
       </c>
-      <c r="P2" s="122" t="s">
-        <v>596</v>
-      </c>
-      <c r="Q2" s="122" t="s">
+      <c r="P2" s="101" t="s">
+        <v>596</v>
+      </c>
+      <c r="Q2" s="101" t="s">
         <v>602</v>
       </c>
-      <c r="R2" s="127" t="s">
+      <c r="R2" s="106" t="s">
         <v>379</v>
       </c>
-      <c r="S2" s="122" t="s">
-        <v>596</v>
-      </c>
-      <c r="T2" s="122" t="s">
+      <c r="S2" s="101" t="s">
+        <v>596</v>
+      </c>
+      <c r="T2" s="101" t="s">
         <v>603</v>
       </c>
-      <c r="U2" s="127" t="s">
+      <c r="U2" s="106" t="s">
         <v>380</v>
       </c>
-      <c r="V2" s="122" t="s">
-        <v>596</v>
-      </c>
-      <c r="W2" s="122" t="s">
+      <c r="V2" s="101" t="s">
+        <v>596</v>
+      </c>
+      <c r="W2" s="101" t="s">
         <v>604</v>
       </c>
-      <c r="X2" s="127" t="s">
+      <c r="X2" s="106" t="s">
         <v>381</v>
       </c>
-      <c r="Y2" s="122" t="s">
-        <v>596</v>
-      </c>
-      <c r="Z2" s="128" t="s">
+      <c r="Y2" s="101" t="s">
+        <v>596</v>
+      </c>
+      <c r="Z2" s="107" t="s">
         <v>594</v>
       </c>
     </row>
@@ -18225,79 +18243,79 @@
       <c r="A3" s="79" t="s">
         <v>597</v>
       </c>
-      <c r="B3" s="122" t="s">
+      <c r="B3" s="101" t="s">
         <v>598</v>
       </c>
-      <c r="C3" s="123">
+      <c r="C3" s="102">
         <v>2</v>
       </c>
-      <c r="D3" s="122" t="s">
-        <v>596</v>
-      </c>
-      <c r="E3" s="122" t="s">
+      <c r="D3" s="101" t="s">
+        <v>596</v>
+      </c>
+      <c r="E3" s="101" t="s">
         <v>599</v>
       </c>
-      <c r="F3" s="124" t="s">
+      <c r="F3" s="103" t="s">
         <v>455</v>
       </c>
-      <c r="G3" s="122" t="s">
-        <v>596</v>
-      </c>
-      <c r="H3" s="122" t="s">
+      <c r="G3" s="101" t="s">
+        <v>596</v>
+      </c>
+      <c r="H3" s="101" t="s">
         <v>600</v>
       </c>
-      <c r="I3" s="125" t="s">
+      <c r="I3" s="104" t="s">
         <v>545</v>
       </c>
-      <c r="J3" s="122" t="s">
-        <v>596</v>
-      </c>
-      <c r="K3" s="122" t="s">
-        <v>601</v>
-      </c>
-      <c r="L3" s="126">
+      <c r="J3" s="101" t="s">
+        <v>596</v>
+      </c>
+      <c r="K3" s="101" t="s">
+        <v>601</v>
+      </c>
+      <c r="L3" s="105">
         <v>43960</v>
       </c>
-      <c r="M3" s="122" t="s">
-        <v>596</v>
-      </c>
-      <c r="N3" s="122" t="s">
-        <v>601</v>
-      </c>
-      <c r="O3" s="126">
+      <c r="M3" s="101" t="s">
+        <v>596</v>
+      </c>
+      <c r="N3" s="101" t="s">
+        <v>601</v>
+      </c>
+      <c r="O3" s="105">
         <v>43960</v>
       </c>
-      <c r="P3" s="122" t="s">
-        <v>596</v>
-      </c>
-      <c r="Q3" s="122" t="s">
+      <c r="P3" s="101" t="s">
+        <v>596</v>
+      </c>
+      <c r="Q3" s="101" t="s">
         <v>602</v>
       </c>
-      <c r="R3" s="126" t="s">
+      <c r="R3" s="105" t="s">
         <v>379</v>
       </c>
-      <c r="S3" s="122" t="s">
-        <v>596</v>
-      </c>
-      <c r="T3" s="122" t="s">
+      <c r="S3" s="101" t="s">
+        <v>596</v>
+      </c>
+      <c r="T3" s="101" t="s">
         <v>603</v>
       </c>
-      <c r="U3" s="127" t="s">
+      <c r="U3" s="106" t="s">
         <v>362</v>
       </c>
-      <c r="V3" s="122" t="s">
-        <v>596</v>
-      </c>
-      <c r="W3" s="122" t="s">
+      <c r="V3" s="101" t="s">
+        <v>596</v>
+      </c>
+      <c r="W3" s="101" t="s">
         <v>604</v>
       </c>
-      <c r="X3" s="127" t="s">
+      <c r="X3" s="106" t="s">
         <v>457</v>
       </c>
-      <c r="Y3" s="122" t="s">
-        <v>596</v>
-      </c>
-      <c r="Z3" s="128" t="s">
+      <c r="Y3" s="101" t="s">
+        <v>596</v>
+      </c>
+      <c r="Z3" s="107" t="s">
         <v>594</v>
       </c>
     </row>
@@ -18305,79 +18323,79 @@
       <c r="A4" s="79" t="s">
         <v>597</v>
       </c>
-      <c r="B4" s="122" t="s">
+      <c r="B4" s="101" t="s">
         <v>598</v>
       </c>
-      <c r="C4" s="123">
+      <c r="C4" s="102">
         <v>3</v>
       </c>
-      <c r="D4" s="122" t="s">
-        <v>596</v>
-      </c>
-      <c r="E4" s="122" t="s">
+      <c r="D4" s="101" t="s">
+        <v>596</v>
+      </c>
+      <c r="E4" s="101" t="s">
         <v>599</v>
       </c>
-      <c r="F4" s="124" t="s">
+      <c r="F4" s="103" t="s">
         <v>595</v>
       </c>
-      <c r="G4" s="122" t="s">
-        <v>596</v>
-      </c>
-      <c r="H4" s="122" t="s">
+      <c r="G4" s="101" t="s">
+        <v>596</v>
+      </c>
+      <c r="H4" s="101" t="s">
         <v>600</v>
       </c>
-      <c r="I4" s="125" t="s">
+      <c r="I4" s="104" t="s">
         <v>545</v>
       </c>
-      <c r="J4" s="122" t="s">
-        <v>596</v>
-      </c>
-      <c r="K4" s="122" t="s">
-        <v>601</v>
-      </c>
-      <c r="L4" s="126">
+      <c r="J4" s="101" t="s">
+        <v>596</v>
+      </c>
+      <c r="K4" s="101" t="s">
+        <v>601</v>
+      </c>
+      <c r="L4" s="105">
         <v>44128</v>
       </c>
-      <c r="M4" s="122" t="s">
-        <v>596</v>
-      </c>
-      <c r="N4" s="122" t="s">
-        <v>601</v>
-      </c>
-      <c r="O4" s="126">
+      <c r="M4" s="101" t="s">
+        <v>596</v>
+      </c>
+      <c r="N4" s="101" t="s">
+        <v>601</v>
+      </c>
+      <c r="O4" s="105">
         <v>44129</v>
       </c>
-      <c r="P4" s="122" t="s">
-        <v>596</v>
-      </c>
-      <c r="Q4" s="122" t="s">
+      <c r="P4" s="101" t="s">
+        <v>596</v>
+      </c>
+      <c r="Q4" s="101" t="s">
         <v>602</v>
       </c>
-      <c r="R4" s="126" t="s">
+      <c r="R4" s="105" t="s">
         <v>379</v>
       </c>
-      <c r="S4" s="122" t="s">
-        <v>596</v>
-      </c>
-      <c r="T4" s="122" t="s">
+      <c r="S4" s="101" t="s">
+        <v>596</v>
+      </c>
+      <c r="T4" s="101" t="s">
         <v>603</v>
       </c>
-      <c r="U4" s="127" t="s">
+      <c r="U4" s="106" t="s">
         <v>362</v>
       </c>
-      <c r="V4" s="122" t="s">
-        <v>596</v>
-      </c>
-      <c r="W4" s="122" t="s">
+      <c r="V4" s="101" t="s">
+        <v>596</v>
+      </c>
+      <c r="W4" s="101" t="s">
         <v>604</v>
       </c>
-      <c r="X4" s="127" t="s">
+      <c r="X4" s="106" t="s">
         <v>457</v>
       </c>
-      <c r="Y4" s="122" t="s">
-        <v>596</v>
-      </c>
-      <c r="Z4" s="128" t="s">
+      <c r="Y4" s="101" t="s">
+        <v>596</v>
+      </c>
+      <c r="Z4" s="107" t="s">
         <v>594</v>
       </c>
     </row>
@@ -18385,79 +18403,79 @@
       <c r="A5" s="79" t="s">
         <v>597</v>
       </c>
-      <c r="B5" s="122" t="s">
+      <c r="B5" s="101" t="s">
         <v>598</v>
       </c>
-      <c r="C5" s="123">
+      <c r="C5" s="102">
         <v>4</v>
       </c>
-      <c r="D5" s="122" t="s">
-        <v>596</v>
-      </c>
-      <c r="E5" s="122" t="s">
+      <c r="D5" s="101" t="s">
+        <v>596</v>
+      </c>
+      <c r="E5" s="101" t="s">
         <v>599</v>
       </c>
-      <c r="F5" s="124" t="s">
+      <c r="F5" s="103" t="s">
         <v>560</v>
       </c>
-      <c r="G5" s="122" t="s">
-        <v>596</v>
-      </c>
-      <c r="H5" s="122" t="s">
+      <c r="G5" s="101" t="s">
+        <v>596</v>
+      </c>
+      <c r="H5" s="101" t="s">
         <v>600</v>
       </c>
-      <c r="I5" s="125" t="s">
+      <c r="I5" s="104" t="s">
         <v>545</v>
       </c>
-      <c r="J5" s="122" t="s">
-        <v>596</v>
-      </c>
-      <c r="K5" s="122" t="s">
-        <v>601</v>
-      </c>
-      <c r="L5" s="126">
+      <c r="J5" s="101" t="s">
+        <v>596</v>
+      </c>
+      <c r="K5" s="101" t="s">
+        <v>601</v>
+      </c>
+      <c r="L5" s="105">
         <v>44142</v>
       </c>
-      <c r="M5" s="122" t="s">
-        <v>596</v>
-      </c>
-      <c r="N5" s="122" t="s">
-        <v>601</v>
-      </c>
-      <c r="O5" s="126">
+      <c r="M5" s="101" t="s">
+        <v>596</v>
+      </c>
+      <c r="N5" s="101" t="s">
+        <v>601</v>
+      </c>
+      <c r="O5" s="105">
         <v>44142</v>
       </c>
-      <c r="P5" s="122" t="s">
-        <v>596</v>
-      </c>
-      <c r="Q5" s="122" t="s">
+      <c r="P5" s="101" t="s">
+        <v>596</v>
+      </c>
+      <c r="Q5" s="101" t="s">
         <v>602</v>
       </c>
-      <c r="R5" s="126" t="s">
+      <c r="R5" s="105" t="s">
         <v>379</v>
       </c>
-      <c r="S5" s="122" t="s">
-        <v>596</v>
-      </c>
-      <c r="T5" s="122" t="s">
+      <c r="S5" s="101" t="s">
+        <v>596</v>
+      </c>
+      <c r="T5" s="101" t="s">
         <v>603</v>
       </c>
-      <c r="U5" s="127" t="s">
+      <c r="U5" s="106" t="s">
         <v>362</v>
       </c>
-      <c r="V5" s="122" t="s">
-        <v>596</v>
-      </c>
-      <c r="W5" s="122" t="s">
+      <c r="V5" s="101" t="s">
+        <v>596</v>
+      </c>
+      <c r="W5" s="101" t="s">
         <v>604</v>
       </c>
-      <c r="X5" s="127" t="s">
+      <c r="X5" s="106" t="s">
         <v>457</v>
       </c>
-      <c r="Y5" s="122" t="s">
-        <v>596</v>
-      </c>
-      <c r="Z5" s="128" t="s">
+      <c r="Y5" s="101" t="s">
+        <v>596</v>
+      </c>
+      <c r="Z5" s="107" t="s">
         <v>594</v>
       </c>
     </row>
@@ -18465,79 +18483,79 @@
       <c r="A6" s="79" t="s">
         <v>597</v>
       </c>
-      <c r="B6" s="122" t="s">
+      <c r="B6" s="101" t="s">
         <v>598</v>
       </c>
-      <c r="C6" s="123">
+      <c r="C6" s="102">
         <v>5</v>
       </c>
-      <c r="D6" s="122" t="s">
-        <v>596</v>
-      </c>
-      <c r="E6" s="122" t="s">
+      <c r="D6" s="101" t="s">
+        <v>596</v>
+      </c>
+      <c r="E6" s="101" t="s">
         <v>599</v>
       </c>
-      <c r="F6" s="124" t="s">
+      <c r="F6" s="103" t="s">
         <v>573</v>
       </c>
-      <c r="G6" s="122" t="s">
-        <v>596</v>
-      </c>
-      <c r="H6" s="122" t="s">
+      <c r="G6" s="101" t="s">
+        <v>596</v>
+      </c>
+      <c r="H6" s="101" t="s">
         <v>600</v>
       </c>
-      <c r="I6" s="125" t="s">
+      <c r="I6" s="104" t="s">
         <v>545</v>
       </c>
-      <c r="J6" s="122" t="s">
-        <v>596</v>
-      </c>
-      <c r="K6" s="122" t="s">
-        <v>601</v>
-      </c>
-      <c r="L6" s="126">
+      <c r="J6" s="101" t="s">
+        <v>596</v>
+      </c>
+      <c r="K6" s="101" t="s">
+        <v>601</v>
+      </c>
+      <c r="L6" s="105">
         <v>44166</v>
       </c>
-      <c r="M6" s="122" t="s">
-        <v>596</v>
-      </c>
-      <c r="N6" s="122" t="s">
-        <v>601</v>
-      </c>
-      <c r="O6" s="126">
+      <c r="M6" s="101" t="s">
+        <v>596</v>
+      </c>
+      <c r="N6" s="101" t="s">
+        <v>601</v>
+      </c>
+      <c r="O6" s="105">
         <v>44174</v>
       </c>
-      <c r="P6" s="122" t="s">
-        <v>596</v>
-      </c>
-      <c r="Q6" s="122" t="s">
+      <c r="P6" s="101" t="s">
+        <v>596</v>
+      </c>
+      <c r="Q6" s="101" t="s">
         <v>602</v>
       </c>
-      <c r="R6" s="126" t="s">
+      <c r="R6" s="105" t="s">
         <v>379</v>
       </c>
-      <c r="S6" s="122" t="s">
-        <v>596</v>
-      </c>
-      <c r="T6" s="122" t="s">
+      <c r="S6" s="101" t="s">
+        <v>596</v>
+      </c>
+      <c r="T6" s="101" t="s">
         <v>603</v>
       </c>
-      <c r="U6" s="127" t="s">
+      <c r="U6" s="106" t="s">
         <v>362</v>
       </c>
-      <c r="V6" s="122" t="s">
-        <v>596</v>
-      </c>
-      <c r="W6" s="122" t="s">
+      <c r="V6" s="101" t="s">
+        <v>596</v>
+      </c>
+      <c r="W6" s="101" t="s">
         <v>604</v>
       </c>
-      <c r="X6" s="127" t="s">
+      <c r="X6" s="106" t="s">
         <v>457</v>
       </c>
-      <c r="Y6" s="122" t="s">
-        <v>596</v>
-      </c>
-      <c r="Z6" s="128" t="s">
+      <c r="Y6" s="101" t="s">
+        <v>596</v>
+      </c>
+      <c r="Z6" s="107" t="s">
         <v>594</v>
       </c>
     </row>
@@ -18545,79 +18563,79 @@
       <c r="A7" s="79" t="s">
         <v>597</v>
       </c>
-      <c r="B7" s="122" t="s">
+      <c r="B7" s="101" t="s">
         <v>598</v>
       </c>
-      <c r="C7" s="123">
+      <c r="C7" s="102">
         <v>6</v>
       </c>
-      <c r="D7" s="122" t="s">
-        <v>596</v>
-      </c>
-      <c r="E7" s="122" t="s">
+      <c r="D7" s="101" t="s">
+        <v>596</v>
+      </c>
+      <c r="E7" s="101" t="s">
         <v>599</v>
       </c>
-      <c r="F7" s="124" t="s">
+      <c r="F7" s="103" t="s">
         <v>582</v>
       </c>
-      <c r="G7" s="122" t="s">
-        <v>596</v>
-      </c>
-      <c r="H7" s="122" t="s">
+      <c r="G7" s="101" t="s">
+        <v>596</v>
+      </c>
+      <c r="H7" s="101" t="s">
         <v>600</v>
       </c>
-      <c r="I7" s="125" t="s">
+      <c r="I7" s="104" t="s">
         <v>545</v>
       </c>
-      <c r="J7" s="122" t="s">
-        <v>596</v>
-      </c>
-      <c r="K7" s="122" t="s">
-        <v>601</v>
-      </c>
-      <c r="L7" s="126">
+      <c r="J7" s="101" t="s">
+        <v>596</v>
+      </c>
+      <c r="K7" s="101" t="s">
+        <v>601</v>
+      </c>
+      <c r="L7" s="105">
         <v>44175</v>
       </c>
-      <c r="M7" s="122" t="s">
-        <v>596</v>
-      </c>
-      <c r="N7" s="122" t="s">
-        <v>601</v>
-      </c>
-      <c r="O7" s="126">
+      <c r="M7" s="101" t="s">
+        <v>596</v>
+      </c>
+      <c r="N7" s="101" t="s">
+        <v>601</v>
+      </c>
+      <c r="O7" s="105">
         <v>44175</v>
       </c>
-      <c r="P7" s="122" t="s">
-        <v>596</v>
-      </c>
-      <c r="Q7" s="122" t="s">
+      <c r="P7" s="101" t="s">
+        <v>596</v>
+      </c>
+      <c r="Q7" s="101" t="s">
         <v>602</v>
       </c>
-      <c r="R7" s="126" t="s">
+      <c r="R7" s="105" t="s">
         <v>379</v>
       </c>
-      <c r="S7" s="122" t="s">
-        <v>596</v>
-      </c>
-      <c r="T7" s="122" t="s">
+      <c r="S7" s="101" t="s">
+        <v>596</v>
+      </c>
+      <c r="T7" s="101" t="s">
         <v>603</v>
       </c>
-      <c r="U7" s="127" t="s">
+      <c r="U7" s="106" t="s">
         <v>362</v>
       </c>
-      <c r="V7" s="122" t="s">
-        <v>596</v>
-      </c>
-      <c r="W7" s="122" t="s">
+      <c r="V7" s="101" t="s">
+        <v>596</v>
+      </c>
+      <c r="W7" s="101" t="s">
         <v>604</v>
       </c>
-      <c r="X7" s="127" t="s">
+      <c r="X7" s="106" t="s">
         <v>457</v>
       </c>
-      <c r="Y7" s="122" t="s">
-        <v>596</v>
-      </c>
-      <c r="Z7" s="128" t="s">
+      <c r="Y7" s="101" t="s">
+        <v>596</v>
+      </c>
+      <c r="Z7" s="107" t="s">
         <v>594</v>
       </c>
     </row>
@@ -18625,79 +18643,79 @@
       <c r="A8" s="79" t="s">
         <v>597</v>
       </c>
-      <c r="B8" s="122" t="s">
+      <c r="B8" s="101" t="s">
         <v>598</v>
       </c>
-      <c r="C8" s="123">
+      <c r="C8" s="102">
         <v>7</v>
       </c>
-      <c r="D8" s="122" t="s">
-        <v>596</v>
-      </c>
-      <c r="E8" s="122" t="s">
+      <c r="D8" s="101" t="s">
+        <v>596</v>
+      </c>
+      <c r="E8" s="101" t="s">
         <v>599</v>
       </c>
-      <c r="F8" s="124" t="s">
+      <c r="F8" s="103" t="s">
         <v>583</v>
       </c>
-      <c r="G8" s="122" t="s">
-        <v>596</v>
-      </c>
-      <c r="H8" s="122" t="s">
+      <c r="G8" s="101" t="s">
+        <v>596</v>
+      </c>
+      <c r="H8" s="101" t="s">
         <v>600</v>
       </c>
-      <c r="I8" s="125" t="s">
+      <c r="I8" s="104" t="s">
         <v>545</v>
       </c>
-      <c r="J8" s="122" t="s">
-        <v>596</v>
-      </c>
-      <c r="K8" s="122" t="s">
-        <v>601</v>
-      </c>
-      <c r="L8" s="126">
+      <c r="J8" s="101" t="s">
+        <v>596</v>
+      </c>
+      <c r="K8" s="101" t="s">
+        <v>601</v>
+      </c>
+      <c r="L8" s="105">
         <v>44176</v>
       </c>
-      <c r="M8" s="122" t="s">
-        <v>596</v>
-      </c>
-      <c r="N8" s="122" t="s">
-        <v>601</v>
-      </c>
-      <c r="O8" s="126">
+      <c r="M8" s="101" t="s">
+        <v>596</v>
+      </c>
+      <c r="N8" s="101" t="s">
+        <v>601</v>
+      </c>
+      <c r="O8" s="105">
         <v>44176</v>
       </c>
-      <c r="P8" s="122" t="s">
-        <v>596</v>
-      </c>
-      <c r="Q8" s="122" t="s">
+      <c r="P8" s="101" t="s">
+        <v>596</v>
+      </c>
+      <c r="Q8" s="101" t="s">
         <v>602</v>
       </c>
-      <c r="R8" s="126" t="s">
+      <c r="R8" s="105" t="s">
         <v>379</v>
       </c>
-      <c r="S8" s="122" t="s">
-        <v>596</v>
-      </c>
-      <c r="T8" s="122" t="s">
+      <c r="S8" s="101" t="s">
+        <v>596</v>
+      </c>
+      <c r="T8" s="101" t="s">
         <v>603</v>
       </c>
-      <c r="U8" s="127" t="s">
+      <c r="U8" s="106" t="s">
         <v>362</v>
       </c>
-      <c r="V8" s="122" t="s">
-        <v>596</v>
-      </c>
-      <c r="W8" s="122" t="s">
+      <c r="V8" s="101" t="s">
+        <v>596</v>
+      </c>
+      <c r="W8" s="101" t="s">
         <v>604</v>
       </c>
-      <c r="X8" s="127" t="s">
+      <c r="X8" s="106" t="s">
         <v>457</v>
       </c>
-      <c r="Y8" s="122" t="s">
-        <v>596</v>
-      </c>
-      <c r="Z8" s="128" t="s">
+      <c r="Y8" s="101" t="s">
+        <v>596</v>
+      </c>
+      <c r="Z8" s="107" t="s">
         <v>594</v>
       </c>
     </row>

--- a/plan_my_work.xlsx
+++ b/plan_my_work.xlsx
@@ -2673,22 +2673,28 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2709,32 +2715,26 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3285,7 +3285,7 @@
   <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+      <selection activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3593,66 +3593,66 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1">
-      <c r="A2" s="123">
+      <c r="A2" s="108">
         <v>1</v>
       </c>
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="109" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="117" t="s">
+      <c r="C2" s="119" t="s">
         <v>220</v>
       </c>
-      <c r="D2" s="127" t="s">
+      <c r="D2" s="111" t="s">
         <v>89</v>
       </c>
       <c r="E2" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="124" t="s">
+      <c r="F2" s="112" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="123"/>
-      <c r="B3" s="121"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="127"/>
+      <c r="A3" s="108"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="111"/>
       <c r="E3" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="124"/>
+      <c r="F3" s="112"/>
     </row>
     <row r="4" spans="1:6" ht="30">
-      <c r="A4" s="123"/>
-      <c r="B4" s="121"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="127"/>
+      <c r="A4" s="108"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="111"/>
       <c r="E4" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="124"/>
+      <c r="F4" s="112"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="123"/>
-      <c r="B5" s="121"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="127"/>
+      <c r="A5" s="108"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="111"/>
       <c r="E5" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="124"/>
+      <c r="F5" s="112"/>
     </row>
     <row r="6" spans="1:6" ht="30">
-      <c r="A6" s="123">
+      <c r="A6" s="108">
         <v>2</v>
       </c>
-      <c r="B6" s="121" t="s">
+      <c r="B6" s="109" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="121" t="s">
+      <c r="C6" s="109" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="121" t="s">
+      <c r="D6" s="109" t="s">
         <v>97</v>
       </c>
       <c r="E6" s="30" t="s">
@@ -3663,10 +3663,10 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="123"/>
-      <c r="B7" s="121"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
+      <c r="A7" s="108"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="109"/>
       <c r="E7" s="32" t="s">
         <v>99</v>
       </c>
@@ -3675,13 +3675,13 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="30">
-      <c r="A8" s="123">
+      <c r="A8" s="108">
         <v>3</v>
       </c>
-      <c r="B8" s="121" t="s">
+      <c r="B8" s="109" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="121" t="s">
+      <c r="C8" s="109" t="s">
         <v>102</v>
       </c>
       <c r="D8" s="30"/>
@@ -3693,9 +3693,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="30">
-      <c r="A9" s="123"/>
-      <c r="B9" s="121"/>
-      <c r="C9" s="121"/>
+      <c r="A9" s="108"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="109"/>
       <c r="D9" s="30" t="s">
         <v>103</v>
       </c>
@@ -3707,9 +3707,9 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="123"/>
-      <c r="B10" s="121"/>
-      <c r="C10" s="121"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="109"/>
       <c r="D10" s="31"/>
       <c r="E10" s="32" t="s">
         <v>106</v>
@@ -3719,26 +3719,26 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="18.75">
-      <c r="A11" s="128" t="s">
+      <c r="A11" s="110" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="128"/>
-      <c r="C11" s="128"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="128"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
     </row>
     <row r="12" spans="1:6" ht="30">
-      <c r="A12" s="123">
+      <c r="A12" s="108">
         <v>4</v>
       </c>
-      <c r="B12" s="121" t="s">
+      <c r="B12" s="109" t="s">
         <v>110</v>
       </c>
       <c r="C12" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="D12" s="121" t="s">
+      <c r="D12" s="109" t="s">
         <v>114</v>
       </c>
       <c r="E12" s="30" t="s">
@@ -3749,12 +3749,12 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="123"/>
-      <c r="B13" s="121"/>
+      <c r="A13" s="108"/>
+      <c r="B13" s="109"/>
       <c r="C13" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="D13" s="121"/>
+      <c r="D13" s="109"/>
       <c r="E13" s="32" t="s">
         <v>116</v>
       </c>
@@ -3763,34 +3763,34 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="123"/>
-      <c r="B14" s="121"/>
+      <c r="A14" s="108"/>
+      <c r="B14" s="109"/>
       <c r="C14" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="D14" s="121"/>
+      <c r="D14" s="109"/>
       <c r="E14" s="31"/>
       <c r="F14" s="34"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="123"/>
-      <c r="B15" s="121"/>
+      <c r="A15" s="108"/>
+      <c r="B15" s="109"/>
       <c r="C15" s="30"/>
-      <c r="D15" s="121"/>
+      <c r="D15" s="109"/>
       <c r="E15" s="31"/>
       <c r="F15" s="34"/>
     </row>
     <row r="16" spans="1:6" ht="30">
-      <c r="A16" s="123">
+      <c r="A16" s="108">
         <v>5</v>
       </c>
-      <c r="B16" s="121" t="s">
+      <c r="B16" s="109" t="s">
         <v>119</v>
       </c>
-      <c r="C16" s="121" t="s">
+      <c r="C16" s="109" t="s">
         <v>120</v>
       </c>
-      <c r="D16" s="121" t="s">
+      <c r="D16" s="109" t="s">
         <v>121</v>
       </c>
       <c r="E16" s="30" t="s">
@@ -3801,10 +3801,10 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="123"/>
-      <c r="B17" s="121"/>
-      <c r="C17" s="121"/>
-      <c r="D17" s="121"/>
+      <c r="A17" s="108"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="109"/>
       <c r="E17" s="32" t="s">
         <v>123</v>
       </c>
@@ -3813,16 +3813,16 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="30">
-      <c r="A18" s="120">
+      <c r="A18" s="114">
         <v>6</v>
       </c>
-      <c r="B18" s="121" t="s">
+      <c r="B18" s="109" t="s">
         <v>125</v>
       </c>
-      <c r="C18" s="121" t="s">
+      <c r="C18" s="109" t="s">
         <v>126</v>
       </c>
-      <c r="D18" s="121" t="s">
+      <c r="D18" s="109" t="s">
         <v>127</v>
       </c>
       <c r="E18" s="30" t="s">
@@ -3833,10 +3833,10 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="120"/>
-      <c r="B19" s="121"/>
-      <c r="C19" s="121"/>
-      <c r="D19" s="121"/>
+      <c r="A19" s="114"/>
+      <c r="B19" s="109"/>
+      <c r="C19" s="109"/>
+      <c r="D19" s="109"/>
       <c r="E19" s="32" t="s">
         <v>129</v>
       </c>
@@ -3845,24 +3845,24 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="120"/>
-      <c r="B20" s="121"/>
-      <c r="C20" s="121"/>
-      <c r="D20" s="121"/>
+      <c r="A20" s="114"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="109"/>
       <c r="E20" s="30"/>
       <c r="F20" s="34"/>
     </row>
     <row r="21" spans="1:6" ht="30">
-      <c r="A21" s="120">
+      <c r="A21" s="114">
         <v>7</v>
       </c>
-      <c r="B21" s="121" t="s">
+      <c r="B21" s="109" t="s">
         <v>131</v>
       </c>
-      <c r="C21" s="121" t="s">
+      <c r="C21" s="109" t="s">
         <v>132</v>
       </c>
-      <c r="D21" s="121" t="s">
+      <c r="D21" s="109" t="s">
         <v>133</v>
       </c>
       <c r="E21" s="30" t="s">
@@ -3873,10 +3873,10 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="120"/>
-      <c r="B22" s="121"/>
-      <c r="C22" s="121"/>
-      <c r="D22" s="121"/>
+      <c r="A22" s="114"/>
+      <c r="B22" s="109"/>
+      <c r="C22" s="109"/>
+      <c r="D22" s="109"/>
       <c r="E22" s="32" t="s">
         <v>135</v>
       </c>
@@ -3885,32 +3885,32 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="120"/>
-      <c r="B23" s="121"/>
-      <c r="C23" s="121"/>
-      <c r="D23" s="121"/>
+      <c r="A23" s="114"/>
+      <c r="B23" s="109"/>
+      <c r="C23" s="109"/>
+      <c r="D23" s="109"/>
       <c r="E23" s="30"/>
       <c r="F23" s="33"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="120"/>
-      <c r="B24" s="121"/>
-      <c r="C24" s="121"/>
-      <c r="D24" s="121"/>
+      <c r="A24" s="114"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="109"/>
+      <c r="D24" s="109"/>
       <c r="E24" s="31"/>
       <c r="F24" s="33"/>
     </row>
     <row r="25" spans="1:6" ht="30">
-      <c r="A25" s="120">
+      <c r="A25" s="114">
         <v>8</v>
       </c>
-      <c r="B25" s="121" t="s">
+      <c r="B25" s="109" t="s">
         <v>138</v>
       </c>
-      <c r="C25" s="125" t="s">
+      <c r="C25" s="115" t="s">
         <v>139</v>
       </c>
-      <c r="D25" s="127" t="s">
+      <c r="D25" s="111" t="s">
         <v>140</v>
       </c>
       <c r="E25" s="30" t="s">
@@ -3921,10 +3921,10 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="28.5">
-      <c r="A26" s="120"/>
-      <c r="B26" s="121"/>
-      <c r="C26" s="125"/>
-      <c r="D26" s="127"/>
+      <c r="A26" s="114"/>
+      <c r="B26" s="109"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="111"/>
       <c r="E26" s="32" t="s">
         <v>142</v>
       </c>
@@ -3933,15 +3933,15 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="120"/>
-      <c r="B27" s="121"/>
-      <c r="C27" s="125"/>
-      <c r="D27" s="127"/>
+      <c r="A27" s="114"/>
+      <c r="B27" s="109"/>
+      <c r="C27" s="115"/>
+      <c r="D27" s="111"/>
       <c r="E27" s="31"/>
       <c r="F27" s="33"/>
     </row>
     <row r="28" spans="1:6" ht="30">
-      <c r="A28" s="120">
+      <c r="A28" s="114">
         <v>9</v>
       </c>
       <c r="B28" s="30" t="s">
@@ -3950,39 +3950,39 @@
       <c r="C28" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="D28" s="121" t="s">
+      <c r="D28" s="109" t="s">
         <v>149</v>
       </c>
-      <c r="E28" s="121" t="s">
+      <c r="E28" s="109" t="s">
         <v>150</v>
       </c>
-      <c r="F28" s="126" t="s">
+      <c r="F28" s="113" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="30">
-      <c r="A29" s="120"/>
+      <c r="A29" s="114"/>
       <c r="B29" s="30" t="s">
         <v>146</v>
       </c>
       <c r="C29" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="D29" s="121"/>
-      <c r="E29" s="121"/>
-      <c r="F29" s="126"/>
+      <c r="D29" s="109"/>
+      <c r="E29" s="109"/>
+      <c r="F29" s="113"/>
     </row>
     <row r="30" spans="1:6" ht="30">
-      <c r="A30" s="120">
+      <c r="A30" s="114">
         <v>10</v>
       </c>
-      <c r="B30" s="121" t="s">
+      <c r="B30" s="109" t="s">
         <v>152</v>
       </c>
-      <c r="C30" s="121" t="s">
+      <c r="C30" s="109" t="s">
         <v>153</v>
       </c>
-      <c r="D30" s="121" t="s">
+      <c r="D30" s="109" t="s">
         <v>154</v>
       </c>
       <c r="E30" s="30" t="s">
@@ -3993,10 +3993,10 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="120"/>
-      <c r="B31" s="121"/>
-      <c r="C31" s="121"/>
-      <c r="D31" s="121"/>
+      <c r="A31" s="114"/>
+      <c r="B31" s="109"/>
+      <c r="C31" s="109"/>
+      <c r="D31" s="109"/>
       <c r="E31" s="32" t="s">
         <v>156</v>
       </c>
@@ -4005,32 +4005,32 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="120"/>
-      <c r="B32" s="121"/>
-      <c r="C32" s="121"/>
-      <c r="D32" s="121"/>
+      <c r="A32" s="114"/>
+      <c r="B32" s="109"/>
+      <c r="C32" s="109"/>
+      <c r="D32" s="109"/>
       <c r="E32" s="31"/>
       <c r="F32" s="33"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="120"/>
-      <c r="B33" s="121"/>
-      <c r="C33" s="121"/>
-      <c r="D33" s="121"/>
+      <c r="A33" s="114"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="109"/>
+      <c r="D33" s="109"/>
       <c r="E33" s="31"/>
       <c r="F33" s="33"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="120">
+      <c r="A34" s="114">
         <v>11</v>
       </c>
-      <c r="B34" s="121" t="s">
+      <c r="B34" s="109" t="s">
         <v>159</v>
       </c>
       <c r="C34" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="D34" s="125" t="s">
+      <c r="D34" s="115" t="s">
         <v>162</v>
       </c>
       <c r="E34" s="35" t="s">
@@ -4041,12 +4041,12 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="120"/>
-      <c r="B35" s="121"/>
+      <c r="A35" s="114"/>
+      <c r="B35" s="109"/>
       <c r="C35" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="D35" s="125"/>
+      <c r="D35" s="115"/>
       <c r="E35" s="28" t="s">
         <v>164</v>
       </c>
@@ -4055,24 +4055,24 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="120"/>
-      <c r="B36" s="121"/>
+      <c r="A36" s="114"/>
+      <c r="B36" s="109"/>
       <c r="C36" s="31"/>
-      <c r="D36" s="125"/>
+      <c r="D36" s="115"/>
       <c r="E36" s="31"/>
       <c r="F36" s="36"/>
     </row>
     <row r="37" spans="1:6" ht="30">
-      <c r="A37" s="120">
+      <c r="A37" s="114">
         <v>12</v>
       </c>
-      <c r="B37" s="121" t="s">
+      <c r="B37" s="109" t="s">
         <v>166</v>
       </c>
       <c r="C37" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="D37" s="121" t="s">
+      <c r="D37" s="109" t="s">
         <v>169</v>
       </c>
       <c r="E37" s="30" t="s">
@@ -4083,12 +4083,12 @@
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="120"/>
-      <c r="B38" s="121"/>
+      <c r="A38" s="114"/>
+      <c r="B38" s="109"/>
       <c r="C38" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="D38" s="121"/>
+      <c r="D38" s="109"/>
       <c r="E38" s="32" t="s">
         <v>171</v>
       </c>
@@ -4097,60 +4097,60 @@
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="120"/>
-      <c r="B39" s="121"/>
+      <c r="A39" s="114"/>
+      <c r="B39" s="109"/>
       <c r="C39" s="30"/>
-      <c r="D39" s="121"/>
+      <c r="D39" s="109"/>
       <c r="E39" s="31"/>
       <c r="F39" s="33"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="120"/>
-      <c r="B40" s="121"/>
+      <c r="A40" s="114"/>
+      <c r="B40" s="109"/>
       <c r="C40" s="31"/>
-      <c r="D40" s="121"/>
+      <c r="D40" s="109"/>
       <c r="E40" s="31"/>
       <c r="F40" s="33"/>
     </row>
     <row r="41" spans="1:6" ht="30">
-      <c r="A41" s="120">
+      <c r="A41" s="114">
         <v>13</v>
       </c>
-      <c r="B41" s="121" t="s">
+      <c r="B41" s="109" t="s">
         <v>173</v>
       </c>
       <c r="C41" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="D41" s="122" t="s">
+      <c r="D41" s="126" t="s">
         <v>176</v>
       </c>
       <c r="E41" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="F41" s="124">
+      <c r="F41" s="112">
         <v>89635065816</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="120"/>
-      <c r="B42" s="121"/>
+      <c r="A42" s="114"/>
+      <c r="B42" s="109"/>
       <c r="C42" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="D42" s="122"/>
+      <c r="D42" s="126"/>
       <c r="E42" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="F42" s="124"/>
+      <c r="F42" s="112"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="120"/>
-      <c r="B43" s="121"/>
+      <c r="A43" s="114"/>
+      <c r="B43" s="109"/>
       <c r="C43" s="30"/>
-      <c r="D43" s="122"/>
+      <c r="D43" s="126"/>
       <c r="E43" s="31"/>
-      <c r="F43" s="124"/>
+      <c r="F43" s="112"/>
     </row>
     <row r="44" spans="1:6" ht="18.75">
       <c r="A44" s="37" t="s">
@@ -4163,16 +4163,16 @@
       <c r="F44" s="39"/>
     </row>
     <row r="45" spans="1:6" ht="30">
-      <c r="A45" s="120">
+      <c r="A45" s="114">
         <v>14</v>
       </c>
-      <c r="B45" s="121" t="s">
+      <c r="B45" s="109" t="s">
         <v>180</v>
       </c>
       <c r="C45" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="D45" s="121" t="s">
+      <c r="D45" s="109" t="s">
         <v>183</v>
       </c>
       <c r="E45" s="30" t="s">
@@ -4183,12 +4183,12 @@
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="120"/>
-      <c r="B46" s="121"/>
+      <c r="A46" s="114"/>
+      <c r="B46" s="109"/>
       <c r="C46" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="D46" s="121"/>
+      <c r="D46" s="109"/>
       <c r="E46" s="32" t="s">
         <v>185</v>
       </c>
@@ -4197,18 +4197,18 @@
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="120"/>
-      <c r="B47" s="121"/>
+      <c r="A47" s="114"/>
+      <c r="B47" s="109"/>
       <c r="C47" s="30"/>
-      <c r="D47" s="121"/>
+      <c r="D47" s="109"/>
       <c r="E47" s="31"/>
       <c r="F47" s="34"/>
     </row>
     <row r="48" spans="1:6" ht="30">
-      <c r="A48" s="120">
+      <c r="A48" s="114">
         <v>15</v>
       </c>
-      <c r="B48" s="121" t="s">
+      <c r="B48" s="109" t="s">
         <v>188</v>
       </c>
       <c r="C48" s="30" t="s">
@@ -4225,8 +4225,8 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="28.5">
-      <c r="A49" s="120"/>
-      <c r="B49" s="121"/>
+      <c r="A49" s="114"/>
+      <c r="B49" s="109"/>
       <c r="C49" s="30" t="s">
         <v>190</v>
       </c>
@@ -4241,8 +4241,8 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="120"/>
-      <c r="B50" s="121"/>
+      <c r="A50" s="114"/>
+      <c r="B50" s="109"/>
       <c r="C50" s="30" t="s">
         <v>191</v>
       </c>
@@ -4251,16 +4251,16 @@
       <c r="F50" s="34"/>
     </row>
     <row r="51" spans="1:6" ht="30">
-      <c r="A51" s="120">
+      <c r="A51" s="114">
         <v>16</v>
       </c>
-      <c r="B51" s="121" t="s">
+      <c r="B51" s="109" t="s">
         <v>198</v>
       </c>
       <c r="C51" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="D51" s="121" t="s">
+      <c r="D51" s="109" t="s">
         <v>201</v>
       </c>
       <c r="E51" s="30" t="s">
@@ -4271,12 +4271,12 @@
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="120"/>
-      <c r="B52" s="121"/>
+      <c r="A52" s="114"/>
+      <c r="B52" s="109"/>
       <c r="C52" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="D52" s="121"/>
+      <c r="D52" s="109"/>
       <c r="E52" s="32" t="s">
         <v>203</v>
       </c>
@@ -4295,16 +4295,16 @@
       <c r="F53" s="39"/>
     </row>
     <row r="54" spans="1:6" ht="30">
-      <c r="A54" s="114">
+      <c r="A54" s="116">
         <v>17</v>
       </c>
-      <c r="B54" s="115" t="s">
+      <c r="B54" s="117" t="s">
         <v>207</v>
       </c>
       <c r="C54" s="42" t="s">
         <v>208</v>
       </c>
-      <c r="D54" s="116" t="s">
+      <c r="D54" s="118" t="s">
         <v>210</v>
       </c>
       <c r="E54" s="42" t="s">
@@ -4315,12 +4315,12 @@
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="114"/>
-      <c r="B55" s="115"/>
+      <c r="A55" s="116"/>
+      <c r="B55" s="117"/>
       <c r="C55" s="42" t="s">
         <v>209</v>
       </c>
-      <c r="D55" s="116"/>
+      <c r="D55" s="118"/>
       <c r="E55" s="44" t="s">
         <v>212</v>
       </c>
@@ -4371,10 +4371,10 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="15.75">
-      <c r="A73" s="108" t="s">
+      <c r="A73" s="122" t="s">
         <v>226</v>
       </c>
-      <c r="B73" s="110" t="s">
+      <c r="B73" s="124" t="s">
         <v>38</v>
       </c>
       <c r="C73" s="49" t="s">
@@ -4385,8 +4385,8 @@
       </c>
     </row>
     <row r="74" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A74" s="109"/>
-      <c r="B74" s="111"/>
+      <c r="A74" s="123"/>
+      <c r="B74" s="125"/>
       <c r="C74" s="50" t="s">
         <v>228</v>
       </c>
@@ -4395,8 +4395,8 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="15.75">
-      <c r="A75" s="108"/>
-      <c r="B75" s="110" t="s">
+      <c r="A75" s="122"/>
+      <c r="B75" s="124" t="s">
         <v>231</v>
       </c>
       <c r="C75" s="49" t="s">
@@ -4407,8 +4407,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="15.75">
-      <c r="A76" s="112"/>
-      <c r="B76" s="113"/>
+      <c r="A76" s="127"/>
+      <c r="B76" s="128"/>
       <c r="C76" s="49" t="s">
         <v>233</v>
       </c>
@@ -4417,16 +4417,16 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A77" s="109"/>
-      <c r="B77" s="111"/>
+      <c r="A77" s="123"/>
+      <c r="B77" s="125"/>
       <c r="C77" s="53"/>
       <c r="D77" s="52" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15.75">
-      <c r="A78" s="110"/>
-      <c r="B78" s="110" t="s">
+      <c r="A78" s="124"/>
+      <c r="B78" s="124" t="s">
         <v>237</v>
       </c>
       <c r="C78" s="49" t="s">
@@ -4437,8 +4437,8 @@
       </c>
     </row>
     <row r="79" spans="1:4" ht="15.75">
-      <c r="A79" s="113"/>
-      <c r="B79" s="113"/>
+      <c r="A79" s="128"/>
+      <c r="B79" s="128"/>
       <c r="C79" s="49" t="s">
         <v>239</v>
       </c>
@@ -4447,24 +4447,24 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="15.75">
-      <c r="A80" s="113"/>
-      <c r="B80" s="113"/>
+      <c r="A80" s="128"/>
+      <c r="B80" s="128"/>
       <c r="C80" s="54"/>
       <c r="D80" s="51" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A81" s="111"/>
-      <c r="B81" s="111"/>
+      <c r="A81" s="125"/>
+      <c r="B81" s="125"/>
       <c r="C81" s="53"/>
       <c r="D81" s="52" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15.75">
-      <c r="A82" s="110"/>
-      <c r="B82" s="110" t="s">
+      <c r="A82" s="124"/>
+      <c r="B82" s="124" t="s">
         <v>244</v>
       </c>
       <c r="C82" s="49" t="s">
@@ -4475,8 +4475,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A83" s="111"/>
-      <c r="B83" s="111"/>
+      <c r="A83" s="125"/>
+      <c r="B83" s="125"/>
       <c r="C83" s="50" t="s">
         <v>246</v>
       </c>
@@ -4497,48 +4497,48 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="15.75">
-      <c r="A85" s="110"/>
+      <c r="A85" s="124"/>
       <c r="B85" s="49" t="s">
         <v>252</v>
       </c>
       <c r="C85" s="49" t="s">
         <v>254</v>
       </c>
-      <c r="D85" s="110" t="s">
+      <c r="D85" s="124" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A86" s="111"/>
+      <c r="A86" s="125"/>
       <c r="B86" s="50" t="s">
         <v>253</v>
       </c>
       <c r="C86" s="50" t="s">
         <v>255</v>
       </c>
-      <c r="D86" s="111"/>
+      <c r="D86" s="125"/>
     </row>
     <row r="87" spans="1:4" ht="15.75">
-      <c r="A87" s="110"/>
+      <c r="A87" s="124"/>
       <c r="B87" s="49" t="s">
         <v>257</v>
       </c>
       <c r="C87" s="49" t="s">
         <v>258</v>
       </c>
-      <c r="D87" s="110" t="s">
+      <c r="D87" s="124" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A88" s="111"/>
+      <c r="A88" s="125"/>
       <c r="B88" s="50" t="s">
         <v>253</v>
       </c>
       <c r="C88" s="50" t="s">
         <v>259</v>
       </c>
-      <c r="D88" s="111"/>
+      <c r="D88" s="125"/>
     </row>
     <row r="89" spans="1:4" ht="32.25" thickBot="1">
       <c r="A89" s="50"/>
@@ -4615,32 +4615,32 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="15.75">
-      <c r="A95" s="108" t="s">
+      <c r="A95" s="122" t="s">
         <v>277</v>
       </c>
-      <c r="B95" s="110" t="s">
+      <c r="B95" s="124" t="s">
         <v>278</v>
       </c>
       <c r="C95" s="49" t="s">
         <v>279</v>
       </c>
-      <c r="D95" s="110" t="s">
+      <c r="D95" s="124" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A96" s="109"/>
-      <c r="B96" s="111"/>
+      <c r="A96" s="123"/>
+      <c r="B96" s="125"/>
       <c r="C96" s="56">
         <v>40868</v>
       </c>
-      <c r="D96" s="111"/>
+      <c r="D96" s="125"/>
     </row>
     <row r="97" spans="1:4" ht="15.75">
-      <c r="A97" s="108" t="s">
+      <c r="A97" s="122" t="s">
         <v>281</v>
       </c>
-      <c r="B97" s="110" t="s">
+      <c r="B97" s="124" t="s">
         <v>282</v>
       </c>
       <c r="C97" s="49" t="s">
@@ -4651,8 +4651,8 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A98" s="109"/>
-      <c r="B98" s="111"/>
+      <c r="A98" s="123"/>
+      <c r="B98" s="125"/>
       <c r="C98" s="50" t="s">
         <v>284</v>
       </c>
@@ -4661,24 +4661,24 @@
       </c>
     </row>
     <row r="99" spans="1:4" ht="15.75">
-      <c r="A99" s="110"/>
-      <c r="B99" s="110" t="s">
+      <c r="A99" s="124"/>
+      <c r="B99" s="124" t="s">
         <v>287</v>
       </c>
       <c r="C99" s="49" t="s">
         <v>288</v>
       </c>
-      <c r="D99" s="110" t="s">
+      <c r="D99" s="124" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A100" s="111"/>
-      <c r="B100" s="111"/>
+      <c r="A100" s="125"/>
+      <c r="B100" s="125"/>
       <c r="C100" s="50" t="s">
         <v>289</v>
       </c>
-      <c r="D100" s="111"/>
+      <c r="D100" s="125"/>
     </row>
     <row r="101" spans="1:4" ht="32.25" thickBot="1">
       <c r="A101" s="55" t="s">
@@ -4733,26 +4733,26 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="15.75">
-      <c r="A105" s="108" t="s">
+      <c r="A105" s="122" t="s">
         <v>304</v>
       </c>
-      <c r="B105" s="110" t="s">
+      <c r="B105" s="124" t="s">
         <v>305</v>
       </c>
       <c r="C105" s="49" t="s">
         <v>306</v>
       </c>
-      <c r="D105" s="110" t="s">
+      <c r="D105" s="124" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A106" s="109"/>
-      <c r="B106" s="111"/>
+      <c r="A106" s="123"/>
+      <c r="B106" s="125"/>
       <c r="C106" s="50" t="s">
         <v>307</v>
       </c>
-      <c r="D106" s="111"/>
+      <c r="D106" s="125"/>
     </row>
     <row r="107" spans="1:4" ht="16.5" thickBot="1">
       <c r="A107" s="55" t="s">
@@ -4769,92 +4769,92 @@
       </c>
     </row>
     <row r="108" spans="1:4" ht="15.75">
-      <c r="A108" s="108" t="s">
+      <c r="A108" s="122" t="s">
         <v>313</v>
       </c>
-      <c r="B108" s="110" t="s">
+      <c r="B108" s="124" t="s">
         <v>314</v>
       </c>
       <c r="C108" s="49" t="s">
         <v>315</v>
       </c>
-      <c r="D108" s="110" t="s">
+      <c r="D108" s="124" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A109" s="109"/>
-      <c r="B109" s="111"/>
+      <c r="A109" s="123"/>
+      <c r="B109" s="125"/>
       <c r="C109" s="56">
         <v>13537</v>
       </c>
-      <c r="D109" s="111"/>
+      <c r="D109" s="125"/>
     </row>
     <row r="110" spans="1:4" ht="15.75">
-      <c r="A110" s="108" t="s">
+      <c r="A110" s="122" t="s">
         <v>317</v>
       </c>
-      <c r="B110" s="110" t="s">
+      <c r="B110" s="124" t="s">
         <v>278</v>
       </c>
       <c r="C110" s="49" t="s">
         <v>318</v>
       </c>
-      <c r="D110" s="110" t="s">
+      <c r="D110" s="124" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A111" s="109"/>
-      <c r="B111" s="111"/>
+      <c r="A111" s="123"/>
+      <c r="B111" s="125"/>
       <c r="C111" s="56">
         <v>26045</v>
       </c>
-      <c r="D111" s="111"/>
+      <c r="D111" s="125"/>
     </row>
     <row r="112" spans="1:4" ht="15.75">
-      <c r="A112" s="108" t="s">
+      <c r="A112" s="122" t="s">
         <v>320</v>
       </c>
-      <c r="B112" s="110" t="s">
+      <c r="B112" s="124" t="s">
         <v>278</v>
       </c>
       <c r="C112" s="49" t="s">
         <v>321</v>
       </c>
-      <c r="D112" s="110" t="s">
+      <c r="D112" s="124" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A113" s="109"/>
-      <c r="B113" s="111"/>
+      <c r="A113" s="123"/>
+      <c r="B113" s="125"/>
       <c r="C113" s="50" t="s">
         <v>322</v>
       </c>
-      <c r="D113" s="111"/>
+      <c r="D113" s="125"/>
     </row>
     <row r="114" spans="1:4" ht="15.75">
-      <c r="A114" s="108" t="s">
+      <c r="A114" s="122" t="s">
         <v>324</v>
       </c>
-      <c r="B114" s="110" t="s">
+      <c r="B114" s="124" t="s">
         <v>278</v>
       </c>
       <c r="C114" s="49" t="s">
         <v>325</v>
       </c>
-      <c r="D114" s="110" t="s">
+      <c r="D114" s="124" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A115" s="109"/>
-      <c r="B115" s="111"/>
+      <c r="A115" s="123"/>
+      <c r="B115" s="125"/>
       <c r="C115" s="50" t="s">
         <v>326</v>
       </c>
-      <c r="D115" s="111"/>
+      <c r="D115" s="125"/>
     </row>
     <row r="116" spans="1:4" ht="32.25" thickBot="1">
       <c r="A116" s="55" t="s">
@@ -4885,7 +4885,7 @@
       </c>
     </row>
     <row r="118" spans="1:4" ht="15.75">
-      <c r="A118" s="108" t="s">
+      <c r="A118" s="122" t="s">
         <v>333</v>
       </c>
       <c r="B118" s="49" t="s">
@@ -4894,41 +4894,41 @@
       <c r="C118" s="49" t="s">
         <v>336</v>
       </c>
-      <c r="D118" s="110" t="s">
+      <c r="D118" s="124" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A119" s="109"/>
+      <c r="A119" s="123"/>
       <c r="B119" s="50" t="s">
         <v>335</v>
       </c>
       <c r="C119" s="50" t="s">
         <v>337</v>
       </c>
-      <c r="D119" s="111"/>
+      <c r="D119" s="125"/>
     </row>
     <row r="120" spans="1:4" ht="15.75">
-      <c r="A120" s="108" t="s">
+      <c r="A120" s="122" t="s">
         <v>339</v>
       </c>
-      <c r="B120" s="110" t="s">
+      <c r="B120" s="124" t="s">
         <v>278</v>
       </c>
       <c r="C120" s="49" t="s">
         <v>340</v>
       </c>
-      <c r="D120" s="110" t="s">
+      <c r="D120" s="124" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A121" s="109"/>
-      <c r="B121" s="111"/>
+      <c r="A121" s="123"/>
+      <c r="B121" s="125"/>
       <c r="C121" s="50" t="s">
         <v>341</v>
       </c>
-      <c r="D121" s="111"/>
+      <c r="D121" s="125"/>
     </row>
     <row r="122" spans="1:4" ht="16.5" thickBot="1">
       <c r="A122" s="55" t="s">
@@ -4949,45 +4949,44 @@
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="F41:F43"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="D37:D40"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
     <mergeCell ref="A54:A55"/>
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="D54:D55"/>
@@ -5012,44 +5011,45 @@
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="D18:D20"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="D37:D40"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="mailto:spshkul_3@mail.ru"/>

--- a/plan_my_work.xlsx
+++ b/plan_my_work.xlsx
@@ -2673,28 +2673,22 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2715,26 +2709,32 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3285,7 +3285,7 @@
   <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H69" sqref="H69"/>
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3593,66 +3593,66 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1">
-      <c r="A2" s="108">
+      <c r="A2" s="123">
         <v>1</v>
       </c>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="121" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="119" t="s">
+      <c r="C2" s="117" t="s">
         <v>220</v>
       </c>
-      <c r="D2" s="111" t="s">
+      <c r="D2" s="127" t="s">
         <v>89</v>
       </c>
       <c r="E2" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="112" t="s">
+      <c r="F2" s="124" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="108"/>
-      <c r="B3" s="109"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="111"/>
+      <c r="A3" s="123"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="127"/>
       <c r="E3" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="112"/>
+      <c r="F3" s="124"/>
     </row>
     <row r="4" spans="1:6" ht="30">
-      <c r="A4" s="108"/>
-      <c r="B4" s="109"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="111"/>
+      <c r="A4" s="123"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="127"/>
       <c r="E4" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="112"/>
+      <c r="F4" s="124"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="108"/>
-      <c r="B5" s="109"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="111"/>
+      <c r="A5" s="123"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="127"/>
       <c r="E5" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="112"/>
+      <c r="F5" s="124"/>
     </row>
     <row r="6" spans="1:6" ht="30">
-      <c r="A6" s="108">
+      <c r="A6" s="123">
         <v>2</v>
       </c>
-      <c r="B6" s="109" t="s">
+      <c r="B6" s="121" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="109" t="s">
+      <c r="C6" s="121" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="109" t="s">
+      <c r="D6" s="121" t="s">
         <v>97</v>
       </c>
       <c r="E6" s="30" t="s">
@@ -3663,10 +3663,10 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="108"/>
-      <c r="B7" s="109"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
+      <c r="A7" s="123"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
       <c r="E7" s="32" t="s">
         <v>99</v>
       </c>
@@ -3675,13 +3675,13 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="30">
-      <c r="A8" s="108">
+      <c r="A8" s="123">
         <v>3</v>
       </c>
-      <c r="B8" s="109" t="s">
+      <c r="B8" s="121" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="109" t="s">
+      <c r="C8" s="121" t="s">
         <v>102</v>
       </c>
       <c r="D8" s="30"/>
@@ -3693,9 +3693,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="30">
-      <c r="A9" s="108"/>
-      <c r="B9" s="109"/>
-      <c r="C9" s="109"/>
+      <c r="A9" s="123"/>
+      <c r="B9" s="121"/>
+      <c r="C9" s="121"/>
       <c r="D9" s="30" t="s">
         <v>103</v>
       </c>
@@ -3707,9 +3707,9 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="108"/>
-      <c r="B10" s="109"/>
-      <c r="C10" s="109"/>
+      <c r="A10" s="123"/>
+      <c r="B10" s="121"/>
+      <c r="C10" s="121"/>
       <c r="D10" s="31"/>
       <c r="E10" s="32" t="s">
         <v>106</v>
@@ -3719,26 +3719,26 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="18.75">
-      <c r="A11" s="110" t="s">
+      <c r="A11" s="128" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="110"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
+      <c r="B11" s="128"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="128"/>
     </row>
     <row r="12" spans="1:6" ht="30">
-      <c r="A12" s="108">
+      <c r="A12" s="123">
         <v>4</v>
       </c>
-      <c r="B12" s="109" t="s">
+      <c r="B12" s="121" t="s">
         <v>110</v>
       </c>
       <c r="C12" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="D12" s="109" t="s">
+      <c r="D12" s="121" t="s">
         <v>114</v>
       </c>
       <c r="E12" s="30" t="s">
@@ -3749,12 +3749,12 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="108"/>
-      <c r="B13" s="109"/>
+      <c r="A13" s="123"/>
+      <c r="B13" s="121"/>
       <c r="C13" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="D13" s="109"/>
+      <c r="D13" s="121"/>
       <c r="E13" s="32" t="s">
         <v>116</v>
       </c>
@@ -3763,34 +3763,34 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="108"/>
-      <c r="B14" s="109"/>
+      <c r="A14" s="123"/>
+      <c r="B14" s="121"/>
       <c r="C14" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="D14" s="109"/>
+      <c r="D14" s="121"/>
       <c r="E14" s="31"/>
       <c r="F14" s="34"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="108"/>
-      <c r="B15" s="109"/>
+      <c r="A15" s="123"/>
+      <c r="B15" s="121"/>
       <c r="C15" s="30"/>
-      <c r="D15" s="109"/>
+      <c r="D15" s="121"/>
       <c r="E15" s="31"/>
       <c r="F15" s="34"/>
     </row>
     <row r="16" spans="1:6" ht="30">
-      <c r="A16" s="108">
+      <c r="A16" s="123">
         <v>5</v>
       </c>
-      <c r="B16" s="109" t="s">
+      <c r="B16" s="121" t="s">
         <v>119</v>
       </c>
-      <c r="C16" s="109" t="s">
+      <c r="C16" s="121" t="s">
         <v>120</v>
       </c>
-      <c r="D16" s="109" t="s">
+      <c r="D16" s="121" t="s">
         <v>121</v>
       </c>
       <c r="E16" s="30" t="s">
@@ -3801,10 +3801,10 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="108"/>
-      <c r="B17" s="109"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="109"/>
+      <c r="A17" s="123"/>
+      <c r="B17" s="121"/>
+      <c r="C17" s="121"/>
+      <c r="D17" s="121"/>
       <c r="E17" s="32" t="s">
         <v>123</v>
       </c>
@@ -3813,16 +3813,16 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="30">
-      <c r="A18" s="114">
+      <c r="A18" s="120">
         <v>6</v>
       </c>
-      <c r="B18" s="109" t="s">
+      <c r="B18" s="121" t="s">
         <v>125</v>
       </c>
-      <c r="C18" s="109" t="s">
+      <c r="C18" s="121" t="s">
         <v>126</v>
       </c>
-      <c r="D18" s="109" t="s">
+      <c r="D18" s="121" t="s">
         <v>127</v>
       </c>
       <c r="E18" s="30" t="s">
@@ -3833,10 +3833,10 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="114"/>
-      <c r="B19" s="109"/>
-      <c r="C19" s="109"/>
-      <c r="D19" s="109"/>
+      <c r="A19" s="120"/>
+      <c r="B19" s="121"/>
+      <c r="C19" s="121"/>
+      <c r="D19" s="121"/>
       <c r="E19" s="32" t="s">
         <v>129</v>
       </c>
@@ -3845,24 +3845,24 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="114"/>
-      <c r="B20" s="109"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="109"/>
+      <c r="A20" s="120"/>
+      <c r="B20" s="121"/>
+      <c r="C20" s="121"/>
+      <c r="D20" s="121"/>
       <c r="E20" s="30"/>
       <c r="F20" s="34"/>
     </row>
     <row r="21" spans="1:6" ht="30">
-      <c r="A21" s="114">
+      <c r="A21" s="120">
         <v>7</v>
       </c>
-      <c r="B21" s="109" t="s">
+      <c r="B21" s="121" t="s">
         <v>131</v>
       </c>
-      <c r="C21" s="109" t="s">
+      <c r="C21" s="121" t="s">
         <v>132</v>
       </c>
-      <c r="D21" s="109" t="s">
+      <c r="D21" s="121" t="s">
         <v>133</v>
       </c>
       <c r="E21" s="30" t="s">
@@ -3873,10 +3873,10 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="114"/>
-      <c r="B22" s="109"/>
-      <c r="C22" s="109"/>
-      <c r="D22" s="109"/>
+      <c r="A22" s="120"/>
+      <c r="B22" s="121"/>
+      <c r="C22" s="121"/>
+      <c r="D22" s="121"/>
       <c r="E22" s="32" t="s">
         <v>135</v>
       </c>
@@ -3885,32 +3885,32 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="114"/>
-      <c r="B23" s="109"/>
-      <c r="C23" s="109"/>
-      <c r="D23" s="109"/>
+      <c r="A23" s="120"/>
+      <c r="B23" s="121"/>
+      <c r="C23" s="121"/>
+      <c r="D23" s="121"/>
       <c r="E23" s="30"/>
       <c r="F23" s="33"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="114"/>
-      <c r="B24" s="109"/>
-      <c r="C24" s="109"/>
-      <c r="D24" s="109"/>
+      <c r="A24" s="120"/>
+      <c r="B24" s="121"/>
+      <c r="C24" s="121"/>
+      <c r="D24" s="121"/>
       <c r="E24" s="31"/>
       <c r="F24" s="33"/>
     </row>
     <row r="25" spans="1:6" ht="30">
-      <c r="A25" s="114">
+      <c r="A25" s="120">
         <v>8</v>
       </c>
-      <c r="B25" s="109" t="s">
+      <c r="B25" s="121" t="s">
         <v>138</v>
       </c>
-      <c r="C25" s="115" t="s">
+      <c r="C25" s="125" t="s">
         <v>139</v>
       </c>
-      <c r="D25" s="111" t="s">
+      <c r="D25" s="127" t="s">
         <v>140</v>
       </c>
       <c r="E25" s="30" t="s">
@@ -3921,10 +3921,10 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="28.5">
-      <c r="A26" s="114"/>
-      <c r="B26" s="109"/>
-      <c r="C26" s="115"/>
-      <c r="D26" s="111"/>
+      <c r="A26" s="120"/>
+      <c r="B26" s="121"/>
+      <c r="C26" s="125"/>
+      <c r="D26" s="127"/>
       <c r="E26" s="32" t="s">
         <v>142</v>
       </c>
@@ -3933,15 +3933,15 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="114"/>
-      <c r="B27" s="109"/>
-      <c r="C27" s="115"/>
-      <c r="D27" s="111"/>
+      <c r="A27" s="120"/>
+      <c r="B27" s="121"/>
+      <c r="C27" s="125"/>
+      <c r="D27" s="127"/>
       <c r="E27" s="31"/>
       <c r="F27" s="33"/>
     </row>
     <row r="28" spans="1:6" ht="30">
-      <c r="A28" s="114">
+      <c r="A28" s="120">
         <v>9</v>
       </c>
       <c r="B28" s="30" t="s">
@@ -3950,39 +3950,39 @@
       <c r="C28" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="D28" s="109" t="s">
+      <c r="D28" s="121" t="s">
         <v>149</v>
       </c>
-      <c r="E28" s="109" t="s">
+      <c r="E28" s="121" t="s">
         <v>150</v>
       </c>
-      <c r="F28" s="113" t="s">
+      <c r="F28" s="126" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="30">
-      <c r="A29" s="114"/>
+      <c r="A29" s="120"/>
       <c r="B29" s="30" t="s">
         <v>146</v>
       </c>
       <c r="C29" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="D29" s="109"/>
-      <c r="E29" s="109"/>
-      <c r="F29" s="113"/>
+      <c r="D29" s="121"/>
+      <c r="E29" s="121"/>
+      <c r="F29" s="126"/>
     </row>
     <row r="30" spans="1:6" ht="30">
-      <c r="A30" s="114">
+      <c r="A30" s="120">
         <v>10</v>
       </c>
-      <c r="B30" s="109" t="s">
+      <c r="B30" s="121" t="s">
         <v>152</v>
       </c>
-      <c r="C30" s="109" t="s">
+      <c r="C30" s="121" t="s">
         <v>153</v>
       </c>
-      <c r="D30" s="109" t="s">
+      <c r="D30" s="121" t="s">
         <v>154</v>
       </c>
       <c r="E30" s="30" t="s">
@@ -3993,10 +3993,10 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="114"/>
-      <c r="B31" s="109"/>
-      <c r="C31" s="109"/>
-      <c r="D31" s="109"/>
+      <c r="A31" s="120"/>
+      <c r="B31" s="121"/>
+      <c r="C31" s="121"/>
+      <c r="D31" s="121"/>
       <c r="E31" s="32" t="s">
         <v>156</v>
       </c>
@@ -4005,32 +4005,32 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="114"/>
-      <c r="B32" s="109"/>
-      <c r="C32" s="109"/>
-      <c r="D32" s="109"/>
+      <c r="A32" s="120"/>
+      <c r="B32" s="121"/>
+      <c r="C32" s="121"/>
+      <c r="D32" s="121"/>
       <c r="E32" s="31"/>
       <c r="F32" s="33"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="114"/>
-      <c r="B33" s="109"/>
-      <c r="C33" s="109"/>
-      <c r="D33" s="109"/>
+      <c r="A33" s="120"/>
+      <c r="B33" s="121"/>
+      <c r="C33" s="121"/>
+      <c r="D33" s="121"/>
       <c r="E33" s="31"/>
       <c r="F33" s="33"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="114">
+      <c r="A34" s="120">
         <v>11</v>
       </c>
-      <c r="B34" s="109" t="s">
+      <c r="B34" s="121" t="s">
         <v>159</v>
       </c>
       <c r="C34" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="D34" s="115" t="s">
+      <c r="D34" s="125" t="s">
         <v>162</v>
       </c>
       <c r="E34" s="35" t="s">
@@ -4041,12 +4041,12 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="114"/>
-      <c r="B35" s="109"/>
+      <c r="A35" s="120"/>
+      <c r="B35" s="121"/>
       <c r="C35" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="D35" s="115"/>
+      <c r="D35" s="125"/>
       <c r="E35" s="28" t="s">
         <v>164</v>
       </c>
@@ -4055,24 +4055,24 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="114"/>
-      <c r="B36" s="109"/>
+      <c r="A36" s="120"/>
+      <c r="B36" s="121"/>
       <c r="C36" s="31"/>
-      <c r="D36" s="115"/>
+      <c r="D36" s="125"/>
       <c r="E36" s="31"/>
       <c r="F36" s="36"/>
     </row>
     <row r="37" spans="1:6" ht="30">
-      <c r="A37" s="114">
+      <c r="A37" s="120">
         <v>12</v>
       </c>
-      <c r="B37" s="109" t="s">
+      <c r="B37" s="121" t="s">
         <v>166</v>
       </c>
       <c r="C37" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="D37" s="109" t="s">
+      <c r="D37" s="121" t="s">
         <v>169</v>
       </c>
       <c r="E37" s="30" t="s">
@@ -4083,12 +4083,12 @@
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="114"/>
-      <c r="B38" s="109"/>
+      <c r="A38" s="120"/>
+      <c r="B38" s="121"/>
       <c r="C38" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="D38" s="109"/>
+      <c r="D38" s="121"/>
       <c r="E38" s="32" t="s">
         <v>171</v>
       </c>
@@ -4097,60 +4097,60 @@
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="114"/>
-      <c r="B39" s="109"/>
+      <c r="A39" s="120"/>
+      <c r="B39" s="121"/>
       <c r="C39" s="30"/>
-      <c r="D39" s="109"/>
+      <c r="D39" s="121"/>
       <c r="E39" s="31"/>
       <c r="F39" s="33"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="114"/>
-      <c r="B40" s="109"/>
+      <c r="A40" s="120"/>
+      <c r="B40" s="121"/>
       <c r="C40" s="31"/>
-      <c r="D40" s="109"/>
+      <c r="D40" s="121"/>
       <c r="E40" s="31"/>
       <c r="F40" s="33"/>
     </row>
     <row r="41" spans="1:6" ht="30">
-      <c r="A41" s="114">
+      <c r="A41" s="120">
         <v>13</v>
       </c>
-      <c r="B41" s="109" t="s">
+      <c r="B41" s="121" t="s">
         <v>173</v>
       </c>
       <c r="C41" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="D41" s="126" t="s">
+      <c r="D41" s="122" t="s">
         <v>176</v>
       </c>
       <c r="E41" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="F41" s="112">
+      <c r="F41" s="124">
         <v>89635065816</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="114"/>
-      <c r="B42" s="109"/>
+      <c r="A42" s="120"/>
+      <c r="B42" s="121"/>
       <c r="C42" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="D42" s="126"/>
+      <c r="D42" s="122"/>
       <c r="E42" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="F42" s="112"/>
+      <c r="F42" s="124"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="114"/>
-      <c r="B43" s="109"/>
+      <c r="A43" s="120"/>
+      <c r="B43" s="121"/>
       <c r="C43" s="30"/>
-      <c r="D43" s="126"/>
+      <c r="D43" s="122"/>
       <c r="E43" s="31"/>
-      <c r="F43" s="112"/>
+      <c r="F43" s="124"/>
     </row>
     <row r="44" spans="1:6" ht="18.75">
       <c r="A44" s="37" t="s">
@@ -4163,16 +4163,16 @@
       <c r="F44" s="39"/>
     </row>
     <row r="45" spans="1:6" ht="30">
-      <c r="A45" s="114">
+      <c r="A45" s="120">
         <v>14</v>
       </c>
-      <c r="B45" s="109" t="s">
+      <c r="B45" s="121" t="s">
         <v>180</v>
       </c>
       <c r="C45" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="D45" s="109" t="s">
+      <c r="D45" s="121" t="s">
         <v>183</v>
       </c>
       <c r="E45" s="30" t="s">
@@ -4183,12 +4183,12 @@
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="114"/>
-      <c r="B46" s="109"/>
+      <c r="A46" s="120"/>
+      <c r="B46" s="121"/>
       <c r="C46" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="D46" s="109"/>
+      <c r="D46" s="121"/>
       <c r="E46" s="32" t="s">
         <v>185</v>
       </c>
@@ -4197,18 +4197,18 @@
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="114"/>
-      <c r="B47" s="109"/>
+      <c r="A47" s="120"/>
+      <c r="B47" s="121"/>
       <c r="C47" s="30"/>
-      <c r="D47" s="109"/>
+      <c r="D47" s="121"/>
       <c r="E47" s="31"/>
       <c r="F47" s="34"/>
     </row>
     <row r="48" spans="1:6" ht="30">
-      <c r="A48" s="114">
+      <c r="A48" s="120">
         <v>15</v>
       </c>
-      <c r="B48" s="109" t="s">
+      <c r="B48" s="121" t="s">
         <v>188</v>
       </c>
       <c r="C48" s="30" t="s">
@@ -4225,8 +4225,8 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="28.5">
-      <c r="A49" s="114"/>
-      <c r="B49" s="109"/>
+      <c r="A49" s="120"/>
+      <c r="B49" s="121"/>
       <c r="C49" s="30" t="s">
         <v>190</v>
       </c>
@@ -4241,8 +4241,8 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="114"/>
-      <c r="B50" s="109"/>
+      <c r="A50" s="120"/>
+      <c r="B50" s="121"/>
       <c r="C50" s="30" t="s">
         <v>191</v>
       </c>
@@ -4251,16 +4251,16 @@
       <c r="F50" s="34"/>
     </row>
     <row r="51" spans="1:6" ht="30">
-      <c r="A51" s="114">
+      <c r="A51" s="120">
         <v>16</v>
       </c>
-      <c r="B51" s="109" t="s">
+      <c r="B51" s="121" t="s">
         <v>198</v>
       </c>
       <c r="C51" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="D51" s="109" t="s">
+      <c r="D51" s="121" t="s">
         <v>201</v>
       </c>
       <c r="E51" s="30" t="s">
@@ -4271,12 +4271,12 @@
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="114"/>
-      <c r="B52" s="109"/>
+      <c r="A52" s="120"/>
+      <c r="B52" s="121"/>
       <c r="C52" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="D52" s="109"/>
+      <c r="D52" s="121"/>
       <c r="E52" s="32" t="s">
         <v>203</v>
       </c>
@@ -4295,16 +4295,16 @@
       <c r="F53" s="39"/>
     </row>
     <row r="54" spans="1:6" ht="30">
-      <c r="A54" s="116">
+      <c r="A54" s="114">
         <v>17</v>
       </c>
-      <c r="B54" s="117" t="s">
+      <c r="B54" s="115" t="s">
         <v>207</v>
       </c>
       <c r="C54" s="42" t="s">
         <v>208</v>
       </c>
-      <c r="D54" s="118" t="s">
+      <c r="D54" s="116" t="s">
         <v>210</v>
       </c>
       <c r="E54" s="42" t="s">
@@ -4315,12 +4315,12 @@
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="116"/>
-      <c r="B55" s="117"/>
+      <c r="A55" s="114"/>
+      <c r="B55" s="115"/>
       <c r="C55" s="42" t="s">
         <v>209</v>
       </c>
-      <c r="D55" s="118"/>
+      <c r="D55" s="116"/>
       <c r="E55" s="44" t="s">
         <v>212</v>
       </c>
@@ -4371,10 +4371,10 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="15.75">
-      <c r="A73" s="122" t="s">
+      <c r="A73" s="108" t="s">
         <v>226</v>
       </c>
-      <c r="B73" s="124" t="s">
+      <c r="B73" s="110" t="s">
         <v>38</v>
       </c>
       <c r="C73" s="49" t="s">
@@ -4385,8 +4385,8 @@
       </c>
     </row>
     <row r="74" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A74" s="123"/>
-      <c r="B74" s="125"/>
+      <c r="A74" s="109"/>
+      <c r="B74" s="111"/>
       <c r="C74" s="50" t="s">
         <v>228</v>
       </c>
@@ -4395,8 +4395,8 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="15.75">
-      <c r="A75" s="122"/>
-      <c r="B75" s="124" t="s">
+      <c r="A75" s="108"/>
+      <c r="B75" s="110" t="s">
         <v>231</v>
       </c>
       <c r="C75" s="49" t="s">
@@ -4407,8 +4407,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="15.75">
-      <c r="A76" s="127"/>
-      <c r="B76" s="128"/>
+      <c r="A76" s="112"/>
+      <c r="B76" s="113"/>
       <c r="C76" s="49" t="s">
         <v>233</v>
       </c>
@@ -4417,16 +4417,16 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A77" s="123"/>
-      <c r="B77" s="125"/>
+      <c r="A77" s="109"/>
+      <c r="B77" s="111"/>
       <c r="C77" s="53"/>
       <c r="D77" s="52" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15.75">
-      <c r="A78" s="124"/>
-      <c r="B78" s="124" t="s">
+      <c r="A78" s="110"/>
+      <c r="B78" s="110" t="s">
         <v>237</v>
       </c>
       <c r="C78" s="49" t="s">
@@ -4437,8 +4437,8 @@
       </c>
     </row>
     <row r="79" spans="1:4" ht="15.75">
-      <c r="A79" s="128"/>
-      <c r="B79" s="128"/>
+      <c r="A79" s="113"/>
+      <c r="B79" s="113"/>
       <c r="C79" s="49" t="s">
         <v>239</v>
       </c>
@@ -4447,24 +4447,24 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="15.75">
-      <c r="A80" s="128"/>
-      <c r="B80" s="128"/>
+      <c r="A80" s="113"/>
+      <c r="B80" s="113"/>
       <c r="C80" s="54"/>
       <c r="D80" s="51" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A81" s="125"/>
-      <c r="B81" s="125"/>
+      <c r="A81" s="111"/>
+      <c r="B81" s="111"/>
       <c r="C81" s="53"/>
       <c r="D81" s="52" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15.75">
-      <c r="A82" s="124"/>
-      <c r="B82" s="124" t="s">
+      <c r="A82" s="110"/>
+      <c r="B82" s="110" t="s">
         <v>244</v>
       </c>
       <c r="C82" s="49" t="s">
@@ -4475,8 +4475,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A83" s="125"/>
-      <c r="B83" s="125"/>
+      <c r="A83" s="111"/>
+      <c r="B83" s="111"/>
       <c r="C83" s="50" t="s">
         <v>246</v>
       </c>
@@ -4497,48 +4497,48 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="15.75">
-      <c r="A85" s="124"/>
+      <c r="A85" s="110"/>
       <c r="B85" s="49" t="s">
         <v>252</v>
       </c>
       <c r="C85" s="49" t="s">
         <v>254</v>
       </c>
-      <c r="D85" s="124" t="s">
+      <c r="D85" s="110" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A86" s="125"/>
+      <c r="A86" s="111"/>
       <c r="B86" s="50" t="s">
         <v>253</v>
       </c>
       <c r="C86" s="50" t="s">
         <v>255</v>
       </c>
-      <c r="D86" s="125"/>
+      <c r="D86" s="111"/>
     </row>
     <row r="87" spans="1:4" ht="15.75">
-      <c r="A87" s="124"/>
+      <c r="A87" s="110"/>
       <c r="B87" s="49" t="s">
         <v>257</v>
       </c>
       <c r="C87" s="49" t="s">
         <v>258</v>
       </c>
-      <c r="D87" s="124" t="s">
+      <c r="D87" s="110" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A88" s="125"/>
+      <c r="A88" s="111"/>
       <c r="B88" s="50" t="s">
         <v>253</v>
       </c>
       <c r="C88" s="50" t="s">
         <v>259</v>
       </c>
-      <c r="D88" s="125"/>
+      <c r="D88" s="111"/>
     </row>
     <row r="89" spans="1:4" ht="32.25" thickBot="1">
       <c r="A89" s="50"/>
@@ -4615,32 +4615,32 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="15.75">
-      <c r="A95" s="122" t="s">
+      <c r="A95" s="108" t="s">
         <v>277</v>
       </c>
-      <c r="B95" s="124" t="s">
+      <c r="B95" s="110" t="s">
         <v>278</v>
       </c>
       <c r="C95" s="49" t="s">
         <v>279</v>
       </c>
-      <c r="D95" s="124" t="s">
+      <c r="D95" s="110" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A96" s="123"/>
-      <c r="B96" s="125"/>
+      <c r="A96" s="109"/>
+      <c r="B96" s="111"/>
       <c r="C96" s="56">
         <v>40868</v>
       </c>
-      <c r="D96" s="125"/>
+      <c r="D96" s="111"/>
     </row>
     <row r="97" spans="1:4" ht="15.75">
-      <c r="A97" s="122" t="s">
+      <c r="A97" s="108" t="s">
         <v>281</v>
       </c>
-      <c r="B97" s="124" t="s">
+      <c r="B97" s="110" t="s">
         <v>282</v>
       </c>
       <c r="C97" s="49" t="s">
@@ -4651,8 +4651,8 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A98" s="123"/>
-      <c r="B98" s="125"/>
+      <c r="A98" s="109"/>
+      <c r="B98" s="111"/>
       <c r="C98" s="50" t="s">
         <v>284</v>
       </c>
@@ -4661,24 +4661,24 @@
       </c>
     </row>
     <row r="99" spans="1:4" ht="15.75">
-      <c r="A99" s="124"/>
-      <c r="B99" s="124" t="s">
+      <c r="A99" s="110"/>
+      <c r="B99" s="110" t="s">
         <v>287</v>
       </c>
       <c r="C99" s="49" t="s">
         <v>288</v>
       </c>
-      <c r="D99" s="124" t="s">
+      <c r="D99" s="110" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A100" s="125"/>
-      <c r="B100" s="125"/>
+      <c r="A100" s="111"/>
+      <c r="B100" s="111"/>
       <c r="C100" s="50" t="s">
         <v>289</v>
       </c>
-      <c r="D100" s="125"/>
+      <c r="D100" s="111"/>
     </row>
     <row r="101" spans="1:4" ht="32.25" thickBot="1">
       <c r="A101" s="55" t="s">
@@ -4733,26 +4733,26 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="15.75">
-      <c r="A105" s="122" t="s">
+      <c r="A105" s="108" t="s">
         <v>304</v>
       </c>
-      <c r="B105" s="124" t="s">
+      <c r="B105" s="110" t="s">
         <v>305</v>
       </c>
       <c r="C105" s="49" t="s">
         <v>306</v>
       </c>
-      <c r="D105" s="124" t="s">
+      <c r="D105" s="110" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A106" s="123"/>
-      <c r="B106" s="125"/>
+      <c r="A106" s="109"/>
+      <c r="B106" s="111"/>
       <c r="C106" s="50" t="s">
         <v>307</v>
       </c>
-      <c r="D106" s="125"/>
+      <c r="D106" s="111"/>
     </row>
     <row r="107" spans="1:4" ht="16.5" thickBot="1">
       <c r="A107" s="55" t="s">
@@ -4769,92 +4769,92 @@
       </c>
     </row>
     <row r="108" spans="1:4" ht="15.75">
-      <c r="A108" s="122" t="s">
+      <c r="A108" s="108" t="s">
         <v>313</v>
       </c>
-      <c r="B108" s="124" t="s">
+      <c r="B108" s="110" t="s">
         <v>314</v>
       </c>
       <c r="C108" s="49" t="s">
         <v>315</v>
       </c>
-      <c r="D108" s="124" t="s">
+      <c r="D108" s="110" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A109" s="123"/>
-      <c r="B109" s="125"/>
+      <c r="A109" s="109"/>
+      <c r="B109" s="111"/>
       <c r="C109" s="56">
         <v>13537</v>
       </c>
-      <c r="D109" s="125"/>
+      <c r="D109" s="111"/>
     </row>
     <row r="110" spans="1:4" ht="15.75">
-      <c r="A110" s="122" t="s">
+      <c r="A110" s="108" t="s">
         <v>317</v>
       </c>
-      <c r="B110" s="124" t="s">
+      <c r="B110" s="110" t="s">
         <v>278</v>
       </c>
       <c r="C110" s="49" t="s">
         <v>318</v>
       </c>
-      <c r="D110" s="124" t="s">
+      <c r="D110" s="110" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A111" s="123"/>
-      <c r="B111" s="125"/>
+      <c r="A111" s="109"/>
+      <c r="B111" s="111"/>
       <c r="C111" s="56">
         <v>26045</v>
       </c>
-      <c r="D111" s="125"/>
+      <c r="D111" s="111"/>
     </row>
     <row r="112" spans="1:4" ht="15.75">
-      <c r="A112" s="122" t="s">
+      <c r="A112" s="108" t="s">
         <v>320</v>
       </c>
-      <c r="B112" s="124" t="s">
+      <c r="B112" s="110" t="s">
         <v>278</v>
       </c>
       <c r="C112" s="49" t="s">
         <v>321</v>
       </c>
-      <c r="D112" s="124" t="s">
+      <c r="D112" s="110" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A113" s="123"/>
-      <c r="B113" s="125"/>
+      <c r="A113" s="109"/>
+      <c r="B113" s="111"/>
       <c r="C113" s="50" t="s">
         <v>322</v>
       </c>
-      <c r="D113" s="125"/>
+      <c r="D113" s="111"/>
     </row>
     <row r="114" spans="1:4" ht="15.75">
-      <c r="A114" s="122" t="s">
+      <c r="A114" s="108" t="s">
         <v>324</v>
       </c>
-      <c r="B114" s="124" t="s">
+      <c r="B114" s="110" t="s">
         <v>278</v>
       </c>
       <c r="C114" s="49" t="s">
         <v>325</v>
       </c>
-      <c r="D114" s="124" t="s">
+      <c r="D114" s="110" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A115" s="123"/>
-      <c r="B115" s="125"/>
+      <c r="A115" s="109"/>
+      <c r="B115" s="111"/>
       <c r="C115" s="50" t="s">
         <v>326</v>
       </c>
-      <c r="D115" s="125"/>
+      <c r="D115" s="111"/>
     </row>
     <row r="116" spans="1:4" ht="32.25" thickBot="1">
       <c r="A116" s="55" t="s">
@@ -4885,7 +4885,7 @@
       </c>
     </row>
     <row r="118" spans="1:4" ht="15.75">
-      <c r="A118" s="122" t="s">
+      <c r="A118" s="108" t="s">
         <v>333</v>
       </c>
       <c r="B118" s="49" t="s">
@@ -4894,41 +4894,41 @@
       <c r="C118" s="49" t="s">
         <v>336</v>
       </c>
-      <c r="D118" s="124" t="s">
+      <c r="D118" s="110" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A119" s="123"/>
+      <c r="A119" s="109"/>
       <c r="B119" s="50" t="s">
         <v>335</v>
       </c>
       <c r="C119" s="50" t="s">
         <v>337</v>
       </c>
-      <c r="D119" s="125"/>
+      <c r="D119" s="111"/>
     </row>
     <row r="120" spans="1:4" ht="15.75">
-      <c r="A120" s="122" t="s">
+      <c r="A120" s="108" t="s">
         <v>339</v>
       </c>
-      <c r="B120" s="124" t="s">
+      <c r="B120" s="110" t="s">
         <v>278</v>
       </c>
       <c r="C120" s="49" t="s">
         <v>340</v>
       </c>
-      <c r="D120" s="124" t="s">
+      <c r="D120" s="110" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A121" s="123"/>
-      <c r="B121" s="125"/>
+      <c r="A121" s="109"/>
+      <c r="B121" s="111"/>
       <c r="C121" s="50" t="s">
         <v>341</v>
       </c>
-      <c r="D121" s="125"/>
+      <c r="D121" s="111"/>
     </row>
     <row r="122" spans="1:4" ht="16.5" thickBot="1">
       <c r="A122" s="55" t="s">
@@ -4949,44 +4949,45 @@
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="D37:D40"/>
     <mergeCell ref="A54:A55"/>
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="D54:D55"/>
@@ -5011,45 +5012,44 @@
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="D18:D20"/>
-    <mergeCell ref="F41:F43"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="D37:D40"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="D114:D115"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="mailto:spshkul_3@mail.ru"/>

--- a/plan_my_work.xlsx
+++ b/plan_my_work.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="770"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="4" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="top 100" sheetId="13" r:id="rId10"/>
     <sheet name="секции" sheetId="14" r:id="rId11"/>
     <sheet name="время работы клуба" sheetId="15" r:id="rId12"/>
+    <sheet name="bill_federation" sheetId="16" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="__DdeLink__347_65971897711" localSheetId="2">Лист1!$D$91</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8898" uniqueCount="787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9025" uniqueCount="811">
   <si>
     <t>1) У блока "Новости" сделать эффект выделения при наведении курсором на картинку</t>
   </si>
@@ -2484,6 +2485,78 @@
   <si>
     <t>Павловский</t>
   </si>
+  <si>
+    <t>Полное наименование:</t>
+  </si>
+  <si>
+    <t>Сокращенное наименование:</t>
+  </si>
+  <si>
+    <t>ИНН/КПП:</t>
+  </si>
+  <si>
+    <t>ОРГН:</t>
+  </si>
+  <si>
+    <t>ОКПО:</t>
+  </si>
+  <si>
+    <t>ОКОПФ:</t>
+  </si>
+  <si>
+    <t>Юридический адрес:</t>
+  </si>
+  <si>
+    <t>Фактический адрес:</t>
+  </si>
+  <si>
+    <t>Телефон:</t>
+  </si>
+  <si>
+    <t>Электронная почта:</t>
+  </si>
+  <si>
+    <t>Банковские реквизиты:</t>
+  </si>
+  <si>
+    <t>Город: Новосибирск</t>
+  </si>
+  <si>
+    <t>2225115318/222501001</t>
+  </si>
+  <si>
+    <t>Общественная организация «Федерация Шахмат Алтайского края»</t>
+  </si>
+  <si>
+    <t>656056, г. Барнаул, улица Гоголя, д. 42</t>
+  </si>
+  <si>
+    <t>+7 (905) 084-57-77</t>
+  </si>
+  <si>
+    <t>polomoshnov@chess22.ru</t>
+  </si>
+  <si>
+    <t>Название: Филиал ГПБ (ОАО) в г. Новосибирске</t>
+  </si>
+  <si>
+    <t>БИК: 045004783</t>
+  </si>
+  <si>
+    <t>Р/с № 40703810800290006947</t>
+  </si>
+  <si>
+    <t>Кор/счет: 30101810400000000783</t>
+  </si>
+  <si>
+    <t>ОО "ФЕДЕРАЦИЯ ШАХМАТ АЛТАЙСКОГО КРАЯ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КПП: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИНН: </t>
+  </si>
 </sst>
 </file>
 
@@ -2493,7 +2566,7 @@
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="\+#,##0;\-#,##0"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2668,8 +2741,23 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2740,6 +2828,18 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFF5F7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2998,7 +3098,7 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
@@ -3362,22 +3462,28 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3398,32 +3504,53 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3787,8 +3914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4017,7 +4144,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:BD102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
@@ -23210,7 +23337,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="M1" sqref="M1:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23644,11 +23771,468 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="48.85546875" customWidth="1"/>
+    <col min="4" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="59.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="25.5">
+      <c r="A1" s="130" t="s">
+        <v>746</v>
+      </c>
+      <c r="B1" s="130" t="s">
+        <v>747</v>
+      </c>
+      <c r="C1" s="163" t="s">
+        <v>787</v>
+      </c>
+      <c r="D1" s="130" t="s">
+        <v>593</v>
+      </c>
+      <c r="E1" s="130" t="s">
+        <v>749</v>
+      </c>
+      <c r="F1" s="167" t="s">
+        <v>800</v>
+      </c>
+      <c r="G1" s="130" t="s">
+        <v>593</v>
+      </c>
+      <c r="H1" s="131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="130" t="s">
+        <v>746</v>
+      </c>
+      <c r="B2" s="130" t="s">
+        <v>748</v>
+      </c>
+      <c r="C2" s="165" t="s">
+        <v>788</v>
+      </c>
+      <c r="D2" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="E2" s="132" t="s">
+        <v>748</v>
+      </c>
+      <c r="F2" s="167" t="s">
+        <v>808</v>
+      </c>
+      <c r="G2" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="H2" s="131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="130" t="s">
+        <v>746</v>
+      </c>
+      <c r="B3" s="130" t="s">
+        <v>748</v>
+      </c>
+      <c r="C3" s="163" t="s">
+        <v>789</v>
+      </c>
+      <c r="D3" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="E3" s="132" t="s">
+        <v>748</v>
+      </c>
+      <c r="F3" s="167" t="s">
+        <v>799</v>
+      </c>
+      <c r="G3" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="H3" s="131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="130" t="s">
+        <v>746</v>
+      </c>
+      <c r="B4" s="130" t="s">
+        <v>748</v>
+      </c>
+      <c r="C4" s="165" t="s">
+        <v>790</v>
+      </c>
+      <c r="D4" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="E4" s="132" t="s">
+        <v>748</v>
+      </c>
+      <c r="F4" s="168">
+        <v>1112202000129</v>
+      </c>
+      <c r="G4" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="H4" s="131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="130" t="s">
+        <v>746</v>
+      </c>
+      <c r="B5" s="130" t="s">
+        <v>748</v>
+      </c>
+      <c r="C5" s="163" t="s">
+        <v>791</v>
+      </c>
+      <c r="D5" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="E5" s="132" t="s">
+        <v>748</v>
+      </c>
+      <c r="F5" s="168">
+        <v>68517708</v>
+      </c>
+      <c r="G5" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="H5" s="131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="130" t="s">
+        <v>746</v>
+      </c>
+      <c r="B6" s="130" t="s">
+        <v>748</v>
+      </c>
+      <c r="C6" s="165" t="s">
+        <v>792</v>
+      </c>
+      <c r="D6" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="E6" s="132" t="s">
+        <v>748</v>
+      </c>
+      <c r="F6" s="168">
+        <v>20200</v>
+      </c>
+      <c r="G6" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="H6" s="131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="130" t="s">
+        <v>746</v>
+      </c>
+      <c r="B7" s="130" t="s">
+        <v>748</v>
+      </c>
+      <c r="C7" s="163" t="s">
+        <v>793</v>
+      </c>
+      <c r="D7" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="E7" s="132" t="s">
+        <v>748</v>
+      </c>
+      <c r="F7" s="167" t="s">
+        <v>801</v>
+      </c>
+      <c r="G7" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="H7" s="131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="130" t="s">
+        <v>746</v>
+      </c>
+      <c r="B8" s="130" t="s">
+        <v>748</v>
+      </c>
+      <c r="C8" s="165" t="s">
+        <v>794</v>
+      </c>
+      <c r="D8" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="E8" s="132" t="s">
+        <v>748</v>
+      </c>
+      <c r="F8" s="167" t="s">
+        <v>801</v>
+      </c>
+      <c r="G8" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="H8" s="131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="130" t="s">
+        <v>746</v>
+      </c>
+      <c r="B9" s="130" t="s">
+        <v>748</v>
+      </c>
+      <c r="C9" s="163" t="s">
+        <v>795</v>
+      </c>
+      <c r="D9" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="E9" s="132" t="s">
+        <v>748</v>
+      </c>
+      <c r="F9" s="169" t="s">
+        <v>802</v>
+      </c>
+      <c r="G9" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="H9" s="131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="130" t="s">
+        <v>746</v>
+      </c>
+      <c r="B10" s="130" t="s">
+        <v>748</v>
+      </c>
+      <c r="C10" s="165" t="s">
+        <v>796</v>
+      </c>
+      <c r="D10" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="E10" s="132" t="s">
+        <v>748</v>
+      </c>
+      <c r="F10" s="171" t="s">
+        <v>803</v>
+      </c>
+      <c r="G10" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="H10" s="131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="130" t="s">
+        <v>746</v>
+      </c>
+      <c r="B11" s="130" t="s">
+        <v>748</v>
+      </c>
+      <c r="C11" s="166" t="s">
+        <v>797</v>
+      </c>
+      <c r="D11" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="E11" s="132" t="s">
+        <v>748</v>
+      </c>
+      <c r="F11" s="167" t="s">
+        <v>804</v>
+      </c>
+      <c r="G11" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="H11" s="131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="130" t="s">
+        <v>746</v>
+      </c>
+      <c r="B12" s="130" t="s">
+        <v>748</v>
+      </c>
+      <c r="C12" s="166"/>
+      <c r="D12" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="E12" s="132" t="s">
+        <v>748</v>
+      </c>
+      <c r="F12" s="170" t="s">
+        <v>810</v>
+      </c>
+      <c r="G12" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="H12" s="131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="130" t="s">
+        <v>746</v>
+      </c>
+      <c r="B13" s="130" t="s">
+        <v>748</v>
+      </c>
+      <c r="C13" s="166"/>
+      <c r="D13" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="E13" s="132" t="s">
+        <v>748</v>
+      </c>
+      <c r="F13" s="170" t="s">
+        <v>809</v>
+      </c>
+      <c r="G13" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="H13" s="131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="130" t="s">
+        <v>746</v>
+      </c>
+      <c r="B14" s="130" t="s">
+        <v>748</v>
+      </c>
+      <c r="C14" s="166"/>
+      <c r="D14" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="E14" s="132" t="s">
+        <v>748</v>
+      </c>
+      <c r="F14" s="164" t="s">
+        <v>805</v>
+      </c>
+      <c r="G14" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="H14" s="131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="130" t="s">
+        <v>746</v>
+      </c>
+      <c r="B15" s="130" t="s">
+        <v>748</v>
+      </c>
+      <c r="C15" s="166"/>
+      <c r="D15" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="E15" s="132" t="s">
+        <v>748</v>
+      </c>
+      <c r="F15" s="170" t="s">
+        <v>798</v>
+      </c>
+      <c r="G15" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="H15" s="131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="130" t="s">
+        <v>746</v>
+      </c>
+      <c r="B16" s="130" t="s">
+        <v>748</v>
+      </c>
+      <c r="C16" s="166"/>
+      <c r="D16" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="E16" s="132" t="s">
+        <v>748</v>
+      </c>
+      <c r="F16" s="164" t="s">
+        <v>806</v>
+      </c>
+      <c r="G16" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="H16" s="131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="130" t="s">
+        <v>746</v>
+      </c>
+      <c r="B17" s="130" t="s">
+        <v>748</v>
+      </c>
+      <c r="C17" s="166"/>
+      <c r="D17" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="E17" s="132" t="s">
+        <v>748</v>
+      </c>
+      <c r="F17" s="164" t="s">
+        <v>807</v>
+      </c>
+      <c r="G17" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="H17" s="131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C11:C17"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F10" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A74" sqref="A74:A78"/>
     </sheetView>
   </sheetViews>
@@ -23947,9 +24531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F123"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70:D122"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -23982,66 +24564,66 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1">
-      <c r="A2" s="157">
+      <c r="A2" s="142">
         <v>1</v>
       </c>
-      <c r="B2" s="155" t="s">
+      <c r="B2" s="143" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="151" t="s">
+      <c r="C2" s="153" t="s">
         <v>220</v>
       </c>
-      <c r="D2" s="161" t="s">
+      <c r="D2" s="145" t="s">
         <v>89</v>
       </c>
       <c r="E2" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="158" t="s">
+      <c r="F2" s="146" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="157"/>
-      <c r="B3" s="155"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="161"/>
+      <c r="A3" s="142"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="145"/>
       <c r="E3" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="158"/>
+      <c r="F3" s="146"/>
     </row>
     <row r="4" spans="1:6" ht="30">
-      <c r="A4" s="157"/>
-      <c r="B4" s="155"/>
-      <c r="C4" s="152"/>
-      <c r="D4" s="161"/>
+      <c r="A4" s="142"/>
+      <c r="B4" s="143"/>
+      <c r="C4" s="154"/>
+      <c r="D4" s="145"/>
       <c r="E4" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="158"/>
+      <c r="F4" s="146"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="157"/>
-      <c r="B5" s="155"/>
-      <c r="C5" s="153"/>
-      <c r="D5" s="161"/>
+      <c r="A5" s="142"/>
+      <c r="B5" s="143"/>
+      <c r="C5" s="155"/>
+      <c r="D5" s="145"/>
       <c r="E5" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="158"/>
+      <c r="F5" s="146"/>
     </row>
     <row r="6" spans="1:6" ht="30">
-      <c r="A6" s="157">
+      <c r="A6" s="142">
         <v>2</v>
       </c>
-      <c r="B6" s="155" t="s">
+      <c r="B6" s="143" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="155" t="s">
+      <c r="C6" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="155" t="s">
+      <c r="D6" s="143" t="s">
         <v>97</v>
       </c>
       <c r="E6" s="30" t="s">
@@ -24052,10 +24634,10 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="157"/>
-      <c r="B7" s="155"/>
-      <c r="C7" s="155"/>
-      <c r="D7" s="155"/>
+      <c r="A7" s="142"/>
+      <c r="B7" s="143"/>
+      <c r="C7" s="143"/>
+      <c r="D7" s="143"/>
       <c r="E7" s="32" t="s">
         <v>99</v>
       </c>
@@ -24064,13 +24646,13 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="30">
-      <c r="A8" s="157">
+      <c r="A8" s="142">
         <v>3</v>
       </c>
-      <c r="B8" s="155" t="s">
+      <c r="B8" s="143" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="155" t="s">
+      <c r="C8" s="143" t="s">
         <v>102</v>
       </c>
       <c r="D8" s="30"/>
@@ -24082,9 +24664,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="30">
-      <c r="A9" s="157"/>
-      <c r="B9" s="155"/>
-      <c r="C9" s="155"/>
+      <c r="A9" s="142"/>
+      <c r="B9" s="143"/>
+      <c r="C9" s="143"/>
       <c r="D9" s="30" t="s">
         <v>103</v>
       </c>
@@ -24096,9 +24678,9 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="157"/>
-      <c r="B10" s="155"/>
-      <c r="C10" s="155"/>
+      <c r="A10" s="142"/>
+      <c r="B10" s="143"/>
+      <c r="C10" s="143"/>
       <c r="D10" s="31"/>
       <c r="E10" s="32" t="s">
         <v>106</v>
@@ -24108,26 +24690,26 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="18.75">
-      <c r="A11" s="162" t="s">
+      <c r="A11" s="144" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="162"/>
-      <c r="C11" s="162"/>
-      <c r="D11" s="162"/>
-      <c r="E11" s="162"/>
-      <c r="F11" s="162"/>
+      <c r="B11" s="144"/>
+      <c r="C11" s="144"/>
+      <c r="D11" s="144"/>
+      <c r="E11" s="144"/>
+      <c r="F11" s="144"/>
     </row>
     <row r="12" spans="1:6" ht="30">
-      <c r="A12" s="157">
+      <c r="A12" s="142">
         <v>4</v>
       </c>
-      <c r="B12" s="155" t="s">
+      <c r="B12" s="143" t="s">
         <v>110</v>
       </c>
       <c r="C12" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="D12" s="155" t="s">
+      <c r="D12" s="143" t="s">
         <v>114</v>
       </c>
       <c r="E12" s="30" t="s">
@@ -24138,12 +24720,12 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="157"/>
-      <c r="B13" s="155"/>
+      <c r="A13" s="142"/>
+      <c r="B13" s="143"/>
       <c r="C13" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="D13" s="155"/>
+      <c r="D13" s="143"/>
       <c r="E13" s="32" t="s">
         <v>116</v>
       </c>
@@ -24152,34 +24734,34 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="157"/>
-      <c r="B14" s="155"/>
+      <c r="A14" s="142"/>
+      <c r="B14" s="143"/>
       <c r="C14" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="D14" s="155"/>
+      <c r="D14" s="143"/>
       <c r="E14" s="31"/>
       <c r="F14" s="34"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="157"/>
-      <c r="B15" s="155"/>
+      <c r="A15" s="142"/>
+      <c r="B15" s="143"/>
       <c r="C15" s="30"/>
-      <c r="D15" s="155"/>
+      <c r="D15" s="143"/>
       <c r="E15" s="31"/>
       <c r="F15" s="34"/>
     </row>
     <row r="16" spans="1:6" ht="30">
-      <c r="A16" s="157">
+      <c r="A16" s="142">
         <v>5</v>
       </c>
-      <c r="B16" s="155" t="s">
+      <c r="B16" s="143" t="s">
         <v>119</v>
       </c>
-      <c r="C16" s="155" t="s">
+      <c r="C16" s="143" t="s">
         <v>120</v>
       </c>
-      <c r="D16" s="155" t="s">
+      <c r="D16" s="143" t="s">
         <v>121</v>
       </c>
       <c r="E16" s="30" t="s">
@@ -24190,10 +24772,10 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="157"/>
-      <c r="B17" s="155"/>
-      <c r="C17" s="155"/>
-      <c r="D17" s="155"/>
+      <c r="A17" s="142"/>
+      <c r="B17" s="143"/>
+      <c r="C17" s="143"/>
+      <c r="D17" s="143"/>
       <c r="E17" s="32" t="s">
         <v>123</v>
       </c>
@@ -24202,16 +24784,16 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="30">
-      <c r="A18" s="154">
+      <c r="A18" s="148">
         <v>6</v>
       </c>
-      <c r="B18" s="155" t="s">
+      <c r="B18" s="143" t="s">
         <v>125</v>
       </c>
-      <c r="C18" s="155" t="s">
+      <c r="C18" s="143" t="s">
         <v>126</v>
       </c>
-      <c r="D18" s="155" t="s">
+      <c r="D18" s="143" t="s">
         <v>127</v>
       </c>
       <c r="E18" s="30" t="s">
@@ -24222,10 +24804,10 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="154"/>
-      <c r="B19" s="155"/>
-      <c r="C19" s="155"/>
-      <c r="D19" s="155"/>
+      <c r="A19" s="148"/>
+      <c r="B19" s="143"/>
+      <c r="C19" s="143"/>
+      <c r="D19" s="143"/>
       <c r="E19" s="32" t="s">
         <v>129</v>
       </c>
@@ -24234,24 +24816,24 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="154"/>
-      <c r="B20" s="155"/>
-      <c r="C20" s="155"/>
-      <c r="D20" s="155"/>
+      <c r="A20" s="148"/>
+      <c r="B20" s="143"/>
+      <c r="C20" s="143"/>
+      <c r="D20" s="143"/>
       <c r="E20" s="30"/>
       <c r="F20" s="34"/>
     </row>
     <row r="21" spans="1:6" ht="30">
-      <c r="A21" s="154">
+      <c r="A21" s="148">
         <v>7</v>
       </c>
-      <c r="B21" s="155" t="s">
+      <c r="B21" s="143" t="s">
         <v>131</v>
       </c>
-      <c r="C21" s="155" t="s">
+      <c r="C21" s="143" t="s">
         <v>132</v>
       </c>
-      <c r="D21" s="155" t="s">
+      <c r="D21" s="143" t="s">
         <v>133</v>
       </c>
       <c r="E21" s="30" t="s">
@@ -24262,10 +24844,10 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="154"/>
-      <c r="B22" s="155"/>
-      <c r="C22" s="155"/>
-      <c r="D22" s="155"/>
+      <c r="A22" s="148"/>
+      <c r="B22" s="143"/>
+      <c r="C22" s="143"/>
+      <c r="D22" s="143"/>
       <c r="E22" s="32" t="s">
         <v>135</v>
       </c>
@@ -24274,32 +24856,32 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="154"/>
-      <c r="B23" s="155"/>
-      <c r="C23" s="155"/>
-      <c r="D23" s="155"/>
+      <c r="A23" s="148"/>
+      <c r="B23" s="143"/>
+      <c r="C23" s="143"/>
+      <c r="D23" s="143"/>
       <c r="E23" s="30"/>
       <c r="F23" s="33"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="154"/>
-      <c r="B24" s="155"/>
-      <c r="C24" s="155"/>
-      <c r="D24" s="155"/>
+      <c r="A24" s="148"/>
+      <c r="B24" s="143"/>
+      <c r="C24" s="143"/>
+      <c r="D24" s="143"/>
       <c r="E24" s="31"/>
       <c r="F24" s="33"/>
     </row>
     <row r="25" spans="1:6" ht="30">
-      <c r="A25" s="154">
+      <c r="A25" s="148">
         <v>8</v>
       </c>
-      <c r="B25" s="155" t="s">
+      <c r="B25" s="143" t="s">
         <v>138</v>
       </c>
-      <c r="C25" s="159" t="s">
+      <c r="C25" s="149" t="s">
         <v>139</v>
       </c>
-      <c r="D25" s="161" t="s">
+      <c r="D25" s="145" t="s">
         <v>140</v>
       </c>
       <c r="E25" s="30" t="s">
@@ -24310,10 +24892,10 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="28.5">
-      <c r="A26" s="154"/>
-      <c r="B26" s="155"/>
-      <c r="C26" s="159"/>
-      <c r="D26" s="161"/>
+      <c r="A26" s="148"/>
+      <c r="B26" s="143"/>
+      <c r="C26" s="149"/>
+      <c r="D26" s="145"/>
       <c r="E26" s="32" t="s">
         <v>142</v>
       </c>
@@ -24322,15 +24904,15 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="154"/>
-      <c r="B27" s="155"/>
-      <c r="C27" s="159"/>
-      <c r="D27" s="161"/>
+      <c r="A27" s="148"/>
+      <c r="B27" s="143"/>
+      <c r="C27" s="149"/>
+      <c r="D27" s="145"/>
       <c r="E27" s="31"/>
       <c r="F27" s="33"/>
     </row>
     <row r="28" spans="1:6" ht="30">
-      <c r="A28" s="154">
+      <c r="A28" s="148">
         <v>9</v>
       </c>
       <c r="B28" s="30" t="s">
@@ -24339,39 +24921,39 @@
       <c r="C28" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="D28" s="155" t="s">
+      <c r="D28" s="143" t="s">
         <v>149</v>
       </c>
-      <c r="E28" s="155" t="s">
+      <c r="E28" s="143" t="s">
         <v>150</v>
       </c>
-      <c r="F28" s="160" t="s">
+      <c r="F28" s="147" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="30">
-      <c r="A29" s="154"/>
+      <c r="A29" s="148"/>
       <c r="B29" s="30" t="s">
         <v>146</v>
       </c>
       <c r="C29" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="D29" s="155"/>
-      <c r="E29" s="155"/>
-      <c r="F29" s="160"/>
+      <c r="D29" s="143"/>
+      <c r="E29" s="143"/>
+      <c r="F29" s="147"/>
     </row>
     <row r="30" spans="1:6" ht="30">
-      <c r="A30" s="154">
+      <c r="A30" s="148">
         <v>10</v>
       </c>
-      <c r="B30" s="155" t="s">
+      <c r="B30" s="143" t="s">
         <v>152</v>
       </c>
-      <c r="C30" s="155" t="s">
+      <c r="C30" s="143" t="s">
         <v>153</v>
       </c>
-      <c r="D30" s="155" t="s">
+      <c r="D30" s="143" t="s">
         <v>154</v>
       </c>
       <c r="E30" s="30" t="s">
@@ -24382,10 +24964,10 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="154"/>
-      <c r="B31" s="155"/>
-      <c r="C31" s="155"/>
-      <c r="D31" s="155"/>
+      <c r="A31" s="148"/>
+      <c r="B31" s="143"/>
+      <c r="C31" s="143"/>
+      <c r="D31" s="143"/>
       <c r="E31" s="32" t="s">
         <v>156</v>
       </c>
@@ -24394,32 +24976,32 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="154"/>
-      <c r="B32" s="155"/>
-      <c r="C32" s="155"/>
-      <c r="D32" s="155"/>
+      <c r="A32" s="148"/>
+      <c r="B32" s="143"/>
+      <c r="C32" s="143"/>
+      <c r="D32" s="143"/>
       <c r="E32" s="31"/>
       <c r="F32" s="33"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="154"/>
-      <c r="B33" s="155"/>
-      <c r="C33" s="155"/>
-      <c r="D33" s="155"/>
+      <c r="A33" s="148"/>
+      <c r="B33" s="143"/>
+      <c r="C33" s="143"/>
+      <c r="D33" s="143"/>
       <c r="E33" s="31"/>
       <c r="F33" s="33"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="154">
+      <c r="A34" s="148">
         <v>11</v>
       </c>
-      <c r="B34" s="155" t="s">
+      <c r="B34" s="143" t="s">
         <v>159</v>
       </c>
       <c r="C34" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="D34" s="159" t="s">
+      <c r="D34" s="149" t="s">
         <v>162</v>
       </c>
       <c r="E34" s="35" t="s">
@@ -24430,12 +25012,12 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="154"/>
-      <c r="B35" s="155"/>
+      <c r="A35" s="148"/>
+      <c r="B35" s="143"/>
       <c r="C35" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="D35" s="159"/>
+      <c r="D35" s="149"/>
       <c r="E35" s="28" t="s">
         <v>164</v>
       </c>
@@ -24444,24 +25026,24 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="154"/>
-      <c r="B36" s="155"/>
+      <c r="A36" s="148"/>
+      <c r="B36" s="143"/>
       <c r="C36" s="31"/>
-      <c r="D36" s="159"/>
+      <c r="D36" s="149"/>
       <c r="E36" s="31"/>
       <c r="F36" s="36"/>
     </row>
     <row r="37" spans="1:6" ht="30">
-      <c r="A37" s="154">
+      <c r="A37" s="148">
         <v>12</v>
       </c>
-      <c r="B37" s="155" t="s">
+      <c r="B37" s="143" t="s">
         <v>166</v>
       </c>
       <c r="C37" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="D37" s="155" t="s">
+      <c r="D37" s="143" t="s">
         <v>169</v>
       </c>
       <c r="E37" s="30" t="s">
@@ -24472,12 +25054,12 @@
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="154"/>
-      <c r="B38" s="155"/>
+      <c r="A38" s="148"/>
+      <c r="B38" s="143"/>
       <c r="C38" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="D38" s="155"/>
+      <c r="D38" s="143"/>
       <c r="E38" s="32" t="s">
         <v>171</v>
       </c>
@@ -24486,60 +25068,60 @@
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="154"/>
-      <c r="B39" s="155"/>
+      <c r="A39" s="148"/>
+      <c r="B39" s="143"/>
       <c r="C39" s="30"/>
-      <c r="D39" s="155"/>
+      <c r="D39" s="143"/>
       <c r="E39" s="31"/>
       <c r="F39" s="33"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="154"/>
-      <c r="B40" s="155"/>
+      <c r="A40" s="148"/>
+      <c r="B40" s="143"/>
       <c r="C40" s="31"/>
-      <c r="D40" s="155"/>
+      <c r="D40" s="143"/>
       <c r="E40" s="31"/>
       <c r="F40" s="33"/>
     </row>
     <row r="41" spans="1:6" ht="30">
-      <c r="A41" s="154">
+      <c r="A41" s="148">
         <v>13</v>
       </c>
-      <c r="B41" s="155" t="s">
+      <c r="B41" s="143" t="s">
         <v>173</v>
       </c>
       <c r="C41" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="D41" s="156" t="s">
+      <c r="D41" s="160" t="s">
         <v>176</v>
       </c>
       <c r="E41" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="F41" s="158">
+      <c r="F41" s="146">
         <v>89635065816</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="154"/>
-      <c r="B42" s="155"/>
+      <c r="A42" s="148"/>
+      <c r="B42" s="143"/>
       <c r="C42" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="D42" s="156"/>
+      <c r="D42" s="160"/>
       <c r="E42" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="F42" s="158"/>
+      <c r="F42" s="146"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="154"/>
-      <c r="B43" s="155"/>
+      <c r="A43" s="148"/>
+      <c r="B43" s="143"/>
       <c r="C43" s="30"/>
-      <c r="D43" s="156"/>
+      <c r="D43" s="160"/>
       <c r="E43" s="31"/>
-      <c r="F43" s="158"/>
+      <c r="F43" s="146"/>
     </row>
     <row r="44" spans="1:6" ht="18.75">
       <c r="A44" s="37" t="s">
@@ -24552,16 +25134,16 @@
       <c r="F44" s="39"/>
     </row>
     <row r="45" spans="1:6" ht="30">
-      <c r="A45" s="154">
+      <c r="A45" s="148">
         <v>14</v>
       </c>
-      <c r="B45" s="155" t="s">
+      <c r="B45" s="143" t="s">
         <v>180</v>
       </c>
       <c r="C45" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="D45" s="155" t="s">
+      <c r="D45" s="143" t="s">
         <v>183</v>
       </c>
       <c r="E45" s="30" t="s">
@@ -24572,12 +25154,12 @@
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="154"/>
-      <c r="B46" s="155"/>
+      <c r="A46" s="148"/>
+      <c r="B46" s="143"/>
       <c r="C46" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="D46" s="155"/>
+      <c r="D46" s="143"/>
       <c r="E46" s="32" t="s">
         <v>185</v>
       </c>
@@ -24586,18 +25168,18 @@
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="154"/>
-      <c r="B47" s="155"/>
+      <c r="A47" s="148"/>
+      <c r="B47" s="143"/>
       <c r="C47" s="30"/>
-      <c r="D47" s="155"/>
+      <c r="D47" s="143"/>
       <c r="E47" s="31"/>
       <c r="F47" s="34"/>
     </row>
     <row r="48" spans="1:6" ht="30">
-      <c r="A48" s="154">
+      <c r="A48" s="148">
         <v>15</v>
       </c>
-      <c r="B48" s="155" t="s">
+      <c r="B48" s="143" t="s">
         <v>188</v>
       </c>
       <c r="C48" s="30" t="s">
@@ -24614,8 +25196,8 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="28.5">
-      <c r="A49" s="154"/>
-      <c r="B49" s="155"/>
+      <c r="A49" s="148"/>
+      <c r="B49" s="143"/>
       <c r="C49" s="30" t="s">
         <v>190</v>
       </c>
@@ -24630,8 +25212,8 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="154"/>
-      <c r="B50" s="155"/>
+      <c r="A50" s="148"/>
+      <c r="B50" s="143"/>
       <c r="C50" s="30" t="s">
         <v>191</v>
       </c>
@@ -24640,16 +25222,16 @@
       <c r="F50" s="34"/>
     </row>
     <row r="51" spans="1:6" ht="30">
-      <c r="A51" s="154">
+      <c r="A51" s="148">
         <v>16</v>
       </c>
-      <c r="B51" s="155" t="s">
+      <c r="B51" s="143" t="s">
         <v>198</v>
       </c>
       <c r="C51" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="D51" s="155" t="s">
+      <c r="D51" s="143" t="s">
         <v>201</v>
       </c>
       <c r="E51" s="30" t="s">
@@ -24660,12 +25242,12 @@
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="154"/>
-      <c r="B52" s="155"/>
+      <c r="A52" s="148"/>
+      <c r="B52" s="143"/>
       <c r="C52" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="D52" s="155"/>
+      <c r="D52" s="143"/>
       <c r="E52" s="32" t="s">
         <v>203</v>
       </c>
@@ -24684,16 +25266,16 @@
       <c r="F53" s="39"/>
     </row>
     <row r="54" spans="1:6" ht="30">
-      <c r="A54" s="148">
+      <c r="A54" s="150">
         <v>17</v>
       </c>
-      <c r="B54" s="149" t="s">
+      <c r="B54" s="151" t="s">
         <v>207</v>
       </c>
       <c r="C54" s="42" t="s">
         <v>208</v>
       </c>
-      <c r="D54" s="150" t="s">
+      <c r="D54" s="152" t="s">
         <v>210</v>
       </c>
       <c r="E54" s="42" t="s">
@@ -24704,12 +25286,12 @@
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="148"/>
-      <c r="B55" s="149"/>
+      <c r="A55" s="150"/>
+      <c r="B55" s="151"/>
       <c r="C55" s="42" t="s">
         <v>209</v>
       </c>
-      <c r="D55" s="150"/>
+      <c r="D55" s="152"/>
       <c r="E55" s="44" t="s">
         <v>212</v>
       </c>
@@ -24760,10 +25342,10 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="15.75">
-      <c r="A73" s="142" t="s">
+      <c r="A73" s="156" t="s">
         <v>226</v>
       </c>
-      <c r="B73" s="144" t="s">
+      <c r="B73" s="158" t="s">
         <v>38</v>
       </c>
       <c r="C73" s="48" t="s">
@@ -24774,8 +25356,8 @@
       </c>
     </row>
     <row r="74" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A74" s="143"/>
-      <c r="B74" s="145"/>
+      <c r="A74" s="157"/>
+      <c r="B74" s="159"/>
       <c r="C74" s="49" t="s">
         <v>228</v>
       </c>
@@ -24784,8 +25366,8 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="15.75">
-      <c r="A75" s="142"/>
-      <c r="B75" s="144" t="s">
+      <c r="A75" s="156"/>
+      <c r="B75" s="158" t="s">
         <v>231</v>
       </c>
       <c r="C75" s="48" t="s">
@@ -24796,8 +25378,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="15.75">
-      <c r="A76" s="146"/>
-      <c r="B76" s="147"/>
+      <c r="A76" s="161"/>
+      <c r="B76" s="162"/>
       <c r="C76" s="48" t="s">
         <v>233</v>
       </c>
@@ -24806,16 +25388,16 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A77" s="143"/>
-      <c r="B77" s="145"/>
+      <c r="A77" s="157"/>
+      <c r="B77" s="159"/>
       <c r="C77" s="52"/>
       <c r="D77" s="51" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15.75">
-      <c r="A78" s="144"/>
-      <c r="B78" s="144" t="s">
+      <c r="A78" s="158"/>
+      <c r="B78" s="158" t="s">
         <v>237</v>
       </c>
       <c r="C78" s="48" t="s">
@@ -24826,8 +25408,8 @@
       </c>
     </row>
     <row r="79" spans="1:4" ht="15.75">
-      <c r="A79" s="147"/>
-      <c r="B79" s="147"/>
+      <c r="A79" s="162"/>
+      <c r="B79" s="162"/>
       <c r="C79" s="48" t="s">
         <v>239</v>
       </c>
@@ -24836,24 +25418,24 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="15.75">
-      <c r="A80" s="147"/>
-      <c r="B80" s="147"/>
+      <c r="A80" s="162"/>
+      <c r="B80" s="162"/>
       <c r="C80" s="53"/>
       <c r="D80" s="50" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A81" s="145"/>
-      <c r="B81" s="145"/>
+      <c r="A81" s="159"/>
+      <c r="B81" s="159"/>
       <c r="C81" s="52"/>
       <c r="D81" s="51" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15.75">
-      <c r="A82" s="144"/>
-      <c r="B82" s="144" t="s">
+      <c r="A82" s="158"/>
+      <c r="B82" s="158" t="s">
         <v>244</v>
       </c>
       <c r="C82" s="48" t="s">
@@ -24864,8 +25446,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A83" s="145"/>
-      <c r="B83" s="145"/>
+      <c r="A83" s="159"/>
+      <c r="B83" s="159"/>
       <c r="C83" s="49" t="s">
         <v>246</v>
       </c>
@@ -24886,48 +25468,48 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="15.75">
-      <c r="A85" s="144"/>
+      <c r="A85" s="158"/>
       <c r="B85" s="48" t="s">
         <v>252</v>
       </c>
       <c r="C85" s="48" t="s">
         <v>254</v>
       </c>
-      <c r="D85" s="144" t="s">
+      <c r="D85" s="158" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A86" s="145"/>
+      <c r="A86" s="159"/>
       <c r="B86" s="49" t="s">
         <v>253</v>
       </c>
       <c r="C86" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="D86" s="145"/>
+      <c r="D86" s="159"/>
     </row>
     <row r="87" spans="1:4" ht="15.75">
-      <c r="A87" s="144"/>
+      <c r="A87" s="158"/>
       <c r="B87" s="48" t="s">
         <v>257</v>
       </c>
       <c r="C87" s="48" t="s">
         <v>258</v>
       </c>
-      <c r="D87" s="144" t="s">
+      <c r="D87" s="158" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A88" s="145"/>
+      <c r="A88" s="159"/>
       <c r="B88" s="49" t="s">
         <v>253</v>
       </c>
       <c r="C88" s="49" t="s">
         <v>259</v>
       </c>
-      <c r="D88" s="145"/>
+      <c r="D88" s="159"/>
     </row>
     <row r="89" spans="1:4" ht="32.25" thickBot="1">
       <c r="A89" s="49"/>
@@ -25004,32 +25586,32 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="15.75">
-      <c r="A95" s="142" t="s">
+      <c r="A95" s="156" t="s">
         <v>277</v>
       </c>
-      <c r="B95" s="144" t="s">
+      <c r="B95" s="158" t="s">
         <v>278</v>
       </c>
       <c r="C95" s="48" t="s">
         <v>279</v>
       </c>
-      <c r="D95" s="144" t="s">
+      <c r="D95" s="158" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A96" s="143"/>
-      <c r="B96" s="145"/>
+      <c r="A96" s="157"/>
+      <c r="B96" s="159"/>
       <c r="C96" s="55">
         <v>40868</v>
       </c>
-      <c r="D96" s="145"/>
+      <c r="D96" s="159"/>
     </row>
     <row r="97" spans="1:4" ht="15.75">
-      <c r="A97" s="142" t="s">
+      <c r="A97" s="156" t="s">
         <v>281</v>
       </c>
-      <c r="B97" s="144" t="s">
+      <c r="B97" s="158" t="s">
         <v>282</v>
       </c>
       <c r="C97" s="48" t="s">
@@ -25040,8 +25622,8 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A98" s="143"/>
-      <c r="B98" s="145"/>
+      <c r="A98" s="157"/>
+      <c r="B98" s="159"/>
       <c r="C98" s="49" t="s">
         <v>284</v>
       </c>
@@ -25050,24 +25632,24 @@
       </c>
     </row>
     <row r="99" spans="1:4" ht="15.75">
-      <c r="A99" s="144"/>
-      <c r="B99" s="144" t="s">
+      <c r="A99" s="158"/>
+      <c r="B99" s="158" t="s">
         <v>287</v>
       </c>
       <c r="C99" s="48" t="s">
         <v>288</v>
       </c>
-      <c r="D99" s="144" t="s">
+      <c r="D99" s="158" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A100" s="145"/>
-      <c r="B100" s="145"/>
+      <c r="A100" s="159"/>
+      <c r="B100" s="159"/>
       <c r="C100" s="49" t="s">
         <v>289</v>
       </c>
-      <c r="D100" s="145"/>
+      <c r="D100" s="159"/>
     </row>
     <row r="101" spans="1:4" ht="16.5" thickBot="1">
       <c r="A101" s="54" t="s">
@@ -25122,26 +25704,26 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="15.75">
-      <c r="A105" s="142" t="s">
+      <c r="A105" s="156" t="s">
         <v>304</v>
       </c>
-      <c r="B105" s="144" t="s">
+      <c r="B105" s="158" t="s">
         <v>305</v>
       </c>
       <c r="C105" s="48" t="s">
         <v>306</v>
       </c>
-      <c r="D105" s="144" t="s">
+      <c r="D105" s="158" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A106" s="143"/>
-      <c r="B106" s="145"/>
+      <c r="A106" s="157"/>
+      <c r="B106" s="159"/>
       <c r="C106" s="49" t="s">
         <v>307</v>
       </c>
-      <c r="D106" s="145"/>
+      <c r="D106" s="159"/>
     </row>
     <row r="107" spans="1:4" ht="16.5" thickBot="1">
       <c r="A107" s="54" t="s">
@@ -25158,92 +25740,92 @@
       </c>
     </row>
     <row r="108" spans="1:4" ht="15.75">
-      <c r="A108" s="142" t="s">
+      <c r="A108" s="156" t="s">
         <v>313</v>
       </c>
-      <c r="B108" s="144" t="s">
+      <c r="B108" s="158" t="s">
         <v>314</v>
       </c>
       <c r="C108" s="48" t="s">
         <v>315</v>
       </c>
-      <c r="D108" s="144" t="s">
+      <c r="D108" s="158" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A109" s="143"/>
-      <c r="B109" s="145"/>
+      <c r="A109" s="157"/>
+      <c r="B109" s="159"/>
       <c r="C109" s="55">
         <v>13537</v>
       </c>
-      <c r="D109" s="145"/>
+      <c r="D109" s="159"/>
     </row>
     <row r="110" spans="1:4" ht="15.75">
-      <c r="A110" s="142" t="s">
+      <c r="A110" s="156" t="s">
         <v>317</v>
       </c>
-      <c r="B110" s="144" t="s">
+      <c r="B110" s="158" t="s">
         <v>278</v>
       </c>
       <c r="C110" s="48" t="s">
         <v>318</v>
       </c>
-      <c r="D110" s="144" t="s">
+      <c r="D110" s="158" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A111" s="143"/>
-      <c r="B111" s="145"/>
+      <c r="A111" s="157"/>
+      <c r="B111" s="159"/>
       <c r="C111" s="55">
         <v>26045</v>
       </c>
-      <c r="D111" s="145"/>
+      <c r="D111" s="159"/>
     </row>
     <row r="112" spans="1:4" ht="15.75">
-      <c r="A112" s="142" t="s">
+      <c r="A112" s="156" t="s">
         <v>320</v>
       </c>
-      <c r="B112" s="144" t="s">
+      <c r="B112" s="158" t="s">
         <v>278</v>
       </c>
       <c r="C112" s="48" t="s">
         <v>321</v>
       </c>
-      <c r="D112" s="144" t="s">
+      <c r="D112" s="158" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A113" s="143"/>
-      <c r="B113" s="145"/>
+      <c r="A113" s="157"/>
+      <c r="B113" s="159"/>
       <c r="C113" s="49" t="s">
         <v>322</v>
       </c>
-      <c r="D113" s="145"/>
+      <c r="D113" s="159"/>
     </row>
     <row r="114" spans="1:4" ht="15.75">
-      <c r="A114" s="142" t="s">
+      <c r="A114" s="156" t="s">
         <v>324</v>
       </c>
-      <c r="B114" s="144" t="s">
+      <c r="B114" s="158" t="s">
         <v>278</v>
       </c>
       <c r="C114" s="48" t="s">
         <v>325</v>
       </c>
-      <c r="D114" s="144" t="s">
+      <c r="D114" s="158" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A115" s="143"/>
-      <c r="B115" s="145"/>
+      <c r="A115" s="157"/>
+      <c r="B115" s="159"/>
       <c r="C115" s="49" t="s">
         <v>326</v>
       </c>
-      <c r="D115" s="145"/>
+      <c r="D115" s="159"/>
     </row>
     <row r="116" spans="1:4" ht="16.5" thickBot="1">
       <c r="A116" s="54" t="s">
@@ -25274,7 +25856,7 @@
       </c>
     </row>
     <row r="118" spans="1:4" ht="15.75">
-      <c r="A118" s="142" t="s">
+      <c r="A118" s="156" t="s">
         <v>333</v>
       </c>
       <c r="B118" s="48" t="s">
@@ -25283,41 +25865,41 @@
       <c r="C118" s="48" t="s">
         <v>336</v>
       </c>
-      <c r="D118" s="144" t="s">
+      <c r="D118" s="158" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A119" s="143"/>
+      <c r="A119" s="157"/>
       <c r="B119" s="49" t="s">
         <v>335</v>
       </c>
       <c r="C119" s="49" t="s">
         <v>337</v>
       </c>
-      <c r="D119" s="145"/>
+      <c r="D119" s="159"/>
     </row>
     <row r="120" spans="1:4" ht="15.75">
-      <c r="A120" s="142" t="s">
+      <c r="A120" s="156" t="s">
         <v>339</v>
       </c>
-      <c r="B120" s="144" t="s">
+      <c r="B120" s="158" t="s">
         <v>278</v>
       </c>
       <c r="C120" s="48" t="s">
         <v>340</v>
       </c>
-      <c r="D120" s="144" t="s">
+      <c r="D120" s="158" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A121" s="143"/>
-      <c r="B121" s="145"/>
+      <c r="A121" s="157"/>
+      <c r="B121" s="159"/>
       <c r="C121" s="49" t="s">
         <v>341</v>
       </c>
-      <c r="D121" s="145"/>
+      <c r="D121" s="159"/>
     </row>
     <row r="122" spans="1:4" ht="16.5" thickBot="1">
       <c r="A122" s="54" t="s">
@@ -25338,45 +25920,44 @@
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="F41:F43"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="D37:D40"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
     <mergeCell ref="A54:A55"/>
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="D54:D55"/>
@@ -25401,44 +25982,45 @@
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="D18:D20"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="D37:D40"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="mailto:spshkul_3@mail.ru"/>

--- a/plan_my_work.xlsx
+++ b/plan_my_work.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="770"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="770" firstSheet="1" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="4" r:id="rId1"/>
@@ -17,15 +17,16 @@
     <sheet name="calendar_old" sheetId="10" r:id="rId8"/>
     <sheet name="calendar_country" sheetId="11" r:id="rId9"/>
     <sheet name="top 100" sheetId="13" r:id="rId10"/>
-    <sheet name="секции" sheetId="14" r:id="rId11"/>
-    <sheet name="время работы клуба" sheetId="15" r:id="rId12"/>
-    <sheet name="bill_federation" sheetId="16" r:id="rId13"/>
+    <sheet name="top fide" sheetId="17" r:id="rId11"/>
+    <sheet name="секции" sheetId="14" r:id="rId12"/>
+    <sheet name="время работы клуба" sheetId="15" r:id="rId13"/>
+    <sheet name="bill_federation" sheetId="16" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="__DdeLink__347_65971897711" localSheetId="2">Лист1!$D$91</definedName>
     <definedName name="__DdeLink__349_6597189771" localSheetId="2">Лист1!$C$91</definedName>
     <definedName name="__DdeLink__351_659718977" localSheetId="2">Лист1!$B$90</definedName>
-    <definedName name="_GoBack" localSheetId="11">'время работы клуба'!$A$1</definedName>
+    <definedName name="_GoBack" localSheetId="12">'время работы клуба'!$A$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">calendar_plan!$A$2:$AI$139</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9025" uniqueCount="811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10638" uniqueCount="828">
   <si>
     <t>1) У блока "Новости" сделать эффект выделения при наведении курсором на картинку</t>
   </si>
@@ -2556,6 +2557,57 @@
   </si>
   <si>
     <t xml:space="preserve">ИНН: </t>
+  </si>
+  <si>
+    <t>&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="</t>
+  </si>
+  <si>
+    <t>" target="_blank"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;th  class="rating__number"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;td  class="rating__number"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;th class="rating__id"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;td  class="rating__id"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;th class="rating__item"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;td  class="rating__item"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;td  class="rating__color  rating__change"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;th class="rating__change"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;th class="rating__name"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;td  class="rating__name"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;th class="rating_city"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;td  class="rating__city"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;td  class="rating__year"&gt;</t>
+  </si>
+  <si>
+    <t>г. р.</t>
   </si>
 </sst>
 </file>
@@ -2757,7 +2809,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2839,6 +2891,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3098,7 +3156,7 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
@@ -3462,28 +3520,46 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="22" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3504,54 +3580,46 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="22" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -3559,7 +3627,49 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный_Лист1" xfId="3"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -3914,7 +4024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
@@ -4144,8 +4254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:BD102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView topLeftCell="AG1" workbookViewId="0">
+      <selection sqref="A1:BD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21624,19 +21734,6318 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AJ3:AJ102 AD3:AD102 AV3:AV102 AP3:AP102 BB3:BB102 X3:X102">
-    <cfRule type="aboveAverage" dxfId="6" priority="7"/>
+    <cfRule type="aboveAverage" dxfId="12" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ3:AJ102 BB3:BB102 AD3:AD102 AV3:AV102 AP3:AP102 X3:X102">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ3:AJ102 BB3:BB102 AD3:AD102 AV3:AV102 AP3:AP102 X3:X102">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB3:BB102 AD3:AD102 AV3:AV102 AP3:AP102 AJ3:AJ102 X3:X102">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X3:X102">
+    <cfRule type="aboveAverage" dxfId="7" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ3:AJ102 BB3:BB102 AD3:AD102 AV3:AV102 AP3:AP102 X3:X102">
+    <cfRule type="aboveAverage" dxfId="6" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" customWidth="1"/>
+    <col min="10" max="10" width="4.5703125" style="175" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39">
+      <c r="A1">
+        <f>+C1+I1+M1+P1+S1+V1+Y1+AB1+AE1+AH1+AK1</f>
+        <v>100</v>
+      </c>
+      <c r="C1" s="177">
+        <v>5</v>
+      </c>
+      <c r="I1" s="177">
+        <v>15</v>
+      </c>
+      <c r="M1" s="177">
+        <v>20</v>
+      </c>
+      <c r="P1" s="177">
+        <v>8</v>
+      </c>
+      <c r="S1" s="177">
+        <v>13</v>
+      </c>
+      <c r="V1" s="177">
+        <v>8</v>
+      </c>
+      <c r="Y1" s="177">
+        <v>5</v>
+      </c>
+      <c r="AB1" s="177">
+        <v>8</v>
+      </c>
+      <c r="AE1" s="177">
+        <v>5</v>
+      </c>
+      <c r="AH1" s="177">
+        <v>8</v>
+      </c>
+      <c r="AK1" s="177">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" ht="25.5">
+      <c r="A2" s="130" t="s">
+        <v>746</v>
+      </c>
+      <c r="B2" s="130" t="s">
+        <v>814</v>
+      </c>
+      <c r="C2" s="107" t="s">
+        <v>347</v>
+      </c>
+      <c r="D2" s="130" t="s">
+        <v>593</v>
+      </c>
+      <c r="E2" s="130" t="s">
+        <v>816</v>
+      </c>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
+      <c r="I2" s="109" t="s">
+        <v>632</v>
+      </c>
+      <c r="J2" s="174"/>
+      <c r="K2" s="130" t="s">
+        <v>593</v>
+      </c>
+      <c r="L2" s="130" t="s">
+        <v>822</v>
+      </c>
+      <c r="M2" s="108" t="s">
+        <v>633</v>
+      </c>
+      <c r="N2" s="130" t="s">
+        <v>593</v>
+      </c>
+      <c r="O2" s="130" t="s">
+        <v>749</v>
+      </c>
+      <c r="P2" s="108" t="s">
+        <v>827</v>
+      </c>
+      <c r="Q2" s="130" t="s">
+        <v>593</v>
+      </c>
+      <c r="R2" s="130" t="s">
+        <v>824</v>
+      </c>
+      <c r="S2" s="110" t="s">
+        <v>635</v>
+      </c>
+      <c r="T2" s="130" t="s">
+        <v>593</v>
+      </c>
+      <c r="U2" s="130" t="s">
+        <v>818</v>
+      </c>
+      <c r="V2" s="113" t="s">
+        <v>637</v>
+      </c>
+      <c r="W2" s="130" t="s">
+        <v>593</v>
+      </c>
+      <c r="X2" s="130" t="s">
+        <v>821</v>
+      </c>
+      <c r="Y2" s="112" t="s">
+        <v>636</v>
+      </c>
+      <c r="Z2" s="130" t="s">
+        <v>593</v>
+      </c>
+      <c r="AA2" s="130" t="s">
+        <v>818</v>
+      </c>
+      <c r="AB2" s="108" t="s">
+        <v>638</v>
+      </c>
+      <c r="AC2" s="130" t="s">
+        <v>593</v>
+      </c>
+      <c r="AD2" s="130" t="s">
+        <v>821</v>
+      </c>
+      <c r="AE2" s="112" t="s">
+        <v>636</v>
+      </c>
+      <c r="AF2" s="130" t="s">
+        <v>593</v>
+      </c>
+      <c r="AG2" s="130" t="s">
+        <v>818</v>
+      </c>
+      <c r="AH2" s="108" t="s">
+        <v>639</v>
+      </c>
+      <c r="AI2" s="130" t="s">
+        <v>593</v>
+      </c>
+      <c r="AJ2" s="130" t="s">
+        <v>821</v>
+      </c>
+      <c r="AK2" s="114" t="s">
+        <v>636</v>
+      </c>
+      <c r="AL2" s="130" t="s">
+        <v>593</v>
+      </c>
+      <c r="AM2" s="131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39">
+      <c r="A3" s="130" t="s">
+        <v>746</v>
+      </c>
+      <c r="B3" s="130" t="s">
+        <v>815</v>
+      </c>
+      <c r="C3" s="115">
+        <f>+IFERROR(IF(SUBTOTAL(3,M3),C2+1,C2),1)</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="E3" s="132" t="s">
+        <v>817</v>
+      </c>
+      <c r="F3" s="173" t="s">
+        <v>812</v>
+      </c>
+      <c r="G3" s="173" t="str">
+        <f>"https://ratings.fide.com/card.phtml?event="&amp;I3</f>
+        <v>https://ratings.fide.com/card.phtml?event=24176460</v>
+      </c>
+      <c r="H3" s="173" t="s">
+        <v>813</v>
+      </c>
+      <c r="I3" s="116">
+        <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=24176460",24176460)</f>
+        <v>24176460</v>
+      </c>
+      <c r="J3" s="176" t="s">
+        <v>811</v>
+      </c>
+      <c r="K3" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="L3" s="132" t="s">
+        <v>823</v>
+      </c>
+      <c r="M3" s="117" t="s">
+        <v>640</v>
+      </c>
+      <c r="N3" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="O3" s="132" t="s">
+        <v>826</v>
+      </c>
+      <c r="P3" s="118">
+        <v>2000</v>
+      </c>
+      <c r="Q3" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="R3" s="132" t="s">
+        <v>825</v>
+      </c>
+      <c r="S3" s="119" t="s">
+        <v>641</v>
+      </c>
+      <c r="T3" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="U3" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="V3" s="118">
+        <v>2521</v>
+      </c>
+      <c r="W3" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="X3" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="Y3" s="120">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA3" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AB3" s="118">
+        <v>2561</v>
+      </c>
+      <c r="AC3" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AD3" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AE3" s="120" t="s">
+        <v>641</v>
+      </c>
+      <c r="AF3" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AG3" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AH3" s="118">
+        <v>2476</v>
+      </c>
+      <c r="AI3" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AJ3" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AK3" s="120" t="s">
+        <v>641</v>
+      </c>
+      <c r="AL3" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AM3" s="131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" s="130" t="s">
+        <v>746</v>
+      </c>
+      <c r="B4" s="130" t="s">
+        <v>815</v>
+      </c>
+      <c r="C4" s="121">
+        <f>+IFERROR(IF(SUBTOTAL(3,M4),C3+1,C3),1)</f>
+        <v>2</v>
+      </c>
+      <c r="D4" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="E4" s="132" t="s">
+        <v>817</v>
+      </c>
+      <c r="F4" s="173" t="s">
+        <v>812</v>
+      </c>
+      <c r="G4" s="173" t="str">
+        <f t="shared" ref="G4:G52" si="0">"https://ratings.fide.com/card.phtml?event="&amp;I4</f>
+        <v>https://ratings.fide.com/card.phtml?event=24108138</v>
+      </c>
+      <c r="H4" s="173" t="s">
+        <v>813</v>
+      </c>
+      <c r="I4" s="122">
+        <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=24108138",24108138)</f>
+        <v>24108138</v>
+      </c>
+      <c r="J4" s="176" t="s">
+        <v>811</v>
+      </c>
+      <c r="K4" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="L4" s="132" t="s">
+        <v>823</v>
+      </c>
+      <c r="M4" s="123" t="s">
+        <v>642</v>
+      </c>
+      <c r="N4" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="O4" s="132" t="s">
+        <v>826</v>
+      </c>
+      <c r="P4" s="124">
+        <v>1997</v>
+      </c>
+      <c r="Q4" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="R4" s="132" t="s">
+        <v>825</v>
+      </c>
+      <c r="S4" s="125" t="s">
+        <v>641</v>
+      </c>
+      <c r="T4" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="U4" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="V4" s="124">
+        <v>2437</v>
+      </c>
+      <c r="W4" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="X4" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="Y4" s="126" t="s">
+        <v>641</v>
+      </c>
+      <c r="Z4" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA4" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AB4" s="124">
+        <v>2442</v>
+      </c>
+      <c r="AC4" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AD4" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AE4" s="126">
+        <v>33</v>
+      </c>
+      <c r="AF4" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AG4" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AH4" s="124">
+        <v>2343</v>
+      </c>
+      <c r="AI4" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AJ4" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AK4" s="126" t="s">
+        <v>641</v>
+      </c>
+      <c r="AL4" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AM4" s="131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="A5" s="130" t="s">
+        <v>746</v>
+      </c>
+      <c r="B5" s="130" t="s">
+        <v>815</v>
+      </c>
+      <c r="C5" s="115">
+        <f>+IFERROR(IF(SUBTOTAL(3,M5),C4+1,C4),1)</f>
+        <v>3</v>
+      </c>
+      <c r="D5" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="E5" s="132" t="s">
+        <v>817</v>
+      </c>
+      <c r="F5" s="173" t="s">
+        <v>812</v>
+      </c>
+      <c r="G5" s="173" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ratings.fide.com/card.phtml?event=24145076</v>
+      </c>
+      <c r="H5" s="173" t="s">
+        <v>813</v>
+      </c>
+      <c r="I5" s="116">
+        <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=24145076",24145076)</f>
+        <v>24145076</v>
+      </c>
+      <c r="J5" s="176" t="s">
+        <v>811</v>
+      </c>
+      <c r="K5" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="L5" s="132" t="s">
+        <v>823</v>
+      </c>
+      <c r="M5" s="117" t="s">
+        <v>643</v>
+      </c>
+      <c r="N5" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="O5" s="132" t="s">
+        <v>826</v>
+      </c>
+      <c r="P5" s="118">
+        <v>1995</v>
+      </c>
+      <c r="Q5" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="R5" s="132" t="s">
+        <v>825</v>
+      </c>
+      <c r="S5" s="119" t="s">
+        <v>641</v>
+      </c>
+      <c r="T5" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="U5" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="V5" s="118">
+        <v>2409</v>
+      </c>
+      <c r="W5" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="X5" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="Y5" s="120" t="s">
+        <v>641</v>
+      </c>
+      <c r="Z5" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA5" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AB5" s="118">
+        <v>2382</v>
+      </c>
+      <c r="AC5" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AD5" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AE5" s="120" t="s">
+        <v>641</v>
+      </c>
+      <c r="AF5" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AG5" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AH5" s="118">
+        <v>2382</v>
+      </c>
+      <c r="AI5" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AJ5" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AK5" s="120" t="s">
+        <v>641</v>
+      </c>
+      <c r="AL5" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AM5" s="131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="A6" s="130" t="s">
+        <v>746</v>
+      </c>
+      <c r="B6" s="130" t="s">
+        <v>815</v>
+      </c>
+      <c r="C6" s="121">
+        <f>+IFERROR(IF(SUBTOTAL(3,M6),C5+1,C5),1)</f>
+        <v>4</v>
+      </c>
+      <c r="D6" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="E6" s="132" t="s">
+        <v>817</v>
+      </c>
+      <c r="F6" s="173" t="s">
+        <v>812</v>
+      </c>
+      <c r="G6" s="173" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ratings.fide.com/card.phtml?event=24180211</v>
+      </c>
+      <c r="H6" s="173" t="s">
+        <v>813</v>
+      </c>
+      <c r="I6" s="122">
+        <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=24180211",24180211)</f>
+        <v>24180211</v>
+      </c>
+      <c r="J6" s="176" t="s">
+        <v>811</v>
+      </c>
+      <c r="K6" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="L6" s="132" t="s">
+        <v>823</v>
+      </c>
+      <c r="M6" s="123" t="s">
+        <v>644</v>
+      </c>
+      <c r="N6" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="O6" s="132" t="s">
+        <v>826</v>
+      </c>
+      <c r="P6" s="124">
+        <v>1972</v>
+      </c>
+      <c r="Q6" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="R6" s="132" t="s">
+        <v>825</v>
+      </c>
+      <c r="S6" s="127" t="s">
+        <v>281</v>
+      </c>
+      <c r="T6" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="U6" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="V6" s="124">
+        <v>2337</v>
+      </c>
+      <c r="W6" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="X6" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="Y6" s="126" t="s">
+        <v>641</v>
+      </c>
+      <c r="Z6" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA6" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AB6" s="124">
+        <v>2190</v>
+      </c>
+      <c r="AC6" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AD6" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AE6" s="126">
+        <v>16</v>
+      </c>
+      <c r="AF6" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AG6" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AH6" s="124">
+        <v>2180</v>
+      </c>
+      <c r="AI6" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AJ6" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AK6" s="126">
+        <v>16</v>
+      </c>
+      <c r="AL6" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AM6" s="131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" s="130" t="s">
+        <v>746</v>
+      </c>
+      <c r="B7" s="130" t="s">
+        <v>815</v>
+      </c>
+      <c r="C7" s="115">
+        <f>+IFERROR(IF(SUBTOTAL(3,M7),C6+1,C6),1)</f>
+        <v>5</v>
+      </c>
+      <c r="D7" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="E7" s="132" t="s">
+        <v>817</v>
+      </c>
+      <c r="F7" s="173" t="s">
+        <v>812</v>
+      </c>
+      <c r="G7" s="173" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ratings.fide.com/card.phtml?event=24132918</v>
+      </c>
+      <c r="H7" s="173" t="s">
+        <v>813</v>
+      </c>
+      <c r="I7" s="116">
+        <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=24132918",24132918)</f>
+        <v>24132918</v>
+      </c>
+      <c r="J7" s="176" t="s">
+        <v>811</v>
+      </c>
+      <c r="K7" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="L7" s="132" t="s">
+        <v>823</v>
+      </c>
+      <c r="M7" s="117" t="s">
+        <v>645</v>
+      </c>
+      <c r="N7" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="O7" s="132" t="s">
+        <v>826</v>
+      </c>
+      <c r="P7" s="118">
+        <v>1961</v>
+      </c>
+      <c r="Q7" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="R7" s="132" t="s">
+        <v>825</v>
+      </c>
+      <c r="S7" s="119" t="s">
+        <v>641</v>
+      </c>
+      <c r="T7" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="U7" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="V7" s="118">
+        <v>2320</v>
+      </c>
+      <c r="W7" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="X7" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="Y7" s="120" t="s">
+        <v>641</v>
+      </c>
+      <c r="Z7" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA7" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AB7" s="118">
+        <v>2250</v>
+      </c>
+      <c r="AC7" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AD7" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AE7" s="120" t="s">
+        <v>641</v>
+      </c>
+      <c r="AF7" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AG7" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AH7" s="118">
+        <v>2355</v>
+      </c>
+      <c r="AI7" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AJ7" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AK7" s="120" t="s">
+        <v>641</v>
+      </c>
+      <c r="AL7" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AM7" s="131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" s="130" t="s">
+        <v>746</v>
+      </c>
+      <c r="B8" s="130" t="s">
+        <v>815</v>
+      </c>
+      <c r="C8" s="121">
+        <f>+IFERROR(IF(SUBTOTAL(3,M8),C7+1,C7),1)</f>
+        <v>6</v>
+      </c>
+      <c r="D8" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="E8" s="132" t="s">
+        <v>817</v>
+      </c>
+      <c r="F8" s="173" t="s">
+        <v>812</v>
+      </c>
+      <c r="G8" s="173" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ratings.fide.com/card.phtml?event=34128384</v>
+      </c>
+      <c r="H8" s="173" t="s">
+        <v>813</v>
+      </c>
+      <c r="I8" s="122">
+        <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=34128384",34128384)</f>
+        <v>34128384</v>
+      </c>
+      <c r="J8" s="176" t="s">
+        <v>811</v>
+      </c>
+      <c r="K8" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="L8" s="132" t="s">
+        <v>823</v>
+      </c>
+      <c r="M8" s="123" t="s">
+        <v>646</v>
+      </c>
+      <c r="N8" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="O8" s="132" t="s">
+        <v>826</v>
+      </c>
+      <c r="P8" s="124">
+        <v>1982</v>
+      </c>
+      <c r="Q8" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="R8" s="132" t="s">
+        <v>825</v>
+      </c>
+      <c r="S8" s="127" t="s">
+        <v>226</v>
+      </c>
+      <c r="T8" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="U8" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="V8" s="124">
+        <v>2301</v>
+      </c>
+      <c r="W8" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="X8" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="Y8" s="126" t="s">
+        <v>641</v>
+      </c>
+      <c r="Z8" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA8" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AB8" s="124">
+        <v>2401</v>
+      </c>
+      <c r="AC8" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AD8" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AE8" s="126">
+        <v>25</v>
+      </c>
+      <c r="AF8" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AG8" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AH8" s="124">
+        <v>2348</v>
+      </c>
+      <c r="AI8" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AJ8" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AK8" s="126">
+        <v>-1</v>
+      </c>
+      <c r="AL8" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AM8" s="131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9" s="130" t="s">
+        <v>746</v>
+      </c>
+      <c r="B9" s="130" t="s">
+        <v>815</v>
+      </c>
+      <c r="C9" s="115">
+        <f>+IFERROR(IF(SUBTOTAL(3,M9),C8+1,C8),1)</f>
+        <v>7</v>
+      </c>
+      <c r="D9" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="E9" s="132" t="s">
+        <v>817</v>
+      </c>
+      <c r="F9" s="173" t="s">
+        <v>812</v>
+      </c>
+      <c r="G9" s="173" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ratings.fide.com/card.phtml?event=4153820</v>
+      </c>
+      <c r="H9" s="173" t="s">
+        <v>813</v>
+      </c>
+      <c r="I9" s="116">
+        <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=4153820",4153820)</f>
+        <v>4153820</v>
+      </c>
+      <c r="J9" s="176" t="s">
+        <v>811</v>
+      </c>
+      <c r="K9" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="L9" s="132" t="s">
+        <v>823</v>
+      </c>
+      <c r="M9" s="117" t="s">
+        <v>647</v>
+      </c>
+      <c r="N9" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="O9" s="132" t="s">
+        <v>826</v>
+      </c>
+      <c r="P9" s="118">
+        <v>1970</v>
+      </c>
+      <c r="Q9" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="R9" s="132" t="s">
+        <v>825</v>
+      </c>
+      <c r="S9" s="119" t="s">
+        <v>641</v>
+      </c>
+      <c r="T9" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="U9" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="V9" s="118">
+        <v>2295</v>
+      </c>
+      <c r="W9" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="X9" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="Y9" s="120" t="s">
+        <v>641</v>
+      </c>
+      <c r="Z9" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA9" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AB9" s="118">
+        <v>2289</v>
+      </c>
+      <c r="AC9" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AD9" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AE9" s="120" t="s">
+        <v>641</v>
+      </c>
+      <c r="AF9" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AG9" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AH9" s="118">
+        <v>2238</v>
+      </c>
+      <c r="AI9" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AJ9" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AK9" s="120" t="s">
+        <v>641</v>
+      </c>
+      <c r="AL9" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AM9" s="131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="A10" s="130" t="s">
+        <v>746</v>
+      </c>
+      <c r="B10" s="130" t="s">
+        <v>815</v>
+      </c>
+      <c r="C10" s="121">
+        <f>+IFERROR(IF(SUBTOTAL(3,M10),C9+1,C9),1)</f>
+        <v>8</v>
+      </c>
+      <c r="D10" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="E10" s="132" t="s">
+        <v>817</v>
+      </c>
+      <c r="F10" s="173" t="s">
+        <v>812</v>
+      </c>
+      <c r="G10" s="173" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ratings.fide.com/card.phtml?event=34101516</v>
+      </c>
+      <c r="H10" s="173" t="s">
+        <v>813</v>
+      </c>
+      <c r="I10" s="122">
+        <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=34101516",34101516)</f>
+        <v>34101516</v>
+      </c>
+      <c r="J10" s="176" t="s">
+        <v>811</v>
+      </c>
+      <c r="K10" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="L10" s="132" t="s">
+        <v>823</v>
+      </c>
+      <c r="M10" s="123" t="s">
+        <v>648</v>
+      </c>
+      <c r="N10" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="O10" s="132" t="s">
+        <v>826</v>
+      </c>
+      <c r="P10" s="124">
+        <v>1978</v>
+      </c>
+      <c r="Q10" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="R10" s="132" t="s">
+        <v>825</v>
+      </c>
+      <c r="S10" s="127" t="s">
+        <v>226</v>
+      </c>
+      <c r="T10" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="U10" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="V10" s="124">
+        <v>2298</v>
+      </c>
+      <c r="W10" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="X10" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="Y10" s="126" t="s">
+        <v>641</v>
+      </c>
+      <c r="Z10" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA10" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AB10" s="124">
+        <v>2213</v>
+      </c>
+      <c r="AC10" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AD10" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AE10" s="126" t="s">
+        <v>641</v>
+      </c>
+      <c r="AF10" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AG10" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AH10" s="124">
+        <v>2130</v>
+      </c>
+      <c r="AI10" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AJ10" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AK10" s="126">
+        <v>4</v>
+      </c>
+      <c r="AL10" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AM10" s="131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="A11" s="130" t="s">
+        <v>746</v>
+      </c>
+      <c r="B11" s="130" t="s">
+        <v>815</v>
+      </c>
+      <c r="C11" s="115">
+        <f>+IFERROR(IF(SUBTOTAL(3,M11),C10+1,C10),1)</f>
+        <v>9</v>
+      </c>
+      <c r="D11" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="E11" s="132" t="s">
+        <v>817</v>
+      </c>
+      <c r="F11" s="173" t="s">
+        <v>812</v>
+      </c>
+      <c r="G11" s="173" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ratings.fide.com/card.phtml?event=24132853</v>
+      </c>
+      <c r="H11" s="173" t="s">
+        <v>813</v>
+      </c>
+      <c r="I11" s="116">
+        <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=24132853",24132853)</f>
+        <v>24132853</v>
+      </c>
+      <c r="J11" s="176" t="s">
+        <v>811</v>
+      </c>
+      <c r="K11" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="L11" s="132" t="s">
+        <v>823</v>
+      </c>
+      <c r="M11" s="117" t="s">
+        <v>649</v>
+      </c>
+      <c r="N11" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="O11" s="132" t="s">
+        <v>826</v>
+      </c>
+      <c r="P11" s="118">
+        <v>1986</v>
+      </c>
+      <c r="Q11" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="R11" s="132" t="s">
+        <v>825</v>
+      </c>
+      <c r="S11" s="119" t="s">
+        <v>291</v>
+      </c>
+      <c r="T11" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="U11" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="V11" s="118">
+        <v>2269</v>
+      </c>
+      <c r="W11" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="X11" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="Y11" s="120" t="s">
+        <v>641</v>
+      </c>
+      <c r="Z11" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA11" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AB11" s="118">
+        <v>2302</v>
+      </c>
+      <c r="AC11" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AD11" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AE11" s="120" t="s">
+        <v>641</v>
+      </c>
+      <c r="AF11" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AG11" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AH11" s="118">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AJ11" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AK11" s="120" t="s">
+        <v>641</v>
+      </c>
+      <c r="AL11" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AM11" s="131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="A12" s="130" t="s">
+        <v>746</v>
+      </c>
+      <c r="B12" s="130" t="s">
+        <v>815</v>
+      </c>
+      <c r="C12" s="121">
+        <f>+IFERROR(IF(SUBTOTAL(3,M12),C11+1,C11),1)</f>
+        <v>10</v>
+      </c>
+      <c r="D12" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="E12" s="132" t="s">
+        <v>817</v>
+      </c>
+      <c r="F12" s="173" t="s">
+        <v>812</v>
+      </c>
+      <c r="G12" s="173" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ratings.fide.com/card.phtml?event=34185949</v>
+      </c>
+      <c r="H12" s="173" t="s">
+        <v>813</v>
+      </c>
+      <c r="I12" s="122">
+        <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=34185949",34185949)</f>
+        <v>34185949</v>
+      </c>
+      <c r="J12" s="176" t="s">
+        <v>811</v>
+      </c>
+      <c r="K12" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="L12" s="132" t="s">
+        <v>823</v>
+      </c>
+      <c r="M12" s="123" t="s">
+        <v>650</v>
+      </c>
+      <c r="N12" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="O12" s="132" t="s">
+        <v>826</v>
+      </c>
+      <c r="P12" s="124">
+        <v>1998</v>
+      </c>
+      <c r="Q12" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="R12" s="132" t="s">
+        <v>825</v>
+      </c>
+      <c r="S12" s="125" t="s">
+        <v>786</v>
+      </c>
+      <c r="T12" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="U12" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="V12" s="124">
+        <v>2165</v>
+      </c>
+      <c r="W12" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="X12" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="Y12" s="126" t="s">
+        <v>641</v>
+      </c>
+      <c r="Z12" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA12" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AB12" s="124">
+        <v>2179</v>
+      </c>
+      <c r="AC12" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AD12" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AE12" s="126" t="s">
+        <v>641</v>
+      </c>
+      <c r="AF12" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AG12" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AH12" s="124">
+        <v>2169</v>
+      </c>
+      <c r="AI12" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AJ12" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AK12" s="126">
+        <v>-46</v>
+      </c>
+      <c r="AL12" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AM12" s="131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" s="130" t="s">
+        <v>746</v>
+      </c>
+      <c r="B13" s="130" t="s">
+        <v>815</v>
+      </c>
+      <c r="C13" s="115">
+        <f>+IFERROR(IF(SUBTOTAL(3,M13),C12+1,C12),1)</f>
+        <v>11</v>
+      </c>
+      <c r="D13" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="E13" s="132" t="s">
+        <v>817</v>
+      </c>
+      <c r="F13" s="173" t="s">
+        <v>812</v>
+      </c>
+      <c r="G13" s="173" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ratings.fide.com/card.phtml?event=4152492</v>
+      </c>
+      <c r="H13" s="173" t="s">
+        <v>813</v>
+      </c>
+      <c r="I13" s="116">
+        <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=4152492",4152492)</f>
+        <v>4152492</v>
+      </c>
+      <c r="J13" s="176" t="s">
+        <v>811</v>
+      </c>
+      <c r="K13" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="L13" s="132" t="s">
+        <v>823</v>
+      </c>
+      <c r="M13" s="117" t="s">
+        <v>651</v>
+      </c>
+      <c r="N13" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="O13" s="132" t="s">
+        <v>826</v>
+      </c>
+      <c r="P13" s="118">
+        <v>1958</v>
+      </c>
+      <c r="Q13" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="R13" s="132" t="s">
+        <v>825</v>
+      </c>
+      <c r="S13" s="128" t="s">
+        <v>226</v>
+      </c>
+      <c r="T13" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="U13" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="V13" s="118">
+        <v>2314</v>
+      </c>
+      <c r="W13" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="X13" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="Y13" s="120" t="s">
+        <v>641</v>
+      </c>
+      <c r="Z13" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA13" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AB13" s="118">
+        <v>2000</v>
+      </c>
+      <c r="AC13" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AD13" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AE13" s="120">
+        <v>-13</v>
+      </c>
+      <c r="AF13" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AG13" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AH13" s="118">
+        <v>2037</v>
+      </c>
+      <c r="AI13" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AJ13" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AK13" s="120">
+        <v>85</v>
+      </c>
+      <c r="AL13" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AM13" s="131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="A14" s="130" t="s">
+        <v>746</v>
+      </c>
+      <c r="B14" s="130" t="s">
+        <v>815</v>
+      </c>
+      <c r="C14" s="121">
+        <f>+IFERROR(IF(SUBTOTAL(3,M14),C13+1,C13),1)</f>
+        <v>12</v>
+      </c>
+      <c r="D14" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="E14" s="132" t="s">
+        <v>817</v>
+      </c>
+      <c r="F14" s="173" t="s">
+        <v>812</v>
+      </c>
+      <c r="G14" s="173" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ratings.fide.com/card.phtml?event=4136551</v>
+      </c>
+      <c r="H14" s="173" t="s">
+        <v>813</v>
+      </c>
+      <c r="I14" s="122">
+        <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=4136551",4136551)</f>
+        <v>4136551</v>
+      </c>
+      <c r="J14" s="176" t="s">
+        <v>811</v>
+      </c>
+      <c r="K14" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="L14" s="132" t="s">
+        <v>823</v>
+      </c>
+      <c r="M14" s="123" t="s">
+        <v>652</v>
+      </c>
+      <c r="N14" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="O14" s="132" t="s">
+        <v>826</v>
+      </c>
+      <c r="P14" s="124">
+        <v>1962</v>
+      </c>
+      <c r="Q14" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="R14" s="132" t="s">
+        <v>825</v>
+      </c>
+      <c r="S14" s="127" t="s">
+        <v>281</v>
+      </c>
+      <c r="T14" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="U14" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="V14" s="124">
+        <v>2229</v>
+      </c>
+      <c r="W14" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="X14" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="Y14" s="126" t="s">
+        <v>641</v>
+      </c>
+      <c r="Z14" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA14" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AB14" s="124">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AD14" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AE14" s="126" t="s">
+        <v>641</v>
+      </c>
+      <c r="AF14" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AG14" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AH14" s="124">
+        <v>2244</v>
+      </c>
+      <c r="AI14" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AJ14" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AK14" s="126" t="s">
+        <v>641</v>
+      </c>
+      <c r="AL14" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AM14" s="131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" s="130" t="s">
+        <v>746</v>
+      </c>
+      <c r="B15" s="130" t="s">
+        <v>815</v>
+      </c>
+      <c r="C15" s="115">
+        <f>+IFERROR(IF(SUBTOTAL(3,M15),C14+1,C14),1)</f>
+        <v>13</v>
+      </c>
+      <c r="D15" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="E15" s="132" t="s">
+        <v>817</v>
+      </c>
+      <c r="F15" s="173" t="s">
+        <v>812</v>
+      </c>
+      <c r="G15" s="173" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ratings.fide.com/card.phtml?event=24126829</v>
+      </c>
+      <c r="H15" s="173" t="s">
+        <v>813</v>
+      </c>
+      <c r="I15" s="116">
+        <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=24126829",24126829)</f>
+        <v>24126829</v>
+      </c>
+      <c r="J15" s="176" t="s">
+        <v>811</v>
+      </c>
+      <c r="K15" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="L15" s="132" t="s">
+        <v>823</v>
+      </c>
+      <c r="M15" s="117" t="s">
+        <v>653</v>
+      </c>
+      <c r="N15" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="O15" s="132" t="s">
+        <v>826</v>
+      </c>
+      <c r="P15" s="118">
+        <v>1968</v>
+      </c>
+      <c r="Q15" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="R15" s="132" t="s">
+        <v>825</v>
+      </c>
+      <c r="S15" s="119" t="s">
+        <v>226</v>
+      </c>
+      <c r="T15" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="U15" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="V15" s="118">
+        <v>2187</v>
+      </c>
+      <c r="W15" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="X15" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="Y15" s="120" t="s">
+        <v>641</v>
+      </c>
+      <c r="Z15" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA15" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AB15" s="118">
+        <v>2091</v>
+      </c>
+      <c r="AC15" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AD15" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AE15" s="120" t="s">
+        <v>641</v>
+      </c>
+      <c r="AF15" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AG15" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AH15" s="118">
+        <v>2091</v>
+      </c>
+      <c r="AI15" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AJ15" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AK15" s="120" t="s">
+        <v>641</v>
+      </c>
+      <c r="AL15" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AM15" s="131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16" s="130" t="s">
+        <v>746</v>
+      </c>
+      <c r="B16" s="130" t="s">
+        <v>815</v>
+      </c>
+      <c r="C16" s="121">
+        <f>+IFERROR(IF(SUBTOTAL(3,M16),C15+1,C15),1)</f>
+        <v>14</v>
+      </c>
+      <c r="D16" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="E16" s="132" t="s">
+        <v>817</v>
+      </c>
+      <c r="F16" s="173" t="s">
+        <v>812</v>
+      </c>
+      <c r="G16" s="173" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ratings.fide.com/card.phtml?event=4179617</v>
+      </c>
+      <c r="H16" s="173" t="s">
+        <v>813</v>
+      </c>
+      <c r="I16" s="122">
+        <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=4179617",4179617)</f>
+        <v>4179617</v>
+      </c>
+      <c r="J16" s="176" t="s">
+        <v>811</v>
+      </c>
+      <c r="K16" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="L16" s="132" t="s">
+        <v>823</v>
+      </c>
+      <c r="M16" s="123" t="s">
+        <v>654</v>
+      </c>
+      <c r="N16" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="O16" s="132" t="s">
+        <v>826</v>
+      </c>
+      <c r="P16" s="124">
+        <v>1967</v>
+      </c>
+      <c r="Q16" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="R16" s="132" t="s">
+        <v>825</v>
+      </c>
+      <c r="S16" s="127" t="s">
+        <v>226</v>
+      </c>
+      <c r="T16" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="U16" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="V16" s="124">
+        <v>2321</v>
+      </c>
+      <c r="W16" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="X16" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="Y16" s="126" t="s">
+        <v>641</v>
+      </c>
+      <c r="Z16" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA16" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AB16" s="124">
+        <v>2258</v>
+      </c>
+      <c r="AC16" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AD16" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AE16" s="126" t="s">
+        <v>641</v>
+      </c>
+      <c r="AF16" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AG16" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AH16" s="124">
+        <v>2203</v>
+      </c>
+      <c r="AI16" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AJ16" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AK16" s="126" t="s">
+        <v>641</v>
+      </c>
+      <c r="AL16" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AM16" s="131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39">
+      <c r="A17" s="130" t="s">
+        <v>746</v>
+      </c>
+      <c r="B17" s="130" t="s">
+        <v>815</v>
+      </c>
+      <c r="C17" s="115">
+        <f>+IFERROR(IF(SUBTOTAL(3,M17),C16+1,C16),1)</f>
+        <v>15</v>
+      </c>
+      <c r="D17" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="E17" s="132" t="s">
+        <v>817</v>
+      </c>
+      <c r="F17" s="173" t="s">
+        <v>812</v>
+      </c>
+      <c r="G17" s="173" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ratings.fide.com/card.phtml?event=24141739</v>
+      </c>
+      <c r="H17" s="173" t="s">
+        <v>813</v>
+      </c>
+      <c r="I17" s="116">
+        <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=24141739",24141739)</f>
+        <v>24141739</v>
+      </c>
+      <c r="J17" s="176" t="s">
+        <v>811</v>
+      </c>
+      <c r="K17" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="L17" s="132" t="s">
+        <v>823</v>
+      </c>
+      <c r="M17" s="117" t="s">
+        <v>655</v>
+      </c>
+      <c r="N17" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="O17" s="132" t="s">
+        <v>826</v>
+      </c>
+      <c r="P17" s="118">
+        <v>1969</v>
+      </c>
+      <c r="Q17" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="R17" s="132" t="s">
+        <v>825</v>
+      </c>
+      <c r="S17" s="119" t="s">
+        <v>641</v>
+      </c>
+      <c r="T17" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="U17" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="V17" s="118">
+        <v>2174</v>
+      </c>
+      <c r="W17" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="X17" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="Y17" s="120" t="s">
+        <v>641</v>
+      </c>
+      <c r="Z17" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA17" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AB17" s="118">
+        <v>2162</v>
+      </c>
+      <c r="AC17" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AD17" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AE17" s="120" t="s">
+        <v>641</v>
+      </c>
+      <c r="AF17" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AG17" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AH17" s="118">
+        <v>2205</v>
+      </c>
+      <c r="AI17" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AJ17" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AK17" s="120" t="s">
+        <v>641</v>
+      </c>
+      <c r="AL17" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AM17" s="131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39">
+      <c r="A18" s="130" t="s">
+        <v>746</v>
+      </c>
+      <c r="B18" s="130" t="s">
+        <v>815</v>
+      </c>
+      <c r="C18" s="121">
+        <f>+IFERROR(IF(SUBTOTAL(3,M18),C17+1,C17),1)</f>
+        <v>16</v>
+      </c>
+      <c r="D18" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="E18" s="132" t="s">
+        <v>817</v>
+      </c>
+      <c r="F18" s="173" t="s">
+        <v>812</v>
+      </c>
+      <c r="G18" s="173" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ratings.fide.com/card.phtml?event=24159620</v>
+      </c>
+      <c r="H18" s="173" t="s">
+        <v>813</v>
+      </c>
+      <c r="I18" s="122">
+        <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=24159620",24159620)</f>
+        <v>24159620</v>
+      </c>
+      <c r="J18" s="176" t="s">
+        <v>811</v>
+      </c>
+      <c r="K18" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="L18" s="132" t="s">
+        <v>823</v>
+      </c>
+      <c r="M18" s="123" t="s">
+        <v>656</v>
+      </c>
+      <c r="N18" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="O18" s="132" t="s">
+        <v>826</v>
+      </c>
+      <c r="P18" s="124">
+        <v>1997</v>
+      </c>
+      <c r="Q18" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="R18" s="132" t="s">
+        <v>825</v>
+      </c>
+      <c r="S18" s="125" t="s">
+        <v>226</v>
+      </c>
+      <c r="T18" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="U18" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="V18" s="124">
+        <v>2159</v>
+      </c>
+      <c r="W18" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="X18" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="Y18" s="126" t="s">
+        <v>641</v>
+      </c>
+      <c r="Z18" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA18" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AB18" s="124">
+        <v>2066</v>
+      </c>
+      <c r="AC18" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AD18" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AE18" s="126" t="s">
+        <v>641</v>
+      </c>
+      <c r="AF18" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AG18" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AH18" s="124">
+        <v>2014</v>
+      </c>
+      <c r="AI18" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AJ18" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AK18" s="126" t="s">
+        <v>641</v>
+      </c>
+      <c r="AL18" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AM18" s="131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39">
+      <c r="A19" s="130" t="s">
+        <v>746</v>
+      </c>
+      <c r="B19" s="130" t="s">
+        <v>815</v>
+      </c>
+      <c r="C19" s="115">
+        <f>+IFERROR(IF(SUBTOTAL(3,M19),C18+1,C18),1)</f>
+        <v>17</v>
+      </c>
+      <c r="D19" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="E19" s="132" t="s">
+        <v>817</v>
+      </c>
+      <c r="F19" s="173" t="s">
+        <v>812</v>
+      </c>
+      <c r="G19" s="173" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ratings.fide.com/card.phtml?event=4124073</v>
+      </c>
+      <c r="H19" s="173" t="s">
+        <v>813</v>
+      </c>
+      <c r="I19" s="116">
+        <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=4124073",4124073)</f>
+        <v>4124073</v>
+      </c>
+      <c r="J19" s="176" t="s">
+        <v>811</v>
+      </c>
+      <c r="K19" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="L19" s="132" t="s">
+        <v>823</v>
+      </c>
+      <c r="M19" s="117" t="s">
+        <v>657</v>
+      </c>
+      <c r="N19" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="O19" s="132" t="s">
+        <v>826</v>
+      </c>
+      <c r="P19" s="118">
+        <v>1974</v>
+      </c>
+      <c r="Q19" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="R19" s="132" t="s">
+        <v>825</v>
+      </c>
+      <c r="S19" s="128" t="s">
+        <v>226</v>
+      </c>
+      <c r="T19" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="U19" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="V19" s="118">
+        <v>2285</v>
+      </c>
+      <c r="W19" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="X19" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="Y19" s="120" t="s">
+        <v>641</v>
+      </c>
+      <c r="Z19" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA19" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AB19" s="118">
+        <v>2257</v>
+      </c>
+      <c r="AC19" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AD19" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AE19" s="120" t="s">
+        <v>641</v>
+      </c>
+      <c r="AF19" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AG19" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AH19" s="118">
+        <v>2254</v>
+      </c>
+      <c r="AI19" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AJ19" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AK19" s="120" t="s">
+        <v>641</v>
+      </c>
+      <c r="AL19" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AM19" s="131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39">
+      <c r="A20" s="130" t="s">
+        <v>746</v>
+      </c>
+      <c r="B20" s="130" t="s">
+        <v>815</v>
+      </c>
+      <c r="C20" s="121">
+        <f>+IFERROR(IF(SUBTOTAL(3,M20),C19+1,C19),1)</f>
+        <v>18</v>
+      </c>
+      <c r="D20" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="E20" s="132" t="s">
+        <v>817</v>
+      </c>
+      <c r="F20" s="173" t="s">
+        <v>812</v>
+      </c>
+      <c r="G20" s="173" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ratings.fide.com/card.phtml?event=24160903</v>
+      </c>
+      <c r="H20" s="173" t="s">
+        <v>813</v>
+      </c>
+      <c r="I20" s="122">
+        <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=24160903",24160903)</f>
+        <v>24160903</v>
+      </c>
+      <c r="J20" s="176" t="s">
+        <v>811</v>
+      </c>
+      <c r="K20" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="L20" s="132" t="s">
+        <v>823</v>
+      </c>
+      <c r="M20" s="123" t="s">
+        <v>658</v>
+      </c>
+      <c r="N20" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="O20" s="132" t="s">
+        <v>826</v>
+      </c>
+      <c r="P20" s="124">
+        <v>1998</v>
+      </c>
+      <c r="Q20" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="R20" s="132" t="s">
+        <v>825</v>
+      </c>
+      <c r="S20" s="125" t="s">
+        <v>226</v>
+      </c>
+      <c r="T20" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="U20" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="V20" s="124">
+        <v>2163</v>
+      </c>
+      <c r="W20" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="X20" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="Y20" s="126" t="s">
+        <v>641</v>
+      </c>
+      <c r="Z20" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA20" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AB20" s="124">
+        <v>2059</v>
+      </c>
+      <c r="AC20" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AD20" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AE20" s="126" t="s">
+        <v>641</v>
+      </c>
+      <c r="AF20" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AG20" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AH20" s="124">
+        <v>2085</v>
+      </c>
+      <c r="AI20" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AJ20" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AK20" s="126" t="s">
+        <v>641</v>
+      </c>
+      <c r="AL20" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AM20" s="131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39">
+      <c r="A21" s="130" t="s">
+        <v>746</v>
+      </c>
+      <c r="B21" s="130" t="s">
+        <v>815</v>
+      </c>
+      <c r="C21" s="115">
+        <f>+IFERROR(IF(SUBTOTAL(3,M21),C20+1,C20),1)</f>
+        <v>19</v>
+      </c>
+      <c r="D21" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="E21" s="132" t="s">
+        <v>817</v>
+      </c>
+      <c r="F21" s="173" t="s">
+        <v>812</v>
+      </c>
+      <c r="G21" s="173" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ratings.fide.com/card.phtml?event=44130295</v>
+      </c>
+      <c r="H21" s="173" t="s">
+        <v>813</v>
+      </c>
+      <c r="I21" s="116">
+        <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=44130295",44130295)</f>
+        <v>44130295</v>
+      </c>
+      <c r="J21" s="176" t="s">
+        <v>811</v>
+      </c>
+      <c r="K21" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="L21" s="132" t="s">
+        <v>823</v>
+      </c>
+      <c r="M21" s="117" t="s">
+        <v>659</v>
+      </c>
+      <c r="N21" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="O21" s="132" t="s">
+        <v>826</v>
+      </c>
+      <c r="P21" s="118">
+        <v>2004</v>
+      </c>
+      <c r="Q21" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="R21" s="132" t="s">
+        <v>825</v>
+      </c>
+      <c r="S21" s="128" t="s">
+        <v>281</v>
+      </c>
+      <c r="T21" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="U21" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="V21" s="118">
+        <v>2097</v>
+      </c>
+      <c r="W21" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="X21" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="Y21" s="120" t="s">
+        <v>641</v>
+      </c>
+      <c r="Z21" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA21" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AB21" s="118">
+        <v>2145</v>
+      </c>
+      <c r="AC21" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AD21" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AE21" s="120">
+        <v>-40</v>
+      </c>
+      <c r="AF21" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AG21" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AH21" s="118">
+        <v>2094</v>
+      </c>
+      <c r="AI21" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AJ21" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AK21" s="120">
+        <v>-28</v>
+      </c>
+      <c r="AL21" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AM21" s="131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39">
+      <c r="A22" s="130" t="s">
+        <v>746</v>
+      </c>
+      <c r="B22" s="130" t="s">
+        <v>815</v>
+      </c>
+      <c r="C22" s="121">
+        <f>+IFERROR(IF(SUBTOTAL(3,M22),C21+1,C21),1)</f>
+        <v>20</v>
+      </c>
+      <c r="D22" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="E22" s="132" t="s">
+        <v>817</v>
+      </c>
+      <c r="F22" s="173" t="s">
+        <v>812</v>
+      </c>
+      <c r="G22" s="173" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ratings.fide.com/card.phtml?event=</v>
+      </c>
+      <c r="H22" s="173" t="s">
+        <v>813</v>
+      </c>
+      <c r="I22" s="122" t="s">
+        <v>641</v>
+      </c>
+      <c r="J22" s="176" t="s">
+        <v>811</v>
+      </c>
+      <c r="K22" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="L22" s="132" t="s">
+        <v>823</v>
+      </c>
+      <c r="M22" s="123" t="s">
+        <v>660</v>
+      </c>
+      <c r="N22" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="O22" s="132" t="s">
+        <v>826</v>
+      </c>
+      <c r="P22" s="124">
+        <v>1953</v>
+      </c>
+      <c r="Q22" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="R22" s="132" t="s">
+        <v>825</v>
+      </c>
+      <c r="S22" s="127" t="s">
+        <v>226</v>
+      </c>
+      <c r="T22" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="U22" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="V22" s="124">
+        <v>0</v>
+      </c>
+      <c r="W22" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="X22" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="Y22" s="126" t="s">
+        <v>641</v>
+      </c>
+      <c r="Z22" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA22" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AB22" s="124">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AD22" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AE22" s="126" t="s">
+        <v>641</v>
+      </c>
+      <c r="AF22" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AG22" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AH22" s="124">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AJ22" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AK22" s="126" t="s">
+        <v>641</v>
+      </c>
+      <c r="AL22" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AM22" s="131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39">
+      <c r="A23" s="130" t="s">
+        <v>746</v>
+      </c>
+      <c r="B23" s="130" t="s">
+        <v>815</v>
+      </c>
+      <c r="C23" s="115">
+        <f>+IFERROR(IF(SUBTOTAL(3,M23),C22+1,C22),1)</f>
+        <v>21</v>
+      </c>
+      <c r="D23" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="E23" s="132" t="s">
+        <v>817</v>
+      </c>
+      <c r="F23" s="173" t="s">
+        <v>812</v>
+      </c>
+      <c r="G23" s="173" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ratings.fide.com/card.phtml?event=34148237</v>
+      </c>
+      <c r="H23" s="173" t="s">
+        <v>813</v>
+      </c>
+      <c r="I23" s="116">
+        <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=34148237",34148237)</f>
+        <v>34148237</v>
+      </c>
+      <c r="J23" s="176" t="s">
+        <v>811</v>
+      </c>
+      <c r="K23" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="L23" s="132" t="s">
+        <v>823</v>
+      </c>
+      <c r="M23" s="117" t="s">
+        <v>661</v>
+      </c>
+      <c r="N23" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="O23" s="132" t="s">
+        <v>826</v>
+      </c>
+      <c r="P23" s="118">
+        <v>1960</v>
+      </c>
+      <c r="Q23" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="R23" s="132" t="s">
+        <v>825</v>
+      </c>
+      <c r="S23" s="128" t="s">
+        <v>281</v>
+      </c>
+      <c r="T23" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="U23" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="V23" s="118">
+        <v>0</v>
+      </c>
+      <c r="W23" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="X23" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="Y23" s="120" t="s">
+        <v>641</v>
+      </c>
+      <c r="Z23" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA23" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AB23" s="118">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AD23" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AE23" s="120" t="s">
+        <v>641</v>
+      </c>
+      <c r="AF23" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AG23" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AH23" s="118">
+        <v>2157</v>
+      </c>
+      <c r="AI23" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AJ23" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AK23" s="120" t="s">
+        <v>641</v>
+      </c>
+      <c r="AL23" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AM23" s="131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39">
+      <c r="A24" s="130" t="s">
+        <v>746</v>
+      </c>
+      <c r="B24" s="130" t="s">
+        <v>815</v>
+      </c>
+      <c r="C24" s="121">
+        <f>+IFERROR(IF(SUBTOTAL(3,M24),C23+1,C23),1)</f>
+        <v>22</v>
+      </c>
+      <c r="D24" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="E24" s="132" t="s">
+        <v>817</v>
+      </c>
+      <c r="F24" s="173" t="s">
+        <v>812</v>
+      </c>
+      <c r="G24" s="173" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ratings.fide.com/card.phtml?event=24150789</v>
+      </c>
+      <c r="H24" s="173" t="s">
+        <v>813</v>
+      </c>
+      <c r="I24" s="122">
+        <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=24150789",24150789)</f>
+        <v>24150789</v>
+      </c>
+      <c r="J24" s="176" t="s">
+        <v>811</v>
+      </c>
+      <c r="K24" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="L24" s="132" t="s">
+        <v>823</v>
+      </c>
+      <c r="M24" s="129" t="s">
+        <v>662</v>
+      </c>
+      <c r="N24" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="O24" s="132" t="s">
+        <v>826</v>
+      </c>
+      <c r="P24" s="124">
+        <v>1956</v>
+      </c>
+      <c r="Q24" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="R24" s="132" t="s">
+        <v>825</v>
+      </c>
+      <c r="S24" s="125" t="s">
+        <v>226</v>
+      </c>
+      <c r="T24" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="U24" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="V24" s="124">
+        <v>2148</v>
+      </c>
+      <c r="W24" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="X24" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="Y24" s="126" t="s">
+        <v>641</v>
+      </c>
+      <c r="Z24" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA24" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AB24" s="124">
+        <v>2050</v>
+      </c>
+      <c r="AC24" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AD24" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AE24" s="126" t="s">
+        <v>641</v>
+      </c>
+      <c r="AF24" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AG24" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AH24" s="124">
+        <v>2055</v>
+      </c>
+      <c r="AI24" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AJ24" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AK24" s="126" t="s">
+        <v>641</v>
+      </c>
+      <c r="AL24" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AM24" s="131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39">
+      <c r="A25" s="130" t="s">
+        <v>746</v>
+      </c>
+      <c r="B25" s="130" t="s">
+        <v>815</v>
+      </c>
+      <c r="C25" s="115">
+        <f>+IFERROR(IF(SUBTOTAL(3,M25),C24+1,C24),1)</f>
+        <v>23</v>
+      </c>
+      <c r="D25" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="E25" s="132" t="s">
+        <v>817</v>
+      </c>
+      <c r="F25" s="173" t="s">
+        <v>812</v>
+      </c>
+      <c r="G25" s="173" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ratings.fide.com/card.phtml?event=4170784</v>
+      </c>
+      <c r="H25" s="173" t="s">
+        <v>813</v>
+      </c>
+      <c r="I25" s="116">
+        <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=4170784",4170784)</f>
+        <v>4170784</v>
+      </c>
+      <c r="J25" s="176" t="s">
+        <v>811</v>
+      </c>
+      <c r="K25" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="L25" s="132" t="s">
+        <v>823</v>
+      </c>
+      <c r="M25" s="117" t="s">
+        <v>663</v>
+      </c>
+      <c r="N25" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="O25" s="132" t="s">
+        <v>826</v>
+      </c>
+      <c r="P25" s="118">
+        <v>1984</v>
+      </c>
+      <c r="Q25" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="R25" s="132" t="s">
+        <v>825</v>
+      </c>
+      <c r="S25" s="128" t="s">
+        <v>226</v>
+      </c>
+      <c r="T25" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="U25" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="V25" s="118">
+        <v>2182</v>
+      </c>
+      <c r="W25" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="X25" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="Y25" s="120" t="s">
+        <v>641</v>
+      </c>
+      <c r="Z25" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA25" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AB25" s="118">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AD25" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AE25" s="120" t="s">
+        <v>641</v>
+      </c>
+      <c r="AF25" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AG25" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AH25" s="118">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AJ25" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AK25" s="120" t="s">
+        <v>641</v>
+      </c>
+      <c r="AL25" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AM25" s="131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39">
+      <c r="A26" s="130" t="s">
+        <v>746</v>
+      </c>
+      <c r="B26" s="130" t="s">
+        <v>815</v>
+      </c>
+      <c r="C26" s="121">
+        <f>+IFERROR(IF(SUBTOTAL(3,M26),C25+1,C25),1)</f>
+        <v>24</v>
+      </c>
+      <c r="D26" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="E26" s="132" t="s">
+        <v>817</v>
+      </c>
+      <c r="F26" s="173" t="s">
+        <v>812</v>
+      </c>
+      <c r="G26" s="173" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ratings.fide.com/card.phtml?event=4148509</v>
+      </c>
+      <c r="H26" s="173" t="s">
+        <v>813</v>
+      </c>
+      <c r="I26" s="122">
+        <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=4148509",4148509)</f>
+        <v>4148509</v>
+      </c>
+      <c r="J26" s="176" t="s">
+        <v>811</v>
+      </c>
+      <c r="K26" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="L26" s="132" t="s">
+        <v>823</v>
+      </c>
+      <c r="M26" s="123" t="s">
+        <v>664</v>
+      </c>
+      <c r="N26" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="O26" s="132" t="s">
+        <v>826</v>
+      </c>
+      <c r="P26" s="124">
+        <v>1958</v>
+      </c>
+      <c r="Q26" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="R26" s="132" t="s">
+        <v>825</v>
+      </c>
+      <c r="S26" s="127" t="s">
+        <v>226</v>
+      </c>
+      <c r="T26" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="U26" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="V26" s="124">
+        <v>2115</v>
+      </c>
+      <c r="W26" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="X26" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="Y26" s="126" t="s">
+        <v>641</v>
+      </c>
+      <c r="Z26" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA26" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AB26" s="124">
+        <v>2086</v>
+      </c>
+      <c r="AC26" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AD26" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AE26" s="126">
+        <v>-18</v>
+      </c>
+      <c r="AF26" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AG26" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AH26" s="124">
+        <v>2030</v>
+      </c>
+      <c r="AI26" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AJ26" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AK26" s="126">
+        <v>-5</v>
+      </c>
+      <c r="AL26" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AM26" s="131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39">
+      <c r="A27" s="130" t="s">
+        <v>746</v>
+      </c>
+      <c r="B27" s="130" t="s">
+        <v>815</v>
+      </c>
+      <c r="C27" s="115">
+        <f>+IFERROR(IF(SUBTOTAL(3,M27),C26+1,C26),1)</f>
+        <v>25</v>
+      </c>
+      <c r="D27" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="E27" s="132" t="s">
+        <v>817</v>
+      </c>
+      <c r="F27" s="173" t="s">
+        <v>812</v>
+      </c>
+      <c r="G27" s="173" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ratings.fide.com/card.phtml?event=4167180</v>
+      </c>
+      <c r="H27" s="173" t="s">
+        <v>813</v>
+      </c>
+      <c r="I27" s="116">
+        <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=4167180",4167180)</f>
+        <v>4167180</v>
+      </c>
+      <c r="J27" s="176" t="s">
+        <v>811</v>
+      </c>
+      <c r="K27" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="L27" s="132" t="s">
+        <v>823</v>
+      </c>
+      <c r="M27" s="117" t="s">
+        <v>665</v>
+      </c>
+      <c r="N27" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="O27" s="132" t="s">
+        <v>826</v>
+      </c>
+      <c r="P27" s="118">
+        <v>1960</v>
+      </c>
+      <c r="Q27" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="R27" s="132" t="s">
+        <v>825</v>
+      </c>
+      <c r="S27" s="119" t="s">
+        <v>641</v>
+      </c>
+      <c r="T27" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="U27" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="V27" s="118">
+        <v>2145</v>
+      </c>
+      <c r="W27" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="X27" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="Y27" s="120" t="s">
+        <v>641</v>
+      </c>
+      <c r="Z27" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA27" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AB27" s="118">
+        <v>2221</v>
+      </c>
+      <c r="AC27" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AD27" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AE27" s="120" t="s">
+        <v>641</v>
+      </c>
+      <c r="AF27" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AG27" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AH27" s="118">
+        <v>2114</v>
+      </c>
+      <c r="AI27" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AJ27" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AK27" s="120" t="s">
+        <v>641</v>
+      </c>
+      <c r="AL27" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AM27" s="131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39">
+      <c r="A28" s="130" t="s">
+        <v>746</v>
+      </c>
+      <c r="B28" s="130" t="s">
+        <v>815</v>
+      </c>
+      <c r="C28" s="121">
+        <f>+IFERROR(IF(SUBTOTAL(3,M28),C27+1,C27),1)</f>
+        <v>26</v>
+      </c>
+      <c r="D28" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="E28" s="132" t="s">
+        <v>817</v>
+      </c>
+      <c r="F28" s="173" t="s">
+        <v>812</v>
+      </c>
+      <c r="G28" s="173" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ratings.fide.com/card.phtml?event=4163656</v>
+      </c>
+      <c r="H28" s="173" t="s">
+        <v>813</v>
+      </c>
+      <c r="I28" s="122">
+        <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=4163656",4163656)</f>
+        <v>4163656</v>
+      </c>
+      <c r="J28" s="176" t="s">
+        <v>811</v>
+      </c>
+      <c r="K28" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="L28" s="132" t="s">
+        <v>823</v>
+      </c>
+      <c r="M28" s="123" t="s">
+        <v>666</v>
+      </c>
+      <c r="N28" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="O28" s="132" t="s">
+        <v>826</v>
+      </c>
+      <c r="P28" s="124">
+        <v>1958</v>
+      </c>
+      <c r="Q28" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="R28" s="132" t="s">
+        <v>825</v>
+      </c>
+      <c r="S28" s="127" t="s">
+        <v>226</v>
+      </c>
+      <c r="T28" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="U28" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="V28" s="124">
+        <v>2137</v>
+      </c>
+      <c r="W28" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="X28" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="Y28" s="126" t="s">
+        <v>641</v>
+      </c>
+      <c r="Z28" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA28" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AB28" s="124">
+        <v>2100</v>
+      </c>
+      <c r="AC28" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AD28" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AE28" s="126" t="s">
+        <v>641</v>
+      </c>
+      <c r="AF28" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AG28" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AH28" s="124">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AJ28" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AK28" s="126" t="s">
+        <v>641</v>
+      </c>
+      <c r="AL28" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AM28" s="131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39">
+      <c r="A29" s="130" t="s">
+        <v>746</v>
+      </c>
+      <c r="B29" s="130" t="s">
+        <v>815</v>
+      </c>
+      <c r="C29" s="115">
+        <f>+IFERROR(IF(SUBTOTAL(3,M29),C28+1,C28),1)</f>
+        <v>27</v>
+      </c>
+      <c r="D29" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="E29" s="132" t="s">
+        <v>817</v>
+      </c>
+      <c r="F29" s="173" t="s">
+        <v>812</v>
+      </c>
+      <c r="G29" s="173" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ratings.fide.com/card.phtml?event=24160890</v>
+      </c>
+      <c r="H29" s="173" t="s">
+        <v>813</v>
+      </c>
+      <c r="I29" s="116">
+        <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=24160890",24160890)</f>
+        <v>24160890</v>
+      </c>
+      <c r="J29" s="176" t="s">
+        <v>811</v>
+      </c>
+      <c r="K29" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="L29" s="132" t="s">
+        <v>823</v>
+      </c>
+      <c r="M29" s="117" t="s">
+        <v>667</v>
+      </c>
+      <c r="N29" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="O29" s="132" t="s">
+        <v>826</v>
+      </c>
+      <c r="P29" s="118">
+        <v>1987</v>
+      </c>
+      <c r="Q29" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="R29" s="132" t="s">
+        <v>825</v>
+      </c>
+      <c r="S29" s="128" t="s">
+        <v>226</v>
+      </c>
+      <c r="T29" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="U29" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="V29" s="118">
+        <v>2143</v>
+      </c>
+      <c r="W29" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="X29" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="Y29" s="120" t="s">
+        <v>641</v>
+      </c>
+      <c r="Z29" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA29" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AB29" s="118">
+        <v>2173</v>
+      </c>
+      <c r="AC29" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AD29" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AE29" s="120" t="s">
+        <v>641</v>
+      </c>
+      <c r="AF29" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AG29" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AH29" s="118">
+        <v>2187</v>
+      </c>
+      <c r="AI29" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AJ29" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AK29" s="120" t="s">
+        <v>641</v>
+      </c>
+      <c r="AL29" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AM29" s="131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39">
+      <c r="A30" s="130" t="s">
+        <v>746</v>
+      </c>
+      <c r="B30" s="130" t="s">
+        <v>815</v>
+      </c>
+      <c r="C30" s="121">
+        <f>+IFERROR(IF(SUBTOTAL(3,M30),C29+1,C29),1)</f>
+        <v>28</v>
+      </c>
+      <c r="D30" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="E30" s="132" t="s">
+        <v>817</v>
+      </c>
+      <c r="F30" s="173" t="s">
+        <v>812</v>
+      </c>
+      <c r="G30" s="173" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ratings.fide.com/card.phtml?event=34128341</v>
+      </c>
+      <c r="H30" s="173" t="s">
+        <v>813</v>
+      </c>
+      <c r="I30" s="122">
+        <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=34128341",34128341)</f>
+        <v>34128341</v>
+      </c>
+      <c r="J30" s="176" t="s">
+        <v>811</v>
+      </c>
+      <c r="K30" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="L30" s="132" t="s">
+        <v>823</v>
+      </c>
+      <c r="M30" s="123" t="s">
+        <v>668</v>
+      </c>
+      <c r="N30" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="O30" s="132" t="s">
+        <v>826</v>
+      </c>
+      <c r="P30" s="124">
+        <v>1974</v>
+      </c>
+      <c r="Q30" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="R30" s="132" t="s">
+        <v>825</v>
+      </c>
+      <c r="S30" s="127" t="s">
+        <v>281</v>
+      </c>
+      <c r="T30" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="U30" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="V30" s="124">
+        <v>0</v>
+      </c>
+      <c r="W30" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="X30" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="Y30" s="126" t="s">
+        <v>641</v>
+      </c>
+      <c r="Z30" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA30" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AB30" s="124">
+        <v>2127</v>
+      </c>
+      <c r="AC30" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AD30" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AE30" s="126" t="s">
+        <v>641</v>
+      </c>
+      <c r="AF30" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AG30" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AH30" s="124">
+        <v>2150</v>
+      </c>
+      <c r="AI30" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AJ30" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AK30" s="126" t="s">
+        <v>641</v>
+      </c>
+      <c r="AL30" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AM30" s="131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39">
+      <c r="A31" s="130" t="s">
+        <v>746</v>
+      </c>
+      <c r="B31" s="130" t="s">
+        <v>815</v>
+      </c>
+      <c r="C31" s="115">
+        <f>+IFERROR(IF(SUBTOTAL(3,M31),C30+1,C30),1)</f>
+        <v>29</v>
+      </c>
+      <c r="D31" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="E31" s="132" t="s">
+        <v>817</v>
+      </c>
+      <c r="F31" s="173" t="s">
+        <v>812</v>
+      </c>
+      <c r="G31" s="173" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ratings.fide.com/card.phtml?event=34128422</v>
+      </c>
+      <c r="H31" s="173" t="s">
+        <v>813</v>
+      </c>
+      <c r="I31" s="116">
+        <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=34128422",34128422)</f>
+        <v>34128422</v>
+      </c>
+      <c r="J31" s="176" t="s">
+        <v>811</v>
+      </c>
+      <c r="K31" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="L31" s="132" t="s">
+        <v>823</v>
+      </c>
+      <c r="M31" s="117" t="s">
+        <v>669</v>
+      </c>
+      <c r="N31" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="O31" s="132" t="s">
+        <v>826</v>
+      </c>
+      <c r="P31" s="118">
+        <v>1951</v>
+      </c>
+      <c r="Q31" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="R31" s="132" t="s">
+        <v>825</v>
+      </c>
+      <c r="S31" s="128" t="s">
+        <v>670</v>
+      </c>
+      <c r="T31" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="U31" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="V31" s="118">
+        <v>0</v>
+      </c>
+      <c r="W31" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="X31" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="Y31" s="120" t="s">
+        <v>641</v>
+      </c>
+      <c r="Z31" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA31" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AB31" s="118">
+        <v>2057</v>
+      </c>
+      <c r="AC31" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AD31" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AE31" s="120" t="s">
+        <v>641</v>
+      </c>
+      <c r="AF31" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AG31" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AH31" s="118">
+        <v>2117</v>
+      </c>
+      <c r="AI31" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AJ31" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AK31" s="120" t="s">
+        <v>641</v>
+      </c>
+      <c r="AL31" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AM31" s="131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39">
+      <c r="A32" s="130" t="s">
+        <v>746</v>
+      </c>
+      <c r="B32" s="130" t="s">
+        <v>815</v>
+      </c>
+      <c r="C32" s="121">
+        <f>+IFERROR(IF(SUBTOTAL(3,M32),C31+1,C31),1)</f>
+        <v>30</v>
+      </c>
+      <c r="D32" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="E32" s="132" t="s">
+        <v>817</v>
+      </c>
+      <c r="F32" s="173" t="s">
+        <v>812</v>
+      </c>
+      <c r="G32" s="173" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ratings.fide.com/card.phtml?event=4182693</v>
+      </c>
+      <c r="H32" s="173" t="s">
+        <v>813</v>
+      </c>
+      <c r="I32" s="122">
+        <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=4182693",4182693)</f>
+        <v>4182693</v>
+      </c>
+      <c r="J32" s="176" t="s">
+        <v>811</v>
+      </c>
+      <c r="K32" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="L32" s="132" t="s">
+        <v>823</v>
+      </c>
+      <c r="M32" s="123" t="s">
+        <v>671</v>
+      </c>
+      <c r="N32" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="O32" s="132" t="s">
+        <v>826</v>
+      </c>
+      <c r="P32" s="124">
+        <v>1989</v>
+      </c>
+      <c r="Q32" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="R32" s="132" t="s">
+        <v>825</v>
+      </c>
+      <c r="S32" s="125" t="s">
+        <v>641</v>
+      </c>
+      <c r="T32" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="U32" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="V32" s="124">
+        <v>2214</v>
+      </c>
+      <c r="W32" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="X32" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="Y32" s="126" t="s">
+        <v>641</v>
+      </c>
+      <c r="Z32" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA32" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AB32" s="124">
+        <v>2152</v>
+      </c>
+      <c r="AC32" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AD32" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AE32" s="126" t="s">
+        <v>641</v>
+      </c>
+      <c r="AF32" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AG32" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AH32" s="124">
+        <v>2145</v>
+      </c>
+      <c r="AI32" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AJ32" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AK32" s="126" t="s">
+        <v>641</v>
+      </c>
+      <c r="AL32" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AM32" s="131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="33" spans="1:39">
+      <c r="A33" s="130" t="s">
+        <v>746</v>
+      </c>
+      <c r="B33" s="130" t="s">
+        <v>815</v>
+      </c>
+      <c r="C33" s="115">
+        <f>+IFERROR(IF(SUBTOTAL(3,M33),C32+1,C32),1)</f>
+        <v>31</v>
+      </c>
+      <c r="D33" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="E33" s="132" t="s">
+        <v>817</v>
+      </c>
+      <c r="F33" s="173" t="s">
+        <v>812</v>
+      </c>
+      <c r="G33" s="173" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ratings.fide.com/card.phtml?event=4135164</v>
+      </c>
+      <c r="H33" s="173" t="s">
+        <v>813</v>
+      </c>
+      <c r="I33" s="116">
+        <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=4135164",4135164)</f>
+        <v>4135164</v>
+      </c>
+      <c r="J33" s="176" t="s">
+        <v>811</v>
+      </c>
+      <c r="K33" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="L33" s="132" t="s">
+        <v>823</v>
+      </c>
+      <c r="M33" s="117" t="s">
+        <v>672</v>
+      </c>
+      <c r="N33" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="O33" s="132" t="s">
+        <v>826</v>
+      </c>
+      <c r="P33" s="118">
+        <v>1956</v>
+      </c>
+      <c r="Q33" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="R33" s="132" t="s">
+        <v>825</v>
+      </c>
+      <c r="S33" s="128" t="s">
+        <v>226</v>
+      </c>
+      <c r="T33" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="U33" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="V33" s="118">
+        <v>2141</v>
+      </c>
+      <c r="W33" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="X33" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="Y33" s="120" t="s">
+        <v>641</v>
+      </c>
+      <c r="Z33" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA33" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AB33" s="118">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AD33" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AE33" s="120" t="s">
+        <v>641</v>
+      </c>
+      <c r="AF33" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AG33" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AH33" s="118">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AJ33" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AK33" s="120" t="s">
+        <v>641</v>
+      </c>
+      <c r="AL33" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AM33" s="131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="34" spans="1:39">
+      <c r="A34" s="130" t="s">
+        <v>746</v>
+      </c>
+      <c r="B34" s="130" t="s">
+        <v>815</v>
+      </c>
+      <c r="C34" s="121">
+        <f>+IFERROR(IF(SUBTOTAL(3,M34),C33+1,C33),1)</f>
+        <v>32</v>
+      </c>
+      <c r="D34" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="E34" s="132" t="s">
+        <v>817</v>
+      </c>
+      <c r="F34" s="173" t="s">
+        <v>812</v>
+      </c>
+      <c r="G34" s="173" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ratings.fide.com/card.phtml?event=34126195</v>
+      </c>
+      <c r="H34" s="173" t="s">
+        <v>813</v>
+      </c>
+      <c r="I34" s="122">
+        <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=34126195",34126195)</f>
+        <v>34126195</v>
+      </c>
+      <c r="J34" s="176" t="s">
+        <v>811</v>
+      </c>
+      <c r="K34" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="L34" s="132" t="s">
+        <v>823</v>
+      </c>
+      <c r="M34" s="123" t="s">
+        <v>673</v>
+      </c>
+      <c r="N34" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="O34" s="132" t="s">
+        <v>826</v>
+      </c>
+      <c r="P34" s="124">
+        <v>2002</v>
+      </c>
+      <c r="Q34" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="R34" s="132" t="s">
+        <v>825</v>
+      </c>
+      <c r="S34" s="125" t="s">
+        <v>641</v>
+      </c>
+      <c r="T34" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="U34" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="V34" s="124">
+        <v>2117</v>
+      </c>
+      <c r="W34" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="X34" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="Y34" s="126" t="s">
+        <v>641</v>
+      </c>
+      <c r="Z34" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA34" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AB34" s="124">
+        <v>2266</v>
+      </c>
+      <c r="AC34" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AD34" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AE34" s="126" t="s">
+        <v>641</v>
+      </c>
+      <c r="AF34" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AG34" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AH34" s="124">
+        <v>2158</v>
+      </c>
+      <c r="AI34" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AJ34" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AK34" s="126" t="s">
+        <v>641</v>
+      </c>
+      <c r="AL34" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AM34" s="131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="35" spans="1:39">
+      <c r="A35" s="130" t="s">
+        <v>746</v>
+      </c>
+      <c r="B35" s="130" t="s">
+        <v>815</v>
+      </c>
+      <c r="C35" s="115">
+        <f>+IFERROR(IF(SUBTOTAL(3,M35),C34+1,C34),1)</f>
+        <v>33</v>
+      </c>
+      <c r="D35" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="E35" s="132" t="s">
+        <v>817</v>
+      </c>
+      <c r="F35" s="173" t="s">
+        <v>812</v>
+      </c>
+      <c r="G35" s="173" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ratings.fide.com/card.phtml?event=24145068</v>
+      </c>
+      <c r="H35" s="173" t="s">
+        <v>813</v>
+      </c>
+      <c r="I35" s="116">
+        <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=24145068",24145068)</f>
+        <v>24145068</v>
+      </c>
+      <c r="J35" s="176" t="s">
+        <v>811</v>
+      </c>
+      <c r="K35" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="L35" s="132" t="s">
+        <v>823</v>
+      </c>
+      <c r="M35" s="117" t="s">
+        <v>674</v>
+      </c>
+      <c r="N35" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="O35" s="132" t="s">
+        <v>826</v>
+      </c>
+      <c r="P35" s="118">
+        <v>1993</v>
+      </c>
+      <c r="Q35" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="R35" s="132" t="s">
+        <v>825</v>
+      </c>
+      <c r="S35" s="128" t="s">
+        <v>226</v>
+      </c>
+      <c r="T35" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="U35" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="V35" s="118">
+        <v>2011</v>
+      </c>
+      <c r="W35" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="X35" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="Y35" s="120" t="s">
+        <v>641</v>
+      </c>
+      <c r="Z35" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA35" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AB35" s="118">
+        <v>2099</v>
+      </c>
+      <c r="AC35" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AD35" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AE35" s="120" t="s">
+        <v>641</v>
+      </c>
+      <c r="AF35" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AG35" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AH35" s="118">
+        <v>2024</v>
+      </c>
+      <c r="AI35" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AJ35" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AK35" s="120" t="s">
+        <v>641</v>
+      </c>
+      <c r="AL35" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AM35" s="131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="36" spans="1:39">
+      <c r="A36" s="130" t="s">
+        <v>746</v>
+      </c>
+      <c r="B36" s="130" t="s">
+        <v>815</v>
+      </c>
+      <c r="C36" s="121">
+        <f>+IFERROR(IF(SUBTOTAL(3,M36),C35+1,C35),1)</f>
+        <v>34</v>
+      </c>
+      <c r="D36" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="E36" s="132" t="s">
+        <v>817</v>
+      </c>
+      <c r="F36" s="173" t="s">
+        <v>812</v>
+      </c>
+      <c r="G36" s="173" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ratings.fide.com/card.phtml?event=4155440</v>
+      </c>
+      <c r="H36" s="173" t="s">
+        <v>813</v>
+      </c>
+      <c r="I36" s="122">
+        <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=4155440",4155440)</f>
+        <v>4155440</v>
+      </c>
+      <c r="J36" s="176" t="s">
+        <v>811</v>
+      </c>
+      <c r="K36" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="L36" s="132" t="s">
+        <v>823</v>
+      </c>
+      <c r="M36" s="123" t="s">
+        <v>675</v>
+      </c>
+      <c r="N36" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="O36" s="132" t="s">
+        <v>826</v>
+      </c>
+      <c r="P36" s="124">
+        <v>1966</v>
+      </c>
+      <c r="Q36" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="R36" s="132" t="s">
+        <v>825</v>
+      </c>
+      <c r="S36" s="125" t="s">
+        <v>641</v>
+      </c>
+      <c r="T36" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="U36" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="V36" s="124">
+        <v>2113</v>
+      </c>
+      <c r="W36" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="X36" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="Y36" s="126" t="s">
+        <v>641</v>
+      </c>
+      <c r="Z36" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA36" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AB36" s="124">
+        <v>2078</v>
+      </c>
+      <c r="AC36" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AD36" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AE36" s="126" t="s">
+        <v>641</v>
+      </c>
+      <c r="AF36" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AG36" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AH36" s="124">
+        <v>2138</v>
+      </c>
+      <c r="AI36" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AJ36" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AK36" s="126" t="s">
+        <v>641</v>
+      </c>
+      <c r="AL36" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AM36" s="131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="37" spans="1:39">
+      <c r="A37" s="130" t="s">
+        <v>746</v>
+      </c>
+      <c r="B37" s="130" t="s">
+        <v>815</v>
+      </c>
+      <c r="C37" s="115">
+        <f>+IFERROR(IF(SUBTOTAL(3,M37),C36+1,C36),1)</f>
+        <v>35</v>
+      </c>
+      <c r="D37" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="E37" s="132" t="s">
+        <v>817</v>
+      </c>
+      <c r="F37" s="173" t="s">
+        <v>812</v>
+      </c>
+      <c r="G37" s="173" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ratings.fide.com/card.phtml?event=34128554</v>
+      </c>
+      <c r="H37" s="173" t="s">
+        <v>813</v>
+      </c>
+      <c r="I37" s="116">
+        <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=34128554",34128554)</f>
+        <v>34128554</v>
+      </c>
+      <c r="J37" s="176" t="s">
+        <v>811</v>
+      </c>
+      <c r="K37" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="L37" s="132" t="s">
+        <v>823</v>
+      </c>
+      <c r="M37" s="117" t="s">
+        <v>676</v>
+      </c>
+      <c r="N37" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="O37" s="132" t="s">
+        <v>826</v>
+      </c>
+      <c r="P37" s="118">
+        <v>1980</v>
+      </c>
+      <c r="Q37" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="R37" s="132" t="s">
+        <v>825</v>
+      </c>
+      <c r="S37" s="128" t="s">
+        <v>226</v>
+      </c>
+      <c r="T37" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="U37" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="V37" s="118">
+        <v>0</v>
+      </c>
+      <c r="W37" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="X37" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="Y37" s="120" t="s">
+        <v>641</v>
+      </c>
+      <c r="Z37" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA37" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AB37" s="118">
+        <v>2110</v>
+      </c>
+      <c r="AC37" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AD37" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AE37" s="120" t="s">
+        <v>641</v>
+      </c>
+      <c r="AF37" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AG37" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AH37" s="118">
+        <v>2181</v>
+      </c>
+      <c r="AI37" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AJ37" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AK37" s="120">
+        <v>15</v>
+      </c>
+      <c r="AL37" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AM37" s="131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="38" spans="1:39">
+      <c r="A38" s="130" t="s">
+        <v>746</v>
+      </c>
+      <c r="B38" s="130" t="s">
+        <v>815</v>
+      </c>
+      <c r="C38" s="121">
+        <f>+IFERROR(IF(SUBTOTAL(3,M38),C37+1,C37),1)</f>
+        <v>36</v>
+      </c>
+      <c r="D38" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="E38" s="132" t="s">
+        <v>817</v>
+      </c>
+      <c r="F38" s="173" t="s">
+        <v>812</v>
+      </c>
+      <c r="G38" s="173" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ratings.fide.com/card.phtml?event=4126971</v>
+      </c>
+      <c r="H38" s="173" t="s">
+        <v>813</v>
+      </c>
+      <c r="I38" s="122">
+        <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=4126971",4126971)</f>
+        <v>4126971</v>
+      </c>
+      <c r="J38" s="176" t="s">
+        <v>811</v>
+      </c>
+      <c r="K38" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="L38" s="132" t="s">
+        <v>823</v>
+      </c>
+      <c r="M38" s="123" t="s">
+        <v>677</v>
+      </c>
+      <c r="N38" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="O38" s="132" t="s">
+        <v>826</v>
+      </c>
+      <c r="P38" s="124">
+        <v>1994</v>
+      </c>
+      <c r="Q38" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="R38" s="132" t="s">
+        <v>825</v>
+      </c>
+      <c r="S38" s="125" t="s">
+        <v>641</v>
+      </c>
+      <c r="T38" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="U38" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="V38" s="124">
+        <v>2122</v>
+      </c>
+      <c r="W38" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="X38" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="Y38" s="126" t="s">
+        <v>641</v>
+      </c>
+      <c r="Z38" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA38" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AB38" s="124">
+        <v>2157</v>
+      </c>
+      <c r="AC38" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AD38" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AE38" s="126">
+        <v>15</v>
+      </c>
+      <c r="AF38" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AG38" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AH38" s="124">
+        <v>2183</v>
+      </c>
+      <c r="AI38" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AJ38" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AK38" s="126" t="s">
+        <v>641</v>
+      </c>
+      <c r="AL38" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AM38" s="131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="39" spans="1:39">
+      <c r="A39" s="130" t="s">
+        <v>746</v>
+      </c>
+      <c r="B39" s="130" t="s">
+        <v>815</v>
+      </c>
+      <c r="C39" s="115">
+        <f>+IFERROR(IF(SUBTOTAL(3,M39),C38+1,C38),1)</f>
+        <v>37</v>
+      </c>
+      <c r="D39" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="E39" s="132" t="s">
+        <v>817</v>
+      </c>
+      <c r="F39" s="173" t="s">
+        <v>812</v>
+      </c>
+      <c r="G39" s="173" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ratings.fide.com/card.phtml?event=34128651</v>
+      </c>
+      <c r="H39" s="173" t="s">
+        <v>813</v>
+      </c>
+      <c r="I39" s="116">
+        <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=34128651",34128651)</f>
+        <v>34128651</v>
+      </c>
+      <c r="J39" s="176" t="s">
+        <v>811</v>
+      </c>
+      <c r="K39" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="L39" s="132" t="s">
+        <v>823</v>
+      </c>
+      <c r="M39" s="117" t="s">
+        <v>678</v>
+      </c>
+      <c r="N39" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="O39" s="132" t="s">
+        <v>826</v>
+      </c>
+      <c r="P39" s="118">
+        <v>1977</v>
+      </c>
+      <c r="Q39" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="R39" s="132" t="s">
+        <v>825</v>
+      </c>
+      <c r="S39" s="128" t="s">
+        <v>226</v>
+      </c>
+      <c r="T39" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="U39" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="V39" s="118">
+        <v>0</v>
+      </c>
+      <c r="W39" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="X39" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="Y39" s="120" t="s">
+        <v>641</v>
+      </c>
+      <c r="Z39" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA39" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AB39" s="118">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AD39" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AE39" s="120" t="s">
+        <v>641</v>
+      </c>
+      <c r="AF39" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AG39" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AH39" s="118">
+        <v>2236</v>
+      </c>
+      <c r="AI39" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AJ39" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AK39" s="120" t="s">
+        <v>641</v>
+      </c>
+      <c r="AL39" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AM39" s="131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="40" spans="1:39">
+      <c r="A40" s="130" t="s">
+        <v>746</v>
+      </c>
+      <c r="B40" s="130" t="s">
+        <v>815</v>
+      </c>
+      <c r="C40" s="121">
+        <f>+IFERROR(IF(SUBTOTAL(3,M40),C39+1,C39),1)</f>
+        <v>38</v>
+      </c>
+      <c r="D40" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="E40" s="132" t="s">
+        <v>817</v>
+      </c>
+      <c r="F40" s="173" t="s">
+        <v>812</v>
+      </c>
+      <c r="G40" s="173" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ratings.fide.com/card.phtml?event=4187288</v>
+      </c>
+      <c r="H40" s="173" t="s">
+        <v>813</v>
+      </c>
+      <c r="I40" s="122">
+        <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=4187288",4187288)</f>
+        <v>4187288</v>
+      </c>
+      <c r="J40" s="176" t="s">
+        <v>811</v>
+      </c>
+      <c r="K40" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="L40" s="132" t="s">
+        <v>823</v>
+      </c>
+      <c r="M40" s="123" t="s">
+        <v>679</v>
+      </c>
+      <c r="N40" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="O40" s="132" t="s">
+        <v>826</v>
+      </c>
+      <c r="P40" s="124">
+        <v>1984</v>
+      </c>
+      <c r="Q40" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="R40" s="132" t="s">
+        <v>825</v>
+      </c>
+      <c r="S40" s="125" t="s">
+        <v>641</v>
+      </c>
+      <c r="T40" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="U40" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="V40" s="124">
+        <v>2115</v>
+      </c>
+      <c r="W40" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="X40" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="Y40" s="126" t="s">
+        <v>641</v>
+      </c>
+      <c r="Z40" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA40" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AB40" s="124">
+        <v>2124</v>
+      </c>
+      <c r="AC40" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AD40" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AE40" s="126" t="s">
+        <v>641</v>
+      </c>
+      <c r="AF40" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AG40" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AH40" s="124">
+        <v>2060</v>
+      </c>
+      <c r="AI40" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AJ40" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AK40" s="126" t="s">
+        <v>641</v>
+      </c>
+      <c r="AL40" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AM40" s="131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="41" spans="1:39">
+      <c r="A41" s="130" t="s">
+        <v>746</v>
+      </c>
+      <c r="B41" s="130" t="s">
+        <v>815</v>
+      </c>
+      <c r="C41" s="115">
+        <f>+IFERROR(IF(SUBTOTAL(3,M41),C40+1,C40),1)</f>
+        <v>39</v>
+      </c>
+      <c r="D41" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="E41" s="132" t="s">
+        <v>817</v>
+      </c>
+      <c r="F41" s="173" t="s">
+        <v>812</v>
+      </c>
+      <c r="G41" s="173" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ratings.fide.com/card.phtml?event=4137779</v>
+      </c>
+      <c r="H41" s="173" t="s">
+        <v>813</v>
+      </c>
+      <c r="I41" s="116">
+        <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=4137779",4137779)</f>
+        <v>4137779</v>
+      </c>
+      <c r="J41" s="176" t="s">
+        <v>811</v>
+      </c>
+      <c r="K41" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="L41" s="132" t="s">
+        <v>823</v>
+      </c>
+      <c r="M41" s="117" t="s">
+        <v>680</v>
+      </c>
+      <c r="N41" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="O41" s="132" t="s">
+        <v>826</v>
+      </c>
+      <c r="P41" s="118">
+        <v>1958</v>
+      </c>
+      <c r="Q41" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="R41" s="132" t="s">
+        <v>825</v>
+      </c>
+      <c r="S41" s="128" t="s">
+        <v>281</v>
+      </c>
+      <c r="T41" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="U41" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="V41" s="118">
+        <v>2082</v>
+      </c>
+      <c r="W41" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="X41" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="Y41" s="120" t="s">
+        <v>641</v>
+      </c>
+      <c r="Z41" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA41" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AB41" s="118">
+        <v>2041</v>
+      </c>
+      <c r="AC41" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AD41" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AE41" s="120" t="s">
+        <v>641</v>
+      </c>
+      <c r="AF41" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AG41" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AH41" s="118">
+        <v>2037</v>
+      </c>
+      <c r="AI41" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AJ41" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AK41" s="120" t="s">
+        <v>641</v>
+      </c>
+      <c r="AL41" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AM41" s="131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="42" spans="1:39">
+      <c r="A42" s="130" t="s">
+        <v>746</v>
+      </c>
+      <c r="B42" s="130" t="s">
+        <v>815</v>
+      </c>
+      <c r="C42" s="121">
+        <f>+IFERROR(IF(SUBTOTAL(3,M42),C41+1,C41),1)</f>
+        <v>40</v>
+      </c>
+      <c r="D42" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="E42" s="132" t="s">
+        <v>817</v>
+      </c>
+      <c r="F42" s="173" t="s">
+        <v>812</v>
+      </c>
+      <c r="G42" s="173" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ratings.fide.com/card.phtml?event=4150864</v>
+      </c>
+      <c r="H42" s="173" t="s">
+        <v>813</v>
+      </c>
+      <c r="I42" s="122">
+        <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=4150864",4150864)</f>
+        <v>4150864</v>
+      </c>
+      <c r="J42" s="176" t="s">
+        <v>811</v>
+      </c>
+      <c r="K42" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="L42" s="132" t="s">
+        <v>823</v>
+      </c>
+      <c r="M42" s="123" t="s">
+        <v>681</v>
+      </c>
+      <c r="N42" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="O42" s="132" t="s">
+        <v>826</v>
+      </c>
+      <c r="P42" s="124">
+        <v>1984</v>
+      </c>
+      <c r="Q42" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="R42" s="132" t="s">
+        <v>825</v>
+      </c>
+      <c r="S42" s="127" t="s">
+        <v>294</v>
+      </c>
+      <c r="T42" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="U42" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="V42" s="124">
+        <v>2162</v>
+      </c>
+      <c r="W42" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="X42" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="Y42" s="126" t="s">
+        <v>641</v>
+      </c>
+      <c r="Z42" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA42" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AB42" s="124">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AD42" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AE42" s="126" t="s">
+        <v>641</v>
+      </c>
+      <c r="AF42" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AG42" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AH42" s="124">
+        <v>0</v>
+      </c>
+      <c r="AI42" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AJ42" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AK42" s="126" t="s">
+        <v>641</v>
+      </c>
+      <c r="AL42" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AM42" s="131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="43" spans="1:39">
+      <c r="A43" s="130" t="s">
+        <v>746</v>
+      </c>
+      <c r="B43" s="130" t="s">
+        <v>815</v>
+      </c>
+      <c r="C43" s="115">
+        <f>+IFERROR(IF(SUBTOTAL(3,M43),C42+1,C42),1)</f>
+        <v>41</v>
+      </c>
+      <c r="D43" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="E43" s="132" t="s">
+        <v>817</v>
+      </c>
+      <c r="F43" s="173" t="s">
+        <v>812</v>
+      </c>
+      <c r="G43" s="173" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ratings.fide.com/card.phtml?event=34166278</v>
+      </c>
+      <c r="H43" s="173" t="s">
+        <v>813</v>
+      </c>
+      <c r="I43" s="116">
+        <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=34166278",34166278)</f>
+        <v>34166278</v>
+      </c>
+      <c r="J43" s="176" t="s">
+        <v>811</v>
+      </c>
+      <c r="K43" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="L43" s="132" t="s">
+        <v>823</v>
+      </c>
+      <c r="M43" s="117" t="s">
+        <v>682</v>
+      </c>
+      <c r="N43" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="O43" s="132" t="s">
+        <v>826</v>
+      </c>
+      <c r="P43" s="118">
+        <v>2004</v>
+      </c>
+      <c r="Q43" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="R43" s="132" t="s">
+        <v>825</v>
+      </c>
+      <c r="S43" s="119" t="s">
+        <v>641</v>
+      </c>
+      <c r="T43" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="U43" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="V43" s="118">
+        <v>2117</v>
+      </c>
+      <c r="W43" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="X43" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="Y43" s="120" t="s">
+        <v>641</v>
+      </c>
+      <c r="Z43" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA43" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AB43" s="118">
+        <v>2064</v>
+      </c>
+      <c r="AC43" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AD43" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AE43" s="120">
+        <v>19</v>
+      </c>
+      <c r="AF43" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AG43" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AH43" s="118">
+        <v>1954</v>
+      </c>
+      <c r="AI43" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AJ43" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AK43" s="120">
+        <v>-18</v>
+      </c>
+      <c r="AL43" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AM43" s="131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="44" spans="1:39">
+      <c r="A44" s="130" t="s">
+        <v>746</v>
+      </c>
+      <c r="B44" s="130" t="s">
+        <v>815</v>
+      </c>
+      <c r="C44" s="121">
+        <f>+IFERROR(IF(SUBTOTAL(3,M44),C43+1,C43),1)</f>
+        <v>42</v>
+      </c>
+      <c r="D44" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="E44" s="132" t="s">
+        <v>817</v>
+      </c>
+      <c r="F44" s="173" t="s">
+        <v>812</v>
+      </c>
+      <c r="G44" s="173" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ratings.fide.com/card.phtml?event=24132420</v>
+      </c>
+      <c r="H44" s="173" t="s">
+        <v>813</v>
+      </c>
+      <c r="I44" s="122">
+        <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=24132420",24132420)</f>
+        <v>24132420</v>
+      </c>
+      <c r="J44" s="176" t="s">
+        <v>811</v>
+      </c>
+      <c r="K44" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="L44" s="132" t="s">
+        <v>823</v>
+      </c>
+      <c r="M44" s="123" t="s">
+        <v>683</v>
+      </c>
+      <c r="N44" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="O44" s="132" t="s">
+        <v>826</v>
+      </c>
+      <c r="P44" s="124">
+        <v>1982</v>
+      </c>
+      <c r="Q44" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="R44" s="132" t="s">
+        <v>825</v>
+      </c>
+      <c r="S44" s="127" t="s">
+        <v>294</v>
+      </c>
+      <c r="T44" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="U44" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="V44" s="124">
+        <v>2144</v>
+      </c>
+      <c r="W44" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="X44" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="Y44" s="126" t="s">
+        <v>641</v>
+      </c>
+      <c r="Z44" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA44" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AB44" s="124">
+        <v>2000</v>
+      </c>
+      <c r="AC44" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AD44" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AE44" s="126" t="s">
+        <v>641</v>
+      </c>
+      <c r="AF44" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AG44" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AH44" s="124">
+        <v>0</v>
+      </c>
+      <c r="AI44" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AJ44" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AK44" s="126" t="s">
+        <v>641</v>
+      </c>
+      <c r="AL44" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AM44" s="131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="45" spans="1:39">
+      <c r="A45" s="130" t="s">
+        <v>746</v>
+      </c>
+      <c r="B45" s="130" t="s">
+        <v>815</v>
+      </c>
+      <c r="C45" s="115">
+        <f>+IFERROR(IF(SUBTOTAL(3,M45),C44+1,C44),1)</f>
+        <v>43</v>
+      </c>
+      <c r="D45" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="E45" s="132" t="s">
+        <v>817</v>
+      </c>
+      <c r="F45" s="173" t="s">
+        <v>812</v>
+      </c>
+      <c r="G45" s="173" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ratings.fide.com/card.phtml?event=24132349</v>
+      </c>
+      <c r="H45" s="173" t="s">
+        <v>813</v>
+      </c>
+      <c r="I45" s="116">
+        <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=24132349",24132349)</f>
+        <v>24132349</v>
+      </c>
+      <c r="J45" s="176" t="s">
+        <v>811</v>
+      </c>
+      <c r="K45" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="L45" s="132" t="s">
+        <v>823</v>
+      </c>
+      <c r="M45" s="117" t="s">
+        <v>684</v>
+      </c>
+      <c r="N45" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="O45" s="132" t="s">
+        <v>826</v>
+      </c>
+      <c r="P45" s="118">
+        <v>1960</v>
+      </c>
+      <c r="Q45" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="R45" s="132" t="s">
+        <v>825</v>
+      </c>
+      <c r="S45" s="119" t="s">
+        <v>641</v>
+      </c>
+      <c r="T45" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="U45" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="V45" s="118">
+        <v>2052</v>
+      </c>
+      <c r="W45" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="X45" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="Y45" s="120" t="s">
+        <v>641</v>
+      </c>
+      <c r="Z45" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA45" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AB45" s="118">
+        <v>2052</v>
+      </c>
+      <c r="AC45" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AD45" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AE45" s="120">
+        <v>-3</v>
+      </c>
+      <c r="AF45" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AG45" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AH45" s="118">
+        <v>2027</v>
+      </c>
+      <c r="AI45" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AJ45" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AK45" s="120">
+        <v>-6</v>
+      </c>
+      <c r="AL45" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AM45" s="131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="46" spans="1:39">
+      <c r="A46" s="130" t="s">
+        <v>746</v>
+      </c>
+      <c r="B46" s="130" t="s">
+        <v>815</v>
+      </c>
+      <c r="C46" s="121">
+        <f>+IFERROR(IF(SUBTOTAL(3,M46),C45+1,C45),1)</f>
+        <v>44</v>
+      </c>
+      <c r="D46" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="E46" s="132" t="s">
+        <v>817</v>
+      </c>
+      <c r="F46" s="173" t="s">
+        <v>812</v>
+      </c>
+      <c r="G46" s="173" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ratings.fide.com/card.phtml?event=24101621</v>
+      </c>
+      <c r="H46" s="173" t="s">
+        <v>813</v>
+      </c>
+      <c r="I46" s="122">
+        <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=24101621",24101621)</f>
+        <v>24101621</v>
+      </c>
+      <c r="J46" s="176" t="s">
+        <v>811</v>
+      </c>
+      <c r="K46" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="L46" s="132" t="s">
+        <v>823</v>
+      </c>
+      <c r="M46" s="123" t="s">
+        <v>685</v>
+      </c>
+      <c r="N46" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="O46" s="132" t="s">
+        <v>826</v>
+      </c>
+      <c r="P46" s="124">
+        <v>1998</v>
+      </c>
+      <c r="Q46" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="R46" s="132" t="s">
+        <v>825</v>
+      </c>
+      <c r="S46" s="127" t="s">
+        <v>226</v>
+      </c>
+      <c r="T46" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="U46" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="V46" s="124">
+        <v>2123</v>
+      </c>
+      <c r="W46" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="X46" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="Y46" s="126" t="s">
+        <v>641</v>
+      </c>
+      <c r="Z46" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA46" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AB46" s="124">
+        <v>1996</v>
+      </c>
+      <c r="AC46" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AD46" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AE46" s="126" t="s">
+        <v>641</v>
+      </c>
+      <c r="AF46" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AG46" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AH46" s="124">
+        <v>1935</v>
+      </c>
+      <c r="AI46" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AJ46" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AK46" s="126" t="s">
+        <v>641</v>
+      </c>
+      <c r="AL46" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AM46" s="131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="47" spans="1:39">
+      <c r="A47" s="130" t="s">
+        <v>746</v>
+      </c>
+      <c r="B47" s="130" t="s">
+        <v>815</v>
+      </c>
+      <c r="C47" s="115">
+        <f>+IFERROR(IF(SUBTOTAL(3,M47),C46+1,C46),1)</f>
+        <v>45</v>
+      </c>
+      <c r="D47" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="E47" s="132" t="s">
+        <v>817</v>
+      </c>
+      <c r="F47" s="173" t="s">
+        <v>812</v>
+      </c>
+      <c r="G47" s="173" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ratings.fide.com/card.phtml?event=4170857</v>
+      </c>
+      <c r="H47" s="173" t="s">
+        <v>813</v>
+      </c>
+      <c r="I47" s="116">
+        <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=4170857",4170857)</f>
+        <v>4170857</v>
+      </c>
+      <c r="J47" s="176" t="s">
+        <v>811</v>
+      </c>
+      <c r="K47" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="L47" s="132" t="s">
+        <v>823</v>
+      </c>
+      <c r="M47" s="117" t="s">
+        <v>686</v>
+      </c>
+      <c r="N47" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="O47" s="132" t="s">
+        <v>826</v>
+      </c>
+      <c r="P47" s="118">
+        <v>1983</v>
+      </c>
+      <c r="Q47" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="R47" s="132" t="s">
+        <v>825</v>
+      </c>
+      <c r="S47" s="128" t="s">
+        <v>294</v>
+      </c>
+      <c r="T47" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="U47" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="V47" s="118">
+        <v>2079</v>
+      </c>
+      <c r="W47" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="X47" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="Y47" s="120" t="s">
+        <v>641</v>
+      </c>
+      <c r="Z47" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA47" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AB47" s="118">
+        <v>2069</v>
+      </c>
+      <c r="AC47" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AD47" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AE47" s="120" t="s">
+        <v>641</v>
+      </c>
+      <c r="AF47" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AG47" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AH47" s="118">
+        <v>0</v>
+      </c>
+      <c r="AI47" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AJ47" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AK47" s="120" t="s">
+        <v>641</v>
+      </c>
+      <c r="AL47" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AM47" s="131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="48" spans="1:39">
+      <c r="A48" s="130" t="s">
+        <v>746</v>
+      </c>
+      <c r="B48" s="130" t="s">
+        <v>815</v>
+      </c>
+      <c r="C48" s="121">
+        <f>+IFERROR(IF(SUBTOTAL(3,M48),C47+1,C47),1)</f>
+        <v>46</v>
+      </c>
+      <c r="D48" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="E48" s="132" t="s">
+        <v>817</v>
+      </c>
+      <c r="F48" s="173" t="s">
+        <v>812</v>
+      </c>
+      <c r="G48" s="173" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ratings.fide.com/card.phtml?event=34128392</v>
+      </c>
+      <c r="H48" s="173" t="s">
+        <v>813</v>
+      </c>
+      <c r="I48" s="122">
+        <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=34128392",34128392)</f>
+        <v>34128392</v>
+      </c>
+      <c r="J48" s="176" t="s">
+        <v>811</v>
+      </c>
+      <c r="K48" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="L48" s="132" t="s">
+        <v>823</v>
+      </c>
+      <c r="M48" s="123" t="s">
+        <v>687</v>
+      </c>
+      <c r="N48" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="O48" s="132" t="s">
+        <v>826</v>
+      </c>
+      <c r="P48" s="124">
+        <v>1937</v>
+      </c>
+      <c r="Q48" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="R48" s="132" t="s">
+        <v>825</v>
+      </c>
+      <c r="S48" s="127" t="s">
+        <v>226</v>
+      </c>
+      <c r="T48" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="U48" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="V48" s="124">
+        <v>0</v>
+      </c>
+      <c r="W48" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="X48" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="Y48" s="126" t="s">
+        <v>641</v>
+      </c>
+      <c r="Z48" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA48" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AB48" s="124">
+        <v>1891</v>
+      </c>
+      <c r="AC48" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AD48" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AE48" s="126" t="s">
+        <v>641</v>
+      </c>
+      <c r="AF48" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AG48" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AH48" s="124">
+        <v>0</v>
+      </c>
+      <c r="AI48" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AJ48" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AK48" s="126" t="s">
+        <v>641</v>
+      </c>
+      <c r="AL48" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AM48" s="131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="49" spans="1:39">
+      <c r="A49" s="130" t="s">
+        <v>746</v>
+      </c>
+      <c r="B49" s="130" t="s">
+        <v>815</v>
+      </c>
+      <c r="C49" s="115">
+        <f>+IFERROR(IF(SUBTOTAL(3,M49),C48+1,C48),1)</f>
+        <v>47</v>
+      </c>
+      <c r="D49" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="E49" s="132" t="s">
+        <v>817</v>
+      </c>
+      <c r="F49" s="173" t="s">
+        <v>812</v>
+      </c>
+      <c r="G49" s="173" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ratings.fide.com/card.phtml?event=44136692</v>
+      </c>
+      <c r="H49" s="173" t="s">
+        <v>813</v>
+      </c>
+      <c r="I49" s="116">
+        <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=44136692",44136692)</f>
+        <v>44136692</v>
+      </c>
+      <c r="J49" s="176" t="s">
+        <v>811</v>
+      </c>
+      <c r="K49" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="L49" s="132" t="s">
+        <v>823</v>
+      </c>
+      <c r="M49" s="117" t="s">
+        <v>688</v>
+      </c>
+      <c r="N49" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="O49" s="132" t="s">
+        <v>826</v>
+      </c>
+      <c r="P49" s="118">
+        <v>1981</v>
+      </c>
+      <c r="Q49" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="R49" s="132" t="s">
+        <v>825</v>
+      </c>
+      <c r="S49" s="119" t="s">
+        <v>641</v>
+      </c>
+      <c r="T49" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="U49" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="V49" s="118">
+        <v>0</v>
+      </c>
+      <c r="W49" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="X49" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="Y49" s="120" t="s">
+        <v>641</v>
+      </c>
+      <c r="Z49" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA49" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AB49" s="118">
+        <v>2018</v>
+      </c>
+      <c r="AC49" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AD49" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AE49" s="120" t="s">
+        <v>641</v>
+      </c>
+      <c r="AF49" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AG49" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AH49" s="118">
+        <v>2051</v>
+      </c>
+      <c r="AI49" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AJ49" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AK49" s="120" t="s">
+        <v>641</v>
+      </c>
+      <c r="AL49" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AM49" s="131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="50" spans="1:39">
+      <c r="A50" s="130" t="s">
+        <v>746</v>
+      </c>
+      <c r="B50" s="130" t="s">
+        <v>815</v>
+      </c>
+      <c r="C50" s="121">
+        <f>+IFERROR(IF(SUBTOTAL(3,M50),C49+1,C49),1)</f>
+        <v>48</v>
+      </c>
+      <c r="D50" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="E50" s="132" t="s">
+        <v>817</v>
+      </c>
+      <c r="F50" s="173" t="s">
+        <v>812</v>
+      </c>
+      <c r="G50" s="173" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ratings.fide.com/card.phtml?event=34101583</v>
+      </c>
+      <c r="H50" s="173" t="s">
+        <v>813</v>
+      </c>
+      <c r="I50" s="122">
+        <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=34101583",34101583)</f>
+        <v>34101583</v>
+      </c>
+      <c r="J50" s="176" t="s">
+        <v>811</v>
+      </c>
+      <c r="K50" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="L50" s="132" t="s">
+        <v>823</v>
+      </c>
+      <c r="M50" s="123" t="s">
+        <v>689</v>
+      </c>
+      <c r="N50" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="O50" s="132" t="s">
+        <v>826</v>
+      </c>
+      <c r="P50" s="124">
+        <v>1946</v>
+      </c>
+      <c r="Q50" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="R50" s="132" t="s">
+        <v>825</v>
+      </c>
+      <c r="S50" s="127" t="s">
+        <v>226</v>
+      </c>
+      <c r="T50" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="U50" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="V50" s="124">
+        <v>2090</v>
+      </c>
+      <c r="W50" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="X50" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="Y50" s="126" t="s">
+        <v>641</v>
+      </c>
+      <c r="Z50" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA50" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AB50" s="124">
+        <v>2064</v>
+      </c>
+      <c r="AC50" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AD50" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AE50" s="126">
+        <v>14</v>
+      </c>
+      <c r="AF50" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AG50" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AH50" s="124">
+        <v>1931</v>
+      </c>
+      <c r="AI50" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AJ50" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AK50" s="126">
+        <v>-4</v>
+      </c>
+      <c r="AL50" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AM50" s="131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="51" spans="1:39">
+      <c r="A51" s="130" t="s">
+        <v>746</v>
+      </c>
+      <c r="B51" s="130" t="s">
+        <v>815</v>
+      </c>
+      <c r="C51" s="115">
+        <f>+IFERROR(IF(SUBTOTAL(3,M51),C50+1,C50),1)</f>
+        <v>49</v>
+      </c>
+      <c r="D51" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="E51" s="132" t="s">
+        <v>817</v>
+      </c>
+      <c r="F51" s="173" t="s">
+        <v>812</v>
+      </c>
+      <c r="G51" s="173" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ratings.fide.com/card.phtml?event=34143480</v>
+      </c>
+      <c r="H51" s="173" t="s">
+        <v>813</v>
+      </c>
+      <c r="I51" s="116">
+        <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=34143480",34143480)</f>
+        <v>34143480</v>
+      </c>
+      <c r="J51" s="176" t="s">
+        <v>811</v>
+      </c>
+      <c r="K51" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="L51" s="132" t="s">
+        <v>823</v>
+      </c>
+      <c r="M51" s="117" t="s">
+        <v>690</v>
+      </c>
+      <c r="N51" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="O51" s="132" t="s">
+        <v>826</v>
+      </c>
+      <c r="P51" s="118">
+        <v>1954</v>
+      </c>
+      <c r="Q51" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="R51" s="132" t="s">
+        <v>825</v>
+      </c>
+      <c r="S51" s="128" t="s">
+        <v>226</v>
+      </c>
+      <c r="T51" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="U51" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="V51" s="118">
+        <v>2070</v>
+      </c>
+      <c r="W51" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="X51" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="Y51" s="120" t="s">
+        <v>641</v>
+      </c>
+      <c r="Z51" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA51" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AB51" s="118">
+        <v>1944</v>
+      </c>
+      <c r="AC51" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AD51" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AE51" s="120">
+        <v>1</v>
+      </c>
+      <c r="AF51" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AG51" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AH51" s="118">
+        <v>1981</v>
+      </c>
+      <c r="AI51" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AJ51" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AK51" s="120" t="s">
+        <v>641</v>
+      </c>
+      <c r="AL51" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AM51" s="131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="52" spans="1:39">
+      <c r="A52" s="130" t="s">
+        <v>746</v>
+      </c>
+      <c r="B52" s="130" t="s">
+        <v>815</v>
+      </c>
+      <c r="C52" s="121">
+        <f>+IFERROR(IF(SUBTOTAL(3,M52),C51+1,C51),1)</f>
+        <v>50</v>
+      </c>
+      <c r="D52" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="E52" s="132" t="s">
+        <v>817</v>
+      </c>
+      <c r="F52" s="173" t="s">
+        <v>812</v>
+      </c>
+      <c r="G52" s="173" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ratings.fide.com/card.phtml?event=24127841</v>
+      </c>
+      <c r="H52" s="173" t="s">
+        <v>813</v>
+      </c>
+      <c r="I52" s="122">
+        <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=24127841",24127841)</f>
+        <v>24127841</v>
+      </c>
+      <c r="J52" s="176" t="s">
+        <v>811</v>
+      </c>
+      <c r="K52" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="L52" s="132" t="s">
+        <v>823</v>
+      </c>
+      <c r="M52" s="123" t="s">
+        <v>691</v>
+      </c>
+      <c r="N52" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="O52" s="132" t="s">
+        <v>826</v>
+      </c>
+      <c r="P52" s="124">
+        <v>1967</v>
+      </c>
+      <c r="Q52" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="R52" s="132" t="s">
+        <v>825</v>
+      </c>
+      <c r="S52" s="127" t="s">
+        <v>692</v>
+      </c>
+      <c r="T52" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="U52" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="V52" s="124">
+        <v>1848</v>
+      </c>
+      <c r="W52" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="X52" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="Y52" s="126" t="s">
+        <v>641</v>
+      </c>
+      <c r="Z52" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA52" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AB52" s="124">
+        <v>1851</v>
+      </c>
+      <c r="AC52" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AD52" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AE52" s="126" t="s">
+        <v>641</v>
+      </c>
+      <c r="AF52" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AG52" s="132" t="s">
+        <v>819</v>
+      </c>
+      <c r="AH52" s="124">
+        <v>1898</v>
+      </c>
+      <c r="AI52" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AJ52" s="132" t="s">
+        <v>820</v>
+      </c>
+      <c r="AK52" s="126" t="s">
+        <v>641</v>
+      </c>
+      <c r="AL52" s="132" t="s">
+        <v>596</v>
+      </c>
+      <c r="AM52" s="131" t="s">
+        <v>594</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="AK3:AK52 AE3:AE52 Y3:Y52">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ3:AJ102 BB3:BB102 AD3:AD102 AV3:AV102 AP3:AP102 X3:X102">
+  <conditionalFormatting sqref="AK3:AK52 AE3:AE52 Y3:Y52">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB3:BB102 AD3:AD102 AV3:AV102 AP3:AP102 AJ3:AJ102 X3:X102">
+  <conditionalFormatting sqref="AK3:AK52 AE3:AE52 Y3:Y52">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -21644,18 +28053,18 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X3:X102">
-    <cfRule type="aboveAverage" dxfId="1" priority="2"/>
+  <conditionalFormatting sqref="AE3:AE52 Y3:Y52 AK3:AK52">
+    <cfRule type="aboveAverage" dxfId="1" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ3:AJ102 BB3:BB102 AD3:AD102 AV3:AV102 AP3:AP102 X3:X102">
-    <cfRule type="aboveAverage" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="AK3:AK52 AE3:AE52 Y3:Y52">
+    <cfRule type="aboveAverage" dxfId="0" priority="39"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q34"/>
   <sheetViews>
@@ -23332,7 +29741,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N10"/>
   <sheetViews>
@@ -23771,12 +30180,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23793,7 +30202,7 @@
       <c r="B1" s="130" t="s">
         <v>747</v>
       </c>
-      <c r="C1" s="163" t="s">
+      <c r="C1" s="142" t="s">
         <v>787</v>
       </c>
       <c r="D1" s="130" t="s">
@@ -23802,7 +30211,7 @@
       <c r="E1" s="130" t="s">
         <v>749</v>
       </c>
-      <c r="F1" s="167" t="s">
+      <c r="F1" s="145" t="s">
         <v>800</v>
       </c>
       <c r="G1" s="130" t="s">
@@ -23819,7 +30228,7 @@
       <c r="B2" s="130" t="s">
         <v>748</v>
       </c>
-      <c r="C2" s="165" t="s">
+      <c r="C2" s="144" t="s">
         <v>788</v>
       </c>
       <c r="D2" s="132" t="s">
@@ -23828,7 +30237,7 @@
       <c r="E2" s="132" t="s">
         <v>748</v>
       </c>
-      <c r="F2" s="167" t="s">
+      <c r="F2" s="145" t="s">
         <v>808</v>
       </c>
       <c r="G2" s="132" t="s">
@@ -23845,7 +30254,7 @@
       <c r="B3" s="130" t="s">
         <v>748</v>
       </c>
-      <c r="C3" s="163" t="s">
+      <c r="C3" s="142" t="s">
         <v>789</v>
       </c>
       <c r="D3" s="132" t="s">
@@ -23854,7 +30263,7 @@
       <c r="E3" s="132" t="s">
         <v>748</v>
       </c>
-      <c r="F3" s="167" t="s">
+      <c r="F3" s="145" t="s">
         <v>799</v>
       </c>
       <c r="G3" s="132" t="s">
@@ -23871,7 +30280,7 @@
       <c r="B4" s="130" t="s">
         <v>748</v>
       </c>
-      <c r="C4" s="165" t="s">
+      <c r="C4" s="144" t="s">
         <v>790</v>
       </c>
       <c r="D4" s="132" t="s">
@@ -23880,7 +30289,7 @@
       <c r="E4" s="132" t="s">
         <v>748</v>
       </c>
-      <c r="F4" s="168">
+      <c r="F4" s="146">
         <v>1112202000129</v>
       </c>
       <c r="G4" s="132" t="s">
@@ -23897,7 +30306,7 @@
       <c r="B5" s="130" t="s">
         <v>748</v>
       </c>
-      <c r="C5" s="163" t="s">
+      <c r="C5" s="142" t="s">
         <v>791</v>
       </c>
       <c r="D5" s="132" t="s">
@@ -23906,7 +30315,7 @@
       <c r="E5" s="132" t="s">
         <v>748</v>
       </c>
-      <c r="F5" s="168">
+      <c r="F5" s="146">
         <v>68517708</v>
       </c>
       <c r="G5" s="132" t="s">
@@ -23923,7 +30332,7 @@
       <c r="B6" s="130" t="s">
         <v>748</v>
       </c>
-      <c r="C6" s="165" t="s">
+      <c r="C6" s="144" t="s">
         <v>792</v>
       </c>
       <c r="D6" s="132" t="s">
@@ -23932,7 +30341,7 @@
       <c r="E6" s="132" t="s">
         <v>748</v>
       </c>
-      <c r="F6" s="168">
+      <c r="F6" s="146">
         <v>20200</v>
       </c>
       <c r="G6" s="132" t="s">
@@ -23949,7 +30358,7 @@
       <c r="B7" s="130" t="s">
         <v>748</v>
       </c>
-      <c r="C7" s="163" t="s">
+      <c r="C7" s="142" t="s">
         <v>793</v>
       </c>
       <c r="D7" s="132" t="s">
@@ -23958,7 +30367,7 @@
       <c r="E7" s="132" t="s">
         <v>748</v>
       </c>
-      <c r="F7" s="167" t="s">
+      <c r="F7" s="145" t="s">
         <v>801</v>
       </c>
       <c r="G7" s="132" t="s">
@@ -23975,7 +30384,7 @@
       <c r="B8" s="130" t="s">
         <v>748</v>
       </c>
-      <c r="C8" s="165" t="s">
+      <c r="C8" s="144" t="s">
         <v>794</v>
       </c>
       <c r="D8" s="132" t="s">
@@ -23984,7 +30393,7 @@
       <c r="E8" s="132" t="s">
         <v>748</v>
       </c>
-      <c r="F8" s="167" t="s">
+      <c r="F8" s="145" t="s">
         <v>801</v>
       </c>
       <c r="G8" s="132" t="s">
@@ -24001,7 +30410,7 @@
       <c r="B9" s="130" t="s">
         <v>748</v>
       </c>
-      <c r="C9" s="163" t="s">
+      <c r="C9" s="142" t="s">
         <v>795</v>
       </c>
       <c r="D9" s="132" t="s">
@@ -24010,7 +30419,7 @@
       <c r="E9" s="132" t="s">
         <v>748</v>
       </c>
-      <c r="F9" s="169" t="s">
+      <c r="F9" s="147" t="s">
         <v>802</v>
       </c>
       <c r="G9" s="132" t="s">
@@ -24027,7 +30436,7 @@
       <c r="B10" s="130" t="s">
         <v>748</v>
       </c>
-      <c r="C10" s="165" t="s">
+      <c r="C10" s="144" t="s">
         <v>796</v>
       </c>
       <c r="D10" s="132" t="s">
@@ -24036,7 +30445,7 @@
       <c r="E10" s="132" t="s">
         <v>748</v>
       </c>
-      <c r="F10" s="171" t="s">
+      <c r="F10" s="149" t="s">
         <v>803</v>
       </c>
       <c r="G10" s="132" t="s">
@@ -24053,7 +30462,7 @@
       <c r="B11" s="130" t="s">
         <v>748</v>
       </c>
-      <c r="C11" s="166" t="s">
+      <c r="C11" s="171" t="s">
         <v>797</v>
       </c>
       <c r="D11" s="132" t="s">
@@ -24062,7 +30471,7 @@
       <c r="E11" s="132" t="s">
         <v>748</v>
       </c>
-      <c r="F11" s="167" t="s">
+      <c r="F11" s="145" t="s">
         <v>804</v>
       </c>
       <c r="G11" s="132" t="s">
@@ -24079,14 +30488,14 @@
       <c r="B12" s="130" t="s">
         <v>748</v>
       </c>
-      <c r="C12" s="166"/>
+      <c r="C12" s="171"/>
       <c r="D12" s="132" t="s">
         <v>596</v>
       </c>
       <c r="E12" s="132" t="s">
         <v>748</v>
       </c>
-      <c r="F12" s="170" t="s">
+      <c r="F12" s="148" t="s">
         <v>810</v>
       </c>
       <c r="G12" s="132" t="s">
@@ -24103,14 +30512,14 @@
       <c r="B13" s="130" t="s">
         <v>748</v>
       </c>
-      <c r="C13" s="166"/>
+      <c r="C13" s="171"/>
       <c r="D13" s="132" t="s">
         <v>596</v>
       </c>
       <c r="E13" s="132" t="s">
         <v>748</v>
       </c>
-      <c r="F13" s="170" t="s">
+      <c r="F13" s="148" t="s">
         <v>809</v>
       </c>
       <c r="G13" s="132" t="s">
@@ -24127,14 +30536,14 @@
       <c r="B14" s="130" t="s">
         <v>748</v>
       </c>
-      <c r="C14" s="166"/>
+      <c r="C14" s="171"/>
       <c r="D14" s="132" t="s">
         <v>596</v>
       </c>
       <c r="E14" s="132" t="s">
         <v>748</v>
       </c>
-      <c r="F14" s="164" t="s">
+      <c r="F14" s="143" t="s">
         <v>805</v>
       </c>
       <c r="G14" s="132" t="s">
@@ -24151,14 +30560,14 @@
       <c r="B15" s="130" t="s">
         <v>748</v>
       </c>
-      <c r="C15" s="166"/>
+      <c r="C15" s="171"/>
       <c r="D15" s="132" t="s">
         <v>596</v>
       </c>
       <c r="E15" s="132" t="s">
         <v>748</v>
       </c>
-      <c r="F15" s="170" t="s">
+      <c r="F15" s="148" t="s">
         <v>798</v>
       </c>
       <c r="G15" s="132" t="s">
@@ -24175,14 +30584,14 @@
       <c r="B16" s="130" t="s">
         <v>748</v>
       </c>
-      <c r="C16" s="166"/>
+      <c r="C16" s="171"/>
       <c r="D16" s="132" t="s">
         <v>596</v>
       </c>
       <c r="E16" s="132" t="s">
         <v>748</v>
       </c>
-      <c r="F16" s="164" t="s">
+      <c r="F16" s="143" t="s">
         <v>806</v>
       </c>
       <c r="G16" s="132" t="s">
@@ -24199,14 +30608,14 @@
       <c r="B17" s="130" t="s">
         <v>748</v>
       </c>
-      <c r="C17" s="166"/>
+      <c r="C17" s="171"/>
       <c r="D17" s="132" t="s">
         <v>596</v>
       </c>
       <c r="E17" s="132" t="s">
         <v>748</v>
       </c>
-      <c r="F17" s="164" t="s">
+      <c r="F17" s="143" t="s">
         <v>807</v>
       </c>
       <c r="G17" s="132" t="s">
@@ -24564,66 +30973,66 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1">
-      <c r="A2" s="142">
+      <c r="A2" s="165">
         <v>1</v>
       </c>
-      <c r="B2" s="143" t="s">
+      <c r="B2" s="163" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="153" t="s">
+      <c r="C2" s="159" t="s">
         <v>220</v>
       </c>
-      <c r="D2" s="145" t="s">
+      <c r="D2" s="169" t="s">
         <v>89</v>
       </c>
       <c r="E2" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="146" t="s">
+      <c r="F2" s="166" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="142"/>
-      <c r="B3" s="143"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="145"/>
+      <c r="A3" s="165"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="169"/>
       <c r="E3" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="146"/>
+      <c r="F3" s="166"/>
     </row>
     <row r="4" spans="1:6" ht="30">
-      <c r="A4" s="142"/>
-      <c r="B4" s="143"/>
-      <c r="C4" s="154"/>
-      <c r="D4" s="145"/>
+      <c r="A4" s="165"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="169"/>
       <c r="E4" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="146"/>
+      <c r="F4" s="166"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="142"/>
-      <c r="B5" s="143"/>
-      <c r="C5" s="155"/>
-      <c r="D5" s="145"/>
+      <c r="A5" s="165"/>
+      <c r="B5" s="163"/>
+      <c r="C5" s="161"/>
+      <c r="D5" s="169"/>
       <c r="E5" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="146"/>
+      <c r="F5" s="166"/>
     </row>
     <row r="6" spans="1:6" ht="30">
-      <c r="A6" s="142">
+      <c r="A6" s="165">
         <v>2</v>
       </c>
-      <c r="B6" s="143" t="s">
+      <c r="B6" s="163" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="143" t="s">
+      <c r="C6" s="163" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="143" t="s">
+      <c r="D6" s="163" t="s">
         <v>97</v>
       </c>
       <c r="E6" s="30" t="s">
@@ -24634,10 +31043,10 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="142"/>
-      <c r="B7" s="143"/>
-      <c r="C7" s="143"/>
-      <c r="D7" s="143"/>
+      <c r="A7" s="165"/>
+      <c r="B7" s="163"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="163"/>
       <c r="E7" s="32" t="s">
         <v>99</v>
       </c>
@@ -24646,13 +31055,13 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="30">
-      <c r="A8" s="142">
+      <c r="A8" s="165">
         <v>3</v>
       </c>
-      <c r="B8" s="143" t="s">
+      <c r="B8" s="163" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="143" t="s">
+      <c r="C8" s="163" t="s">
         <v>102</v>
       </c>
       <c r="D8" s="30"/>
@@ -24664,9 +31073,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="30">
-      <c r="A9" s="142"/>
-      <c r="B9" s="143"/>
-      <c r="C9" s="143"/>
+      <c r="A9" s="165"/>
+      <c r="B9" s="163"/>
+      <c r="C9" s="163"/>
       <c r="D9" s="30" t="s">
         <v>103</v>
       </c>
@@ -24678,9 +31087,9 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="142"/>
-      <c r="B10" s="143"/>
-      <c r="C10" s="143"/>
+      <c r="A10" s="165"/>
+      <c r="B10" s="163"/>
+      <c r="C10" s="163"/>
       <c r="D10" s="31"/>
       <c r="E10" s="32" t="s">
         <v>106</v>
@@ -24690,26 +31099,26 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="18.75">
-      <c r="A11" s="144" t="s">
+      <c r="A11" s="170" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="144"/>
-      <c r="C11" s="144"/>
-      <c r="D11" s="144"/>
-      <c r="E11" s="144"/>
-      <c r="F11" s="144"/>
+      <c r="B11" s="170"/>
+      <c r="C11" s="170"/>
+      <c r="D11" s="170"/>
+      <c r="E11" s="170"/>
+      <c r="F11" s="170"/>
     </row>
     <row r="12" spans="1:6" ht="30">
-      <c r="A12" s="142">
+      <c r="A12" s="165">
         <v>4</v>
       </c>
-      <c r="B12" s="143" t="s">
+      <c r="B12" s="163" t="s">
         <v>110</v>
       </c>
       <c r="C12" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="D12" s="143" t="s">
+      <c r="D12" s="163" t="s">
         <v>114</v>
       </c>
       <c r="E12" s="30" t="s">
@@ -24720,12 +31129,12 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="142"/>
-      <c r="B13" s="143"/>
+      <c r="A13" s="165"/>
+      <c r="B13" s="163"/>
       <c r="C13" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="D13" s="143"/>
+      <c r="D13" s="163"/>
       <c r="E13" s="32" t="s">
         <v>116</v>
       </c>
@@ -24734,34 +31143,34 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="142"/>
-      <c r="B14" s="143"/>
+      <c r="A14" s="165"/>
+      <c r="B14" s="163"/>
       <c r="C14" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="D14" s="143"/>
+      <c r="D14" s="163"/>
       <c r="E14" s="31"/>
       <c r="F14" s="34"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="142"/>
-      <c r="B15" s="143"/>
+      <c r="A15" s="165"/>
+      <c r="B15" s="163"/>
       <c r="C15" s="30"/>
-      <c r="D15" s="143"/>
+      <c r="D15" s="163"/>
       <c r="E15" s="31"/>
       <c r="F15" s="34"/>
     </row>
     <row r="16" spans="1:6" ht="30">
-      <c r="A16" s="142">
+      <c r="A16" s="165">
         <v>5</v>
       </c>
-      <c r="B16" s="143" t="s">
+      <c r="B16" s="163" t="s">
         <v>119</v>
       </c>
-      <c r="C16" s="143" t="s">
+      <c r="C16" s="163" t="s">
         <v>120</v>
       </c>
-      <c r="D16" s="143" t="s">
+      <c r="D16" s="163" t="s">
         <v>121</v>
       </c>
       <c r="E16" s="30" t="s">
@@ -24772,10 +31181,10 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="142"/>
-      <c r="B17" s="143"/>
-      <c r="C17" s="143"/>
-      <c r="D17" s="143"/>
+      <c r="A17" s="165"/>
+      <c r="B17" s="163"/>
+      <c r="C17" s="163"/>
+      <c r="D17" s="163"/>
       <c r="E17" s="32" t="s">
         <v>123</v>
       </c>
@@ -24784,16 +31193,16 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="30">
-      <c r="A18" s="148">
+      <c r="A18" s="162">
         <v>6</v>
       </c>
-      <c r="B18" s="143" t="s">
+      <c r="B18" s="163" t="s">
         <v>125</v>
       </c>
-      <c r="C18" s="143" t="s">
+      <c r="C18" s="163" t="s">
         <v>126</v>
       </c>
-      <c r="D18" s="143" t="s">
+      <c r="D18" s="163" t="s">
         <v>127</v>
       </c>
       <c r="E18" s="30" t="s">
@@ -24804,10 +31213,10 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="148"/>
-      <c r="B19" s="143"/>
-      <c r="C19" s="143"/>
-      <c r="D19" s="143"/>
+      <c r="A19" s="162"/>
+      <c r="B19" s="163"/>
+      <c r="C19" s="163"/>
+      <c r="D19" s="163"/>
       <c r="E19" s="32" t="s">
         <v>129</v>
       </c>
@@ -24816,24 +31225,24 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="148"/>
-      <c r="B20" s="143"/>
-      <c r="C20" s="143"/>
-      <c r="D20" s="143"/>
+      <c r="A20" s="162"/>
+      <c r="B20" s="163"/>
+      <c r="C20" s="163"/>
+      <c r="D20" s="163"/>
       <c r="E20" s="30"/>
       <c r="F20" s="34"/>
     </row>
     <row r="21" spans="1:6" ht="30">
-      <c r="A21" s="148">
+      <c r="A21" s="162">
         <v>7</v>
       </c>
-      <c r="B21" s="143" t="s">
+      <c r="B21" s="163" t="s">
         <v>131</v>
       </c>
-      <c r="C21" s="143" t="s">
+      <c r="C21" s="163" t="s">
         <v>132</v>
       </c>
-      <c r="D21" s="143" t="s">
+      <c r="D21" s="163" t="s">
         <v>133</v>
       </c>
       <c r="E21" s="30" t="s">
@@ -24844,10 +31253,10 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="148"/>
-      <c r="B22" s="143"/>
-      <c r="C22" s="143"/>
-      <c r="D22" s="143"/>
+      <c r="A22" s="162"/>
+      <c r="B22" s="163"/>
+      <c r="C22" s="163"/>
+      <c r="D22" s="163"/>
       <c r="E22" s="32" t="s">
         <v>135</v>
       </c>
@@ -24856,32 +31265,32 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="148"/>
-      <c r="B23" s="143"/>
-      <c r="C23" s="143"/>
-      <c r="D23" s="143"/>
+      <c r="A23" s="162"/>
+      <c r="B23" s="163"/>
+      <c r="C23" s="163"/>
+      <c r="D23" s="163"/>
       <c r="E23" s="30"/>
       <c r="F23" s="33"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="148"/>
-      <c r="B24" s="143"/>
-      <c r="C24" s="143"/>
-      <c r="D24" s="143"/>
+      <c r="A24" s="162"/>
+      <c r="B24" s="163"/>
+      <c r="C24" s="163"/>
+      <c r="D24" s="163"/>
       <c r="E24" s="31"/>
       <c r="F24" s="33"/>
     </row>
     <row r="25" spans="1:6" ht="30">
-      <c r="A25" s="148">
+      <c r="A25" s="162">
         <v>8</v>
       </c>
-      <c r="B25" s="143" t="s">
+      <c r="B25" s="163" t="s">
         <v>138</v>
       </c>
-      <c r="C25" s="149" t="s">
+      <c r="C25" s="167" t="s">
         <v>139</v>
       </c>
-      <c r="D25" s="145" t="s">
+      <c r="D25" s="169" t="s">
         <v>140</v>
       </c>
       <c r="E25" s="30" t="s">
@@ -24892,10 +31301,10 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="28.5">
-      <c r="A26" s="148"/>
-      <c r="B26" s="143"/>
-      <c r="C26" s="149"/>
-      <c r="D26" s="145"/>
+      <c r="A26" s="162"/>
+      <c r="B26" s="163"/>
+      <c r="C26" s="167"/>
+      <c r="D26" s="169"/>
       <c r="E26" s="32" t="s">
         <v>142</v>
       </c>
@@ -24904,15 +31313,15 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="148"/>
-      <c r="B27" s="143"/>
-      <c r="C27" s="149"/>
-      <c r="D27" s="145"/>
+      <c r="A27" s="162"/>
+      <c r="B27" s="163"/>
+      <c r="C27" s="167"/>
+      <c r="D27" s="169"/>
       <c r="E27" s="31"/>
       <c r="F27" s="33"/>
     </row>
     <row r="28" spans="1:6" ht="30">
-      <c r="A28" s="148">
+      <c r="A28" s="162">
         <v>9</v>
       </c>
       <c r="B28" s="30" t="s">
@@ -24921,39 +31330,39 @@
       <c r="C28" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="D28" s="143" t="s">
+      <c r="D28" s="163" t="s">
         <v>149</v>
       </c>
-      <c r="E28" s="143" t="s">
+      <c r="E28" s="163" t="s">
         <v>150</v>
       </c>
-      <c r="F28" s="147" t="s">
+      <c r="F28" s="168" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="30">
-      <c r="A29" s="148"/>
+      <c r="A29" s="162"/>
       <c r="B29" s="30" t="s">
         <v>146</v>
       </c>
       <c r="C29" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="D29" s="143"/>
-      <c r="E29" s="143"/>
-      <c r="F29" s="147"/>
+      <c r="D29" s="163"/>
+      <c r="E29" s="163"/>
+      <c r="F29" s="168"/>
     </row>
     <row r="30" spans="1:6" ht="30">
-      <c r="A30" s="148">
+      <c r="A30" s="162">
         <v>10</v>
       </c>
-      <c r="B30" s="143" t="s">
+      <c r="B30" s="163" t="s">
         <v>152</v>
       </c>
-      <c r="C30" s="143" t="s">
+      <c r="C30" s="163" t="s">
         <v>153</v>
       </c>
-      <c r="D30" s="143" t="s">
+      <c r="D30" s="163" t="s">
         <v>154</v>
       </c>
       <c r="E30" s="30" t="s">
@@ -24964,10 +31373,10 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="148"/>
-      <c r="B31" s="143"/>
-      <c r="C31" s="143"/>
-      <c r="D31" s="143"/>
+      <c r="A31" s="162"/>
+      <c r="B31" s="163"/>
+      <c r="C31" s="163"/>
+      <c r="D31" s="163"/>
       <c r="E31" s="32" t="s">
         <v>156</v>
       </c>
@@ -24976,32 +31385,32 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="148"/>
-      <c r="B32" s="143"/>
-      <c r="C32" s="143"/>
-      <c r="D32" s="143"/>
+      <c r="A32" s="162"/>
+      <c r="B32" s="163"/>
+      <c r="C32" s="163"/>
+      <c r="D32" s="163"/>
       <c r="E32" s="31"/>
       <c r="F32" s="33"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="148"/>
-      <c r="B33" s="143"/>
-      <c r="C33" s="143"/>
-      <c r="D33" s="143"/>
+      <c r="A33" s="162"/>
+      <c r="B33" s="163"/>
+      <c r="C33" s="163"/>
+      <c r="D33" s="163"/>
       <c r="E33" s="31"/>
       <c r="F33" s="33"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="148">
+      <c r="A34" s="162">
         <v>11</v>
       </c>
-      <c r="B34" s="143" t="s">
+      <c r="B34" s="163" t="s">
         <v>159</v>
       </c>
       <c r="C34" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="D34" s="149" t="s">
+      <c r="D34" s="167" t="s">
         <v>162</v>
       </c>
       <c r="E34" s="35" t="s">
@@ -25012,12 +31421,12 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="148"/>
-      <c r="B35" s="143"/>
+      <c r="A35" s="162"/>
+      <c r="B35" s="163"/>
       <c r="C35" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="D35" s="149"/>
+      <c r="D35" s="167"/>
       <c r="E35" s="28" t="s">
         <v>164</v>
       </c>
@@ -25026,24 +31435,24 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="148"/>
-      <c r="B36" s="143"/>
+      <c r="A36" s="162"/>
+      <c r="B36" s="163"/>
       <c r="C36" s="31"/>
-      <c r="D36" s="149"/>
+      <c r="D36" s="167"/>
       <c r="E36" s="31"/>
       <c r="F36" s="36"/>
     </row>
     <row r="37" spans="1:6" ht="30">
-      <c r="A37" s="148">
+      <c r="A37" s="162">
         <v>12</v>
       </c>
-      <c r="B37" s="143" t="s">
+      <c r="B37" s="163" t="s">
         <v>166</v>
       </c>
       <c r="C37" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="D37" s="143" t="s">
+      <c r="D37" s="163" t="s">
         <v>169</v>
       </c>
       <c r="E37" s="30" t="s">
@@ -25054,12 +31463,12 @@
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="148"/>
-      <c r="B38" s="143"/>
+      <c r="A38" s="162"/>
+      <c r="B38" s="163"/>
       <c r="C38" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="D38" s="143"/>
+      <c r="D38" s="163"/>
       <c r="E38" s="32" t="s">
         <v>171</v>
       </c>
@@ -25068,60 +31477,60 @@
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="148"/>
-      <c r="B39" s="143"/>
+      <c r="A39" s="162"/>
+      <c r="B39" s="163"/>
       <c r="C39" s="30"/>
-      <c r="D39" s="143"/>
+      <c r="D39" s="163"/>
       <c r="E39" s="31"/>
       <c r="F39" s="33"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="148"/>
-      <c r="B40" s="143"/>
+      <c r="A40" s="162"/>
+      <c r="B40" s="163"/>
       <c r="C40" s="31"/>
-      <c r="D40" s="143"/>
+      <c r="D40" s="163"/>
       <c r="E40" s="31"/>
       <c r="F40" s="33"/>
     </row>
     <row r="41" spans="1:6" ht="30">
-      <c r="A41" s="148">
+      <c r="A41" s="162">
         <v>13</v>
       </c>
-      <c r="B41" s="143" t="s">
+      <c r="B41" s="163" t="s">
         <v>173</v>
       </c>
       <c r="C41" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="D41" s="160" t="s">
+      <c r="D41" s="164" t="s">
         <v>176</v>
       </c>
       <c r="E41" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="F41" s="146">
+      <c r="F41" s="166">
         <v>89635065816</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="148"/>
-      <c r="B42" s="143"/>
+      <c r="A42" s="162"/>
+      <c r="B42" s="163"/>
       <c r="C42" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="D42" s="160"/>
+      <c r="D42" s="164"/>
       <c r="E42" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="F42" s="146"/>
+      <c r="F42" s="166"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="148"/>
-      <c r="B43" s="143"/>
+      <c r="A43" s="162"/>
+      <c r="B43" s="163"/>
       <c r="C43" s="30"/>
-      <c r="D43" s="160"/>
+      <c r="D43" s="164"/>
       <c r="E43" s="31"/>
-      <c r="F43" s="146"/>
+      <c r="F43" s="166"/>
     </row>
     <row r="44" spans="1:6" ht="18.75">
       <c r="A44" s="37" t="s">
@@ -25134,16 +31543,16 @@
       <c r="F44" s="39"/>
     </row>
     <row r="45" spans="1:6" ht="30">
-      <c r="A45" s="148">
+      <c r="A45" s="162">
         <v>14</v>
       </c>
-      <c r="B45" s="143" t="s">
+      <c r="B45" s="163" t="s">
         <v>180</v>
       </c>
       <c r="C45" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="D45" s="143" t="s">
+      <c r="D45" s="163" t="s">
         <v>183</v>
       </c>
       <c r="E45" s="30" t="s">
@@ -25154,12 +31563,12 @@
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="148"/>
-      <c r="B46" s="143"/>
+      <c r="A46" s="162"/>
+      <c r="B46" s="163"/>
       <c r="C46" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="D46" s="143"/>
+      <c r="D46" s="163"/>
       <c r="E46" s="32" t="s">
         <v>185</v>
       </c>
@@ -25168,18 +31577,18 @@
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="148"/>
-      <c r="B47" s="143"/>
+      <c r="A47" s="162"/>
+      <c r="B47" s="163"/>
       <c r="C47" s="30"/>
-      <c r="D47" s="143"/>
+      <c r="D47" s="163"/>
       <c r="E47" s="31"/>
       <c r="F47" s="34"/>
     </row>
     <row r="48" spans="1:6" ht="30">
-      <c r="A48" s="148">
+      <c r="A48" s="162">
         <v>15</v>
       </c>
-      <c r="B48" s="143" t="s">
+      <c r="B48" s="163" t="s">
         <v>188</v>
       </c>
       <c r="C48" s="30" t="s">
@@ -25196,8 +31605,8 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="28.5">
-      <c r="A49" s="148"/>
-      <c r="B49" s="143"/>
+      <c r="A49" s="162"/>
+      <c r="B49" s="163"/>
       <c r="C49" s="30" t="s">
         <v>190</v>
       </c>
@@ -25212,8 +31621,8 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="148"/>
-      <c r="B50" s="143"/>
+      <c r="A50" s="162"/>
+      <c r="B50" s="163"/>
       <c r="C50" s="30" t="s">
         <v>191</v>
       </c>
@@ -25222,16 +31631,16 @@
       <c r="F50" s="34"/>
     </row>
     <row r="51" spans="1:6" ht="30">
-      <c r="A51" s="148">
+      <c r="A51" s="162">
         <v>16</v>
       </c>
-      <c r="B51" s="143" t="s">
+      <c r="B51" s="163" t="s">
         <v>198</v>
       </c>
       <c r="C51" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="D51" s="143" t="s">
+      <c r="D51" s="163" t="s">
         <v>201</v>
       </c>
       <c r="E51" s="30" t="s">
@@ -25242,12 +31651,12 @@
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="148"/>
-      <c r="B52" s="143"/>
+      <c r="A52" s="162"/>
+      <c r="B52" s="163"/>
       <c r="C52" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="D52" s="143"/>
+      <c r="D52" s="163"/>
       <c r="E52" s="32" t="s">
         <v>203</v>
       </c>
@@ -25266,16 +31675,16 @@
       <c r="F53" s="39"/>
     </row>
     <row r="54" spans="1:6" ht="30">
-      <c r="A54" s="150">
+      <c r="A54" s="156">
         <v>17</v>
       </c>
-      <c r="B54" s="151" t="s">
+      <c r="B54" s="157" t="s">
         <v>207</v>
       </c>
       <c r="C54" s="42" t="s">
         <v>208</v>
       </c>
-      <c r="D54" s="152" t="s">
+      <c r="D54" s="158" t="s">
         <v>210</v>
       </c>
       <c r="E54" s="42" t="s">
@@ -25286,12 +31695,12 @@
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="150"/>
-      <c r="B55" s="151"/>
+      <c r="A55" s="156"/>
+      <c r="B55" s="157"/>
       <c r="C55" s="42" t="s">
         <v>209</v>
       </c>
-      <c r="D55" s="152"/>
+      <c r="D55" s="158"/>
       <c r="E55" s="44" t="s">
         <v>212</v>
       </c>
@@ -25342,10 +31751,10 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="15.75">
-      <c r="A73" s="156" t="s">
+      <c r="A73" s="150" t="s">
         <v>226</v>
       </c>
-      <c r="B73" s="158" t="s">
+      <c r="B73" s="152" t="s">
         <v>38</v>
       </c>
       <c r="C73" s="48" t="s">
@@ -25356,8 +31765,8 @@
       </c>
     </row>
     <row r="74" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A74" s="157"/>
-      <c r="B74" s="159"/>
+      <c r="A74" s="151"/>
+      <c r="B74" s="153"/>
       <c r="C74" s="49" t="s">
         <v>228</v>
       </c>
@@ -25366,8 +31775,8 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="15.75">
-      <c r="A75" s="156"/>
-      <c r="B75" s="158" t="s">
+      <c r="A75" s="150"/>
+      <c r="B75" s="152" t="s">
         <v>231</v>
       </c>
       <c r="C75" s="48" t="s">
@@ -25378,8 +31787,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="15.75">
-      <c r="A76" s="161"/>
-      <c r="B76" s="162"/>
+      <c r="A76" s="154"/>
+      <c r="B76" s="155"/>
       <c r="C76" s="48" t="s">
         <v>233</v>
       </c>
@@ -25388,16 +31797,16 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A77" s="157"/>
-      <c r="B77" s="159"/>
+      <c r="A77" s="151"/>
+      <c r="B77" s="153"/>
       <c r="C77" s="52"/>
       <c r="D77" s="51" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15.75">
-      <c r="A78" s="158"/>
-      <c r="B78" s="158" t="s">
+      <c r="A78" s="152"/>
+      <c r="B78" s="152" t="s">
         <v>237</v>
       </c>
       <c r="C78" s="48" t="s">
@@ -25408,8 +31817,8 @@
       </c>
     </row>
     <row r="79" spans="1:4" ht="15.75">
-      <c r="A79" s="162"/>
-      <c r="B79" s="162"/>
+      <c r="A79" s="155"/>
+      <c r="B79" s="155"/>
       <c r="C79" s="48" t="s">
         <v>239</v>
       </c>
@@ -25418,24 +31827,24 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="15.75">
-      <c r="A80" s="162"/>
-      <c r="B80" s="162"/>
+      <c r="A80" s="155"/>
+      <c r="B80" s="155"/>
       <c r="C80" s="53"/>
       <c r="D80" s="50" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A81" s="159"/>
-      <c r="B81" s="159"/>
+      <c r="A81" s="153"/>
+      <c r="B81" s="153"/>
       <c r="C81" s="52"/>
       <c r="D81" s="51" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15.75">
-      <c r="A82" s="158"/>
-      <c r="B82" s="158" t="s">
+      <c r="A82" s="152"/>
+      <c r="B82" s="152" t="s">
         <v>244</v>
       </c>
       <c r="C82" s="48" t="s">
@@ -25446,8 +31855,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A83" s="159"/>
-      <c r="B83" s="159"/>
+      <c r="A83" s="153"/>
+      <c r="B83" s="153"/>
       <c r="C83" s="49" t="s">
         <v>246</v>
       </c>
@@ -25468,48 +31877,48 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="15.75">
-      <c r="A85" s="158"/>
+      <c r="A85" s="152"/>
       <c r="B85" s="48" t="s">
         <v>252</v>
       </c>
       <c r="C85" s="48" t="s">
         <v>254</v>
       </c>
-      <c r="D85" s="158" t="s">
+      <c r="D85" s="152" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A86" s="159"/>
+      <c r="A86" s="153"/>
       <c r="B86" s="49" t="s">
         <v>253</v>
       </c>
       <c r="C86" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="D86" s="159"/>
+      <c r="D86" s="153"/>
     </row>
     <row r="87" spans="1:4" ht="15.75">
-      <c r="A87" s="158"/>
+      <c r="A87" s="152"/>
       <c r="B87" s="48" t="s">
         <v>257</v>
       </c>
       <c r="C87" s="48" t="s">
         <v>258</v>
       </c>
-      <c r="D87" s="158" t="s">
+      <c r="D87" s="152" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A88" s="159"/>
+      <c r="A88" s="153"/>
       <c r="B88" s="49" t="s">
         <v>253</v>
       </c>
       <c r="C88" s="49" t="s">
         <v>259</v>
       </c>
-      <c r="D88" s="159"/>
+      <c r="D88" s="153"/>
     </row>
     <row r="89" spans="1:4" ht="32.25" thickBot="1">
       <c r="A89" s="49"/>
@@ -25586,32 +31995,32 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="15.75">
-      <c r="A95" s="156" t="s">
+      <c r="A95" s="150" t="s">
         <v>277</v>
       </c>
-      <c r="B95" s="158" t="s">
+      <c r="B95" s="152" t="s">
         <v>278</v>
       </c>
       <c r="C95" s="48" t="s">
         <v>279</v>
       </c>
-      <c r="D95" s="158" t="s">
+      <c r="D95" s="152" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A96" s="157"/>
-      <c r="B96" s="159"/>
+      <c r="A96" s="151"/>
+      <c r="B96" s="153"/>
       <c r="C96" s="55">
         <v>40868</v>
       </c>
-      <c r="D96" s="159"/>
+      <c r="D96" s="153"/>
     </row>
     <row r="97" spans="1:4" ht="15.75">
-      <c r="A97" s="156" t="s">
+      <c r="A97" s="150" t="s">
         <v>281</v>
       </c>
-      <c r="B97" s="158" t="s">
+      <c r="B97" s="152" t="s">
         <v>282</v>
       </c>
       <c r="C97" s="48" t="s">
@@ -25622,8 +32031,8 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A98" s="157"/>
-      <c r="B98" s="159"/>
+      <c r="A98" s="151"/>
+      <c r="B98" s="153"/>
       <c r="C98" s="49" t="s">
         <v>284</v>
       </c>
@@ -25632,24 +32041,24 @@
       </c>
     </row>
     <row r="99" spans="1:4" ht="15.75">
-      <c r="A99" s="158"/>
-      <c r="B99" s="158" t="s">
+      <c r="A99" s="152"/>
+      <c r="B99" s="152" t="s">
         <v>287</v>
       </c>
       <c r="C99" s="48" t="s">
         <v>288</v>
       </c>
-      <c r="D99" s="158" t="s">
+      <c r="D99" s="152" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A100" s="159"/>
-      <c r="B100" s="159"/>
+      <c r="A100" s="153"/>
+      <c r="B100" s="153"/>
       <c r="C100" s="49" t="s">
         <v>289</v>
       </c>
-      <c r="D100" s="159"/>
+      <c r="D100" s="153"/>
     </row>
     <row r="101" spans="1:4" ht="16.5" thickBot="1">
       <c r="A101" s="54" t="s">
@@ -25704,26 +32113,26 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="15.75">
-      <c r="A105" s="156" t="s">
+      <c r="A105" s="150" t="s">
         <v>304</v>
       </c>
-      <c r="B105" s="158" t="s">
+      <c r="B105" s="152" t="s">
         <v>305</v>
       </c>
       <c r="C105" s="48" t="s">
         <v>306</v>
       </c>
-      <c r="D105" s="158" t="s">
+      <c r="D105" s="152" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A106" s="157"/>
-      <c r="B106" s="159"/>
+      <c r="A106" s="151"/>
+      <c r="B106" s="153"/>
       <c r="C106" s="49" t="s">
         <v>307</v>
       </c>
-      <c r="D106" s="159"/>
+      <c r="D106" s="153"/>
     </row>
     <row r="107" spans="1:4" ht="16.5" thickBot="1">
       <c r="A107" s="54" t="s">
@@ -25740,92 +32149,92 @@
       </c>
     </row>
     <row r="108" spans="1:4" ht="15.75">
-      <c r="A108" s="156" t="s">
+      <c r="A108" s="150" t="s">
         <v>313</v>
       </c>
-      <c r="B108" s="158" t="s">
+      <c r="B108" s="152" t="s">
         <v>314</v>
       </c>
       <c r="C108" s="48" t="s">
         <v>315</v>
       </c>
-      <c r="D108" s="158" t="s">
+      <c r="D108" s="152" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A109" s="157"/>
-      <c r="B109" s="159"/>
+      <c r="A109" s="151"/>
+      <c r="B109" s="153"/>
       <c r="C109" s="55">
         <v>13537</v>
       </c>
-      <c r="D109" s="159"/>
+      <c r="D109" s="153"/>
     </row>
     <row r="110" spans="1:4" ht="15.75">
-      <c r="A110" s="156" t="s">
+      <c r="A110" s="150" t="s">
         <v>317</v>
       </c>
-      <c r="B110" s="158" t="s">
+      <c r="B110" s="152" t="s">
         <v>278</v>
       </c>
       <c r="C110" s="48" t="s">
         <v>318</v>
       </c>
-      <c r="D110" s="158" t="s">
+      <c r="D110" s="152" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A111" s="157"/>
-      <c r="B111" s="159"/>
+      <c r="A111" s="151"/>
+      <c r="B111" s="153"/>
       <c r="C111" s="55">
         <v>26045</v>
       </c>
-      <c r="D111" s="159"/>
+      <c r="D111" s="153"/>
     </row>
     <row r="112" spans="1:4" ht="15.75">
-      <c r="A112" s="156" t="s">
+      <c r="A112" s="150" t="s">
         <v>320</v>
       </c>
-      <c r="B112" s="158" t="s">
+      <c r="B112" s="152" t="s">
         <v>278</v>
       </c>
       <c r="C112" s="48" t="s">
         <v>321</v>
       </c>
-      <c r="D112" s="158" t="s">
+      <c r="D112" s="152" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A113" s="157"/>
-      <c r="B113" s="159"/>
+      <c r="A113" s="151"/>
+      <c r="B113" s="153"/>
       <c r="C113" s="49" t="s">
         <v>322</v>
       </c>
-      <c r="D113" s="159"/>
+      <c r="D113" s="153"/>
     </row>
     <row r="114" spans="1:4" ht="15.75">
-      <c r="A114" s="156" t="s">
+      <c r="A114" s="150" t="s">
         <v>324</v>
       </c>
-      <c r="B114" s="158" t="s">
+      <c r="B114" s="152" t="s">
         <v>278</v>
       </c>
       <c r="C114" s="48" t="s">
         <v>325</v>
       </c>
-      <c r="D114" s="158" t="s">
+      <c r="D114" s="152" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A115" s="157"/>
-      <c r="B115" s="159"/>
+      <c r="A115" s="151"/>
+      <c r="B115" s="153"/>
       <c r="C115" s="49" t="s">
         <v>326</v>
       </c>
-      <c r="D115" s="159"/>
+      <c r="D115" s="153"/>
     </row>
     <row r="116" spans="1:4" ht="16.5" thickBot="1">
       <c r="A116" s="54" t="s">
@@ -25856,7 +32265,7 @@
       </c>
     </row>
     <row r="118" spans="1:4" ht="15.75">
-      <c r="A118" s="156" t="s">
+      <c r="A118" s="150" t="s">
         <v>333</v>
       </c>
       <c r="B118" s="48" t="s">
@@ -25865,41 +32274,41 @@
       <c r="C118" s="48" t="s">
         <v>336</v>
       </c>
-      <c r="D118" s="158" t="s">
+      <c r="D118" s="152" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A119" s="157"/>
+      <c r="A119" s="151"/>
       <c r="B119" s="49" t="s">
         <v>335</v>
       </c>
       <c r="C119" s="49" t="s">
         <v>337</v>
       </c>
-      <c r="D119" s="159"/>
+      <c r="D119" s="153"/>
     </row>
     <row r="120" spans="1:4" ht="15.75">
-      <c r="A120" s="156" t="s">
+      <c r="A120" s="150" t="s">
         <v>339</v>
       </c>
-      <c r="B120" s="158" t="s">
+      <c r="B120" s="152" t="s">
         <v>278</v>
       </c>
       <c r="C120" s="48" t="s">
         <v>340</v>
       </c>
-      <c r="D120" s="158" t="s">
+      <c r="D120" s="152" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A121" s="157"/>
-      <c r="B121" s="159"/>
+      <c r="A121" s="151"/>
+      <c r="B121" s="153"/>
       <c r="C121" s="49" t="s">
         <v>341</v>
       </c>
-      <c r="D121" s="159"/>
+      <c r="D121" s="153"/>
     </row>
     <row r="122" spans="1:4" ht="16.5" thickBot="1">
       <c r="A122" s="54" t="s">
@@ -25920,44 +32329,45 @@
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="D37:D40"/>
     <mergeCell ref="A54:A55"/>
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="D54:D55"/>
@@ -25982,45 +32392,44 @@
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="D18:D20"/>
-    <mergeCell ref="F41:F43"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="D37:D40"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="D114:D115"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="mailto:spshkul_3@mail.ru"/>
@@ -38989,7 +45398,7 @@
   </sheetData>
   <autoFilter ref="A2:AI139">
     <filterColumn colId="8">
-      <colorFilter dxfId="7"/>
+      <colorFilter dxfId="13"/>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan_my_work.xlsx
+++ b/plan_my_work.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="770" firstSheet="1" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="770" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="4" r:id="rId1"/>
@@ -3544,22 +3544,38 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3580,46 +3596,30 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -4254,13 +4254,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:BD102"/>
   <sheetViews>
-    <sheetView topLeftCell="AG1" workbookViewId="0">
-      <selection sqref="A1:BD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="23" max="23" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="56" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:56" ht="25.5">
@@ -21769,8 +21769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21782,7 +21782,7 @@
     <col min="6" max="6" width="9.85546875" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" customWidth="1"/>
     <col min="8" max="8" width="8.140625" customWidth="1"/>
-    <col min="10" max="10" width="4.5703125" style="175" customWidth="1"/>
+    <col min="10" max="10" width="4.5703125" style="153" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39">
@@ -21790,37 +21790,37 @@
         <f>+C1+I1+M1+P1+S1+V1+Y1+AB1+AE1+AH1+AK1</f>
         <v>100</v>
       </c>
-      <c r="C1" s="177">
+      <c r="C1" s="155">
         <v>5</v>
       </c>
-      <c r="I1" s="177">
+      <c r="I1" s="155">
         <v>15</v>
       </c>
-      <c r="M1" s="177">
+      <c r="M1" s="155">
         <v>20</v>
       </c>
-      <c r="P1" s="177">
+      <c r="P1" s="155">
         <v>8</v>
       </c>
-      <c r="S1" s="177">
+      <c r="S1" s="155">
         <v>13</v>
       </c>
-      <c r="V1" s="177">
+      <c r="V1" s="155">
         <v>8</v>
       </c>
-      <c r="Y1" s="177">
+      <c r="Y1" s="155">
         <v>5</v>
       </c>
-      <c r="AB1" s="177">
+      <c r="AB1" s="155">
         <v>8</v>
       </c>
-      <c r="AE1" s="177">
+      <c r="AE1" s="155">
         <v>5</v>
       </c>
-      <c r="AH1" s="177">
+      <c r="AH1" s="155">
         <v>8</v>
       </c>
-      <c r="AK1" s="177">
+      <c r="AK1" s="155">
         <v>5</v>
       </c>
     </row>
@@ -21840,13 +21840,13 @@
       <c r="E2" s="130" t="s">
         <v>816</v>
       </c>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
       <c r="I2" s="109" t="s">
         <v>632</v>
       </c>
-      <c r="J2" s="174"/>
+      <c r="J2" s="152"/>
       <c r="K2" s="130" t="s">
         <v>593</v>
       </c>
@@ -21943,7 +21943,7 @@
         <v>815</v>
       </c>
       <c r="C3" s="115">
-        <f>+IFERROR(IF(SUBTOTAL(3,M3),C2+1,C2),1)</f>
+        <f t="shared" ref="C3:C34" si="0">+IFERROR(IF(SUBTOTAL(3,M3),C2+1,C2),1)</f>
         <v>1</v>
       </c>
       <c r="D3" s="132" t="s">
@@ -21952,21 +21952,21 @@
       <c r="E3" s="132" t="s">
         <v>817</v>
       </c>
-      <c r="F3" s="173" t="s">
+      <c r="F3" s="151" t="s">
         <v>812</v>
       </c>
-      <c r="G3" s="173" t="str">
+      <c r="G3" s="151" t="str">
         <f>"https://ratings.fide.com/card.phtml?event="&amp;I3</f>
         <v>https://ratings.fide.com/card.phtml?event=24176460</v>
       </c>
-      <c r="H3" s="173" t="s">
+      <c r="H3" s="151" t="s">
         <v>813</v>
       </c>
       <c r="I3" s="116">
         <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=24176460",24176460)</f>
         <v>24176460</v>
       </c>
-      <c r="J3" s="176" t="s">
+      <c r="J3" s="154" t="s">
         <v>811</v>
       </c>
       <c r="K3" s="132" t="s">
@@ -22065,7 +22065,7 @@
         <v>815</v>
       </c>
       <c r="C4" s="121">
-        <f>+IFERROR(IF(SUBTOTAL(3,M4),C3+1,C3),1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D4" s="132" t="s">
@@ -22074,21 +22074,21 @@
       <c r="E4" s="132" t="s">
         <v>817</v>
       </c>
-      <c r="F4" s="173" t="s">
+      <c r="F4" s="151" t="s">
         <v>812</v>
       </c>
-      <c r="G4" s="173" t="str">
-        <f t="shared" ref="G4:G52" si="0">"https://ratings.fide.com/card.phtml?event="&amp;I4</f>
+      <c r="G4" s="151" t="str">
+        <f t="shared" ref="G4:G52" si="1">"https://ratings.fide.com/card.phtml?event="&amp;I4</f>
         <v>https://ratings.fide.com/card.phtml?event=24108138</v>
       </c>
-      <c r="H4" s="173" t="s">
+      <c r="H4" s="151" t="s">
         <v>813</v>
       </c>
       <c r="I4" s="122">
         <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=24108138",24108138)</f>
         <v>24108138</v>
       </c>
-      <c r="J4" s="176" t="s">
+      <c r="J4" s="154" t="s">
         <v>811</v>
       </c>
       <c r="K4" s="132" t="s">
@@ -22187,7 +22187,7 @@
         <v>815</v>
       </c>
       <c r="C5" s="115">
-        <f>+IFERROR(IF(SUBTOTAL(3,M5),C4+1,C4),1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D5" s="132" t="s">
@@ -22196,21 +22196,21 @@
       <c r="E5" s="132" t="s">
         <v>817</v>
       </c>
-      <c r="F5" s="173" t="s">
+      <c r="F5" s="151" t="s">
         <v>812</v>
       </c>
-      <c r="G5" s="173" t="str">
-        <f t="shared" si="0"/>
+      <c r="G5" s="151" t="str">
+        <f t="shared" si="1"/>
         <v>https://ratings.fide.com/card.phtml?event=24145076</v>
       </c>
-      <c r="H5" s="173" t="s">
+      <c r="H5" s="151" t="s">
         <v>813</v>
       </c>
       <c r="I5" s="116">
         <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=24145076",24145076)</f>
         <v>24145076</v>
       </c>
-      <c r="J5" s="176" t="s">
+      <c r="J5" s="154" t="s">
         <v>811</v>
       </c>
       <c r="K5" s="132" t="s">
@@ -22309,7 +22309,7 @@
         <v>815</v>
       </c>
       <c r="C6" s="121">
-        <f>+IFERROR(IF(SUBTOTAL(3,M6),C5+1,C5),1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D6" s="132" t="s">
@@ -22318,21 +22318,21 @@
       <c r="E6" s="132" t="s">
         <v>817</v>
       </c>
-      <c r="F6" s="173" t="s">
+      <c r="F6" s="151" t="s">
         <v>812</v>
       </c>
-      <c r="G6" s="173" t="str">
-        <f t="shared" si="0"/>
+      <c r="G6" s="151" t="str">
+        <f t="shared" si="1"/>
         <v>https://ratings.fide.com/card.phtml?event=24180211</v>
       </c>
-      <c r="H6" s="173" t="s">
+      <c r="H6" s="151" t="s">
         <v>813</v>
       </c>
       <c r="I6" s="122">
         <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=24180211",24180211)</f>
         <v>24180211</v>
       </c>
-      <c r="J6" s="176" t="s">
+      <c r="J6" s="154" t="s">
         <v>811</v>
       </c>
       <c r="K6" s="132" t="s">
@@ -22431,7 +22431,7 @@
         <v>815</v>
       </c>
       <c r="C7" s="115">
-        <f>+IFERROR(IF(SUBTOTAL(3,M7),C6+1,C6),1)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D7" s="132" t="s">
@@ -22440,21 +22440,21 @@
       <c r="E7" s="132" t="s">
         <v>817</v>
       </c>
-      <c r="F7" s="173" t="s">
+      <c r="F7" s="151" t="s">
         <v>812</v>
       </c>
-      <c r="G7" s="173" t="str">
-        <f t="shared" si="0"/>
+      <c r="G7" s="151" t="str">
+        <f t="shared" si="1"/>
         <v>https://ratings.fide.com/card.phtml?event=24132918</v>
       </c>
-      <c r="H7" s="173" t="s">
+      <c r="H7" s="151" t="s">
         <v>813</v>
       </c>
       <c r="I7" s="116">
         <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=24132918",24132918)</f>
         <v>24132918</v>
       </c>
-      <c r="J7" s="176" t="s">
+      <c r="J7" s="154" t="s">
         <v>811</v>
       </c>
       <c r="K7" s="132" t="s">
@@ -22553,7 +22553,7 @@
         <v>815</v>
       </c>
       <c r="C8" s="121">
-        <f>+IFERROR(IF(SUBTOTAL(3,M8),C7+1,C7),1)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D8" s="132" t="s">
@@ -22562,21 +22562,21 @@
       <c r="E8" s="132" t="s">
         <v>817</v>
       </c>
-      <c r="F8" s="173" t="s">
+      <c r="F8" s="151" t="s">
         <v>812</v>
       </c>
-      <c r="G8" s="173" t="str">
-        <f t="shared" si="0"/>
+      <c r="G8" s="151" t="str">
+        <f t="shared" si="1"/>
         <v>https://ratings.fide.com/card.phtml?event=34128384</v>
       </c>
-      <c r="H8" s="173" t="s">
+      <c r="H8" s="151" t="s">
         <v>813</v>
       </c>
       <c r="I8" s="122">
         <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=34128384",34128384)</f>
         <v>34128384</v>
       </c>
-      <c r="J8" s="176" t="s">
+      <c r="J8" s="154" t="s">
         <v>811</v>
       </c>
       <c r="K8" s="132" t="s">
@@ -22675,7 +22675,7 @@
         <v>815</v>
       </c>
       <c r="C9" s="115">
-        <f>+IFERROR(IF(SUBTOTAL(3,M9),C8+1,C8),1)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D9" s="132" t="s">
@@ -22684,21 +22684,21 @@
       <c r="E9" s="132" t="s">
         <v>817</v>
       </c>
-      <c r="F9" s="173" t="s">
+      <c r="F9" s="151" t="s">
         <v>812</v>
       </c>
-      <c r="G9" s="173" t="str">
-        <f t="shared" si="0"/>
+      <c r="G9" s="151" t="str">
+        <f t="shared" si="1"/>
         <v>https://ratings.fide.com/card.phtml?event=4153820</v>
       </c>
-      <c r="H9" s="173" t="s">
+      <c r="H9" s="151" t="s">
         <v>813</v>
       </c>
       <c r="I9" s="116">
         <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=4153820",4153820)</f>
         <v>4153820</v>
       </c>
-      <c r="J9" s="176" t="s">
+      <c r="J9" s="154" t="s">
         <v>811</v>
       </c>
       <c r="K9" s="132" t="s">
@@ -22797,7 +22797,7 @@
         <v>815</v>
       </c>
       <c r="C10" s="121">
-        <f>+IFERROR(IF(SUBTOTAL(3,M10),C9+1,C9),1)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="D10" s="132" t="s">
@@ -22806,21 +22806,21 @@
       <c r="E10" s="132" t="s">
         <v>817</v>
       </c>
-      <c r="F10" s="173" t="s">
+      <c r="F10" s="151" t="s">
         <v>812</v>
       </c>
-      <c r="G10" s="173" t="str">
-        <f t="shared" si="0"/>
+      <c r="G10" s="151" t="str">
+        <f t="shared" si="1"/>
         <v>https://ratings.fide.com/card.phtml?event=34101516</v>
       </c>
-      <c r="H10" s="173" t="s">
+      <c r="H10" s="151" t="s">
         <v>813</v>
       </c>
       <c r="I10" s="122">
         <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=34101516",34101516)</f>
         <v>34101516</v>
       </c>
-      <c r="J10" s="176" t="s">
+      <c r="J10" s="154" t="s">
         <v>811</v>
       </c>
       <c r="K10" s="132" t="s">
@@ -22919,7 +22919,7 @@
         <v>815</v>
       </c>
       <c r="C11" s="115">
-        <f>+IFERROR(IF(SUBTOTAL(3,M11),C10+1,C10),1)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="D11" s="132" t="s">
@@ -22928,21 +22928,21 @@
       <c r="E11" s="132" t="s">
         <v>817</v>
       </c>
-      <c r="F11" s="173" t="s">
+      <c r="F11" s="151" t="s">
         <v>812</v>
       </c>
-      <c r="G11" s="173" t="str">
-        <f t="shared" si="0"/>
+      <c r="G11" s="151" t="str">
+        <f t="shared" si="1"/>
         <v>https://ratings.fide.com/card.phtml?event=24132853</v>
       </c>
-      <c r="H11" s="173" t="s">
+      <c r="H11" s="151" t="s">
         <v>813</v>
       </c>
       <c r="I11" s="116">
         <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=24132853",24132853)</f>
         <v>24132853</v>
       </c>
-      <c r="J11" s="176" t="s">
+      <c r="J11" s="154" t="s">
         <v>811</v>
       </c>
       <c r="K11" s="132" t="s">
@@ -23041,7 +23041,7 @@
         <v>815</v>
       </c>
       <c r="C12" s="121">
-        <f>+IFERROR(IF(SUBTOTAL(3,M12),C11+1,C11),1)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="D12" s="132" t="s">
@@ -23050,21 +23050,21 @@
       <c r="E12" s="132" t="s">
         <v>817</v>
       </c>
-      <c r="F12" s="173" t="s">
+      <c r="F12" s="151" t="s">
         <v>812</v>
       </c>
-      <c r="G12" s="173" t="str">
-        <f t="shared" si="0"/>
+      <c r="G12" s="151" t="str">
+        <f t="shared" si="1"/>
         <v>https://ratings.fide.com/card.phtml?event=34185949</v>
       </c>
-      <c r="H12" s="173" t="s">
+      <c r="H12" s="151" t="s">
         <v>813</v>
       </c>
       <c r="I12" s="122">
         <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=34185949",34185949)</f>
         <v>34185949</v>
       </c>
-      <c r="J12" s="176" t="s">
+      <c r="J12" s="154" t="s">
         <v>811</v>
       </c>
       <c r="K12" s="132" t="s">
@@ -23163,7 +23163,7 @@
         <v>815</v>
       </c>
       <c r="C13" s="115">
-        <f>+IFERROR(IF(SUBTOTAL(3,M13),C12+1,C12),1)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D13" s="132" t="s">
@@ -23172,21 +23172,21 @@
       <c r="E13" s="132" t="s">
         <v>817</v>
       </c>
-      <c r="F13" s="173" t="s">
+      <c r="F13" s="151" t="s">
         <v>812</v>
       </c>
-      <c r="G13" s="173" t="str">
-        <f t="shared" si="0"/>
+      <c r="G13" s="151" t="str">
+        <f t="shared" si="1"/>
         <v>https://ratings.fide.com/card.phtml?event=4152492</v>
       </c>
-      <c r="H13" s="173" t="s">
+      <c r="H13" s="151" t="s">
         <v>813</v>
       </c>
       <c r="I13" s="116">
         <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=4152492",4152492)</f>
         <v>4152492</v>
       </c>
-      <c r="J13" s="176" t="s">
+      <c r="J13" s="154" t="s">
         <v>811</v>
       </c>
       <c r="K13" s="132" t="s">
@@ -23285,7 +23285,7 @@
         <v>815</v>
       </c>
       <c r="C14" s="121">
-        <f>+IFERROR(IF(SUBTOTAL(3,M14),C13+1,C13),1)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="D14" s="132" t="s">
@@ -23294,21 +23294,21 @@
       <c r="E14" s="132" t="s">
         <v>817</v>
       </c>
-      <c r="F14" s="173" t="s">
+      <c r="F14" s="151" t="s">
         <v>812</v>
       </c>
-      <c r="G14" s="173" t="str">
-        <f t="shared" si="0"/>
+      <c r="G14" s="151" t="str">
+        <f t="shared" si="1"/>
         <v>https://ratings.fide.com/card.phtml?event=4136551</v>
       </c>
-      <c r="H14" s="173" t="s">
+      <c r="H14" s="151" t="s">
         <v>813</v>
       </c>
       <c r="I14" s="122">
         <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=4136551",4136551)</f>
         <v>4136551</v>
       </c>
-      <c r="J14" s="176" t="s">
+      <c r="J14" s="154" t="s">
         <v>811</v>
       </c>
       <c r="K14" s="132" t="s">
@@ -23407,7 +23407,7 @@
         <v>815</v>
       </c>
       <c r="C15" s="115">
-        <f>+IFERROR(IF(SUBTOTAL(3,M15),C14+1,C14),1)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="D15" s="132" t="s">
@@ -23416,21 +23416,21 @@
       <c r="E15" s="132" t="s">
         <v>817</v>
       </c>
-      <c r="F15" s="173" t="s">
+      <c r="F15" s="151" t="s">
         <v>812</v>
       </c>
-      <c r="G15" s="173" t="str">
-        <f t="shared" si="0"/>
+      <c r="G15" s="151" t="str">
+        <f t="shared" si="1"/>
         <v>https://ratings.fide.com/card.phtml?event=24126829</v>
       </c>
-      <c r="H15" s="173" t="s">
+      <c r="H15" s="151" t="s">
         <v>813</v>
       </c>
       <c r="I15" s="116">
         <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=24126829",24126829)</f>
         <v>24126829</v>
       </c>
-      <c r="J15" s="176" t="s">
+      <c r="J15" s="154" t="s">
         <v>811</v>
       </c>
       <c r="K15" s="132" t="s">
@@ -23529,7 +23529,7 @@
         <v>815</v>
       </c>
       <c r="C16" s="121">
-        <f>+IFERROR(IF(SUBTOTAL(3,M16),C15+1,C15),1)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="D16" s="132" t="s">
@@ -23538,21 +23538,21 @@
       <c r="E16" s="132" t="s">
         <v>817</v>
       </c>
-      <c r="F16" s="173" t="s">
+      <c r="F16" s="151" t="s">
         <v>812</v>
       </c>
-      <c r="G16" s="173" t="str">
-        <f t="shared" si="0"/>
+      <c r="G16" s="151" t="str">
+        <f t="shared" si="1"/>
         <v>https://ratings.fide.com/card.phtml?event=4179617</v>
       </c>
-      <c r="H16" s="173" t="s">
+      <c r="H16" s="151" t="s">
         <v>813</v>
       </c>
       <c r="I16" s="122">
         <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=4179617",4179617)</f>
         <v>4179617</v>
       </c>
-      <c r="J16" s="176" t="s">
+      <c r="J16" s="154" t="s">
         <v>811</v>
       </c>
       <c r="K16" s="132" t="s">
@@ -23651,7 +23651,7 @@
         <v>815</v>
       </c>
       <c r="C17" s="115">
-        <f>+IFERROR(IF(SUBTOTAL(3,M17),C16+1,C16),1)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="D17" s="132" t="s">
@@ -23660,21 +23660,21 @@
       <c r="E17" s="132" t="s">
         <v>817</v>
       </c>
-      <c r="F17" s="173" t="s">
+      <c r="F17" s="151" t="s">
         <v>812</v>
       </c>
-      <c r="G17" s="173" t="str">
-        <f t="shared" si="0"/>
+      <c r="G17" s="151" t="str">
+        <f t="shared" si="1"/>
         <v>https://ratings.fide.com/card.phtml?event=24141739</v>
       </c>
-      <c r="H17" s="173" t="s">
+      <c r="H17" s="151" t="s">
         <v>813</v>
       </c>
       <c r="I17" s="116">
         <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=24141739",24141739)</f>
         <v>24141739</v>
       </c>
-      <c r="J17" s="176" t="s">
+      <c r="J17" s="154" t="s">
         <v>811</v>
       </c>
       <c r="K17" s="132" t="s">
@@ -23773,7 +23773,7 @@
         <v>815</v>
       </c>
       <c r="C18" s="121">
-        <f>+IFERROR(IF(SUBTOTAL(3,M18),C17+1,C17),1)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="D18" s="132" t="s">
@@ -23782,21 +23782,21 @@
       <c r="E18" s="132" t="s">
         <v>817</v>
       </c>
-      <c r="F18" s="173" t="s">
+      <c r="F18" s="151" t="s">
         <v>812</v>
       </c>
-      <c r="G18" s="173" t="str">
-        <f t="shared" si="0"/>
+      <c r="G18" s="151" t="str">
+        <f t="shared" si="1"/>
         <v>https://ratings.fide.com/card.phtml?event=24159620</v>
       </c>
-      <c r="H18" s="173" t="s">
+      <c r="H18" s="151" t="s">
         <v>813</v>
       </c>
       <c r="I18" s="122">
         <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=24159620",24159620)</f>
         <v>24159620</v>
       </c>
-      <c r="J18" s="176" t="s">
+      <c r="J18" s="154" t="s">
         <v>811</v>
       </c>
       <c r="K18" s="132" t="s">
@@ -23895,7 +23895,7 @@
         <v>815</v>
       </c>
       <c r="C19" s="115">
-        <f>+IFERROR(IF(SUBTOTAL(3,M19),C18+1,C18),1)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="D19" s="132" t="s">
@@ -23904,21 +23904,21 @@
       <c r="E19" s="132" t="s">
         <v>817</v>
       </c>
-      <c r="F19" s="173" t="s">
+      <c r="F19" s="151" t="s">
         <v>812</v>
       </c>
-      <c r="G19" s="173" t="str">
-        <f t="shared" si="0"/>
+      <c r="G19" s="151" t="str">
+        <f t="shared" si="1"/>
         <v>https://ratings.fide.com/card.phtml?event=4124073</v>
       </c>
-      <c r="H19" s="173" t="s">
+      <c r="H19" s="151" t="s">
         <v>813</v>
       </c>
       <c r="I19" s="116">
         <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=4124073",4124073)</f>
         <v>4124073</v>
       </c>
-      <c r="J19" s="176" t="s">
+      <c r="J19" s="154" t="s">
         <v>811</v>
       </c>
       <c r="K19" s="132" t="s">
@@ -24017,7 +24017,7 @@
         <v>815</v>
       </c>
       <c r="C20" s="121">
-        <f>+IFERROR(IF(SUBTOTAL(3,M20),C19+1,C19),1)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="D20" s="132" t="s">
@@ -24026,21 +24026,21 @@
       <c r="E20" s="132" t="s">
         <v>817</v>
       </c>
-      <c r="F20" s="173" t="s">
+      <c r="F20" s="151" t="s">
         <v>812</v>
       </c>
-      <c r="G20" s="173" t="str">
-        <f t="shared" si="0"/>
+      <c r="G20" s="151" t="str">
+        <f t="shared" si="1"/>
         <v>https://ratings.fide.com/card.phtml?event=24160903</v>
       </c>
-      <c r="H20" s="173" t="s">
+      <c r="H20" s="151" t="s">
         <v>813</v>
       </c>
       <c r="I20" s="122">
         <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=24160903",24160903)</f>
         <v>24160903</v>
       </c>
-      <c r="J20" s="176" t="s">
+      <c r="J20" s="154" t="s">
         <v>811</v>
       </c>
       <c r="K20" s="132" t="s">
@@ -24139,7 +24139,7 @@
         <v>815</v>
       </c>
       <c r="C21" s="115">
-        <f>+IFERROR(IF(SUBTOTAL(3,M21),C20+1,C20),1)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="D21" s="132" t="s">
@@ -24148,21 +24148,21 @@
       <c r="E21" s="132" t="s">
         <v>817</v>
       </c>
-      <c r="F21" s="173" t="s">
+      <c r="F21" s="151" t="s">
         <v>812</v>
       </c>
-      <c r="G21" s="173" t="str">
-        <f t="shared" si="0"/>
+      <c r="G21" s="151" t="str">
+        <f t="shared" si="1"/>
         <v>https://ratings.fide.com/card.phtml?event=44130295</v>
       </c>
-      <c r="H21" s="173" t="s">
+      <c r="H21" s="151" t="s">
         <v>813</v>
       </c>
       <c r="I21" s="116">
         <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=44130295",44130295)</f>
         <v>44130295</v>
       </c>
-      <c r="J21" s="176" t="s">
+      <c r="J21" s="154" t="s">
         <v>811</v>
       </c>
       <c r="K21" s="132" t="s">
@@ -24261,7 +24261,7 @@
         <v>815</v>
       </c>
       <c r="C22" s="121">
-        <f>+IFERROR(IF(SUBTOTAL(3,M22),C21+1,C21),1)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="D22" s="132" t="s">
@@ -24270,20 +24270,20 @@
       <c r="E22" s="132" t="s">
         <v>817</v>
       </c>
-      <c r="F22" s="173" t="s">
+      <c r="F22" s="151" t="s">
         <v>812</v>
       </c>
-      <c r="G22" s="173" t="str">
-        <f t="shared" si="0"/>
+      <c r="G22" s="151" t="str">
+        <f t="shared" si="1"/>
         <v>https://ratings.fide.com/card.phtml?event=</v>
       </c>
-      <c r="H22" s="173" t="s">
+      <c r="H22" s="151" t="s">
         <v>813</v>
       </c>
       <c r="I22" s="122" t="s">
         <v>641</v>
       </c>
-      <c r="J22" s="176" t="s">
+      <c r="J22" s="154" t="s">
         <v>811</v>
       </c>
       <c r="K22" s="132" t="s">
@@ -24382,7 +24382,7 @@
         <v>815</v>
       </c>
       <c r="C23" s="115">
-        <f>+IFERROR(IF(SUBTOTAL(3,M23),C22+1,C22),1)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="D23" s="132" t="s">
@@ -24391,21 +24391,21 @@
       <c r="E23" s="132" t="s">
         <v>817</v>
       </c>
-      <c r="F23" s="173" t="s">
+      <c r="F23" s="151" t="s">
         <v>812</v>
       </c>
-      <c r="G23" s="173" t="str">
-        <f t="shared" si="0"/>
+      <c r="G23" s="151" t="str">
+        <f t="shared" si="1"/>
         <v>https://ratings.fide.com/card.phtml?event=34148237</v>
       </c>
-      <c r="H23" s="173" t="s">
+      <c r="H23" s="151" t="s">
         <v>813</v>
       </c>
       <c r="I23" s="116">
         <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=34148237",34148237)</f>
         <v>34148237</v>
       </c>
-      <c r="J23" s="176" t="s">
+      <c r="J23" s="154" t="s">
         <v>811</v>
       </c>
       <c r="K23" s="132" t="s">
@@ -24504,7 +24504,7 @@
         <v>815</v>
       </c>
       <c r="C24" s="121">
-        <f>+IFERROR(IF(SUBTOTAL(3,M24),C23+1,C23),1)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="D24" s="132" t="s">
@@ -24513,21 +24513,21 @@
       <c r="E24" s="132" t="s">
         <v>817</v>
       </c>
-      <c r="F24" s="173" t="s">
+      <c r="F24" s="151" t="s">
         <v>812</v>
       </c>
-      <c r="G24" s="173" t="str">
-        <f t="shared" si="0"/>
+      <c r="G24" s="151" t="str">
+        <f t="shared" si="1"/>
         <v>https://ratings.fide.com/card.phtml?event=24150789</v>
       </c>
-      <c r="H24" s="173" t="s">
+      <c r="H24" s="151" t="s">
         <v>813</v>
       </c>
       <c r="I24" s="122">
         <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=24150789",24150789)</f>
         <v>24150789</v>
       </c>
-      <c r="J24" s="176" t="s">
+      <c r="J24" s="154" t="s">
         <v>811</v>
       </c>
       <c r="K24" s="132" t="s">
@@ -24626,7 +24626,7 @@
         <v>815</v>
       </c>
       <c r="C25" s="115">
-        <f>+IFERROR(IF(SUBTOTAL(3,M25),C24+1,C24),1)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="D25" s="132" t="s">
@@ -24635,21 +24635,21 @@
       <c r="E25" s="132" t="s">
         <v>817</v>
       </c>
-      <c r="F25" s="173" t="s">
+      <c r="F25" s="151" t="s">
         <v>812</v>
       </c>
-      <c r="G25" s="173" t="str">
-        <f t="shared" si="0"/>
+      <c r="G25" s="151" t="str">
+        <f t="shared" si="1"/>
         <v>https://ratings.fide.com/card.phtml?event=4170784</v>
       </c>
-      <c r="H25" s="173" t="s">
+      <c r="H25" s="151" t="s">
         <v>813</v>
       </c>
       <c r="I25" s="116">
         <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=4170784",4170784)</f>
         <v>4170784</v>
       </c>
-      <c r="J25" s="176" t="s">
+      <c r="J25" s="154" t="s">
         <v>811</v>
       </c>
       <c r="K25" s="132" t="s">
@@ -24748,7 +24748,7 @@
         <v>815</v>
       </c>
       <c r="C26" s="121">
-        <f>+IFERROR(IF(SUBTOTAL(3,M26),C25+1,C25),1)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="D26" s="132" t="s">
@@ -24757,21 +24757,21 @@
       <c r="E26" s="132" t="s">
         <v>817</v>
       </c>
-      <c r="F26" s="173" t="s">
+      <c r="F26" s="151" t="s">
         <v>812</v>
       </c>
-      <c r="G26" s="173" t="str">
-        <f t="shared" si="0"/>
+      <c r="G26" s="151" t="str">
+        <f t="shared" si="1"/>
         <v>https://ratings.fide.com/card.phtml?event=4148509</v>
       </c>
-      <c r="H26" s="173" t="s">
+      <c r="H26" s="151" t="s">
         <v>813</v>
       </c>
       <c r="I26" s="122">
         <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=4148509",4148509)</f>
         <v>4148509</v>
       </c>
-      <c r="J26" s="176" t="s">
+      <c r="J26" s="154" t="s">
         <v>811</v>
       </c>
       <c r="K26" s="132" t="s">
@@ -24870,7 +24870,7 @@
         <v>815</v>
       </c>
       <c r="C27" s="115">
-        <f>+IFERROR(IF(SUBTOTAL(3,M27),C26+1,C26),1)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D27" s="132" t="s">
@@ -24879,21 +24879,21 @@
       <c r="E27" s="132" t="s">
         <v>817</v>
       </c>
-      <c r="F27" s="173" t="s">
+      <c r="F27" s="151" t="s">
         <v>812</v>
       </c>
-      <c r="G27" s="173" t="str">
-        <f t="shared" si="0"/>
+      <c r="G27" s="151" t="str">
+        <f t="shared" si="1"/>
         <v>https://ratings.fide.com/card.phtml?event=4167180</v>
       </c>
-      <c r="H27" s="173" t="s">
+      <c r="H27" s="151" t="s">
         <v>813</v>
       </c>
       <c r="I27" s="116">
         <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=4167180",4167180)</f>
         <v>4167180</v>
       </c>
-      <c r="J27" s="176" t="s">
+      <c r="J27" s="154" t="s">
         <v>811</v>
       </c>
       <c r="K27" s="132" t="s">
@@ -24992,7 +24992,7 @@
         <v>815</v>
       </c>
       <c r="C28" s="121">
-        <f>+IFERROR(IF(SUBTOTAL(3,M28),C27+1,C27),1)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="D28" s="132" t="s">
@@ -25001,21 +25001,21 @@
       <c r="E28" s="132" t="s">
         <v>817</v>
       </c>
-      <c r="F28" s="173" t="s">
+      <c r="F28" s="151" t="s">
         <v>812</v>
       </c>
-      <c r="G28" s="173" t="str">
-        <f t="shared" si="0"/>
+      <c r="G28" s="151" t="str">
+        <f t="shared" si="1"/>
         <v>https://ratings.fide.com/card.phtml?event=4163656</v>
       </c>
-      <c r="H28" s="173" t="s">
+      <c r="H28" s="151" t="s">
         <v>813</v>
       </c>
       <c r="I28" s="122">
         <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=4163656",4163656)</f>
         <v>4163656</v>
       </c>
-      <c r="J28" s="176" t="s">
+      <c r="J28" s="154" t="s">
         <v>811</v>
       </c>
       <c r="K28" s="132" t="s">
@@ -25114,7 +25114,7 @@
         <v>815</v>
       </c>
       <c r="C29" s="115">
-        <f>+IFERROR(IF(SUBTOTAL(3,M29),C28+1,C28),1)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="D29" s="132" t="s">
@@ -25123,21 +25123,21 @@
       <c r="E29" s="132" t="s">
         <v>817</v>
       </c>
-      <c r="F29" s="173" t="s">
+      <c r="F29" s="151" t="s">
         <v>812</v>
       </c>
-      <c r="G29" s="173" t="str">
-        <f t="shared" si="0"/>
+      <c r="G29" s="151" t="str">
+        <f t="shared" si="1"/>
         <v>https://ratings.fide.com/card.phtml?event=24160890</v>
       </c>
-      <c r="H29" s="173" t="s">
+      <c r="H29" s="151" t="s">
         <v>813</v>
       </c>
       <c r="I29" s="116">
         <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=24160890",24160890)</f>
         <v>24160890</v>
       </c>
-      <c r="J29" s="176" t="s">
+      <c r="J29" s="154" t="s">
         <v>811</v>
       </c>
       <c r="K29" s="132" t="s">
@@ -25236,7 +25236,7 @@
         <v>815</v>
       </c>
       <c r="C30" s="121">
-        <f>+IFERROR(IF(SUBTOTAL(3,M30),C29+1,C29),1)</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="D30" s="132" t="s">
@@ -25245,21 +25245,21 @@
       <c r="E30" s="132" t="s">
         <v>817</v>
       </c>
-      <c r="F30" s="173" t="s">
+      <c r="F30" s="151" t="s">
         <v>812</v>
       </c>
-      <c r="G30" s="173" t="str">
-        <f t="shared" si="0"/>
+      <c r="G30" s="151" t="str">
+        <f t="shared" si="1"/>
         <v>https://ratings.fide.com/card.phtml?event=34128341</v>
       </c>
-      <c r="H30" s="173" t="s">
+      <c r="H30" s="151" t="s">
         <v>813</v>
       </c>
       <c r="I30" s="122">
         <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=34128341",34128341)</f>
         <v>34128341</v>
       </c>
-      <c r="J30" s="176" t="s">
+      <c r="J30" s="154" t="s">
         <v>811</v>
       </c>
       <c r="K30" s="132" t="s">
@@ -25358,7 +25358,7 @@
         <v>815</v>
       </c>
       <c r="C31" s="115">
-        <f>+IFERROR(IF(SUBTOTAL(3,M31),C30+1,C30),1)</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="D31" s="132" t="s">
@@ -25367,21 +25367,21 @@
       <c r="E31" s="132" t="s">
         <v>817</v>
       </c>
-      <c r="F31" s="173" t="s">
+      <c r="F31" s="151" t="s">
         <v>812</v>
       </c>
-      <c r="G31" s="173" t="str">
-        <f t="shared" si="0"/>
+      <c r="G31" s="151" t="str">
+        <f t="shared" si="1"/>
         <v>https://ratings.fide.com/card.phtml?event=34128422</v>
       </c>
-      <c r="H31" s="173" t="s">
+      <c r="H31" s="151" t="s">
         <v>813</v>
       </c>
       <c r="I31" s="116">
         <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=34128422",34128422)</f>
         <v>34128422</v>
       </c>
-      <c r="J31" s="176" t="s">
+      <c r="J31" s="154" t="s">
         <v>811</v>
       </c>
       <c r="K31" s="132" t="s">
@@ -25480,7 +25480,7 @@
         <v>815</v>
       </c>
       <c r="C32" s="121">
-        <f>+IFERROR(IF(SUBTOTAL(3,M32),C31+1,C31),1)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="D32" s="132" t="s">
@@ -25489,21 +25489,21 @@
       <c r="E32" s="132" t="s">
         <v>817</v>
       </c>
-      <c r="F32" s="173" t="s">
+      <c r="F32" s="151" t="s">
         <v>812</v>
       </c>
-      <c r="G32" s="173" t="str">
-        <f t="shared" si="0"/>
+      <c r="G32" s="151" t="str">
+        <f t="shared" si="1"/>
         <v>https://ratings.fide.com/card.phtml?event=4182693</v>
       </c>
-      <c r="H32" s="173" t="s">
+      <c r="H32" s="151" t="s">
         <v>813</v>
       </c>
       <c r="I32" s="122">
         <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=4182693",4182693)</f>
         <v>4182693</v>
       </c>
-      <c r="J32" s="176" t="s">
+      <c r="J32" s="154" t="s">
         <v>811</v>
       </c>
       <c r="K32" s="132" t="s">
@@ -25602,7 +25602,7 @@
         <v>815</v>
       </c>
       <c r="C33" s="115">
-        <f>+IFERROR(IF(SUBTOTAL(3,M33),C32+1,C32),1)</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="D33" s="132" t="s">
@@ -25611,21 +25611,21 @@
       <c r="E33" s="132" t="s">
         <v>817</v>
       </c>
-      <c r="F33" s="173" t="s">
+      <c r="F33" s="151" t="s">
         <v>812</v>
       </c>
-      <c r="G33" s="173" t="str">
-        <f t="shared" si="0"/>
+      <c r="G33" s="151" t="str">
+        <f t="shared" si="1"/>
         <v>https://ratings.fide.com/card.phtml?event=4135164</v>
       </c>
-      <c r="H33" s="173" t="s">
+      <c r="H33" s="151" t="s">
         <v>813</v>
       </c>
       <c r="I33" s="116">
         <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=4135164",4135164)</f>
         <v>4135164</v>
       </c>
-      <c r="J33" s="176" t="s">
+      <c r="J33" s="154" t="s">
         <v>811</v>
       </c>
       <c r="K33" s="132" t="s">
@@ -25724,7 +25724,7 @@
         <v>815</v>
       </c>
       <c r="C34" s="121">
-        <f>+IFERROR(IF(SUBTOTAL(3,M34),C33+1,C33),1)</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="D34" s="132" t="s">
@@ -25733,21 +25733,21 @@
       <c r="E34" s="132" t="s">
         <v>817</v>
       </c>
-      <c r="F34" s="173" t="s">
+      <c r="F34" s="151" t="s">
         <v>812</v>
       </c>
-      <c r="G34" s="173" t="str">
-        <f t="shared" si="0"/>
+      <c r="G34" s="151" t="str">
+        <f t="shared" si="1"/>
         <v>https://ratings.fide.com/card.phtml?event=34126195</v>
       </c>
-      <c r="H34" s="173" t="s">
+      <c r="H34" s="151" t="s">
         <v>813</v>
       </c>
       <c r="I34" s="122">
         <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=34126195",34126195)</f>
         <v>34126195</v>
       </c>
-      <c r="J34" s="176" t="s">
+      <c r="J34" s="154" t="s">
         <v>811</v>
       </c>
       <c r="K34" s="132" t="s">
@@ -25846,7 +25846,7 @@
         <v>815</v>
       </c>
       <c r="C35" s="115">
-        <f>+IFERROR(IF(SUBTOTAL(3,M35),C34+1,C34),1)</f>
+        <f t="shared" ref="C35:C52" si="2">+IFERROR(IF(SUBTOTAL(3,M35),C34+1,C34),1)</f>
         <v>33</v>
       </c>
       <c r="D35" s="132" t="s">
@@ -25855,21 +25855,21 @@
       <c r="E35" s="132" t="s">
         <v>817</v>
       </c>
-      <c r="F35" s="173" t="s">
+      <c r="F35" s="151" t="s">
         <v>812</v>
       </c>
-      <c r="G35" s="173" t="str">
-        <f t="shared" si="0"/>
+      <c r="G35" s="151" t="str">
+        <f t="shared" si="1"/>
         <v>https://ratings.fide.com/card.phtml?event=24145068</v>
       </c>
-      <c r="H35" s="173" t="s">
+      <c r="H35" s="151" t="s">
         <v>813</v>
       </c>
       <c r="I35" s="116">
         <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=24145068",24145068)</f>
         <v>24145068</v>
       </c>
-      <c r="J35" s="176" t="s">
+      <c r="J35" s="154" t="s">
         <v>811</v>
       </c>
       <c r="K35" s="132" t="s">
@@ -25968,7 +25968,7 @@
         <v>815</v>
       </c>
       <c r="C36" s="121">
-        <f>+IFERROR(IF(SUBTOTAL(3,M36),C35+1,C35),1)</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="D36" s="132" t="s">
@@ -25977,21 +25977,21 @@
       <c r="E36" s="132" t="s">
         <v>817</v>
       </c>
-      <c r="F36" s="173" t="s">
+      <c r="F36" s="151" t="s">
         <v>812</v>
       </c>
-      <c r="G36" s="173" t="str">
-        <f t="shared" si="0"/>
+      <c r="G36" s="151" t="str">
+        <f t="shared" si="1"/>
         <v>https://ratings.fide.com/card.phtml?event=4155440</v>
       </c>
-      <c r="H36" s="173" t="s">
+      <c r="H36" s="151" t="s">
         <v>813</v>
       </c>
       <c r="I36" s="122">
         <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=4155440",4155440)</f>
         <v>4155440</v>
       </c>
-      <c r="J36" s="176" t="s">
+      <c r="J36" s="154" t="s">
         <v>811</v>
       </c>
       <c r="K36" s="132" t="s">
@@ -26090,7 +26090,7 @@
         <v>815</v>
       </c>
       <c r="C37" s="115">
-        <f>+IFERROR(IF(SUBTOTAL(3,M37),C36+1,C36),1)</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="D37" s="132" t="s">
@@ -26099,21 +26099,21 @@
       <c r="E37" s="132" t="s">
         <v>817</v>
       </c>
-      <c r="F37" s="173" t="s">
+      <c r="F37" s="151" t="s">
         <v>812</v>
       </c>
-      <c r="G37" s="173" t="str">
-        <f t="shared" si="0"/>
+      <c r="G37" s="151" t="str">
+        <f t="shared" si="1"/>
         <v>https://ratings.fide.com/card.phtml?event=34128554</v>
       </c>
-      <c r="H37" s="173" t="s">
+      <c r="H37" s="151" t="s">
         <v>813</v>
       </c>
       <c r="I37" s="116">
         <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=34128554",34128554)</f>
         <v>34128554</v>
       </c>
-      <c r="J37" s="176" t="s">
+      <c r="J37" s="154" t="s">
         <v>811</v>
       </c>
       <c r="K37" s="132" t="s">
@@ -26212,7 +26212,7 @@
         <v>815</v>
       </c>
       <c r="C38" s="121">
-        <f>+IFERROR(IF(SUBTOTAL(3,M38),C37+1,C37),1)</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="D38" s="132" t="s">
@@ -26221,21 +26221,21 @@
       <c r="E38" s="132" t="s">
         <v>817</v>
       </c>
-      <c r="F38" s="173" t="s">
+      <c r="F38" s="151" t="s">
         <v>812</v>
       </c>
-      <c r="G38" s="173" t="str">
-        <f t="shared" si="0"/>
+      <c r="G38" s="151" t="str">
+        <f t="shared" si="1"/>
         <v>https://ratings.fide.com/card.phtml?event=4126971</v>
       </c>
-      <c r="H38" s="173" t="s">
+      <c r="H38" s="151" t="s">
         <v>813</v>
       </c>
       <c r="I38" s="122">
         <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=4126971",4126971)</f>
         <v>4126971</v>
       </c>
-      <c r="J38" s="176" t="s">
+      <c r="J38" s="154" t="s">
         <v>811</v>
       </c>
       <c r="K38" s="132" t="s">
@@ -26334,7 +26334,7 @@
         <v>815</v>
       </c>
       <c r="C39" s="115">
-        <f>+IFERROR(IF(SUBTOTAL(3,M39),C38+1,C38),1)</f>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="D39" s="132" t="s">
@@ -26343,21 +26343,21 @@
       <c r="E39" s="132" t="s">
         <v>817</v>
       </c>
-      <c r="F39" s="173" t="s">
+      <c r="F39" s="151" t="s">
         <v>812</v>
       </c>
-      <c r="G39" s="173" t="str">
-        <f t="shared" si="0"/>
+      <c r="G39" s="151" t="str">
+        <f t="shared" si="1"/>
         <v>https://ratings.fide.com/card.phtml?event=34128651</v>
       </c>
-      <c r="H39" s="173" t="s">
+      <c r="H39" s="151" t="s">
         <v>813</v>
       </c>
       <c r="I39" s="116">
         <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=34128651",34128651)</f>
         <v>34128651</v>
       </c>
-      <c r="J39" s="176" t="s">
+      <c r="J39" s="154" t="s">
         <v>811</v>
       </c>
       <c r="K39" s="132" t="s">
@@ -26456,7 +26456,7 @@
         <v>815</v>
       </c>
       <c r="C40" s="121">
-        <f>+IFERROR(IF(SUBTOTAL(3,M40),C39+1,C39),1)</f>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="D40" s="132" t="s">
@@ -26465,21 +26465,21 @@
       <c r="E40" s="132" t="s">
         <v>817</v>
       </c>
-      <c r="F40" s="173" t="s">
+      <c r="F40" s="151" t="s">
         <v>812</v>
       </c>
-      <c r="G40" s="173" t="str">
-        <f t="shared" si="0"/>
+      <c r="G40" s="151" t="str">
+        <f t="shared" si="1"/>
         <v>https://ratings.fide.com/card.phtml?event=4187288</v>
       </c>
-      <c r="H40" s="173" t="s">
+      <c r="H40" s="151" t="s">
         <v>813</v>
       </c>
       <c r="I40" s="122">
         <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=4187288",4187288)</f>
         <v>4187288</v>
       </c>
-      <c r="J40" s="176" t="s">
+      <c r="J40" s="154" t="s">
         <v>811</v>
       </c>
       <c r="K40" s="132" t="s">
@@ -26578,7 +26578,7 @@
         <v>815</v>
       </c>
       <c r="C41" s="115">
-        <f>+IFERROR(IF(SUBTOTAL(3,M41),C40+1,C40),1)</f>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="D41" s="132" t="s">
@@ -26587,21 +26587,21 @@
       <c r="E41" s="132" t="s">
         <v>817</v>
       </c>
-      <c r="F41" s="173" t="s">
+      <c r="F41" s="151" t="s">
         <v>812</v>
       </c>
-      <c r="G41" s="173" t="str">
-        <f t="shared" si="0"/>
+      <c r="G41" s="151" t="str">
+        <f t="shared" si="1"/>
         <v>https://ratings.fide.com/card.phtml?event=4137779</v>
       </c>
-      <c r="H41" s="173" t="s">
+      <c r="H41" s="151" t="s">
         <v>813</v>
       </c>
       <c r="I41" s="116">
         <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=4137779",4137779)</f>
         <v>4137779</v>
       </c>
-      <c r="J41" s="176" t="s">
+      <c r="J41" s="154" t="s">
         <v>811</v>
       </c>
       <c r="K41" s="132" t="s">
@@ -26700,7 +26700,7 @@
         <v>815</v>
       </c>
       <c r="C42" s="121">
-        <f>+IFERROR(IF(SUBTOTAL(3,M42),C41+1,C41),1)</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="D42" s="132" t="s">
@@ -26709,21 +26709,21 @@
       <c r="E42" s="132" t="s">
         <v>817</v>
       </c>
-      <c r="F42" s="173" t="s">
+      <c r="F42" s="151" t="s">
         <v>812</v>
       </c>
-      <c r="G42" s="173" t="str">
-        <f t="shared" si="0"/>
+      <c r="G42" s="151" t="str">
+        <f t="shared" si="1"/>
         <v>https://ratings.fide.com/card.phtml?event=4150864</v>
       </c>
-      <c r="H42" s="173" t="s">
+      <c r="H42" s="151" t="s">
         <v>813</v>
       </c>
       <c r="I42" s="122">
         <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=4150864",4150864)</f>
         <v>4150864</v>
       </c>
-      <c r="J42" s="176" t="s">
+      <c r="J42" s="154" t="s">
         <v>811</v>
       </c>
       <c r="K42" s="132" t="s">
@@ -26822,7 +26822,7 @@
         <v>815</v>
       </c>
       <c r="C43" s="115">
-        <f>+IFERROR(IF(SUBTOTAL(3,M43),C42+1,C42),1)</f>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="D43" s="132" t="s">
@@ -26831,21 +26831,21 @@
       <c r="E43" s="132" t="s">
         <v>817</v>
       </c>
-      <c r="F43" s="173" t="s">
+      <c r="F43" s="151" t="s">
         <v>812</v>
       </c>
-      <c r="G43" s="173" t="str">
-        <f t="shared" si="0"/>
+      <c r="G43" s="151" t="str">
+        <f t="shared" si="1"/>
         <v>https://ratings.fide.com/card.phtml?event=34166278</v>
       </c>
-      <c r="H43" s="173" t="s">
+      <c r="H43" s="151" t="s">
         <v>813</v>
       </c>
       <c r="I43" s="116">
         <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=34166278",34166278)</f>
         <v>34166278</v>
       </c>
-      <c r="J43" s="176" t="s">
+      <c r="J43" s="154" t="s">
         <v>811</v>
       </c>
       <c r="K43" s="132" t="s">
@@ -26944,7 +26944,7 @@
         <v>815</v>
       </c>
       <c r="C44" s="121">
-        <f>+IFERROR(IF(SUBTOTAL(3,M44),C43+1,C43),1)</f>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="D44" s="132" t="s">
@@ -26953,21 +26953,21 @@
       <c r="E44" s="132" t="s">
         <v>817</v>
       </c>
-      <c r="F44" s="173" t="s">
+      <c r="F44" s="151" t="s">
         <v>812</v>
       </c>
-      <c r="G44" s="173" t="str">
-        <f t="shared" si="0"/>
+      <c r="G44" s="151" t="str">
+        <f t="shared" si="1"/>
         <v>https://ratings.fide.com/card.phtml?event=24132420</v>
       </c>
-      <c r="H44" s="173" t="s">
+      <c r="H44" s="151" t="s">
         <v>813</v>
       </c>
       <c r="I44" s="122">
         <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=24132420",24132420)</f>
         <v>24132420</v>
       </c>
-      <c r="J44" s="176" t="s">
+      <c r="J44" s="154" t="s">
         <v>811</v>
       </c>
       <c r="K44" s="132" t="s">
@@ -27066,7 +27066,7 @@
         <v>815</v>
       </c>
       <c r="C45" s="115">
-        <f>+IFERROR(IF(SUBTOTAL(3,M45),C44+1,C44),1)</f>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="D45" s="132" t="s">
@@ -27075,21 +27075,21 @@
       <c r="E45" s="132" t="s">
         <v>817</v>
       </c>
-      <c r="F45" s="173" t="s">
+      <c r="F45" s="151" t="s">
         <v>812</v>
       </c>
-      <c r="G45" s="173" t="str">
-        <f t="shared" si="0"/>
+      <c r="G45" s="151" t="str">
+        <f t="shared" si="1"/>
         <v>https://ratings.fide.com/card.phtml?event=24132349</v>
       </c>
-      <c r="H45" s="173" t="s">
+      <c r="H45" s="151" t="s">
         <v>813</v>
       </c>
       <c r="I45" s="116">
         <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=24132349",24132349)</f>
         <v>24132349</v>
       </c>
-      <c r="J45" s="176" t="s">
+      <c r="J45" s="154" t="s">
         <v>811</v>
       </c>
       <c r="K45" s="132" t="s">
@@ -27188,7 +27188,7 @@
         <v>815</v>
       </c>
       <c r="C46" s="121">
-        <f>+IFERROR(IF(SUBTOTAL(3,M46),C45+1,C45),1)</f>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="D46" s="132" t="s">
@@ -27197,21 +27197,21 @@
       <c r="E46" s="132" t="s">
         <v>817</v>
       </c>
-      <c r="F46" s="173" t="s">
+      <c r="F46" s="151" t="s">
         <v>812</v>
       </c>
-      <c r="G46" s="173" t="str">
-        <f t="shared" si="0"/>
+      <c r="G46" s="151" t="str">
+        <f t="shared" si="1"/>
         <v>https://ratings.fide.com/card.phtml?event=24101621</v>
       </c>
-      <c r="H46" s="173" t="s">
+      <c r="H46" s="151" t="s">
         <v>813</v>
       </c>
       <c r="I46" s="122">
         <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=24101621",24101621)</f>
         <v>24101621</v>
       </c>
-      <c r="J46" s="176" t="s">
+      <c r="J46" s="154" t="s">
         <v>811</v>
       </c>
       <c r="K46" s="132" t="s">
@@ -27310,7 +27310,7 @@
         <v>815</v>
       </c>
       <c r="C47" s="115">
-        <f>+IFERROR(IF(SUBTOTAL(3,M47),C46+1,C46),1)</f>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="D47" s="132" t="s">
@@ -27319,21 +27319,21 @@
       <c r="E47" s="132" t="s">
         <v>817</v>
       </c>
-      <c r="F47" s="173" t="s">
+      <c r="F47" s="151" t="s">
         <v>812</v>
       </c>
-      <c r="G47" s="173" t="str">
-        <f t="shared" si="0"/>
+      <c r="G47" s="151" t="str">
+        <f t="shared" si="1"/>
         <v>https://ratings.fide.com/card.phtml?event=4170857</v>
       </c>
-      <c r="H47" s="173" t="s">
+      <c r="H47" s="151" t="s">
         <v>813</v>
       </c>
       <c r="I47" s="116">
         <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=4170857",4170857)</f>
         <v>4170857</v>
       </c>
-      <c r="J47" s="176" t="s">
+      <c r="J47" s="154" t="s">
         <v>811</v>
       </c>
       <c r="K47" s="132" t="s">
@@ -27432,7 +27432,7 @@
         <v>815</v>
       </c>
       <c r="C48" s="121">
-        <f>+IFERROR(IF(SUBTOTAL(3,M48),C47+1,C47),1)</f>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="D48" s="132" t="s">
@@ -27441,21 +27441,21 @@
       <c r="E48" s="132" t="s">
         <v>817</v>
       </c>
-      <c r="F48" s="173" t="s">
+      <c r="F48" s="151" t="s">
         <v>812</v>
       </c>
-      <c r="G48" s="173" t="str">
-        <f t="shared" si="0"/>
+      <c r="G48" s="151" t="str">
+        <f t="shared" si="1"/>
         <v>https://ratings.fide.com/card.phtml?event=34128392</v>
       </c>
-      <c r="H48" s="173" t="s">
+      <c r="H48" s="151" t="s">
         <v>813</v>
       </c>
       <c r="I48" s="122">
         <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=34128392",34128392)</f>
         <v>34128392</v>
       </c>
-      <c r="J48" s="176" t="s">
+      <c r="J48" s="154" t="s">
         <v>811</v>
       </c>
       <c r="K48" s="132" t="s">
@@ -27554,7 +27554,7 @@
         <v>815</v>
       </c>
       <c r="C49" s="115">
-        <f>+IFERROR(IF(SUBTOTAL(3,M49),C48+1,C48),1)</f>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="D49" s="132" t="s">
@@ -27563,21 +27563,21 @@
       <c r="E49" s="132" t="s">
         <v>817</v>
       </c>
-      <c r="F49" s="173" t="s">
+      <c r="F49" s="151" t="s">
         <v>812</v>
       </c>
-      <c r="G49" s="173" t="str">
-        <f t="shared" si="0"/>
+      <c r="G49" s="151" t="str">
+        <f t="shared" si="1"/>
         <v>https://ratings.fide.com/card.phtml?event=44136692</v>
       </c>
-      <c r="H49" s="173" t="s">
+      <c r="H49" s="151" t="s">
         <v>813</v>
       </c>
       <c r="I49" s="116">
         <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=44136692",44136692)</f>
         <v>44136692</v>
       </c>
-      <c r="J49" s="176" t="s">
+      <c r="J49" s="154" t="s">
         <v>811</v>
       </c>
       <c r="K49" s="132" t="s">
@@ -27676,7 +27676,7 @@
         <v>815</v>
       </c>
       <c r="C50" s="121">
-        <f>+IFERROR(IF(SUBTOTAL(3,M50),C49+1,C49),1)</f>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="D50" s="132" t="s">
@@ -27685,21 +27685,21 @@
       <c r="E50" s="132" t="s">
         <v>817</v>
       </c>
-      <c r="F50" s="173" t="s">
+      <c r="F50" s="151" t="s">
         <v>812</v>
       </c>
-      <c r="G50" s="173" t="str">
-        <f t="shared" si="0"/>
+      <c r="G50" s="151" t="str">
+        <f t="shared" si="1"/>
         <v>https://ratings.fide.com/card.phtml?event=34101583</v>
       </c>
-      <c r="H50" s="173" t="s">
+      <c r="H50" s="151" t="s">
         <v>813</v>
       </c>
       <c r="I50" s="122">
         <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=34101583",34101583)</f>
         <v>34101583</v>
       </c>
-      <c r="J50" s="176" t="s">
+      <c r="J50" s="154" t="s">
         <v>811</v>
       </c>
       <c r="K50" s="132" t="s">
@@ -27798,7 +27798,7 @@
         <v>815</v>
       </c>
       <c r="C51" s="115">
-        <f>+IFERROR(IF(SUBTOTAL(3,M51),C50+1,C50),1)</f>
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="D51" s="132" t="s">
@@ -27807,21 +27807,21 @@
       <c r="E51" s="132" t="s">
         <v>817</v>
       </c>
-      <c r="F51" s="173" t="s">
+      <c r="F51" s="151" t="s">
         <v>812</v>
       </c>
-      <c r="G51" s="173" t="str">
-        <f t="shared" si="0"/>
+      <c r="G51" s="151" t="str">
+        <f t="shared" si="1"/>
         <v>https://ratings.fide.com/card.phtml?event=34143480</v>
       </c>
-      <c r="H51" s="173" t="s">
+      <c r="H51" s="151" t="s">
         <v>813</v>
       </c>
       <c r="I51" s="116">
         <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=34143480",34143480)</f>
         <v>34143480</v>
       </c>
-      <c r="J51" s="176" t="s">
+      <c r="J51" s="154" t="s">
         <v>811</v>
       </c>
       <c r="K51" s="132" t="s">
@@ -27920,7 +27920,7 @@
         <v>815</v>
       </c>
       <c r="C52" s="121">
-        <f>+IFERROR(IF(SUBTOTAL(3,M52),C51+1,C51),1)</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="D52" s="132" t="s">
@@ -27929,21 +27929,21 @@
       <c r="E52" s="132" t="s">
         <v>817</v>
       </c>
-      <c r="F52" s="173" t="s">
+      <c r="F52" s="151" t="s">
         <v>812</v>
       </c>
-      <c r="G52" s="173" t="str">
-        <f t="shared" si="0"/>
+      <c r="G52" s="151" t="str">
+        <f t="shared" si="1"/>
         <v>https://ratings.fide.com/card.phtml?event=24127841</v>
       </c>
-      <c r="H52" s="173" t="s">
+      <c r="H52" s="151" t="s">
         <v>813</v>
       </c>
       <c r="I52" s="122">
         <f>HYPERLINK("https://ratings.fide.com/card.phtml?event=24127841",24127841)</f>
         <v>24127841</v>
       </c>
-      <c r="J52" s="176" t="s">
+      <c r="J52" s="154" t="s">
         <v>811</v>
       </c>
       <c r="K52" s="132" t="s">
@@ -30184,8 +30184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -30462,7 +30462,7 @@
       <c r="B11" s="130" t="s">
         <v>748</v>
       </c>
-      <c r="C11" s="171" t="s">
+      <c r="C11" s="177" t="s">
         <v>797</v>
       </c>
       <c r="D11" s="132" t="s">
@@ -30488,7 +30488,7 @@
       <c r="B12" s="130" t="s">
         <v>748</v>
       </c>
-      <c r="C12" s="171"/>
+      <c r="C12" s="177"/>
       <c r="D12" s="132" t="s">
         <v>596</v>
       </c>
@@ -30512,7 +30512,7 @@
       <c r="B13" s="130" t="s">
         <v>748</v>
       </c>
-      <c r="C13" s="171"/>
+      <c r="C13" s="177"/>
       <c r="D13" s="132" t="s">
         <v>596</v>
       </c>
@@ -30536,7 +30536,7 @@
       <c r="B14" s="130" t="s">
         <v>748</v>
       </c>
-      <c r="C14" s="171"/>
+      <c r="C14" s="177"/>
       <c r="D14" s="132" t="s">
         <v>596</v>
       </c>
@@ -30560,7 +30560,7 @@
       <c r="B15" s="130" t="s">
         <v>748</v>
       </c>
-      <c r="C15" s="171"/>
+      <c r="C15" s="177"/>
       <c r="D15" s="132" t="s">
         <v>596</v>
       </c>
@@ -30584,7 +30584,7 @@
       <c r="B16" s="130" t="s">
         <v>748</v>
       </c>
-      <c r="C16" s="171"/>
+      <c r="C16" s="177"/>
       <c r="D16" s="132" t="s">
         <v>596</v>
       </c>
@@ -30608,7 +30608,7 @@
       <c r="B17" s="130" t="s">
         <v>748</v>
       </c>
-      <c r="C17" s="171"/>
+      <c r="C17" s="177"/>
       <c r="D17" s="132" t="s">
         <v>596</v>
       </c>
@@ -30973,66 +30973,66 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1">
-      <c r="A2" s="165">
+      <c r="A2" s="156">
         <v>1</v>
       </c>
-      <c r="B2" s="163" t="s">
+      <c r="B2" s="157" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="159" t="s">
+      <c r="C2" s="167" t="s">
         <v>220</v>
       </c>
-      <c r="D2" s="169" t="s">
+      <c r="D2" s="159" t="s">
         <v>89</v>
       </c>
       <c r="E2" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="166" t="s">
+      <c r="F2" s="160" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="165"/>
-      <c r="B3" s="163"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="169"/>
+      <c r="A3" s="156"/>
+      <c r="B3" s="157"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="159"/>
       <c r="E3" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="166"/>
+      <c r="F3" s="160"/>
     </row>
     <row r="4" spans="1:6" ht="30">
-      <c r="A4" s="165"/>
-      <c r="B4" s="163"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="169"/>
+      <c r="A4" s="156"/>
+      <c r="B4" s="157"/>
+      <c r="C4" s="168"/>
+      <c r="D4" s="159"/>
       <c r="E4" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="166"/>
+      <c r="F4" s="160"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="165"/>
-      <c r="B5" s="163"/>
-      <c r="C5" s="161"/>
-      <c r="D5" s="169"/>
+      <c r="A5" s="156"/>
+      <c r="B5" s="157"/>
+      <c r="C5" s="169"/>
+      <c r="D5" s="159"/>
       <c r="E5" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="166"/>
+      <c r="F5" s="160"/>
     </row>
     <row r="6" spans="1:6" ht="30">
-      <c r="A6" s="165">
+      <c r="A6" s="156">
         <v>2</v>
       </c>
-      <c r="B6" s="163" t="s">
+      <c r="B6" s="157" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="163" t="s">
+      <c r="C6" s="157" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="163" t="s">
+      <c r="D6" s="157" t="s">
         <v>97</v>
       </c>
       <c r="E6" s="30" t="s">
@@ -31043,10 +31043,10 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="165"/>
-      <c r="B7" s="163"/>
-      <c r="C7" s="163"/>
-      <c r="D7" s="163"/>
+      <c r="A7" s="156"/>
+      <c r="B7" s="157"/>
+      <c r="C7" s="157"/>
+      <c r="D7" s="157"/>
       <c r="E7" s="32" t="s">
         <v>99</v>
       </c>
@@ -31055,13 +31055,13 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="30">
-      <c r="A8" s="165">
+      <c r="A8" s="156">
         <v>3</v>
       </c>
-      <c r="B8" s="163" t="s">
+      <c r="B8" s="157" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="163" t="s">
+      <c r="C8" s="157" t="s">
         <v>102</v>
       </c>
       <c r="D8" s="30"/>
@@ -31073,9 +31073,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="30">
-      <c r="A9" s="165"/>
-      <c r="B9" s="163"/>
-      <c r="C9" s="163"/>
+      <c r="A9" s="156"/>
+      <c r="B9" s="157"/>
+      <c r="C9" s="157"/>
       <c r="D9" s="30" t="s">
         <v>103</v>
       </c>
@@ -31087,9 +31087,9 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="165"/>
-      <c r="B10" s="163"/>
-      <c r="C10" s="163"/>
+      <c r="A10" s="156"/>
+      <c r="B10" s="157"/>
+      <c r="C10" s="157"/>
       <c r="D10" s="31"/>
       <c r="E10" s="32" t="s">
         <v>106</v>
@@ -31099,26 +31099,26 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="18.75">
-      <c r="A11" s="170" t="s">
+      <c r="A11" s="158" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="170"/>
-      <c r="C11" s="170"/>
-      <c r="D11" s="170"/>
-      <c r="E11" s="170"/>
-      <c r="F11" s="170"/>
+      <c r="B11" s="158"/>
+      <c r="C11" s="158"/>
+      <c r="D11" s="158"/>
+      <c r="E11" s="158"/>
+      <c r="F11" s="158"/>
     </row>
     <row r="12" spans="1:6" ht="30">
-      <c r="A12" s="165">
+      <c r="A12" s="156">
         <v>4</v>
       </c>
-      <c r="B12" s="163" t="s">
+      <c r="B12" s="157" t="s">
         <v>110</v>
       </c>
       <c r="C12" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="D12" s="163" t="s">
+      <c r="D12" s="157" t="s">
         <v>114</v>
       </c>
       <c r="E12" s="30" t="s">
@@ -31129,12 +31129,12 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="165"/>
-      <c r="B13" s="163"/>
+      <c r="A13" s="156"/>
+      <c r="B13" s="157"/>
       <c r="C13" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="D13" s="163"/>
+      <c r="D13" s="157"/>
       <c r="E13" s="32" t="s">
         <v>116</v>
       </c>
@@ -31143,34 +31143,34 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="165"/>
-      <c r="B14" s="163"/>
+      <c r="A14" s="156"/>
+      <c r="B14" s="157"/>
       <c r="C14" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="D14" s="163"/>
+      <c r="D14" s="157"/>
       <c r="E14" s="31"/>
       <c r="F14" s="34"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="165"/>
-      <c r="B15" s="163"/>
+      <c r="A15" s="156"/>
+      <c r="B15" s="157"/>
       <c r="C15" s="30"/>
-      <c r="D15" s="163"/>
+      <c r="D15" s="157"/>
       <c r="E15" s="31"/>
       <c r="F15" s="34"/>
     </row>
     <row r="16" spans="1:6" ht="30">
-      <c r="A16" s="165">
+      <c r="A16" s="156">
         <v>5</v>
       </c>
-      <c r="B16" s="163" t="s">
+      <c r="B16" s="157" t="s">
         <v>119</v>
       </c>
-      <c r="C16" s="163" t="s">
+      <c r="C16" s="157" t="s">
         <v>120</v>
       </c>
-      <c r="D16" s="163" t="s">
+      <c r="D16" s="157" t="s">
         <v>121</v>
       </c>
       <c r="E16" s="30" t="s">
@@ -31181,10 +31181,10 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="165"/>
-      <c r="B17" s="163"/>
-      <c r="C17" s="163"/>
-      <c r="D17" s="163"/>
+      <c r="A17" s="156"/>
+      <c r="B17" s="157"/>
+      <c r="C17" s="157"/>
+      <c r="D17" s="157"/>
       <c r="E17" s="32" t="s">
         <v>123</v>
       </c>
@@ -31196,13 +31196,13 @@
       <c r="A18" s="162">
         <v>6</v>
       </c>
-      <c r="B18" s="163" t="s">
+      <c r="B18" s="157" t="s">
         <v>125</v>
       </c>
-      <c r="C18" s="163" t="s">
+      <c r="C18" s="157" t="s">
         <v>126</v>
       </c>
-      <c r="D18" s="163" t="s">
+      <c r="D18" s="157" t="s">
         <v>127</v>
       </c>
       <c r="E18" s="30" t="s">
@@ -31214,9 +31214,9 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="162"/>
-      <c r="B19" s="163"/>
-      <c r="C19" s="163"/>
-      <c r="D19" s="163"/>
+      <c r="B19" s="157"/>
+      <c r="C19" s="157"/>
+      <c r="D19" s="157"/>
       <c r="E19" s="32" t="s">
         <v>129</v>
       </c>
@@ -31226,9 +31226,9 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="162"/>
-      <c r="B20" s="163"/>
-      <c r="C20" s="163"/>
-      <c r="D20" s="163"/>
+      <c r="B20" s="157"/>
+      <c r="C20" s="157"/>
+      <c r="D20" s="157"/>
       <c r="E20" s="30"/>
       <c r="F20" s="34"/>
     </row>
@@ -31236,13 +31236,13 @@
       <c r="A21" s="162">
         <v>7</v>
       </c>
-      <c r="B21" s="163" t="s">
+      <c r="B21" s="157" t="s">
         <v>131</v>
       </c>
-      <c r="C21" s="163" t="s">
+      <c r="C21" s="157" t="s">
         <v>132</v>
       </c>
-      <c r="D21" s="163" t="s">
+      <c r="D21" s="157" t="s">
         <v>133</v>
       </c>
       <c r="E21" s="30" t="s">
@@ -31254,9 +31254,9 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="162"/>
-      <c r="B22" s="163"/>
-      <c r="C22" s="163"/>
-      <c r="D22" s="163"/>
+      <c r="B22" s="157"/>
+      <c r="C22" s="157"/>
+      <c r="D22" s="157"/>
       <c r="E22" s="32" t="s">
         <v>135</v>
       </c>
@@ -31266,17 +31266,17 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="162"/>
-      <c r="B23" s="163"/>
-      <c r="C23" s="163"/>
-      <c r="D23" s="163"/>
+      <c r="B23" s="157"/>
+      <c r="C23" s="157"/>
+      <c r="D23" s="157"/>
       <c r="E23" s="30"/>
       <c r="F23" s="33"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="162"/>
-      <c r="B24" s="163"/>
-      <c r="C24" s="163"/>
-      <c r="D24" s="163"/>
+      <c r="B24" s="157"/>
+      <c r="C24" s="157"/>
+      <c r="D24" s="157"/>
       <c r="E24" s="31"/>
       <c r="F24" s="33"/>
     </row>
@@ -31284,13 +31284,13 @@
       <c r="A25" s="162">
         <v>8</v>
       </c>
-      <c r="B25" s="163" t="s">
+      <c r="B25" s="157" t="s">
         <v>138</v>
       </c>
-      <c r="C25" s="167" t="s">
+      <c r="C25" s="163" t="s">
         <v>139</v>
       </c>
-      <c r="D25" s="169" t="s">
+      <c r="D25" s="159" t="s">
         <v>140</v>
       </c>
       <c r="E25" s="30" t="s">
@@ -31302,9 +31302,9 @@
     </row>
     <row r="26" spans="1:6" ht="28.5">
       <c r="A26" s="162"/>
-      <c r="B26" s="163"/>
-      <c r="C26" s="167"/>
-      <c r="D26" s="169"/>
+      <c r="B26" s="157"/>
+      <c r="C26" s="163"/>
+      <c r="D26" s="159"/>
       <c r="E26" s="32" t="s">
         <v>142</v>
       </c>
@@ -31314,9 +31314,9 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="162"/>
-      <c r="B27" s="163"/>
-      <c r="C27" s="167"/>
-      <c r="D27" s="169"/>
+      <c r="B27" s="157"/>
+      <c r="C27" s="163"/>
+      <c r="D27" s="159"/>
       <c r="E27" s="31"/>
       <c r="F27" s="33"/>
     </row>
@@ -31330,13 +31330,13 @@
       <c r="C28" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="D28" s="163" t="s">
+      <c r="D28" s="157" t="s">
         <v>149</v>
       </c>
-      <c r="E28" s="163" t="s">
+      <c r="E28" s="157" t="s">
         <v>150</v>
       </c>
-      <c r="F28" s="168" t="s">
+      <c r="F28" s="161" t="s">
         <v>151</v>
       </c>
     </row>
@@ -31348,21 +31348,21 @@
       <c r="C29" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="D29" s="163"/>
-      <c r="E29" s="163"/>
-      <c r="F29" s="168"/>
+      <c r="D29" s="157"/>
+      <c r="E29" s="157"/>
+      <c r="F29" s="161"/>
     </row>
     <row r="30" spans="1:6" ht="30">
       <c r="A30" s="162">
         <v>10</v>
       </c>
-      <c r="B30" s="163" t="s">
+      <c r="B30" s="157" t="s">
         <v>152</v>
       </c>
-      <c r="C30" s="163" t="s">
+      <c r="C30" s="157" t="s">
         <v>153</v>
       </c>
-      <c r="D30" s="163" t="s">
+      <c r="D30" s="157" t="s">
         <v>154</v>
       </c>
       <c r="E30" s="30" t="s">
@@ -31374,9 +31374,9 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="162"/>
-      <c r="B31" s="163"/>
-      <c r="C31" s="163"/>
-      <c r="D31" s="163"/>
+      <c r="B31" s="157"/>
+      <c r="C31" s="157"/>
+      <c r="D31" s="157"/>
       <c r="E31" s="32" t="s">
         <v>156</v>
       </c>
@@ -31386,17 +31386,17 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="162"/>
-      <c r="B32" s="163"/>
-      <c r="C32" s="163"/>
-      <c r="D32" s="163"/>
+      <c r="B32" s="157"/>
+      <c r="C32" s="157"/>
+      <c r="D32" s="157"/>
       <c r="E32" s="31"/>
       <c r="F32" s="33"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="162"/>
-      <c r="B33" s="163"/>
-      <c r="C33" s="163"/>
-      <c r="D33" s="163"/>
+      <c r="B33" s="157"/>
+      <c r="C33" s="157"/>
+      <c r="D33" s="157"/>
       <c r="E33" s="31"/>
       <c r="F33" s="33"/>
     </row>
@@ -31404,13 +31404,13 @@
       <c r="A34" s="162">
         <v>11</v>
       </c>
-      <c r="B34" s="163" t="s">
+      <c r="B34" s="157" t="s">
         <v>159</v>
       </c>
       <c r="C34" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="D34" s="167" t="s">
+      <c r="D34" s="163" t="s">
         <v>162</v>
       </c>
       <c r="E34" s="35" t="s">
@@ -31422,11 +31422,11 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="162"/>
-      <c r="B35" s="163"/>
+      <c r="B35" s="157"/>
       <c r="C35" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="D35" s="167"/>
+      <c r="D35" s="163"/>
       <c r="E35" s="28" t="s">
         <v>164</v>
       </c>
@@ -31436,9 +31436,9 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="162"/>
-      <c r="B36" s="163"/>
+      <c r="B36" s="157"/>
       <c r="C36" s="31"/>
-      <c r="D36" s="167"/>
+      <c r="D36" s="163"/>
       <c r="E36" s="31"/>
       <c r="F36" s="36"/>
     </row>
@@ -31446,13 +31446,13 @@
       <c r="A37" s="162">
         <v>12</v>
       </c>
-      <c r="B37" s="163" t="s">
+      <c r="B37" s="157" t="s">
         <v>166</v>
       </c>
       <c r="C37" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="D37" s="163" t="s">
+      <c r="D37" s="157" t="s">
         <v>169</v>
       </c>
       <c r="E37" s="30" t="s">
@@ -31464,11 +31464,11 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="162"/>
-      <c r="B38" s="163"/>
+      <c r="B38" s="157"/>
       <c r="C38" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="D38" s="163"/>
+      <c r="D38" s="157"/>
       <c r="E38" s="32" t="s">
         <v>171</v>
       </c>
@@ -31478,17 +31478,17 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="162"/>
-      <c r="B39" s="163"/>
+      <c r="B39" s="157"/>
       <c r="C39" s="30"/>
-      <c r="D39" s="163"/>
+      <c r="D39" s="157"/>
       <c r="E39" s="31"/>
       <c r="F39" s="33"/>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="162"/>
-      <c r="B40" s="163"/>
+      <c r="B40" s="157"/>
       <c r="C40" s="31"/>
-      <c r="D40" s="163"/>
+      <c r="D40" s="157"/>
       <c r="E40" s="31"/>
       <c r="F40" s="33"/>
     </row>
@@ -31496,41 +31496,41 @@
       <c r="A41" s="162">
         <v>13</v>
       </c>
-      <c r="B41" s="163" t="s">
+      <c r="B41" s="157" t="s">
         <v>173</v>
       </c>
       <c r="C41" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="D41" s="164" t="s">
+      <c r="D41" s="174" t="s">
         <v>176</v>
       </c>
       <c r="E41" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="F41" s="166">
+      <c r="F41" s="160">
         <v>89635065816</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="162"/>
-      <c r="B42" s="163"/>
+      <c r="B42" s="157"/>
       <c r="C42" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="D42" s="164"/>
+      <c r="D42" s="174"/>
       <c r="E42" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="F42" s="166"/>
+      <c r="F42" s="160"/>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="162"/>
-      <c r="B43" s="163"/>
+      <c r="B43" s="157"/>
       <c r="C43" s="30"/>
-      <c r="D43" s="164"/>
+      <c r="D43" s="174"/>
       <c r="E43" s="31"/>
-      <c r="F43" s="166"/>
+      <c r="F43" s="160"/>
     </row>
     <row r="44" spans="1:6" ht="18.75">
       <c r="A44" s="37" t="s">
@@ -31546,13 +31546,13 @@
       <c r="A45" s="162">
         <v>14</v>
       </c>
-      <c r="B45" s="163" t="s">
+      <c r="B45" s="157" t="s">
         <v>180</v>
       </c>
       <c r="C45" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="D45" s="163" t="s">
+      <c r="D45" s="157" t="s">
         <v>183</v>
       </c>
       <c r="E45" s="30" t="s">
@@ -31564,11 +31564,11 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="162"/>
-      <c r="B46" s="163"/>
+      <c r="B46" s="157"/>
       <c r="C46" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="D46" s="163"/>
+      <c r="D46" s="157"/>
       <c r="E46" s="32" t="s">
         <v>185</v>
       </c>
@@ -31578,9 +31578,9 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="162"/>
-      <c r="B47" s="163"/>
+      <c r="B47" s="157"/>
       <c r="C47" s="30"/>
-      <c r="D47" s="163"/>
+      <c r="D47" s="157"/>
       <c r="E47" s="31"/>
       <c r="F47" s="34"/>
     </row>
@@ -31588,7 +31588,7 @@
       <c r="A48" s="162">
         <v>15</v>
       </c>
-      <c r="B48" s="163" t="s">
+      <c r="B48" s="157" t="s">
         <v>188</v>
       </c>
       <c r="C48" s="30" t="s">
@@ -31606,7 +31606,7 @@
     </row>
     <row r="49" spans="1:6" ht="28.5">
       <c r="A49" s="162"/>
-      <c r="B49" s="163"/>
+      <c r="B49" s="157"/>
       <c r="C49" s="30" t="s">
         <v>190</v>
       </c>
@@ -31622,7 +31622,7 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="162"/>
-      <c r="B50" s="163"/>
+      <c r="B50" s="157"/>
       <c r="C50" s="30" t="s">
         <v>191</v>
       </c>
@@ -31634,13 +31634,13 @@
       <c r="A51" s="162">
         <v>16</v>
       </c>
-      <c r="B51" s="163" t="s">
+      <c r="B51" s="157" t="s">
         <v>198</v>
       </c>
       <c r="C51" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="D51" s="163" t="s">
+      <c r="D51" s="157" t="s">
         <v>201</v>
       </c>
       <c r="E51" s="30" t="s">
@@ -31652,11 +31652,11 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="162"/>
-      <c r="B52" s="163"/>
+      <c r="B52" s="157"/>
       <c r="C52" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="D52" s="163"/>
+      <c r="D52" s="157"/>
       <c r="E52" s="32" t="s">
         <v>203</v>
       </c>
@@ -31675,16 +31675,16 @@
       <c r="F53" s="39"/>
     </row>
     <row r="54" spans="1:6" ht="30">
-      <c r="A54" s="156">
+      <c r="A54" s="164">
         <v>17</v>
       </c>
-      <c r="B54" s="157" t="s">
+      <c r="B54" s="165" t="s">
         <v>207</v>
       </c>
       <c r="C54" s="42" t="s">
         <v>208</v>
       </c>
-      <c r="D54" s="158" t="s">
+      <c r="D54" s="166" t="s">
         <v>210</v>
       </c>
       <c r="E54" s="42" t="s">
@@ -31695,12 +31695,12 @@
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="156"/>
-      <c r="B55" s="157"/>
+      <c r="A55" s="164"/>
+      <c r="B55" s="165"/>
       <c r="C55" s="42" t="s">
         <v>209</v>
       </c>
-      <c r="D55" s="158"/>
+      <c r="D55" s="166"/>
       <c r="E55" s="44" t="s">
         <v>212</v>
       </c>
@@ -31751,10 +31751,10 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="15.75">
-      <c r="A73" s="150" t="s">
+      <c r="A73" s="170" t="s">
         <v>226</v>
       </c>
-      <c r="B73" s="152" t="s">
+      <c r="B73" s="172" t="s">
         <v>38</v>
       </c>
       <c r="C73" s="48" t="s">
@@ -31765,8 +31765,8 @@
       </c>
     </row>
     <row r="74" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A74" s="151"/>
-      <c r="B74" s="153"/>
+      <c r="A74" s="171"/>
+      <c r="B74" s="173"/>
       <c r="C74" s="49" t="s">
         <v>228</v>
       </c>
@@ -31775,8 +31775,8 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="15.75">
-      <c r="A75" s="150"/>
-      <c r="B75" s="152" t="s">
+      <c r="A75" s="170"/>
+      <c r="B75" s="172" t="s">
         <v>231</v>
       </c>
       <c r="C75" s="48" t="s">
@@ -31787,8 +31787,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="15.75">
-      <c r="A76" s="154"/>
-      <c r="B76" s="155"/>
+      <c r="A76" s="175"/>
+      <c r="B76" s="176"/>
       <c r="C76" s="48" t="s">
         <v>233</v>
       </c>
@@ -31797,16 +31797,16 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A77" s="151"/>
-      <c r="B77" s="153"/>
+      <c r="A77" s="171"/>
+      <c r="B77" s="173"/>
       <c r="C77" s="52"/>
       <c r="D77" s="51" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15.75">
-      <c r="A78" s="152"/>
-      <c r="B78" s="152" t="s">
+      <c r="A78" s="172"/>
+      <c r="B78" s="172" t="s">
         <v>237</v>
       </c>
       <c r="C78" s="48" t="s">
@@ -31817,8 +31817,8 @@
       </c>
     </row>
     <row r="79" spans="1:4" ht="15.75">
-      <c r="A79" s="155"/>
-      <c r="B79" s="155"/>
+      <c r="A79" s="176"/>
+      <c r="B79" s="176"/>
       <c r="C79" s="48" t="s">
         <v>239</v>
       </c>
@@ -31827,24 +31827,24 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="15.75">
-      <c r="A80" s="155"/>
-      <c r="B80" s="155"/>
+      <c r="A80" s="176"/>
+      <c r="B80" s="176"/>
       <c r="C80" s="53"/>
       <c r="D80" s="50" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A81" s="153"/>
-      <c r="B81" s="153"/>
+      <c r="A81" s="173"/>
+      <c r="B81" s="173"/>
       <c r="C81" s="52"/>
       <c r="D81" s="51" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15.75">
-      <c r="A82" s="152"/>
-      <c r="B82" s="152" t="s">
+      <c r="A82" s="172"/>
+      <c r="B82" s="172" t="s">
         <v>244</v>
       </c>
       <c r="C82" s="48" t="s">
@@ -31855,8 +31855,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A83" s="153"/>
-      <c r="B83" s="153"/>
+      <c r="A83" s="173"/>
+      <c r="B83" s="173"/>
       <c r="C83" s="49" t="s">
         <v>246</v>
       </c>
@@ -31877,48 +31877,48 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="15.75">
-      <c r="A85" s="152"/>
+      <c r="A85" s="172"/>
       <c r="B85" s="48" t="s">
         <v>252</v>
       </c>
       <c r="C85" s="48" t="s">
         <v>254</v>
       </c>
-      <c r="D85" s="152" t="s">
+      <c r="D85" s="172" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A86" s="153"/>
+      <c r="A86" s="173"/>
       <c r="B86" s="49" t="s">
         <v>253</v>
       </c>
       <c r="C86" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="D86" s="153"/>
+      <c r="D86" s="173"/>
     </row>
     <row r="87" spans="1:4" ht="15.75">
-      <c r="A87" s="152"/>
+      <c r="A87" s="172"/>
       <c r="B87" s="48" t="s">
         <v>257</v>
       </c>
       <c r="C87" s="48" t="s">
         <v>258</v>
       </c>
-      <c r="D87" s="152" t="s">
+      <c r="D87" s="172" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A88" s="153"/>
+      <c r="A88" s="173"/>
       <c r="B88" s="49" t="s">
         <v>253</v>
       </c>
       <c r="C88" s="49" t="s">
         <v>259</v>
       </c>
-      <c r="D88" s="153"/>
+      <c r="D88" s="173"/>
     </row>
     <row r="89" spans="1:4" ht="32.25" thickBot="1">
       <c r="A89" s="49"/>
@@ -31995,32 +31995,32 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="15.75">
-      <c r="A95" s="150" t="s">
+      <c r="A95" s="170" t="s">
         <v>277</v>
       </c>
-      <c r="B95" s="152" t="s">
+      <c r="B95" s="172" t="s">
         <v>278</v>
       </c>
       <c r="C95" s="48" t="s">
         <v>279</v>
       </c>
-      <c r="D95" s="152" t="s">
+      <c r="D95" s="172" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A96" s="151"/>
-      <c r="B96" s="153"/>
+      <c r="A96" s="171"/>
+      <c r="B96" s="173"/>
       <c r="C96" s="55">
         <v>40868</v>
       </c>
-      <c r="D96" s="153"/>
+      <c r="D96" s="173"/>
     </row>
     <row r="97" spans="1:4" ht="15.75">
-      <c r="A97" s="150" t="s">
+      <c r="A97" s="170" t="s">
         <v>281</v>
       </c>
-      <c r="B97" s="152" t="s">
+      <c r="B97" s="172" t="s">
         <v>282</v>
       </c>
       <c r="C97" s="48" t="s">
@@ -32031,8 +32031,8 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A98" s="151"/>
-      <c r="B98" s="153"/>
+      <c r="A98" s="171"/>
+      <c r="B98" s="173"/>
       <c r="C98" s="49" t="s">
         <v>284</v>
       </c>
@@ -32041,24 +32041,24 @@
       </c>
     </row>
     <row r="99" spans="1:4" ht="15.75">
-      <c r="A99" s="152"/>
-      <c r="B99" s="152" t="s">
+      <c r="A99" s="172"/>
+      <c r="B99" s="172" t="s">
         <v>287</v>
       </c>
       <c r="C99" s="48" t="s">
         <v>288</v>
       </c>
-      <c r="D99" s="152" t="s">
+      <c r="D99" s="172" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A100" s="153"/>
-      <c r="B100" s="153"/>
+      <c r="A100" s="173"/>
+      <c r="B100" s="173"/>
       <c r="C100" s="49" t="s">
         <v>289</v>
       </c>
-      <c r="D100" s="153"/>
+      <c r="D100" s="173"/>
     </row>
     <row r="101" spans="1:4" ht="16.5" thickBot="1">
       <c r="A101" s="54" t="s">
@@ -32113,26 +32113,26 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="15.75">
-      <c r="A105" s="150" t="s">
+      <c r="A105" s="170" t="s">
         <v>304</v>
       </c>
-      <c r="B105" s="152" t="s">
+      <c r="B105" s="172" t="s">
         <v>305</v>
       </c>
       <c r="C105" s="48" t="s">
         <v>306</v>
       </c>
-      <c r="D105" s="152" t="s">
+      <c r="D105" s="172" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A106" s="151"/>
-      <c r="B106" s="153"/>
+      <c r="A106" s="171"/>
+      <c r="B106" s="173"/>
       <c r="C106" s="49" t="s">
         <v>307</v>
       </c>
-      <c r="D106" s="153"/>
+      <c r="D106" s="173"/>
     </row>
     <row r="107" spans="1:4" ht="16.5" thickBot="1">
       <c r="A107" s="54" t="s">
@@ -32149,92 +32149,92 @@
       </c>
     </row>
     <row r="108" spans="1:4" ht="15.75">
-      <c r="A108" s="150" t="s">
+      <c r="A108" s="170" t="s">
         <v>313</v>
       </c>
-      <c r="B108" s="152" t="s">
+      <c r="B108" s="172" t="s">
         <v>314</v>
       </c>
       <c r="C108" s="48" t="s">
         <v>315</v>
       </c>
-      <c r="D108" s="152" t="s">
+      <c r="D108" s="172" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A109" s="151"/>
-      <c r="B109" s="153"/>
+      <c r="A109" s="171"/>
+      <c r="B109" s="173"/>
       <c r="C109" s="55">
         <v>13537</v>
       </c>
-      <c r="D109" s="153"/>
+      <c r="D109" s="173"/>
     </row>
     <row r="110" spans="1:4" ht="15.75">
-      <c r="A110" s="150" t="s">
+      <c r="A110" s="170" t="s">
         <v>317</v>
       </c>
-      <c r="B110" s="152" t="s">
+      <c r="B110" s="172" t="s">
         <v>278</v>
       </c>
       <c r="C110" s="48" t="s">
         <v>318</v>
       </c>
-      <c r="D110" s="152" t="s">
+      <c r="D110" s="172" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A111" s="151"/>
-      <c r="B111" s="153"/>
+      <c r="A111" s="171"/>
+      <c r="B111" s="173"/>
       <c r="C111" s="55">
         <v>26045</v>
       </c>
-      <c r="D111" s="153"/>
+      <c r="D111" s="173"/>
     </row>
     <row r="112" spans="1:4" ht="15.75">
-      <c r="A112" s="150" t="s">
+      <c r="A112" s="170" t="s">
         <v>320</v>
       </c>
-      <c r="B112" s="152" t="s">
+      <c r="B112" s="172" t="s">
         <v>278</v>
       </c>
       <c r="C112" s="48" t="s">
         <v>321</v>
       </c>
-      <c r="D112" s="152" t="s">
+      <c r="D112" s="172" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A113" s="151"/>
-      <c r="B113" s="153"/>
+      <c r="A113" s="171"/>
+      <c r="B113" s="173"/>
       <c r="C113" s="49" t="s">
         <v>322</v>
       </c>
-      <c r="D113" s="153"/>
+      <c r="D113" s="173"/>
     </row>
     <row r="114" spans="1:4" ht="15.75">
-      <c r="A114" s="150" t="s">
+      <c r="A114" s="170" t="s">
         <v>324</v>
       </c>
-      <c r="B114" s="152" t="s">
+      <c r="B114" s="172" t="s">
         <v>278</v>
       </c>
       <c r="C114" s="48" t="s">
         <v>325</v>
       </c>
-      <c r="D114" s="152" t="s">
+      <c r="D114" s="172" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A115" s="151"/>
-      <c r="B115" s="153"/>
+      <c r="A115" s="171"/>
+      <c r="B115" s="173"/>
       <c r="C115" s="49" t="s">
         <v>326</v>
       </c>
-      <c r="D115" s="153"/>
+      <c r="D115" s="173"/>
     </row>
     <row r="116" spans="1:4" ht="16.5" thickBot="1">
       <c r="A116" s="54" t="s">
@@ -32265,7 +32265,7 @@
       </c>
     </row>
     <row r="118" spans="1:4" ht="15.75">
-      <c r="A118" s="150" t="s">
+      <c r="A118" s="170" t="s">
         <v>333</v>
       </c>
       <c r="B118" s="48" t="s">
@@ -32274,41 +32274,41 @@
       <c r="C118" s="48" t="s">
         <v>336</v>
       </c>
-      <c r="D118" s="152" t="s">
+      <c r="D118" s="172" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A119" s="151"/>
+      <c r="A119" s="171"/>
       <c r="B119" s="49" t="s">
         <v>335</v>
       </c>
       <c r="C119" s="49" t="s">
         <v>337</v>
       </c>
-      <c r="D119" s="153"/>
+      <c r="D119" s="173"/>
     </row>
     <row r="120" spans="1:4" ht="15.75">
-      <c r="A120" s="150" t="s">
+      <c r="A120" s="170" t="s">
         <v>339</v>
       </c>
-      <c r="B120" s="152" t="s">
+      <c r="B120" s="172" t="s">
         <v>278</v>
       </c>
       <c r="C120" s="48" t="s">
         <v>340</v>
       </c>
-      <c r="D120" s="152" t="s">
+      <c r="D120" s="172" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A121" s="151"/>
-      <c r="B121" s="153"/>
+      <c r="A121" s="171"/>
+      <c r="B121" s="173"/>
       <c r="C121" s="49" t="s">
         <v>341</v>
       </c>
-      <c r="D121" s="153"/>
+      <c r="D121" s="173"/>
     </row>
     <row r="122" spans="1:4" ht="16.5" thickBot="1">
       <c r="A122" s="54" t="s">
@@ -32329,45 +32329,44 @@
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="F41:F43"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="D37:D40"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
     <mergeCell ref="A54:A55"/>
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="D54:D55"/>
@@ -32392,44 +32391,45 @@
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="D18:D20"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="D37:D40"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="mailto:spshkul_3@mail.ru"/>
